--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Canonical" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Disguised" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Other keturunan" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="710">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -559,13 +559,13 @@
     <t xml:space="preserve">Prabu</t>
   </si>
   <si>
-    <t xml:space="preserve">Known as Balarama, he is the elder brother of Krishna. He is also believed to be the reincarnation of Adisesha (The Snake who function as the bed for Lord Vishnu to rest on). He is known to have taught Bhima and Duryodhana the art of fighting with the mace. He is often depicted carrying a plough as well.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brother of Kresna, also known as Kakrasana, and Wai Jaladara after becoming pendeta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wasi Jaladara, Kakrasana, Karsana, Kusuma Walikita, Curiganata</t>
+    <t xml:space="preserve">Known as Balarama, he is the elder brother of Krishna. He is also believed to be the reincarnation of Adisesha (the Snake who functions as a bed for Lord Vishnu to rest on). He is known to have taught Bhima and Duryodhana the art of fighting with the mace. He is often depicted carrying a plough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although commonly said to be Kresna's brother, some sources have him as a son of [Dewani], adopted by [Rohini]. He was known as Kakrasana in his youth. He commanded a defense against [Kangsa], who attacked his kingdom. He was tasked by the Gods with defeating Arya [Yuda_Kothi], who has attacking the heavens. After accomplishing this mission, he was granted several gifts and given the name Baladewa. Then became known as Wasi Jaladara when he became a hermit at Grojogansewu. He lived a long life and was the caretaker of [Parikesit]. He was an incarnation of Dewa Basuki. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaladara, Kakrasana, Karsana, Kusuma Walikita, Curiganata</t>
   </si>
   <si>
     <t xml:space="preserve">Rohini</t>
@@ -577,16 +577,52 @@
     <t xml:space="preserve">Kresna</t>
   </si>
   <si>
+    <t xml:space="preserve">Erawati:Wisata,Wilmuka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandaraka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alugora, Nanggala, Puspadenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilat, Bangbang wetan, Geger, Kaget, Sembada, Paripeksa, Rayung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76-77; 259-261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136-137</t>
+  </si>
+  <si>
     <t xml:space="preserve">Banowati</t>
   </si>
   <si>
     <t xml:space="preserve">Known as Banumathi, wife of Duryodhana. In the Indian Mahabharata she is depicted as a chaste wife. There is a story where Karna and Banumathi play chess and Banumathi leaves halfway through the game. While Karna tries to reach out his hand to make her continue the game, he accidentally pulls her waist chain and the pearls scatter on the floor. Duryodhana appears at this scene and Karna and Banumati feel embarrased. Duryodhana, instead of suspecting his friend and wife trusts them and this trust is depicted through his act of picking up the pearls of Banumati's waist chain.</t>
   </si>
   <si>
-    <t xml:space="preserve">Marries Duryudhana, but is secretely in love with Arjuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banumati</t>
+    <t xml:space="preserve">Banowati marries [Duryudana] but is in love with Arjuna. She often conveys sensitive information of the Kurawa faction to the Pandawas. She marries Arjuna after the Baratayuda war is over. This leads to her assassination by [Aswatama].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banumati, Banuwati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pujawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duryudana:Bomanarakasura,Leksmanawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aswatama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golek, Berok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246-247</t>
   </si>
   <si>
     <t xml:space="preserve">Bantala</t>
@@ -598,7 +634,29 @@
     <t xml:space="preserve">Not mentioned in the Indian Mahabharata.</t>
   </si>
   <si>
-    <t xml:space="preserve">One of the brothers of Wibisana in Wahyu Mahkutarama. HY: Personifikasi sifat anasir manusia (komposisi alam yang membentuk manusia) Bantala dari unsur tanah. Dia melambangkan nafsu lawama (nafsu keduniawan). Disimbolkan dengan warna hitam (meskipun raksasa tidak berwarna hitam).</t>
+    <t xml:space="preserve">One of the brothers of Wibisana in Wahyu Makutharama. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">One of the brothers of Wibisana in /Wahyu Makutharama/. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Ubuntu"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">He represents the earth, and is one of several characters that constitute anthropomorphic representations of natural elements.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Barata</t>
@@ -607,22 +665,23 @@
     <t xml:space="preserve">Son of King Dasharata and Queen Kaikeyi. His brothers are Rama, Lakshmana and Shatrughuna.</t>
   </si>
   <si>
-    <t xml:space="preserve">Son of Dasarata, king of Ayodya and Dewi Kekayi. Has brothers named Satrugna and Dewi K?. Also half-borther Rama and Leksmana (From Kausalya). </t>
+    <t xml:space="preserve">
+He becomes king of Ayodya when [Rama] is exiled to the forest. There is another Barata in the Mahabharata. This Barata is a son of Duswanta and Sakuntala and an ancestor of [Bisma] (12 generations up the family tree). </t>
   </si>
   <si>
     <t xml:space="preserve">Kekayi</t>
   </si>
   <si>
-    <t xml:space="preserve">Dasarata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satrugna, Kwakwa, Rama, Lesmana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vasudeva, biological father of Lord Krishna. His wife is Devaki, sister of the evil King Kamsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has four wives: Rohini (Baladewa), Dewaki(Kresna), Badrahini(RaraIreng) and Maerah. He fathers Arya Udawa with Ken Sagupi out of wedlock.</t>
+    <t xml:space="preserve">Destarastra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satrugna, Kawakwa, Rama, Lesmana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasudeva is the biological father of Lord Krishna. His wife is Devaki, sister of the evil King Kamsa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A central character in the Mahabharata. His sons and siblings all play major roles as well. He fathers Arya [Udawa] with [Ken_Sagupi] out of wedlock. He is impersonated by [Gorawangsa], who then fathers [Kangsa] with [Maerah].</t>
   </si>
   <si>
     <t xml:space="preserve">Kuntiboja</t>
@@ -631,19 +690,37 @@
     <t xml:space="preserve">Kunti, Bismaka, Ugrasena</t>
   </si>
   <si>
-    <t xml:space="preserve">Dewaki, Maerah(Mahindra),Badrahini,KenSagupi</t>
+    <t xml:space="preserve">Mahindra: Kresna, Baladewa; Maerah:x; Badrahini: Rara_Ireng; Ken_Sagupi:Udawa</t>
   </si>
   <si>
     <t xml:space="preserve">Kresna,Baladewa,RaraIreng = Bratajaya,Udawa</t>
   </si>
   <si>
+    <t xml:space="preserve">Mandura</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gorawangsa</t>
   </si>
   <si>
     <t xml:space="preserve">Vayudeva, the god of the winds. Father of Bhima and Hanuman.</t>
   </si>
   <si>
-    <t xml:space="preserve">God of the wind. Bestows Kuku Pancanaka onto Werkudara.</t>
+    <t xml:space="preserve">God of the wind. Anoman and Kresna are his descendants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyang Pawana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumi: Sumarma, Sangkara, Sadarma, Bismakara, Drupada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panglawung</t>
   </si>
   <si>
     <t xml:space="preserve">_Raksasa2</t>
@@ -652,22 +729,61 @@
     <t xml:space="preserve">Bendana</t>
   </si>
   <si>
-    <t xml:space="preserve">He is the son of Prabu Arimbaka (king of Pringgandani) and Dewi Hidimba. His siblings include Arima/Hidimba, Arimbi, Brajadentha, Brajalamatan, Brajawikalpa and Kalbendana. //Ada versi berbeda. Di Surakarta, anaknya prabu trembaka (punya anak Arimba, Arimbi, Brajadentha, Brajamusthi, Brajalamatan, Barajawikalpa). Punya disabilitas. //Versi Yogya: Arimbaka anaknya Arimba.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhisma</t>
+    <t xml:space="preserve">He is the son of Arimbaka (also known as Trimbaka or Trembaka in the Surakarta tradition). Kala Bendana was very fond of the young [Gatotkaca]. However, Kala Bendana was the one who told Dewi [Utari] that [Abimanyu] was seeking [Siti_Sundari]'s hand in marriage. As a result of this, [Utari] laid a course on [Abimanyu]. When this happened, [Gatotkaca] was so angered that he killed Kala Bendana. Bendana avenged his death when his spirit helped [Karna] kill [Gatotkaca] during the Bartayuda war. In the Yogyakarta, Kala Bendana and Kala Katung are separate characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalakatung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidimba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arimba, Arimbi, Brajadentha, Brajalamatan, Brajawikalpa, Kalbendana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266-268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korawa</t>
   </si>
   <si>
     <t xml:space="preserve">Known as Grandsire Bhishma, he is the elder son of Shantanu and step son of Satyavati.</t>
   </si>
   <si>
-    <t xml:space="preserve">He teaches both Pandawa and Korawa. Son of Santanu and Dewi Gangga.</t>
+    <t xml:space="preserve">He teaches both Pandawa and Korawa. He accidentally kills Dewi [Amba] and is killed by [Srikandi], and incarnation of [Amba] during the Baratayuda war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dewabrata, Jahnawi_Suta, Ganggadatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santanu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srikandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123-124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119-120</t>
   </si>
   <si>
     <t xml:space="preserve">Bilung</t>
   </si>
   <si>
-    <t xml:space="preserve">Mbilung</t>
+    <t xml:space="preserve">Together with [Bilung] he becomes a /panakawan/ from the opposing kingdom [/negara sabrang/].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbilung, Sarawita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rangah, Cemeng, To'on</t>
   </si>
   <si>
     <t xml:space="preserve">Bisawarna</t>
@@ -676,7 +792,25 @@
     <t xml:space="preserve">Prabu, Begawan</t>
   </si>
   <si>
-    <t xml:space="preserve">Son of Wibisana in Wahyu Makutharama.</t>
+    <t xml:space="preserve">Not found in the Indian Mahabharata or Ramayana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Wibisana, who succeeds Rahwana in throne of Alengka (at which point the kingdom's name changes to Singgelapura). Bisawarna eventually becomes king of Singgelapura as well. He died of old age and was burried in Kutarunggu, next to Ramawijaya and Wibisana. There is another character named Biswarna, who is the son of Wisrawa and Lokati. He is also known as Wisrawa and Wisrawana. His siblings are Rahwana, Kumbakarna and Sarpakenaka. This Wisawarna is killed by Desamuka. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentawilulkrama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triwati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wibisana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balai Kencana Soka Domas, Kereta Jatisura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121-122</t>
   </si>
   <si>
     <t xml:space="preserve">Bismaka</t>
@@ -697,7 +831,7 @@
     <t xml:space="preserve">Basudewa, Kunti, Ugrasena</t>
   </si>
   <si>
-    <t xml:space="preserve">Rumbini, Ken Sagopi</t>
+    <t xml:space="preserve">Rumbini:Rukmara, Rukmana; Ken Sagopi: Rarasati</t>
   </si>
   <si>
     <t xml:space="preserve">Rukmini, Rukmana, Rarasati</t>
@@ -709,918 +843,1095 @@
     <t xml:space="preserve">Yudasmara</t>
   </si>
   <si>
+    <t xml:space="preserve">64-65</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bomanarakasura</t>
   </si>
   <si>
     <t xml:space="preserve">Neutral</t>
   </si>
   <si>
-    <t xml:space="preserve">Kesatria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Narakasura. He is born to Vishnu and Bhoomidevi (Goddess of Earth). He is believed to be born during the time where Vishnu to the form of Varaha (Boar) to save Bhoomidevi when she was held captive by the demon Hiranyayaksha. Narakasura is said to have been vanquished by Lord Krishna and his consort Satyabhama.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Asura Naraka.  Son of Kresna (Wisnu) and Pertiwi. Known as Sitija in his youth. After fighting the demon Bomantara, he changes his name and absorbs some of the qualities of his erstwhile enemy. Brother of Siti Sendari. He is killed by Kresna (incarnation of Wisnu). Basudewa dies when Narakasura invades Mandura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asura Naraka, Sitija</t>
+    <t xml:space="preserve">Kesatria, Bambang, Prabu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Known as Narakasura. He was born to Vishnu and Bhoomidevi (Goddess of Earth). He was born during </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="FreeSans"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the time where Vishnu took the form of Varaha (Boar) to save Bhoomidevi, who was held captive by the demon Hiranyayaksha. Narakasura was vanquished by Lord Krishna and his consort Satyabhama</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Asura Naraka.  Son of [Kresna] (Wisnu) and [Pertiwi]. Known as Sitija in his youth. After fighting the demon [Bomantara], he changed his name and absorbed some of the qualities of his erstwhile enemy. He was killed by [Kresna]. [Basudewa] died when Bomanarakasura invaded Mandura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asura Naraka, Sitija, Suteja, Seteja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pertiwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siti_Sendari, Samba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagnyanawati: Watubaji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aji Pangasonabumi, Puska Wijayamulya, Garuda Wilumna, Pusaka Wijayakusuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125; 484-847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147-148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahma</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Brahma is the son of Vishnu. He emerges out of his navel seated on a lotus. His </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="FreeSans"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">consort is Saraswati, goddess of education.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+God of fire and teacher of [Baladewa]. He descended to the world of the mortals [/ngejawantah/] and reigned the kingdom of Gilingwesi after Watugunung passed away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saci: Maricibrama, Naradabrama; Sarasyati: Bramanasa, Bramasadewa, Bramanasadara, Bramarakanda, Bramanaresi; Raraswati: Bramani, Bramanisri, Bramaniskala, Bramanayara, Bramanasita, Bramaniyari, Bramaniyodi, Bramanayana, Bramaniyata, Bramanasatama, Bramanayekti, Bramaniyuta, Dresanala, Dresawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilingwesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125-127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brajadhenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the third son of Prabu [Arimbaka] (king of Pringgandani) and Dewi [Hadimba]. He opposes [Gatotkaca] becoming king of Pringgandani, and dies in armed conflict against him. His brothers [Brajalamatan] and [Brajawikalpa] suffer the same fate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arimba, Arimbi, Brajamusthi, Brajalamatan, Brajawikalpa, Bendana, Prabakeswa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brajamusthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is a son of Prabu Arimbaka (king of Pringgandani) and Dewi Hadimba. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Arimba, Arimbi, Brajadhenta, Brajalamatan, Brajawikalpa, Bendana,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Prabakeswa</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrarata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renuka Devi admired a gandharva who passed by while she was fetching water from the river. As a result she lost the powers she had gained by being a chaste wife.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dewi Renuka falls in love with him, even though she was already amrreied to Maharesi Jamadagni. He is finally killed by Rama Bargawa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiyati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalantaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrasena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gandarwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chitrasena is a gandharva who is cursed by Lord Krishna when he accidentaly desecrates the abulations that a sage was making to the Sun God. He saved by Arjuna in the end.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">No character named Citrasena is found in the consulted </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">encyclopedias.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalanjaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daryamaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Described as a brother of Nindyamaya ([Werkudara]) in /Suksma Langgeng/. He is an anthropomorphic representation of natural elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dersanala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of [Wisanggeni] with Arjuna. Daughter of [Brama], who wants her to marry [Dewasrani].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arjuna:Wisanggeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisanggeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desamuka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dasamukha is another name for Ravana in the Ramayana. It means "10 faces."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the antagonist in the Ramayana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dasamuka, Rahwana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sukesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisrawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarpakenaka, Kumbakarna, Wibisana, Danaraja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tari: Indrajit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alengka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candrasa, Pancasona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godhayitma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sembada, Pamuk, Gonteng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151-154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Dhristirashtra. Born to Ambika, one of the queens to Vichitraveerya. It is to be noted that due to Vichitraveerya passing away before having any children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blind since birth. He was temporarily king of Astina, before the crown was passed on to his son [Duryudana], the eldest of the 100 Korawa. He died at the end of the Baratayuda war. Upon learning the fate of this sons, he went to a forest and was killed in a fire, together with his wife and [Kunti]. An alternative version of his birth has him as the son of [Citragada]. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drestarastra, Dritarastra, Dastarastra, Kuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandu, Widura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gendari: {100 Korawa}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aji Lebursaketi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164-168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156-157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dewaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Devaki, the princess of Mathura. After her marriage with Vasudeva, the aakashavani (divine prophecy from the skies) announced that Kamsa (her brother) would die at the hands of her eight child. Upon hearing this, Kamsa imprisoned both Devaki and Vasudewa and killed every child born to them. He was unsuccessful in killing the 7th and 8th child of the couple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of Kresna and Baladewa. In some retellings, the mother of these two characters is Maerah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohini, Mahindra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basudewa: Kresna, Baladewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">328-329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dewa_Ruci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A God of small size that explains the meaning of life to [Werkudara]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marbudengrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179-180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dewasrani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahma wants him to marry his daughter [Dresanala].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pramoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunggulmalaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhadhungawuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He takes care of 40 buffaloes for Batari [Durga] at the Kendrawahana / Kendrayana forest. They are all balck with white legs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhamdharat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senopati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of Guwa Siluman who tries to help the Korawa kill Puntadewa.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhandhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Demon, younger brother of queen Prabu Kencana Wulan who helps Puntadewa escpae an assasination attempt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhandhonwacana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as JIM DANDUNWACANA. Mretani (Amarta) Jim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drestarastra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhirtirashtra is the biological son of Veda Vyasa and Ambika. It is said that when Ambika saw Veda Vyasa, she was afraid by his appearance that she closed her eyes causing Dhirtirashtra to be born blind. He ruled as the King of Hastinapur as Pandu gives up his crown and retires to the forest with his wives due to the feeling of devastation upon receiving a curse from a sage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Wicitrawirya's widow Ambika (who got pregnant from an upacara). Pandu is his younger half-brother (son of Ambalika), together with Widura. With Gandari he becomes the father of the Korawa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drupadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Draupadi. She is also known as Panchali. She is considered an ayonija (she who is not born out of a mother) as she emerges out of the yagna fire, therefore considered powerful and pure. She is married to all five Pandhava in the Indian version.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wife of Yudhistira. Daughter of Drupada (same as Srikandi), mother of Pancawala.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Druwasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sage Durvasa a reknowned sage who is also known for his short temper. Heis said to have been impressed by Kunti's hospitality when he came to Kuntibhoja's palace. He taught her a mantra that would enable her to give her son the qualities of the deity she evoked with it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begawan in Mandura. Teacher of Kunti, he helps her give birth to Karna. // sama dengan surya. Jelmaan dari Surya. Ayahnya Karna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as the goddess who killed Mahishasura, a buffalo headed demon for his atrocities against rishis and deva. She is also the wife of Lord Shiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dewi Pramoni. Wife of Batara Guru. Uma is cursed to become Batari Durga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma, Parwati, Pramoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Woman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begawan, Resi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drona is the guru of both the Pandavas and Kauravas. One of his reasons for teaching the Pandavas and Kauravas was to create a strong force to defeat his enemy, King Drupada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher to both Pandawa and Korawa. Father of Aswatama. Son of Baratmadya  and Kumbini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duryudana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is oldest son of the Dhirtirashtra and Gandhari. He learnt the art of mace fighting from Balarama and is believed to be his favourite. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the oldest of the Kurawa, son of Gandari and Destarastra. He marries Banowati and is the father of Lesmana Mandrakumara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irawati, who is the daughter of Prince Uttar (Uttaraa's brother) and wife of Janmajeya, son of King Parikshit. Balarama is known to have one wife by the name of Revathi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the wives of Baladewa, daughter of Salya and Setyawati (Pujawati). She has four siblings: Surtikanti (who marries Karna), Burisrawa (face of giant), Rukmarata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtikanti,Burisrawa,Rukmarata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gagak_Baka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Prabu Janin Raja Negara Tlogohima (Selogohima in Yogyakarta traditon. Whoever could defeat him could marry Kuntulwilanten. Gatotkaca was the winner. So Gagak Baka becomes a servant of Gatotkaca and fights for the Pandawa in the war. //different versions. The one that defetas him is Bima and becomes patih in Amarta. Puntadewa marries Kuntulwilanten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gareng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the sons of Semar. Together with the rest of the Punokawan he accompanies the heroes of wayang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garuda is known as the vehicle of Lord Vishnu. He is known as the son of sage Kashyapa and Vinata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bird of divine origin. Sibling of Bayu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gatotkacha is born to the ogress Hidimbi and prince Bhima. He is often depicted as a giant. He is raised by his mother and helps the Pandavas during the Mahabharata war. He is killed in the end. It is said that even at the point of his death, he fell down in a way such that his body crushed the Kaurava soldiers, hence helping them even when he was about to die.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Arimbi and Bima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranggana, Gurundaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brajadhenta, Bendana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gendara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Older brother of Gendari. // In Surakarta is the father of Gendari and Trigantalpati (Sengkuni). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gendari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancestor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gandhari is the princess of Gandhar and the daughter of King Subala. Sakuni is her brother. She is the wife of Dhirtirashtra and mother of the kauravas. Her act of blindfolding her eyes in response to her husband's blindness is regarded as the sign of her chasteness and love towards her huband.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of the Korawa with Destarastra. Daughter of Subala. Also known as Gandara / Gandari.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The story of Krishna and the false Vasudeva is being mention the Amar Chitra Katha series. He is Paundraka Vasudeva, the King of Pundara. He sees Krishna as his enemy. He also imitates Krishna's attire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He fathers Kangsa with Mahira/Mahera impersonating Basudewa (he is a fake Basudewa). King of Gowabarong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Sage Agastya, one of the 18 siddhars (sages) who are the  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incarnation of Shiva. In Java, created by Sang Hyang Tunggal at the same time as Semar and Togog.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiva, Utipati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Makhuta Rama. // as kala bantala, personifikasi api.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Indra or Devendra, the King of Devas (celestial beings). His wife is known as Indrani. Indra is also mentioned the Krishna leela (the divine acts of Krishna) whereby the the fellow villagers of Lord Krishna used to perform prayers to propitiate Lord Indra for rain. However at one point of time when Krishna tells them not to do so, the villagers stop and this enrages Indra. He punishes the villages by causing stormy rains. However Krishna protects the villagers in the end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of heaven. Controller of the weather. Often known as God of war. Also known as Diwapati.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surapati, Diwapati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Raksasa1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaya_Bajra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the begawan of king Gorawansa (who becomes basudewa Palsu).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jembawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is known as Jambavati, the daughter of Jambavan.  Jambavan believed to be one of the competent warriors in Rama's army during their war with Ravana in the Ramayana. He is known as the King of bears. Jambavan is also found in the Mahabharata where Krishna asks for the syamantaka gem of Prasena to be returned back to him. Jambavan refuses to do so and in the end is defeated by Krishna in a combat. He gives his daughter, Jambavati's hand in marriage to Krishna. It said that she changed from a bear to a woman the moment she married Krishna. She is one of the Ashtabharya (eight principle wives) of Lord Krishna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wife of Kresna. Daughter of Jembawan and Dewi Trijata (daughter of Wibisana). With Kresna she has Samba and Gunadewa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Jim that enters Dewi Kunti, as ordered by Durga. Possessed by Kalika, Kunti sends Sadewa to cure Durga (that is, to restore her to her original shape). Kalika ends up falling in love with Sadewa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamajaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is known as Kamadeva, god of love. He is the son of Lakshmi and Vishnu. He gets burned to ashes by Lord Shiva as he distracts him for a moment by striking him with the cupid arrow to reunite him with his consort Parvati. He reincarnates as Pradyumna, son of Lord Krishna and Rukmini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His consort is Dewi Ratih (Kamaratih). Gives Wahyu Cakraningrat to Abimanyu. [Son of Ismaya - Semar and Dewi Sri].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanastren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanastren and Kaniraras are the consorts of Semar. They get them after Manumayasa shots two deers. He marries Kaniraras and Semar takes Kanastren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinduragen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kangsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A brother of Devaki. After Devaki marries Vasudeva, the aakashavani (divine prophecy from the skies) announces that Kamsa  will die at the hands of her eight child. Upon hearing this, Kamsa imprisons both Devaki and Vasudewa and kills every child born to them. He is, however unsuccessful in killing the 7th and 8th child of the couple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Gorawangsa and Maerah. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaka Maruta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maerah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adipati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is known as the son of Kunti and Surya, the son god. He is said to have been born with kavacha kundala (an armour and a pair of earings) that has been attached to his body since birth. These were considered to make him undefeatable. Due to this, Indra the father of Arjuna worries for his son's safety as Arjuna is Karna's greatest enemy. Knowing Karna's greatly charitable nature, Lord Indra takes the form of an elderly man and asks Karna to give him his kavacha kundalas as donation. Karna immediately does so and this leaves Indra shocked and amazed upon his great generosity. He blesses Karna with a weapon in return.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Kunti and Surya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suryaatmaja, Basusena, Suryaputra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtikanthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awangga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartamarma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In India he is not a Korawa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartapiyoga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Prabu Kurandhayaksa from Tirta Khadasar. He wants to marry Erawati, but is killed by Kakrasana (Baladewa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurandhayaksa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kencana_Wulan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A queen of the Nagari Guwa in Puntadewa Wisudha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as the 9th incarnation of Lord Vishnu, he is the 8th son of Devaki and Vasudeva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Narayana. King of Dwaraka/ Dwarawati.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narayana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baladewa, RaraIreng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmini, Setyawati and Jembawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahala, Kesawasidhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuda_Kala_Kresna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ogre that attacks the heavens. Narayana gets his name and kingdom from this ogre after defeating him. // A giant that attackes the heavens and passes his name on to Kresna. //penyatuan Buddha Hindu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buda Kala Kresna, Yudha Kala Kresna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumbakarna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of rishi Vishwavasu and rakshasi Kaikesi. He is said to have made a mistake when asking for a boon whereby he asked God for Nidrasana (a bed to sleep) instead of Indrasana (the throne of Indra). As a result he went into deep slumber where he would sleep for six months and stay awake for six months. If his sleep gets disturbed before the 6months comes to an end he is believed to die. During the war, Ravana got his troops to wake him up before the 6 months were complete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Resi Wisrawa and Dewi Sukesi. Has Three brothers: Sarkapenaka, Desamuka, and Wibisana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is known as the adopted daughter of Kuntibhoja. Her biological father is Surasena. She is known as the mother of the Pandavas and Karna, her first son whom she had by the Sun God even before she got married.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter of Surasena, but taken by Kuntiboja. Originally called Perta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Kuntibhoja is known as the foster father of Kunti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father of Kunti and Basudewa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basukunti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunti, Basudewa, Ugrasena, Bismaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appears in Semar mBarang Jantur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirta Kadhasar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesmana_Mandrakumara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakshmana Kumara is known as the son of Duryodhana. In one of the Indian retellings, he is said to have been the groom that Balarama's daughter Vatsala was supposed to marry. However, in the end Vatsala marries Abhimanyu, the son of Arjuna and Subhadra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Duryudana (Suyudana) and Banowati.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saroja Kusuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesmana_Murdaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Lakshmana, the third son King of Dasharata and Queen Sumitra. He is married to Princess Urmila, another daughter of King Janaka. Lakshmana is supposed to have guarded the hut of his brother and sister in law day and night without resting. His wifereceived a boon from Nidra Devi, the goddess of sleep, to sleep until her husband returned from exile. At that point, she asks the goddess to give her all the tiredness Lakshmana had while guarding the hut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesmana Murdaka. One of the sons of Dasarata. Sang Prabu punya 3 orang istri Yakni Dewi Raghu, Dewi Sumitra, dan Dewi Kekayi. Dari ketiga orang istri ini lahirlah 4 orang satria, yaitu Ramawijaya, Lesmana Murdaka, Barata, dan Santrugna.  //HY: anaknya Kaikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madri is known as the second wife of Pandu. Due to the curse of a sage, Pandu is said to die if he gets intimate with any of his wives. In the spur of moment, Pandu and Madri forget this and get intimate and as a result Pandu dies. Seeing herself as responsible for his death, Madri also gives up her life hence entrusting Kunti with the responsibilty of taking care of her sons Nakula and Sahadeva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of the two younger Pandawa. Daughter of Mandrapati from Mandraraka and Dewi Tejawati, sibling of Narasoma (Salya)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of Kangsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amirah, Mahira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrakeswara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of Mandraka. Also known as Hartadriya. Together with Gandabayu and Abiyasa defeats Bagaspati. Father of Salya. // In Yogya Mandrapati, or Mandraspati is the father of Salya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartadriya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salya, Madrim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangsahpati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Virata was the ruler of the Matsya Kingdom. The Pandavas serve him in his kingdom during their final year of exile as they would need to spend that year in disguise. His daughter Uttara marries Arjuna's son, Abhimanyu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of Wirata, also known as Durgandana. Pandawa serve him at the end of their 13-year exile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maruta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Dahana speaks to Bantala Maruta and Ranu, he wants to marry a Citrawarsiti, daughter of King Karentegnyana in Tasikmadu.  //HY dari unsur angin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the wives of Werkudara. She is shaped as a Snake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagasewu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagaprasanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He creates a commotion in heaven. Killed by Baladewa. //Tokoh serambahan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagatatmala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raden, Bambang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Antaboga. Kisah ini menceritakan tentang Raden Nagatatmala putra Batara Anantaboga yang berani melarikan Dewi Mumpuni, istri Batara Yamadipati pada saat Kahyangan Suralaya menghadapi serbuan Prabu Karungkala, penjelmaan Batara Kalakutana. Raden Nagatatmala dan Dewi Mumpuni akhirnya mendapatkan perlindungan Prabu Wisnupati di Kerajaan Purwacarita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagabanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the originally the son of the Ashwini twins and Kunti. He is believed to be the most handsome amongst the Pandavas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Pandu and Madrim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narada in Hindu mythology is known as a sage who is a trilokasanjaari (the traveller of the three worlds: Heaven, Earth and the Underworld) as he is able to go to any of these three places at will. He is known as the son of Brahma. He said to have been cursed by Daksha his brother, to create conflict amongst people wherever he goes. However he is also blessed by God in way such that the conflicts that he causes will be a blessing in disguise to leads to the better good for people. He is also considered to be a great devotee of Lord Vishnu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanekaputra. Not a God in India.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nembur_Nawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a story of a snake that entraps Bhima. He is actually Nahusha, his ancestor who has turned into a snake due to a curse by sage Agasthya. In the end Bhima help him to be redeemed from the curse and return to his normal self.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another name of Nabatnawa, the serpet defeated by Bima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NgembatLandeyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this version he is one of the Thousand Kings. But other versions have him as one of the Korawa (also known as Wikatha Boma or Boma Encik, who is killed by Werkudara, jenis boneka wayang guseng halus). // Nama serambahan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padmanaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incarnation of Wisnu. Ketika mati masuk ke Narayana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pancawala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prathivindhya is known as the son of Yudhishtra and Draupadi. He is also known as one of the upapandavas (sons born to each of the Pandavas and Draupadi).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Yudistira and Drupadi. He marries Pergiwati. Pergiwa marries Gatotkaca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandu is the son of Veda Vyasa and Ambalika. He is known to be born pale as his mother's face turned pale with fright when she met Veda Vyasa due to his appearance. He is known to be the successor of King Vichitraveerya of the Kuru house at first but goes to the forest after a curse from a sage; he hands over the throne to his brother Dhirtirashtra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Ambalika and Abyasa. Father of the Pandawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panyarikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God of writing with colorful headdress. Never forgets and can keep a secret. Son of Sang Hyang Parma, grandson of Sang Hyang Taya, younger brother of Sang Hyang Wenang. // there are many versions. There is a version that says he is the son of Batara Guru, another has him as the son of Ismaya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as sage Parasara, he is the father of Veda Vyasa. Satyavati gives birth to Veda Vyasa before her marriage as second wife of King Shantanu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father of Abiyasa, also a writer. Son of Bambang Sakri, who in turn is son of Bambang Sekutrem. Marries Durgandini and fathers Raden Dipayana (Byasa). Also fathers Rajamala and Dewi Sudesno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Raksasa, _Lion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petruk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pracona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prabu, Kala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He wants to marry Supraba, the bidadari.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pradapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Vijaya, the maternal cousin of Sahadeva. Not much is mentioned about Sahadeva's wife apart from Draupadi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadewa's wife. Daughter of Tambrapeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pragota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Ugrasena and Ken Sagupi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken Sagupi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugrasena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satyavati is known as a fisherman's daughter. She was initially known as Matsyagandha (she who smells of fish). Shantanu, Bhishma's father, marries her as his second wife, after his former wife Ganga (a river goddess) leaves him for breaking one of the condition set for the marriage. She gives birth to Vichitraveerya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Setyawati. Daughter of a giant, Bagaspati. She marries Narasoma (Salya). Hasil pujaan (seperti Srikandi, Drupadi dan Pandawa). Trustojumena. Pujan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulunggana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulungsari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat. //mengusai premuan sebagai Pertiwi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sengkalawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yudhistra, alias Dharmaraja (the King of righteousness) is the eldest of the Pandava brothers. He is the son of Yama, the god of death and justice (therefore also known as Yamadharmaraja).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oldest of the pandawa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prabu (Ramuwijaya) / Raden Ramaregawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama is known as the King of Ayodhya. He is of the Solar lineage (Suryavamsa) which means descendents of the Sun god. The kingdom is ruled by King Dilipa followed by his son Rahu, Rahu's son Aja, Aja's son Dasharatha and Dasharatha's son Rama. This why he is sometimes addressed as Raghurama or Raghu Kula Rama (hence alluding his origins from Raghu lineage. He is born to Dasharatha and Kausalya, the first wife of Dasharatha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Dasarata and Kausalya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramawijaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramaparasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parashurama is known as the 7th incarnation Lord Vishnu. He is often depicted with an axe. When his father, Jamadagni gets killed by Kartaveerya Arjuna (not to be confused with Arjuna of the Pandava brothers), Parashurama goes on a mission to kill Kartaveerya and unjust kshatriyas. As a result he refuses to teach martial arts to any one who is born to the Kshatriya clan. He teaches Karna but in the end curses him when he suspects him for being a kshatriya. Although Karna is born into the warrior clan he is still not aware of it at this point of time; Karna in fact sees himself as a Sudra (lower caste) as he is brought up by charioteer Adiratha and lies to Parashurama that he is a brahmin instead; Parashurama himself is born to a brahmin father and kshatriya mother.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Resi Jamadagni and Dewi Renuka. His father asks him to kill his mother, to punish her for committing adultery with Citrarata. He makes his father promise to grant him any wish. With this he returns his borthers to human shape (they had been earlier turned into animals for refusing to kill their mother) and to bring his mother back to life. Ramaparasu is angered when Citrarata kills Jamadagni and vows to kill all kesatria warriors. Eventually Rama (from Ramayana) kills him and then becomes Dewa. // Nama mudanya Bargawa. Parasu = senjata panah.  //Moksa = mencapai kesempurnaan. // In this particular story Wahyu Kaprawiran he is already a God.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramayadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Ramadi. Together with Angganjali provides Tetuka with powers to witstand attacks from Sekipu and Pracona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Dahana speaks to Bantala Maruta and Ranu, he wants to marry a Citrawarsiti, daughter of King Karentegnyana in Tasikmadu.  //HY dari unsur air. //Ranu dasanama dari Tirta, Banyu, Bahni, Weh, Jahni.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subhadra, sister of Krishna and Balarama, and second wife of Arjuna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter of Badrahini and Basudewa. Kakrasana and Narayana are her half-brothers from a different mother. Becomes one wife of Arjuna. Also known as Sumbadra. She becomes one of Arjuna's wives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumbadra, Subadra, Bratajaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baladewa,Kresna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sintawaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Younger brother of Jim Dhamdharat. // Sermabahana. Rutmaka is from Dewa Ruci. // since the oral tradition has him protrayed with a Raksasa wayang, he is given the honorific Kala. But he is actually a demon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of Baladewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Rukmi, the elder brother of Rukmini. He wanted Shishupala, on of the nephews of Lord Krishna to marry Rukmini; he did not like Krishna. He was strongly against the wedding between Krishna and Rukmini. In his battle with Krishna, he gets defeated in the end and has half of his hair and moustache shaved as a form of punishment an publich shaming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Arya Prabu Rukma / Bisamaka and Dewi Rumbini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmini is the first wife of Lord Krishna. She is known as one of his principle wives of Lord Krishna and their first-born, Pradyumna become the crowned Prince of Dwaraka. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First wife of Kresna. Daughter of Bismaka (Aya Prabu Rukma) and Rumbini. Has sibligs: Arya Rumkana and Dewi Rarasati (Larasati) -&gt; this one from Ken Sagupi and Arya Prabu Rukma. Kresna (Narayana), rejecting Drona. The other wives of Kresna are Jembawati (daughter of Jembawan and Trijata), Setyaboma (daughter of Ugrasena / Setyajit, king of Lesmanapura). She has three sons: Saranadewa (face of giant), Partadewa and Dewi Sitisari / Titisari.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the companion of Dewi Sri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JakaPupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahadeva is known to be the most knowledgeable one amongst the Pandavas. Born to Pandu and Madri, he is said to be well versed in astrology and could understand the language of animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youngest Pandawa, son of Madrim and Pandu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salya is the maternal uncle of Madri's sons, Nakul and Sahadeva. He is said to have accidentally ended up siding the Kauravas as Duryodhana tricks him into thinking that his accommodation at the war camp was being provided by the Pandavas when it was actually Duryodhana. As a result, due to hospitality sentiments in the Indian culture, Salya becomes unwillingly obliged to help the Kauravas. He still expressed his support for the Pandavas by demotivating Karna when he became Karna's charioteer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Mandrapati from Mandraraka and Dewi Tejawati. Gives his sister Madrim to Pandu after loosing contest for Kunti. With Setyawati, father of Burisrawa, Erawati (Baladewa), Surtikanti (Karna), Banowati (Duryudana),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narasoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrekaswara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burisrawa,Erawati,Sutikanthi, Banowati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samba is the son of Lord Krishna. He marries Lakshmani, the daughter of Duryodhana. Although Duryodhana is against the marriage, when Balarama expresses his anger (Duryodhana speaks ill of the Yadava clan when Balarama comes to speak on behalf of Samba when he is imprisoned by Duryodhana), Duryodhana relents in the end. Samba is also seen as the main cause of destruction of the Yadava race (Krishna's clan). Many years earlier, even before the kurukshetra war, he once decided to test the power of the sages. He dresses up as a pregnant woman and went to the sages and ask whether the unborn child would be male or female. The sages, enraged by this sign of great disrespect, cast a curse saying that "she" will "give birth" to an iron material which will cause destruction the entire yadava race. An iron mace was ripped out of Samba's thigh and he pounded it and threw it into the sea. The iron dust however was tosed back to the shore of Prabasa and was turned into deadly reeds which the yadavas used to fight and kill one another with during a heated argument on whose side should they take after witnessing the Kurukshetra war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Jembawati and Kresna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saragupita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih of Mandura, during the reign of Basudewa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satrugna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shatrughuna is born to Sumitra, third wife of Dasharatha. He is known as the twin of Lakshmana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin brother of Laksmana, son of Dasarata and Sumitra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekipu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih Kala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih of Pracona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sengkuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakuni, the maternal uncle of the Kauravas. He is plays an important in helping the Kauravas plot against the Pandavas and finds ways to defeat them, including the game of dice where the Pandavas lose their kingdom to the Kauravas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Younger brother of Gandari. [Gandara is the name of their eldest brother, not the name of a Kingdom]. Another name: Harya Suman. In reality, son of King of  Palasajenar. // some say he is the son of Gendara, some sya he is the the adik ke2 prabu Gendara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harya Suman, Trigantalpati, Sakuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Boar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyaboma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satyabhama is known as the second wife and one of the Principle wives of Lord Krishna. She also faces opposition in marrying Krishna from her brother and father. She is seen as the incarnation of the Earth goddess, Bhudevi and is known for her short temper. She is of a strong disposition and even accompanies Lord Krishna during his battle with Narakasura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter of Prabu Setyajid / Arya Ugrasena and Dewi Wersini. Setyaki is her younger brother. She marries Narayana. With him she has Arya Styaka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Satyaki, he is a Yadava chieftein who helped the Pandavas in the Kurukshetra war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Wresniwara. Son of Ugrasena and Dewi Sini  / Wresini (daughter of Sanaprabawa). Marries Dewi Garbarini [ daughter of Garbanata, from Garbaruci] and has a son named Arya Sangasanga.</t>
   </si>
   <si>
     <t xml:space="preserve">Siti_Sendari</t>
   </si>
   <si>
-    <t xml:space="preserve">Brahma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Hindu mythology, Brahma is seen as the son of Vishnu as he emerges out of his navel seated on a lotus. His consort is Saraswati, goddess of educatio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Batara Guru and Batari Uma. Consort of Dewi Saraswati. God of fire. Teacher of Baladewa (Kakrasana).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brajadhenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the third son of Prabu Arimbaka (king of Pringgandani) and Dewi Hadimba. His siblings include Arima/Hidimba, Arimbi, Brajamusti, Brajalamatan, Brajawikalpa and Kalbendana. He opposes Gatotkaca becoming king of Pringgandani, and dies in armed conflict against him. His brothers Brajalamatan and Brajawikalpa suffer the same fate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brajamusthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the son of Prabu Arimbaka (king of Pringgandani) and Dewi Hadimba. His siblings include Arima/Hidimba, Arimbi, Brajadentha, Brajalamatan, Brajawikalpa and Kalbendana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citrarata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renuka Devi is said to have admired a gandharva who passed by while she was fetching water from the river. As a result she lost the powers she had gained by being a chaste wife.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dewi Renuka falls in love with him, even though she was already amrreied to Maharesi Jamadagni. He is finally killed by Rama Bargawa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalantaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citrasena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gandarwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chitrasena is a gandharva who is cursed by Lord Krishna when he accidentaly desecrates the abulations that a sage was making to the Sun God. He saved by Arjuna in the end.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menimbulkan tahta Astina ke Santanu. // Several characters are names as Citrasena.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalanjaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daryamaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Described as a brother of Nindyamaya (Werkudara) in Suksma Langgeng. // He is a personifikasi of elements that make uphumans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dersanala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of Wisanggeni with Arjuna. Daughter of Brama. Daughter of Brahma. Brahma wants her to marry Dewa Srani.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisanggeni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desamuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dasamukha is another name for Ravana in the Ramayana. It means "10 faces".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Godhayitma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destarastra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Dhristirashtra born to Ambika one of the queens to Vichitraveerya. It is to be noted that due to Vichitraveerya passing away before having any children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Abyasa. Blind since birth. Son of Ambika. Has two brothers: Pandu and Widura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dewaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Devaki, the princess of Mathura. After her marriage with Vasudeva, the aakashavani (divine prophecy from the skies) announces that Kamsa (her brother) will die at the hands of her eight child. Upon hearing this, Kamsa imprisons both Devaki and Vasudewa and kills every child born to them. He is, however unsuccessful in killing the 7th and 8th child of the couple.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of Kresna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dewa_Ruci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagian dari Sang Hyang Wenang (bsersifat).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marbudengrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dewasrani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brahma wants him to marry his daughter Dresanala. // bisa kesatria. Sudah diturunka ke marcapada, punya negara Tunggulmalaya atau Nuswarukmi (dekat cilacap di peta imaginer jawa).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhadhungawuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A tyrant that oppresses the kings of the 100 kingdoms in the Semar Mantu story.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhamdharat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senopati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King of Guwa Siluman who tries to help the Korawa kill Puntadewa.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhandhang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Demon, younger brother of queen Prabu Kencana Wulan who helps Puntadewa escpae an assasination attempt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhandhonwacana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as JIM DANDUNWACANA. Mretani (Amarta) Jim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drestarastra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhirtirashtra is the biological son of Veda Vyasa and Ambika. It is said that when Ambika saw Veda Vyasa, she was afraid by his appearance that she closed her eyes causing Dhirtirashtra to be born blind. He ruled as the King of Hastinapur as Pandu gives up his crown and retires to the forest with his wives due to the feeling of devastation upon receiving a curse from a sage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Wicitrawirya's widow Ambika (who got pregnant from an upacara). Pandu is his younger half-brother (son of Ambalika), together with Widura. With Gandari he becomes the father of the Korawa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drupadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Draupadi. She is also known as Panchali. She is considered an ayonija (she who is not born out of a mother) as she emerges out of the yagna fire, therefore considered powerful and pure. She is married to all five Pandhava in the Indian version.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wife of Yudhistira. Daughter of Drupada (same as Srikandi), mother of Pancawala.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Druwasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sage Durvasa a reknowned sage who is also known for his short temper. Heis said to have been impressed by Kunti's hospitality when he came to Kuntibhoja's palace. He taught her a mantra that would enable her to give her son the qualities of the deity she evoked with it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begawan in Mandura. Teacher of Kunti, he helps her give birth to Karna. // sama dengan surya. Jelmaan dari Surya. Ayahnya Karna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as the goddess who killed Mahishasura, a buffalo headed demon for his atrocities against rishis and deva. She is also the wife of Lord Shiva.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dewi Pramoni. Wife of Batara Guru. Uma is cursed to become Batari Durga.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma, Parwati, Pramoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Woman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begawan, Resi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drona is the guru of both the Pandavas and Kauravas. One of his reasons for teaching the Pandavas and Kauravas was to create a strong force to defeat his enemy, King Drupada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teacher to both Pandawa and Korawa. Father of Aswatama. Son of Baratmadya  and Kumbini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duryudana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is oldest son of the Dhirtirashtra and Gandhari. He learnt the art of mace fighting from Balarama and is believed to be his favourite. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the oldest of the Kurawa, son of Gandari and Destarastra. He marries Banowati and is the father of Lesmana Mandrakumara.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irawati, who is the daughter of Prince Uttar (Uttaraa's brother) and wife of Janmajeya, son of King Parikshit. Balarama is known to have one wife by the name of Revathi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the wives of Baladewa, daughter of Salya and Setyawati (Pujawati). She has four siblings: Surtikanti (who marries Karna), Burisrawa (face of giant), Rukmarata.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setyawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surtikanti,Burisrawa,Rukmarata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gagak_Baka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Prabu Janin Raja Negara Tlogohima (Selogohima in Yogyakarta traditon. Whoever could defeat him could marry Kuntulwilanten. Gatotkaca was the winner. So Gagak Baka becomes a servant of Gatotkaca and fights for the Pandawa in the war. //different versions. The one that defetas him is Bima and becomes patih in Amarta. Puntadewa marries Kuntulwilanten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gareng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the sons of Semar. Together with the rest of the Punokawan he accompanies the heroes of wayang.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garuda is known as the vehicle of Lord Vishnu. He is known as the son of sage Kashyapa and Vinata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bird of divine origin. Sibling of Bayu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gatotkacha is born to the ogress Hidimbi and prince Bhima. He is often depicted as a giant. He is raised by his mother and helps the Pandavas during the Mahabharata war. He is killed in the end. It is said that even at the point of his death, he fell down in a way such that his body crushed the Kaurava soldiers, hence helping them even when he was about to die.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Arimbi and Bima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranggana, Gurundaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brajadhenta, Bendana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gendara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Older brother of Gendari. // In Surakarta is the father of Gendari and Trigantalpati (Sengkuni). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gendari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancestor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gandhari is the princess of Gandhar and the daughter of King Subala. Sakuni is her brother. She is the wife of Dhirtirashtra and mother of the kauravas. Her act of blindfolding her eyes in response to her husband's blindness is regarded as the sign of her chasteness and love towards her huband.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of the Korawa with Destarastra. Daughter of Subala. Also known as Gandara / Gandari.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The story of Krishna and the false Vasudeva is being mention the Amar Chitra Katha series. He is Paundraka Vasudeva, the King of Pundara. He sees Krishna as his enemy. He also imitates Krishna's attire.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He fathers Kangsa with Mahira/Mahera impersonating Basudewa (he is a fake Basudewa). King of Gowabarong.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Sage Agastya, one of the 18 siddhars (sages) who are the  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incarnation of Shiva. In Java, created by Sang Hyang Tunggal at the same time as Semar and Togog.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiva, Utipati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hagni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Makhuta Rama. // as kala bantala, personifikasi api.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Indra or Devendra, the King of Devas (celestial beings). His wife is known as Indrani. Indra is also mentioned the Krishna leela (the divine acts of Krishna) whereby the the fellow villagers of Lord Krishna used to perform prayers to propitiate Lord Indra for rain. However at one point of time when Krishna tells them not to do so, the villagers stop and this enrages Indra. He punishes the villages by causing stormy rains. However Krishna protects the villagers in the end.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King of heaven. Controller of the weather. Often known as God of war. Also known as Diwapati.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surapati, Diwapati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Raksasa1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaya_Bajra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the begawan of king Gorawansa (who becomes basudewa Palsu).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jembawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She is known as Jambavati, the daughter of Jambavan.  Jambavan believed to be one of the competent warriors in Rama's army during their war with Ravana in the Ramayana. He is known as the King of bears. Jambavan is also found in the Mahabharata where Krishna asks for the syamantaka gem of Prasena to be returned back to him. Jambavan refuses to do so and in the end is defeated by Krishna in a combat. He gives his daughter, Jambavati's hand in marriage to Krishna. It said that she changed from a bear to a woman the moment she married Krishna. She is one of the Ashtabharya (eight principle wives) of Lord Krishna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wife of Kresna. Daughter of Jembawan and Dewi Trijata (daughter of Wibisana). With Kresna she has Samba and Gunadewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Jim that enters Dewi Kunti, as ordered by Durga. Possessed by Kalika, Kunti sends Sadewa to cure Durga (that is, to restore her to her original shape). Kalika ends up falling in love with Sadewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamajaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is known as Kamadeva, god of love. He is the son of Lakshmi and Vishnu. He gets burned to ashes by Lord Shiva as he distracts him for a moment by striking him with the cupid arrow to reunite him with his consort Parvati. He reincarnates as Pradyumna, son of Lord Krishna and Rukmini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">His consort is Dewi Ratih (Kamaratih). Gives Wahyu Cakraningrat to Abimanyu. [Son of Ismaya - Semar and Dewi Sri].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanastren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanastren and Kaniraras are the consorts of Semar. They get them after Manumayasa shots two deers. He marries Kaniraras and Semar takes Kanastren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinduragen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kangsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A brother of Devaki. After Devaki marries Vasudeva, the aakashavani (divine prophecy from the skies) announces that Kamsa  will die at the hands of her eight child. Upon hearing this, Kamsa imprisons both Devaki and Vasudewa and kills every child born to them. He is, however unsuccessful in killing the 7th and 8th child of the couple.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Gorawangsa and Maerah. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaka Maruta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maerah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adipati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is known as the son of Kunti and Surya, the son god. He is said to have been born with kavacha kundala (an armour and a pair of earings) that has been attached to his body since birth. These were considered to make him undefeatable. Due to this, Indra the father of Arjuna worries for his son's safety as Arjuna is Karna's greatest enemy. Knowing Karna's greatly charitable nature, Lord Indra takes the form of an elderly man and asks Karna to give him his kavacha kundalas as donation. Karna immediately does so and this leaves Indra shocked and amazed upon his great generosity. He blesses Karna with a weapon in return.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Kunti and Surya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suryaatmaja, Basusena, Suryaputra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surtikanthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awangga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartamarma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In India he is not a Korawa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartapiyoga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Prabu Kurandhayaksa from Tirta Khadasar. He wants to marry Erawati, but is killed by Kakrasana (Baladewa).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurandhayaksa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kencana_Wulan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A queen of the Nagari Guwa in Puntadewa Wisudha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as the 9th incarnation of Lord Vishnu, he is the 8th son of Devaki and Vasudeva.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Narayana. King of Dwaraka/ Dwarawati.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narayana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baladewa, RaraIreng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmini, Setyawati and Jembawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brahala, Kesawasidhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuda_Kala_Kresna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An ogre that attacks the heavens. Narayana gets his name and kingdom from this ogre after defeating him. // A giant that attackes the heavens and passes his name on to Kresna. //penyatuan Buddha Hindu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buda Kala Kresna, Yudha Kala Kresna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumbakarna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of rishi Vishwavasu and rakshasi Kaikesi. He is said to have made a mistake when asking for a boon whereby he asked God for Nidrasana (a bed to sleep) instead of Indrasana (the throne of Indra). As a result he went into deep slumber where he would sleep for six months and stay awake for six months. If his sleep gets disturbed before the 6months comes to an end he is believed to die. During the war, Ravana got his troops to wake him up before the 6 months were complete.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Resi Wisrawa and Dewi Sukesi. Has Three brothers: Sarkapenaka, Desamuka, and Wibisana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She is known as the adopted daughter of Kuntibhoja. Her biological father is Surasena. She is known as the mother of the Pandavas and Karna, her first son whom she had by the Sun God even before she got married.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Surasena, but taken by Kuntiboja. Originally called Perta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Kuntibhoja is known as the foster father of Kunti.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father of Kunti and Basudewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basukunti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunti, Basudewa, Ugrasena, Bismaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appears in Semar mBarang Jantur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tirta Kadhasar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesmana_Mandrakumara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakshmana Kumara is known as the son of Duryodhana. In one of the Indian retellings, he is said to have been the groom that Balarama's daughter Vatsala was supposed to marry. However, in the end Vatsala marries Abhimanyu, the son of Arjuna and Subhadra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Duryudana (Suyudana) and Banowati.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saroja Kusuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesmana_Murdaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Lakshmana, the third son King of Dasharata and Queen Sumitra. He is married to Princess Urmila, another daughter of King Janaka. Lakshmana is supposed to have guarded the hut of his brother and sister in law day and night without resting. His wifereceived a boon from Nidra Devi, the goddess of sleep, to sleep until her husband returned from exile. At that point, she asks the goddess to give her all the tiredness Lakshmana had while guarding the hut.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesmana Murdaka. One of the sons of Dasarata. Sang Prabu punya 3 orang istri Yakni Dewi Raghu, Dewi Sumitra, dan Dewi Kekayi. Dari ketiga orang istri ini lahirlah 4 orang satria, yaitu Ramawijaya, Lesmana Murdaka, Barata, dan Santrugna.  //HY: anaknya Kaikasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madrim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madri is known as the second wife of Pandu. Due to the curse of a sage, Pandu is said to die if he gets intimate with any of his wives. In the spur of moment, Pandu and Madri forget this and get intimate and as a result Pandu dies. Seeing herself as responsible for his death, Madri also gives up her life hence entrusting Kunti with the responsibilty of taking care of her sons Nakula and Sahadeva.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of the two younger Pandawa. Daughter of Mandrapati from Mandraraka and Dewi Tejawati, sibling of Narasoma (Salya)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of Kangsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amirah, Mahira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandrakeswara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King of Mandraka. Also known as Hartadriya. Together with Gandabayu and Abiyasa defeats Bagaspati. Father of Salya. // In Yogya Mandrapati, or Mandraspati is the father of Salya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hartadriya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salya, Madrim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mangsahpati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Virata was the ruler of the Matsya Kingdom. The Pandavas serve him in his kingdom during their final year of exile as they would need to spend that year in disguise. His daughter Uttara marries Arjuna's son, Abhimanyu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King of Wirata, also known as Durgandana. Pandawa serve him at the end of their 13-year exile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maruta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Dahana speaks to Bantala Maruta and Ranu, he wants to marry a Citrawarsiti, daughter of King Karentegnyana in Tasikmadu.  //HY dari unsur angin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the wives of Werkudara. She is shaped as a Snake.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagasewu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagaprasanta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He creates a commotion in heaven. Killed by Baladewa. //Tokoh serambahan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagatatmala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raden, Bambang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Antaboga. Kisah ini menceritakan tentang Raden Nagatatmala putra Batara Anantaboga yang berani melarikan Dewi Mumpuni, istri Batara Yamadipati pada saat Kahyangan Suralaya menghadapi serbuan Prabu Karungkala, penjelmaan Batara Kalakutana. Raden Nagatatmala dan Dewi Mumpuni akhirnya mendapatkan perlindungan Prabu Wisnupati di Kerajaan Purwacarita.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagabanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the originally the son of the Ashwini twins and Kunti. He is believed to be the most handsome amongst the Pandavas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Pandu and Madrim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narada in Hindu mythology is known as a sage who is a trilokasanjaari (the traveller of the three worlds: Heaven, Earth and the Underworld) as he is able to go to any of these three places at will. He is known as the son of Brahma. He said to have been cursed by Daksha his brother, to create conflict amongst people wherever he goes. However he is also blessed by God in way such that the conflicts that he causes will be a blessing in disguise to leads to the better good for people. He is also considered to be a great devotee of Lord Vishnu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanekaputra. Not a God in India.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nembur_Nawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is a story of a snake that entraps Bhima. He is actually Nahusha, his ancestor who has turned into a snake due to a curse by sage Agasthya. In the end Bhima help him to be redeemed from the curse and return to his normal self.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another name of Nabatnawa, the serpet defeated by Bima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NgembatLandeyan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this version he is one of the Thousand Kings. But other versions have him as one of the Korawa (also known as Wikatha Boma or Boma Encik, who is killed by Werkudara, jenis boneka wayang guseng halus). // Nama serambahan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padmanaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incarnation of Wisnu. Ketika mati masuk ke Narayana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancawala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prathivindhya is known as the son of Yudhishtra and Draupadi. He is also known as one of the upapandavas (sons born to each of the Pandavas and Draupadi).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Yudistira and Drupadi. He marries Pergiwati. Pergiwa marries Gatotkaca.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pandu is the son of Veda Vyasa and Ambalika. He is known to be born pale as his mother's face turned pale with fright when she met Veda Vyasa due to his appearance. He is known to be the successor of King Vichitraveerya of the Kuru house at first but goes to the forest after a curse from a sage; he hands over the throne to his brother Dhirtirashtra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Ambalika and Abyasa. Father of the Pandawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panyarikan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God of writing with colorful headdress. Never forgets and can keep a secret. Son of Sang Hyang Parma, grandson of Sang Hyang Taya, younger brother of Sang Hyang Wenang. // there are many versions. There is a version that says he is the son of Batara Guru, another has him as the son of Ismaya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as sage Parasara, he is the father of Veda Vyasa. Satyavati gives birth to Veda Vyasa before her marriage as second wife of King Shantanu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father of Abiyasa, also a writer. Son of Bambang Sakri, who in turn is son of Bambang Sekutrem. Marries Durgandini and fathers Raden Dipayana (Byasa). Also fathers Rajamala and Dewi Sudesno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Raksasa, _Lion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petruk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pracona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prabu, Kala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He wants to marry Supraba, the bidadari.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pradapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Vijaya, the maternal cousin of Sahadeva. Not much is mentioned about Sahadeva's wife apart from Draupadi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadewa's wife. Daughter of Tambrapeta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pragota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Ugrasena and Ken Sagupi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken Sagupi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ugrasena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pujawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satyavati is known as a fisherman's daughter. She was initially known as Matsyagandha (she who smells of fish). Shantanu, Bhishma's father, marries her as his second wife, after his former wife Ganga (a river goddess) leaves him for breaking one of the condition set for the marriage. She gives birth to Vichitraveerya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Setyawati. Daughter of a giant, Bagaspati. She marries Narasoma (Salya). Hasil pujaan (seperti Srikandi, Drupadi dan Pandawa). Trustojumena. Pujan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulunggana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulungsari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat. //mengusai premuan sebagai Pertiwi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sengkalawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puntadewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yudhistra, alias Dharmaraja (the King of righteousness) is the eldest of the Pandava brothers. He is the son of Yama, the god of death and justice (therefore also known as Yamadharmaraja).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oldest of the pandawa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prabu (Ramuwijaya) / Raden Ramaregawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rama is known as the King of Ayodhya. He is of the Solar lineage (Suryavamsa) which means descendents of the Sun god. The kingdom is ruled by King Dilipa followed by his son Rahu, Rahu's son Aja, Aja's son Dasharatha and Dasharatha's son Rama. This why he is sometimes addressed as Raghurama or Raghu Kula Rama (hence alluding his origins from Raghu lineage. He is born to Dasharatha and Kausalya, the first wife of Dasharatha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Dasarata and Kausalya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramawijaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramaparasu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parashurama is known as the 7th incarnation Lord Vishnu. He is often depicted with an axe. When his father, Jamadagni gets killed by Kartaveerya Arjuna (not to be confused with Arjuna of the Pandava brothers), Parashurama goes on a mission to kill Kartaveerya and unjust kshatriyas. As a result he refuses to teach martial arts to any one who is born to the Kshatriya clan. He teaches Karna but in the end curses him when he suspects him for being a kshatriya. Although Karna is born into the warrior clan he is still not aware of it at this point of time; Karna in fact sees himself as a Sudra (lower caste) as he is brought up by charioteer Adiratha and lies to Parashurama that he is a brahmin instead; Parashurama himself is born to a brahmin father and kshatriya mother.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Resi Jamadagni and Dewi Renuka. His father asks him to kill his mother, to punish her for committing adultery with Citrarata. He makes his father promise to grant him any wish. With this he returns his borthers to human shape (they had been earlier turned into animals for refusing to kill their mother) and to bring his mother back to life. Ramaparasu is angered when Citrarata kills Jamadagni and vows to kill all kesatria warriors. Eventually Rama (from Ramayana) kills him and then becomes Dewa. // Nama mudanya Bargawa. Parasu = senjata panah.  //Moksa = mencapai kesempurnaan. // In this particular story Wahyu Kaprawiran he is already a God.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramayadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Ramadi. Together with Angganjali provides Tetuka with powers to witstand attacks from Sekipu and Pracona.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Dahana speaks to Bantala Maruta and Ranu, he wants to marry a Citrawarsiti, daughter of King Karentegnyana in Tasikmadu.  //HY dari unsur air. //Ranu dasanama dari Tirta, Banyu, Bahni, Weh, Jahni.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subhadra, sister of Krishna and Balarama, and second wife of Arjuna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Badrahini and Basudewa. Kakrasana and Narayana are her half-brothers from a different mother. Becomes one wife of Arjuna. Also known as Sumbadra. She becomes one of Arjuna's wives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumbadra, Subadra, Bratajaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baladewa,Kresna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sintawaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Younger brother of Jim Dhamdharat. // Sermabahana. Rutmaka is from Dewa Ruci. // since the oral tradition has him protrayed with a Raksasa wayang, he is given the honorific Kala. But he is actually a demon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of Baladewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Rukmi, the elder brother of Rukmini. He wanted Shishupala, on of the nephews of Lord Krishna to marry Rukmini; he did not like Krishna. He was strongly against the wedding between Krishna and Rukmini. In his battle with Krishna, he gets defeated in the end and has half of his hair and moustache shaved as a form of punishment an publich shaming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Arya Prabu Rukma / Bisamaka and Dewi Rumbini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmini is the first wife of Lord Krishna. She is known as one of his principle wives of Lord Krishna and their first-born, Pradyumna become the crowned Prince of Dwaraka. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First wife of Kresna. Daughter of Bismaka (Aya Prabu Rukma) and Rumbini. Has sibligs: Arya Rumkana and Dewi Rarasati (Larasati) -&gt; this one from Ken Sagupi and Arya Prabu Rukma. Kresna (Narayana), rejecting Drona. The other wives of Kresna are Jembawati (daughter of Jembawan and Trijata), Setyaboma (daughter of Ugrasena / Setyajit, king of Lesmanapura). She has three sons: Saranadewa (face of giant), Partadewa and Dewi Sitisari / Titisari.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the companion of Dewi Sri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JakaPupon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahadeva is known to be the most knowledgeable one amongst the Pandavas. Born to Pandu and Madri, he is said to be well versed in astrology and could understand the language of animals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youngest Pandawa, son of Madrim and Pandu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salya is the maternal uncle of Madri's sons, Nakul and Sahadeva. He is said to have accidentally ended up siding the Kauravas as Duryodhana tricks him into thinking that his accommodation at the war camp was being provided by the Pandavas when it was actually Duryodhana. As a result, due to hospitality sentiments in the Indian culture, Salya becomes unwillingly obliged to help the Kauravas. He still expressed his support for the Pandavas by demotivating Karna when he became Karna's charioteer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Mandrapati from Mandraraka and Dewi Tejawati. Gives his sister Madrim to Pandu after loosing contest for Kunti. With Setyawati, father of Burisrawa, Erawati (Baladewa), Surtikanti (Karna), Banowati (Duryudana),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narasoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tejawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandrekaswara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burisrawa,Erawati,Sutikanthi, Banowati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samba is the son of Lord Krishna. He marries Lakshmani, the daughter of Duryodhana. Although Duryodhana is against the marriage, when Balarama expresses his anger (Duryodhana speaks ill of the Yadava clan when Balarama comes to speak on behalf of Samba when he is imprisoned by Duryodhana), Duryodhana relents in the end. Samba is also seen as the main cause of destruction of the Yadava race (Krishna's clan). Many years earlier, even before the kurukshetra war, he once decided to test the power of the sages. He dresses up as a pregnant woman and went to the sages and ask whether the unborn child would be male or female. The sages, enraged by this sign of great disrespect, cast a curse saying that "she" will "give birth" to an iron material which will cause destruction the entire yadava race. An iron mace was ripped out of Samba's thigh and he pounded it and threw it into the sea. The iron dust however was tosed back to the shore of Prabasa and was turned into deadly reeds which the yadavas used to fight and kill one another with during a heated argument on whose side should they take after witnessing the Kurukshetra war.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Jembawati and Kresna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saragupita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih of Mandura, during the reign of Basudewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satrugna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shatrughuna is born to Sumitra, third wife of Dasharatha. He is known as the twin of Lakshmana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin brother of Laksmana, son of Dasarata and Sumitra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekipu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih Kala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih of Pracona.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sengkuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sakuni, the maternal uncle of the Kauravas. He is plays an important in helping the Kauravas plot against the Pandavas and finds ways to defeat them, including the game of dice where the Pandavas lose their kingdom to the Kauravas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Younger brother of Gandari. [Gandara is the name of their eldest brother, not the name of a Kingdom]. Another name: Harya Suman. In reality, son of King of  Palasajenar. // some say he is the son of Gendara, some sya he is the the adik ke2 prabu Gendara.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harya Suman, Trigantalpati, Sakuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Boar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setyaboma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satyabhama is known as the second wife and one of the Principle wives of Lord Krishna. She also faces opposition in marrying Krishna from her brother and father. She is seen as the incarnation of the Earth goddess, Bhudevi and is known for her short temper. She is of a strong disposition and even accompanies Lord Krishna during his battle with Narakasura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Prabu Setyajid / Arya Ugrasena and Dewi Wersini. Setyaki is her younger brother. She marries Narayana. With him she has Arya Styaka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setyaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Satyaki, he is a Yadava chieftein who helped the Pandavas in the Kurukshetra war.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Wresniwara. Son of Ugrasena and Dewi Sini  / Wresini (daughter of Sanaprabawa). Marries Dewi Garbarini [ daughter of Garbanata, from Garbaruci] and has a son named Arya Sangasanga.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Krishna is said to have a daughter by the name of Charumati; however she is born to Rukmini and Krishna.</t>
   </si>
   <si>
@@ -1753,9 +2064,6 @@
     <t xml:space="preserve">Bratasena, Bima, Arya Sena, Gandawatratmaja, Panduputra</t>
   </si>
   <si>
-    <t xml:space="preserve">Wibisana</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not mentioned in the Indian Mahabharata</t>
   </si>
   <si>
@@ -1937,6 +2245,24 @@
   </si>
   <si>
     <t xml:space="preserve">SuksmaLanggeng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagnyanawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yatnyanawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narakasura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saraswati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pancaweda</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +2273,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2011,10 +2337,35 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val=""/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="FreeSans"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -2066,7 +2417,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2099,7 +2450,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2107,7 +2466,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2191,39 +2558,39 @@
   <dimension ref="A1:V149"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.5102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="68.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="55.8316326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="59.5051020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.7244897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.6836734693878"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.9540816326531"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="13.3928571428571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.4132653061224"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="10.3673469387755"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.015306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="23" style="1" width="89.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="89.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.3724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.3520408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6938775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="81.5357142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7704081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="70.3061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.6938775510204"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.7091836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="29.484693877551"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.4489795918367"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1023" min="23" style="1" width="105.94387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="105.94387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,6 +3287,7 @@
       <c r="U13" s="5" t="s">
         <v>152</v>
       </c>
+      <c r="V13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
@@ -2969,6 +3337,7 @@
       <c r="U14" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="V14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
@@ -2987,7 +3356,7 @@
       <c r="F15" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="1" t="s">
         <v>164</v>
       </c>
       <c r="H15" s="0" t="s">
@@ -3003,6 +3372,8 @@
       </c>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
       <c r="Q15" s="0"/>
       <c r="R15" s="0"/>
       <c r="S15" s="0" t="s">
@@ -3019,7 +3390,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B16" s="0"/>
@@ -3050,16 +3421,35 @@
       <c r="K16" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L16" s="0"/>
+      <c r="L16" s="0" t="s">
+        <v>178</v>
+      </c>
       <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
+      <c r="N16" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="O16" s="0"/>
+      <c r="P16" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="Q16" s="0"/>
       <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
+      <c r="S16" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>178</v>
+      <c r="A17" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="1" t="s">
@@ -3072,58 +3462,86 @@
         <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
+        <v>187</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>159</v>
+      </c>
       <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
+      <c r="L17" s="0" t="s">
+        <v>189</v>
+      </c>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
+      <c r="O17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P17" s="0"/>
       <c r="Q17" s="0"/>
       <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
+      <c r="S17" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>182</v>
+      <c r="A18" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H18" s="0"/>
+        <v>197</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
       <c r="Q18" s="0"/>
       <c r="R18" s="0"/>
       <c r="S18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>186</v>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="1" t="s">
@@ -3136,30 +3554,39 @@
         <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="H19" s="0"/>
       <c r="I19" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
       <c r="Q19" s="0"/>
       <c r="R19" s="0"/>
       <c r="S19" s="0"/>
+      <c r="T19" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="V19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="0"/>
@@ -3173,34 +3600,43 @@
         <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="N20" s="0"/>
+        <v>210</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
       <c r="Q20" s="0"/>
       <c r="R20" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="V20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="0"/>
@@ -3214,62 +3650,100 @@
         <v>26</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
+        <v>214</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>217</v>
+      </c>
       <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
+      <c r="L21" s="0" t="s">
+        <v>218</v>
+      </c>
       <c r="M21" s="0"/>
-      <c r="N21" s="0"/>
+      <c r="N21" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
       <c r="Q21" s="1" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="R21" s="0"/>
       <c r="S21" s="0"/>
+      <c r="T21" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="U21" s="0"/>
+      <c r="V21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>202</v>
+      <c r="A22" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
+        <v>196</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
+      <c r="O22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="0"/>
       <c r="Q22" s="1" t="s">
         <v>122</v>
       </c>
       <c r="R22" s="0"/>
       <c r="S22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="0"/>
+      <c r="T22" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="V22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>228</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
@@ -3280,25 +3754,44 @@
         <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
+        <v>230</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>233</v>
+      </c>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
+      <c r="O23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P23" s="0"/>
       <c r="Q23" s="0"/>
       <c r="R23" s="0"/>
       <c r="S23" s="0"/>
+      <c r="T23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>207</v>
+      <c r="A24" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>162</v>
@@ -3311,11 +3804,13 @@
         <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G24" s="0"/>
+        <v>196</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>238</v>
+      </c>
       <c r="H24" s="1" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -3323,42 +3818,72 @@
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
       <c r="Q24" s="0"/>
       <c r="R24" s="0"/>
-      <c r="S24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>209</v>
+      <c r="S24" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="U24" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="V24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="0"/>
+      <c r="F25" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="G25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
+        <v>244</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>247</v>
+      </c>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="Q25" s="0"/>
       <c r="R25" s="0"/>
       <c r="S25" s="0"/>
+      <c r="T25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="V25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="1" t="s">
@@ -3371,79 +3896,104 @@
         <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>220</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
       <c r="Q26" s="0"/>
       <c r="R26" s="0"/>
       <c r="S26" s="1" t="s">
-        <v>221</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="U26" s="0"/>
+      <c r="V26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>222</v>
+      <c r="A27" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>225</v>
+      <c r="F27" s="10" t="s">
+        <v>264</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I27" s="0"/>
+        <v>266</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>267</v>
+      </c>
       <c r="J27" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L27" s="0"/>
+        <v>268</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="Q27" s="0"/>
       <c r="R27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>229</v>
+      <c r="S27" s="0"/>
+      <c r="T27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="1" t="s">
@@ -3455,87 +4005,145 @@
       <c r="E28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>231</v>
+      <c r="F28" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
+      <c r="I28" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>217</v>
+      </c>
       <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
+      <c r="L28" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="M28" s="0"/>
-      <c r="N28" s="0"/>
+      <c r="N28" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
       <c r="Q28" s="0"/>
       <c r="R28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>232</v>
+      <c r="S28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
+      <c r="I29" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
+      <c r="O29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="0"/>
       <c r="Q29" s="1" t="s">
         <v>122</v>
       </c>
       <c r="R29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>234</v>
+      <c r="S29" s="0"/>
+      <c r="T29" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="V29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
+      <c r="I30" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
+      <c r="O30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="0"/>
       <c r="Q30" s="0"/>
       <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="V30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>236</v>
+      <c r="A31" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="1" t="s">
@@ -3548,42 +4156,54 @@
         <v>26</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
+      <c r="I31" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>290</v>
+      </c>
       <c r="K31" s="0"/>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
       <c r="Q31" s="1" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="U31" s="0"/>
+      <c r="V31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>240</v>
+      <c r="A32" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
@@ -3592,30 +4212,36 @@
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
       <c r="Q32" s="1" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
+      <c r="V32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>245</v>
+      <c r="A33" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
@@ -3624,46 +4250,64 @@
       <c r="L33" s="0"/>
       <c r="M33" s="0"/>
       <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
       <c r="Q33" s="0"/>
       <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="0"/>
+      <c r="V33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>247</v>
+      <c r="A34" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
       <c r="J34" s="1" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="K34" s="0"/>
-      <c r="L34" s="0"/>
+      <c r="L34" s="0" t="s">
+        <v>303</v>
+      </c>
       <c r="M34" s="1" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
       <c r="Q34" s="0"/>
       <c r="R34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>252</v>
+      <c r="S34" s="0"/>
+      <c r="T34" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="V34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="1" t="s">
@@ -3676,24 +4320,54 @@
         <v>26</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
+        <v>306</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>312</v>
+      </c>
       <c r="M35" s="0"/>
-      <c r="N35" s="0"/>
+      <c r="N35" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="Q35" s="1" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="R35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>255</v>
+      <c r="S35" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="V35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="27.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="1" t="s">
@@ -3706,24 +4380,46 @@
         <v>26</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
-      <c r="L36" s="0"/>
+        <v>319</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>324</v>
+      </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
+      <c r="P36" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="Q36" s="0"/>
       <c r="R36" s="0"/>
+      <c r="T36" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>258</v>
+      <c r="A37" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="1" t="s">
@@ -3736,17 +4432,19 @@
         <v>26</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H37" s="0"/>
+        <v>330</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>331</v>
+      </c>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
       <c r="L37" s="1" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>177</v>
@@ -3754,10 +4452,15 @@
       <c r="N37" s="0"/>
       <c r="Q37" s="0"/>
       <c r="R37" s="0"/>
+      <c r="T37" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="U37" s="0"/>
+      <c r="V37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>261</v>
+      <c r="A38" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="1" t="s">
@@ -3770,13 +4473,13 @@
         <v>56</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>262</v>
+        <v>196</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>263</v>
+        <v>336</v>
       </c>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
@@ -3786,56 +4489,74 @@
       <c r="N38" s="0"/>
       <c r="Q38" s="0"/>
       <c r="R38" s="0"/>
+      <c r="T38" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>264</v>
+      <c r="A39" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0"/>
+      <c r="I39" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="K39" s="0"/>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
-      <c r="N39" s="0"/>
+      <c r="N39" s="13" t="s">
+        <v>342</v>
+      </c>
       <c r="Q39" s="0"/>
       <c r="R39" s="0"/>
+      <c r="T39" s="1" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>267</v>
+      <c r="A40" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="H40" s="0"/>
       <c r="I40" s="0"/>
@@ -3846,26 +4567,35 @@
       <c r="N40" s="0"/>
       <c r="Q40" s="0"/>
       <c r="R40" s="0"/>
+      <c r="T40" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="U40" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="1" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="H41" s="0"/>
       <c r="I41" s="0"/>
@@ -3875,27 +4605,27 @@
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
       <c r="Q41" s="1" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="R41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="1" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="H42" s="0"/>
       <c r="I42" s="0"/>
@@ -3909,23 +4639,23 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="1" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="H43" s="0"/>
       <c r="I43" s="0"/>
@@ -3939,7 +4669,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="1" t="s">
@@ -3952,10 +4682,10 @@
         <v>26</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>280</v>
+        <v>357</v>
       </c>
       <c r="H44" s="0"/>
       <c r="I44" s="0"/>
@@ -3969,7 +4699,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="1" t="s">
@@ -3982,10 +4712,10 @@
         <v>26</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="H45" s="0"/>
       <c r="I45" s="0"/>
@@ -3999,7 +4729,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="1" t="s">
@@ -4012,10 +4742,10 @@
         <v>26</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="H46" s="0"/>
       <c r="I46" s="0"/>
@@ -4029,26 +4759,26 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="I47" s="0"/>
       <c r="J47" s="0"/>
@@ -4057,31 +4787,31 @@
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
       <c r="Q47" s="1" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="R47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
       <c r="H48" s="0"/>
       <c r="I48" s="0"/>
@@ -4095,10 +4825,10 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>24</v>
@@ -4110,10 +4840,10 @@
         <v>26</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="H49" s="0"/>
       <c r="I49" s="0"/>
@@ -4127,7 +4857,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="B50" s="0"/>
       <c r="C50" s="1" t="s">
@@ -4140,14 +4870,14 @@
         <v>26</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>301</v>
+        <v>377</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="H50" s="0"/>
       <c r="I50" s="1" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>159</v>
@@ -4158,14 +4888,14 @@
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="1" t="s">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="Q50" s="0"/>
       <c r="R50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="1" t="s">
@@ -4178,10 +4908,10 @@
         <v>56</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="H51" s="0"/>
       <c r="I51" s="0"/>
@@ -4195,7 +4925,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>307</v>
+        <v>383</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>162</v>
@@ -4208,10 +4938,10 @@
         <v>56</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="H52" s="0"/>
       <c r="I52" s="0"/>
@@ -4225,7 +4955,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="B53" s="0"/>
       <c r="C53" s="1" t="s">
@@ -4236,10 +4966,10 @@
         <v>26</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="H53" s="0"/>
       <c r="I53" s="0"/>
@@ -4268,13 +4998,13 @@
         <v>26</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="I54" s="0"/>
       <c r="J54" s="0"/>
@@ -4284,12 +5014,12 @@
       <c r="N54" s="0"/>
       <c r="Q54" s="0"/>
       <c r="R54" s="1" t="s">
-        <v>315</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="1" t="s">
@@ -4302,10 +5032,10 @@
         <v>56</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="H55" s="0"/>
       <c r="I55" s="0"/>
@@ -4319,10 +5049,10 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>318</v>
+        <v>394</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>24</v>
@@ -4334,10 +5064,10 @@
         <v>26</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>320</v>
+        <v>396</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="H56" s="0"/>
       <c r="I56" s="0"/>
@@ -4351,7 +5081,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="1" t="s">
@@ -4364,10 +5094,10 @@
         <v>56</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>322</v>
+        <v>398</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="H57" s="0"/>
       <c r="I57" s="0"/>
@@ -4383,7 +5113,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="1" t="s">
@@ -4396,13 +5126,13 @@
         <v>26</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>326</v>
+        <v>401</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="I58" s="0"/>
       <c r="J58" s="0"/>
@@ -4415,23 +5145,23 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
       <c r="H59" s="0"/>
       <c r="I59" s="0"/>
@@ -4445,7 +5175,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="1" t="s">
@@ -4458,13 +5188,13 @@
         <v>26</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="I60" s="0"/>
       <c r="J60" s="0"/>
@@ -4473,13 +5203,13 @@
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
       <c r="Q60" s="1" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="R60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="1" t="s">
@@ -4492,10 +5222,10 @@
         <v>56</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="H61" s="0"/>
       <c r="I61" s="0"/>
@@ -4509,7 +5239,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="B62" s="0"/>
       <c r="C62" s="1" t="s">
@@ -4522,10 +5252,10 @@
         <v>26</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="H62" s="0"/>
       <c r="I62" s="0"/>
@@ -4539,21 +5269,21 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="B63" s="0"/>
       <c r="C63" s="1" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F63" s="0"/>
       <c r="G63" s="1" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="H63" s="0"/>
       <c r="I63" s="0"/>
@@ -4567,7 +5297,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="B64" s="0"/>
       <c r="C64" s="1" t="s">
@@ -4580,10 +5310,10 @@
         <v>26</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="H64" s="0"/>
       <c r="I64" s="0"/>
@@ -4593,29 +5323,29 @@
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
       <c r="Q64" s="1" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="R64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="B65" s="0"/>
       <c r="C65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="H65" s="0"/>
       <c r="I65" s="0"/>
@@ -4625,13 +5355,13 @@
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
       <c r="Q65" s="1" t="s">
-        <v>349</v>
+        <v>423</v>
       </c>
       <c r="R65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="B66" s="0"/>
       <c r="C66" s="1" t="s">
@@ -4644,19 +5374,19 @@
         <v>26</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>351</v>
+        <v>425</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K66" s="0"/>
       <c r="L66" s="0"/>
@@ -4667,52 +5397,52 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>357</v>
+        <v>431</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>358</v>
+        <v>432</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>359</v>
+        <v>433</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="K67" s="0"/>
       <c r="L67" s="1" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="M67" s="0"/>
       <c r="N67" s="1" t="s">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="Q67" s="0"/>
       <c r="R67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>24</v>
@@ -4725,7 +5455,7 @@
       </c>
       <c r="F68" s="0"/>
       <c r="G68" s="1" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="H68" s="0"/>
       <c r="I68" s="0"/>
@@ -4739,7 +5469,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="B69" s="0"/>
       <c r="C69" s="1" t="s">
@@ -4752,15 +5482,15 @@
         <v>56</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="H69" s="0"/>
       <c r="I69" s="0"/>
       <c r="J69" s="1" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="K69" s="0"/>
       <c r="L69" s="0"/>
@@ -4771,7 +5501,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="B70" s="0"/>
       <c r="C70" s="1" t="s">
@@ -4784,10 +5514,10 @@
         <v>56</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="H70" s="0"/>
       <c r="I70" s="0"/>
@@ -4808,42 +5538,42 @@
         <v>24</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>371</v>
+        <v>445</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>176</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="M71" s="0"/>
       <c r="N71" s="0"/>
       <c r="Q71" s="1" t="s">
-        <v>375</v>
+        <v>449</v>
       </c>
       <c r="R71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="B72" s="0"/>
       <c r="C72" s="1" t="s">
@@ -4857,10 +5587,10 @@
       </c>
       <c r="F72" s="0"/>
       <c r="G72" s="1" t="s">
-        <v>377</v>
+        <v>451</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="I72" s="0"/>
       <c r="J72" s="0"/>
@@ -4873,7 +5603,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="B73" s="0"/>
       <c r="C73" s="1" t="s">
@@ -4886,10 +5616,10 @@
         <v>26</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
       <c r="H73" s="0"/>
       <c r="I73" s="0"/>
@@ -4916,13 +5646,13 @@
         <v>26</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="I74" s="0"/>
       <c r="J74" s="0"/>
@@ -4935,7 +5665,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B75" s="0"/>
       <c r="C75" s="1" t="s">
@@ -4948,20 +5678,20 @@
         <v>26</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>385</v>
+        <v>459</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>386</v>
+        <v>460</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>387</v>
+        <v>461</v>
       </c>
       <c r="I75" s="0"/>
       <c r="J75" s="0"/>
       <c r="K75" s="0"/>
       <c r="L75" s="0"/>
       <c r="M75" s="1" t="s">
-        <v>388</v>
+        <v>462</v>
       </c>
       <c r="N75" s="0"/>
       <c r="Q75" s="0"/>
@@ -4969,7 +5699,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="B76" s="0"/>
       <c r="C76" s="1" t="s">
@@ -4982,10 +5712,10 @@
         <v>56</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>389</v>
+        <v>463</v>
       </c>
       <c r="H76" s="0"/>
       <c r="I76" s="0"/>
@@ -4993,20 +5723,20 @@
       <c r="K76" s="0"/>
       <c r="L76" s="0"/>
       <c r="M76" s="1" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>390</v>
+        <v>464</v>
       </c>
       <c r="Q76" s="0"/>
       <c r="R76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>391</v>
+        <v>465</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>24</v>
@@ -5018,13 +5748,13 @@
         <v>26</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>393</v>
+        <v>467</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="I77" s="0"/>
       <c r="J77" s="0"/>
@@ -5036,7 +5766,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>395</v>
+        <v>469</v>
       </c>
       <c r="B78" s="0"/>
       <c r="C78" s="1" t="s">
@@ -5049,10 +5779,10 @@
         <v>26</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>396</v>
+        <v>470</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>397</v>
+        <v>471</v>
       </c>
       <c r="H78" s="0"/>
       <c r="I78" s="0"/>
@@ -5067,7 +5797,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="B79" s="0"/>
       <c r="C79" s="1" t="s">
@@ -5080,10 +5810,10 @@
         <v>26</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="H79" s="0"/>
       <c r="I79" s="0"/>
@@ -5096,7 +5826,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="B80" s="0"/>
       <c r="C80" s="1" t="s">
@@ -5110,10 +5840,10 @@
       </c>
       <c r="F80" s="0"/>
       <c r="G80" s="1" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
       <c r="I80" s="0"/>
       <c r="J80" s="0"/>
@@ -5125,7 +5855,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="B81" s="0"/>
       <c r="C81" s="1" t="s">
@@ -5138,27 +5868,27 @@
         <v>56</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>404</v>
+        <v>478</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="I81" s="0"/>
       <c r="J81" s="0"/>
       <c r="K81" s="0"/>
       <c r="L81" s="0"/>
       <c r="M81" s="1" t="s">
-        <v>406</v>
+        <v>480</v>
       </c>
       <c r="Q81" s="0"/>
       <c r="R81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>407</v>
+        <v>481</v>
       </c>
       <c r="B82" s="0"/>
       <c r="C82" s="1" t="s">
@@ -5171,10 +5901,10 @@
         <v>26</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>408</v>
+        <v>482</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="H82" s="0"/>
       <c r="I82" s="0"/>
@@ -5187,23 +5917,23 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>410</v>
+        <v>484</v>
       </c>
       <c r="B83" s="0"/>
       <c r="C83" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
       <c r="H83" s="0"/>
       <c r="I83" s="0"/>
@@ -5230,7 +5960,7 @@
       </c>
       <c r="F84" s="0"/>
       <c r="G84" s="1" t="s">
-        <v>412</v>
+        <v>486</v>
       </c>
       <c r="H84" s="0"/>
       <c r="I84" s="0"/>
@@ -5239,13 +5969,13 @@
       <c r="L84" s="0"/>
       <c r="M84" s="0"/>
       <c r="Q84" s="1" t="s">
-        <v>413</v>
+        <v>487</v>
       </c>
       <c r="R84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>414</v>
+        <v>488</v>
       </c>
       <c r="B85" s="0"/>
       <c r="C85" s="1" t="s">
@@ -5258,10 +5988,10 @@
         <v>56</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>415</v>
+        <v>489</v>
       </c>
       <c r="H85" s="0"/>
       <c r="I85" s="0"/>
@@ -5274,24 +6004,24 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>416</v>
+        <v>490</v>
       </c>
       <c r="B86" s="0"/>
       <c r="C86" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>417</v>
+        <v>491</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F86" s="0"/>
       <c r="G86" s="1" t="s">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>419</v>
+        <v>493</v>
       </c>
       <c r="I86" s="0"/>
       <c r="J86" s="1" t="s">
@@ -5305,7 +6035,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>23</v>
@@ -5320,10 +6050,10 @@
         <v>26</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>422</v>
+        <v>496</v>
       </c>
       <c r="H87" s="0"/>
       <c r="I87" s="0"/>
@@ -5336,7 +6066,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="B88" s="0"/>
       <c r="C88" s="1" t="s">
@@ -5349,10 +6079,10 @@
         <v>26</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="H88" s="0"/>
       <c r="I88" s="0"/>
@@ -5364,28 +6094,28 @@
         <v>61</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="B89" s="0"/>
       <c r="C89" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="H89" s="0"/>
       <c r="I89" s="0"/>
@@ -5397,7 +6127,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="B90" s="0"/>
       <c r="C90" s="1" t="s">
@@ -5411,7 +6141,7 @@
       </c>
       <c r="F90" s="0"/>
       <c r="G90" s="1" t="s">
-        <v>430</v>
+        <v>504</v>
       </c>
       <c r="H90" s="0"/>
       <c r="I90" s="0"/>
@@ -5423,7 +6153,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="B91" s="0"/>
       <c r="C91" s="1" t="s">
@@ -5436,10 +6166,10 @@
         <v>56</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="H91" s="0"/>
       <c r="I91" s="0"/>
@@ -5451,7 +6181,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>23</v>
@@ -5466,10 +6196,10 @@
         <v>56</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="H92" s="0"/>
       <c r="I92" s="0"/>
@@ -5496,10 +6226,10 @@
         <v>26</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>436</v>
+        <v>510</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>437</v>
+        <v>511</v>
       </c>
       <c r="H93" s="0"/>
       <c r="I93" s="0"/>
@@ -5511,7 +6241,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="B94" s="0"/>
       <c r="C94" s="1" t="s">
@@ -5524,10 +6254,10 @@
         <v>56</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>439</v>
+        <v>513</v>
       </c>
       <c r="H94" s="0"/>
       <c r="I94" s="0"/>
@@ -5552,10 +6282,10 @@
         <v>26</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="H95" s="0"/>
       <c r="I95" s="0"/>
@@ -5564,12 +6294,12 @@
       <c r="L95" s="0"/>
       <c r="M95" s="0"/>
       <c r="Q95" s="1" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>443</v>
+        <v>517</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>162</v>
@@ -5582,7 +6312,7 @@
         <v>56</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G96" s="0"/>
       <c r="H96" s="0"/>
@@ -5595,23 +6325,23 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="B97" s="0"/>
       <c r="C97" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>445</v>
+        <v>519</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="H97" s="0"/>
       <c r="I97" s="0"/>
@@ -5623,7 +6353,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="B98" s="0"/>
       <c r="C98" s="1" t="s">
@@ -5636,10 +6366,10 @@
         <v>26</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>449</v>
+        <v>523</v>
       </c>
       <c r="H98" s="0"/>
       <c r="I98" s="0"/>
@@ -5651,30 +6381,30 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="B99" s="0"/>
       <c r="C99" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="H99" s="0"/>
       <c r="I99" s="1" t="s">
-        <v>453</v>
+        <v>527</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>454</v>
+        <v>528</v>
       </c>
       <c r="K99" s="0"/>
       <c r="L99" s="0"/>
@@ -5683,7 +6413,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>455</v>
+        <v>188</v>
       </c>
       <c r="B100" s="0"/>
       <c r="C100" s="1" t="s">
@@ -5696,10 +6426,10 @@
         <v>26</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>457</v>
+        <v>530</v>
       </c>
       <c r="H100" s="0"/>
       <c r="I100" s="0"/>
@@ -5711,7 +6441,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>458</v>
+        <v>531</v>
       </c>
       <c r="B101" s="0"/>
       <c r="C101" s="1" t="s">
@@ -5724,10 +6454,10 @@
         <v>56</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>459</v>
+        <v>532</v>
       </c>
       <c r="H101" s="0"/>
       <c r="I101" s="0"/>
@@ -5739,23 +6469,23 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="B102" s="0"/>
       <c r="C102" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>461</v>
+        <v>534</v>
       </c>
       <c r="H102" s="0"/>
       <c r="I102" s="0"/>
@@ -5764,12 +6494,12 @@
       <c r="L102" s="0"/>
       <c r="M102" s="0"/>
       <c r="Q102" s="1" t="s">
-        <v>462</v>
+        <v>535</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>463</v>
+        <v>536</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>23</v>
@@ -5784,10 +6514,10 @@
         <v>26</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>464</v>
+        <v>537</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>465</v>
+        <v>538</v>
       </c>
       <c r="H103" s="0"/>
       <c r="I103" s="0"/>
@@ -5799,26 +6529,26 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>466</v>
+        <v>314</v>
       </c>
       <c r="B104" s="0"/>
       <c r="C104" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>467</v>
+        <v>539</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>468</v>
+        <v>540</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>469</v>
+        <v>541</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>470</v>
+        <v>542</v>
       </c>
       <c r="I104" s="0"/>
       <c r="J104" s="0"/>
@@ -5829,7 +6559,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>471</v>
+        <v>543</v>
       </c>
       <c r="B105" s="0"/>
       <c r="C105" s="1" t="s">
@@ -5842,10 +6572,10 @@
         <v>26</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>472</v>
+        <v>544</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>473</v>
+        <v>545</v>
       </c>
       <c r="H105" s="0"/>
       <c r="I105" s="0"/>
@@ -5857,7 +6587,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>474</v>
+        <v>546</v>
       </c>
       <c r="B106" s="0"/>
       <c r="C106" s="1" t="s">
@@ -5870,10 +6600,10 @@
         <v>56</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="H106" s="0"/>
       <c r="I106" s="0"/>
@@ -5885,23 +6615,23 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="B107" s="0"/>
       <c r="C107" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>477</v>
+        <v>549</v>
       </c>
       <c r="H107" s="0"/>
       <c r="I107" s="0"/>
@@ -5926,13 +6656,13 @@
         <v>26</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>147</v>
@@ -5941,14 +6671,14 @@
         <v>176</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M108" s="0"/>
       <c r="Q108" s="1" t="s">
-        <v>482</v>
+        <v>554</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5957,19 +6687,19 @@
       </c>
       <c r="B109" s="0"/>
       <c r="C109" s="1" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>483</v>
+        <v>555</v>
       </c>
       <c r="H109" s="0"/>
       <c r="I109" s="0"/>
@@ -5996,7 +6726,7 @@
       </c>
       <c r="F110" s="0"/>
       <c r="G110" s="1" t="s">
-        <v>484</v>
+        <v>556</v>
       </c>
       <c r="H110" s="0"/>
       <c r="I110" s="0"/>
@@ -6009,7 +6739,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
       <c r="B111" s="0"/>
       <c r="C111" s="1" t="s">
@@ -6022,10 +6752,10 @@
         <v>26</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="H111" s="0"/>
       <c r="I111" s="0"/>
@@ -6036,7 +6766,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="B112" s="0"/>
       <c r="C112" s="1" t="s">
@@ -6049,10 +6779,10 @@
         <v>26</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>490</v>
+        <v>562</v>
       </c>
       <c r="H112" s="0"/>
       <c r="I112" s="0"/>
@@ -6063,7 +6793,7 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>491</v>
+        <v>563</v>
       </c>
       <c r="B113" s="0"/>
       <c r="C113" s="1" t="s">
@@ -6077,7 +6807,7 @@
       </c>
       <c r="F113" s="0"/>
       <c r="G113" s="1" t="s">
-        <v>492</v>
+        <v>564</v>
       </c>
       <c r="H113" s="0"/>
       <c r="I113" s="0"/>
@@ -6085,12 +6815,12 @@
       <c r="L113" s="0"/>
       <c r="M113" s="0"/>
       <c r="Q113" s="1" t="s">
-        <v>493</v>
+        <v>565</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>494</v>
+        <v>566</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>23</v>
@@ -6105,10 +6835,10 @@
         <v>26</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>495</v>
+        <v>567</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>496</v>
+        <v>568</v>
       </c>
       <c r="H114" s="0"/>
       <c r="I114" s="0"/>
@@ -6132,31 +6862,31 @@
         <v>26</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>497</v>
+        <v>569</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>499</v>
+        <v>571</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>502</v>
+        <v>574</v>
       </c>
       <c r="Q115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="B116" s="0"/>
       <c r="C116" s="1" t="s">
@@ -6169,10 +6899,10 @@
         <v>26</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>504</v>
+        <v>576</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="H116" s="0"/>
       <c r="I116" s="0"/>
@@ -6182,23 +6912,23 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="B117" s="0"/>
       <c r="C117" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="H117" s="0"/>
       <c r="I117" s="0"/>
@@ -6208,7 +6938,7 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="B118" s="0"/>
       <c r="C118" s="1" t="s">
@@ -6221,10 +6951,10 @@
         <v>26</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="H118" s="0"/>
       <c r="I118" s="0"/>
@@ -6234,23 +6964,23 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="B119" s="0"/>
       <c r="C119" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="H119" s="0"/>
       <c r="I119" s="0"/>
@@ -6269,13 +6999,13 @@
         <v>77</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G120" s="0"/>
       <c r="H120" s="0"/>
@@ -6286,39 +7016,39 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>517</v>
+        <v>589</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="I121" s="0"/>
       <c r="J121" s="0"/>
       <c r="M121" s="0"/>
       <c r="Q121" s="1" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
       <c r="B122" s="0"/>
       <c r="C122" s="1" t="s">
@@ -6331,10 +7061,10 @@
         <v>26</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="H122" s="0"/>
       <c r="I122" s="0"/>
@@ -6344,7 +7074,7 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>23</v>
@@ -6359,10 +7089,10 @@
         <v>26</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>524</v>
+        <v>596</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>525</v>
+        <v>597</v>
       </c>
       <c r="H123" s="0"/>
       <c r="I123" s="0"/>
@@ -6372,7 +7102,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>228</v>
+        <v>598</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>23</v>
@@ -6387,28 +7117,28 @@
         <v>26</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="J124" s="0" t="s">
         <v>177</v>
       </c>
       <c r="M124" s="0"/>
       <c r="Q124" s="1" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
       <c r="B125" s="0"/>
       <c r="C125" s="1" t="s">
@@ -6421,10 +7151,10 @@
         <v>56</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="H125" s="0"/>
       <c r="I125" s="0"/>
@@ -6434,35 +7164,35 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="B126" s="0"/>
       <c r="C126" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="H126" s="0"/>
       <c r="I126" s="0"/>
       <c r="J126" s="0"/>
       <c r="M126" s="0"/>
       <c r="Q126" s="1" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="B127" s="0"/>
       <c r="C127" s="1" t="s">
@@ -6475,10 +7205,10 @@
         <v>26</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>537</v>
+        <v>610</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="H127" s="0"/>
       <c r="I127" s="0"/>
@@ -6488,23 +7218,23 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="B128" s="0"/>
       <c r="C128" s="1" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="H128" s="0"/>
       <c r="I128" s="0"/>
@@ -6514,7 +7244,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
       <c r="B129" s="0"/>
       <c r="C129" s="1" t="s">
@@ -6527,10 +7257,10 @@
         <v>56</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>543</v>
+        <v>616</v>
       </c>
       <c r="H129" s="0"/>
       <c r="I129" s="0"/>
@@ -6540,23 +7270,23 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>544</v>
+        <v>617</v>
       </c>
       <c r="B130" s="0"/>
       <c r="C130" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>545</v>
+        <v>618</v>
       </c>
       <c r="H130" s="0"/>
       <c r="I130" s="0"/>
@@ -6566,7 +7296,7 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="B131" s="0"/>
       <c r="C131" s="1" t="s">
@@ -6579,10 +7309,10 @@
         <v>26</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>546</v>
+        <v>619</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="H131" s="0"/>
       <c r="I131" s="0"/>
@@ -6592,7 +7322,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>548</v>
+        <v>621</v>
       </c>
       <c r="B132" s="0"/>
       <c r="C132" s="1" t="s">
@@ -6605,10 +7335,10 @@
         <v>26</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>549</v>
+        <v>622</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="H132" s="0"/>
       <c r="I132" s="0"/>
@@ -6618,7 +7348,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="B133" s="0"/>
       <c r="C133" s="1" t="s">
@@ -6631,13 +7361,13 @@
         <v>56</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>552</v>
+        <v>625</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>553</v>
+        <v>626</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>554</v>
+        <v>627</v>
       </c>
       <c r="I133" s="0"/>
       <c r="J133" s="0"/>
@@ -6646,7 +7376,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>555</v>
+        <v>628</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>162</v>
@@ -6659,10 +7389,10 @@
         <v>56</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>556</v>
+        <v>629</v>
       </c>
       <c r="H134" s="0"/>
       <c r="I134" s="0"/>
@@ -6672,7 +7402,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>557</v>
+        <v>630</v>
       </c>
       <c r="B135" s="0"/>
       <c r="C135" s="1" t="s">
@@ -6685,10 +7415,10 @@
         <v>56</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>558</v>
+        <v>631</v>
       </c>
       <c r="H135" s="0"/>
       <c r="I135" s="0"/>
@@ -6698,23 +7428,23 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>559</v>
+        <v>632</v>
       </c>
       <c r="B136" s="0"/>
       <c r="C136" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>560</v>
+        <v>633</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>561</v>
+        <v>634</v>
       </c>
       <c r="H136" s="0"/>
       <c r="I136" s="0"/>
@@ -6724,7 +7454,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>454</v>
+        <v>528</v>
       </c>
       <c r="B137" s="0"/>
       <c r="C137" s="1" t="s">
@@ -6737,13 +7467,13 @@
         <v>26</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>562</v>
+        <v>635</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="I137" s="0"/>
       <c r="J137" s="0"/>
@@ -6752,7 +7482,7 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="B138" s="0"/>
       <c r="C138" s="1" t="s">
@@ -6765,10 +7495,10 @@
         <v>56</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>566</v>
+        <v>639</v>
       </c>
       <c r="H138" s="0"/>
       <c r="I138" s="0"/>
@@ -6793,13 +7523,13 @@
         <v>26</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>568</v>
+        <v>641</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>569</v>
+        <v>642</v>
       </c>
       <c r="I139" s="0"/>
       <c r="J139" s="0"/>
@@ -6810,7 +7540,7 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>570</v>
+        <v>247</v>
       </c>
       <c r="B140" s="0"/>
       <c r="C140" s="1" t="s">
@@ -6823,13 +7553,13 @@
         <v>56</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="I140" s="0"/>
       <c r="J140" s="0"/>
@@ -6842,7 +7572,7 @@
       </c>
       <c r="B141" s="0"/>
       <c r="C141" s="1" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>42</v>
@@ -6851,10 +7581,10 @@
         <v>56</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>574</v>
+        <v>646</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="I141" s="0"/>
       <c r="J141" s="0"/>
@@ -6865,7 +7595,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>23</v>
@@ -6874,19 +7604,19 @@
         <v>24</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>576</v>
+        <v>648</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>577</v>
+        <v>649</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>31</v>
@@ -6895,7 +7625,7 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>77</v>
@@ -6907,18 +7637,18 @@
         <v>26</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>580</v>
+        <v>652</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>581</v>
+        <v>653</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>582</v>
+        <v>654</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>77</v>
@@ -6930,37 +7660,37 @@
         <v>56</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="Q144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="Q145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>77</v>
@@ -6972,18 +7702,18 @@
         <v>26</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>24</v>
@@ -6995,38 +7725,38 @@
         <v>26</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>171</v>
@@ -7035,7 +7765,7 @@
         <v>56</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -7066,60 +7796,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="46.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="37.3673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="31.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="2" width="14.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="54.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="37.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="2" width="16.1989795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="F1" s="9"/>
+        <v>674</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="F1" s="11"/>
       <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>47</v>
@@ -7128,11 +7858,11 @@
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>47</v>
@@ -7141,24 +7871,24 @@
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>66</v>
@@ -7167,34 +7897,34 @@
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>582</v>
+        <v>654</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="H9" s="2" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7205,16 +7935,16 @@
         <v>59</v>
       </c>
       <c r="C10" s="0"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
       <c r="H10" s="2" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>136</v>
@@ -7226,10 +7956,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
@@ -7238,19 +7968,19 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>93</v>
@@ -7261,10 +7991,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
@@ -7272,34 +8002,34 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="2" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="F16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="D17" s="0"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -7307,36 +8037,36 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="2" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="F19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="1" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="F20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>491</v>
+        <v>563</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -7344,46 +8074,46 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="D22" s="0"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="2" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="D23" s="0"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="2" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="1" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="F24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>624</v>
+      <c r="A25" s="14" t="s">
+        <v>696</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>31</v>
@@ -7394,10 +8124,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>419</v>
+        <v>493</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>416</v>
+        <v>490</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
@@ -7405,23 +8135,23 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>413</v>
+        <v>487</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+        <v>697</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
@@ -7435,17 +8165,17 @@
         <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>699</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
@@ -7455,46 +8185,46 @@
         <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>462</v>
+        <v>535</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>349</v>
+        <v>423</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>482</v>
+        <v>554</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="F34" s="9"/>
+        <v>702</v>
+      </c>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>31</v>
@@ -7516,17 +8246,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.96428571428571"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>709</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -12,6 +12,8 @@
     <sheet name="Disguised" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Other keturunan" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Places" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Objects" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="929">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -127,7 +129,7 @@
     <t xml:space="preserve">Arjuna</t>
   </si>
   <si>
-    <t xml:space="preserve">Siti_Sendari:Parikesit; Utari:x</t>
+    <t xml:space="preserve">Siti_Sendari:x; Utari:Parikesit</t>
   </si>
   <si>
     <t xml:space="preserve">Parikesit</t>
@@ -172,7 +174,7 @@
     <t xml:space="preserve">He was born in the Kingdom of Gajahoya / Gajahwoya. When [Parasara] became a sage at Srungga and liberated his wife from their wedding vows, [Parasara] took Abiyasa with him. After his half brothers [Citragada] and [Wicitrawirya] - sons of [Santanu] and [Durgandini] - passed away, he became the ruler of Astina and married the widows of his half-brothers: [Ambika] and [Ambiki]. With [Ambika] he had [Drestarastra] and with [Ambiki] he had [Pandu]. The Gods granted him a long life on the condition that he retire from worldly affairs. He thus left the crown to become a hermit at Retawu and installed his son [Pandu] in his place. [Abiyasa] was able to observe the Baratayuda war from affar via [Sanjaya], the son of [Yamawidura]. After the war was over, a resplendent cart appeared and took Abiyasa to the Suralaya heaven.</t>
   </si>
   <si>
-    <t xml:space="preserve">Biyasa, Dwipayana</t>
+    <t xml:space="preserve">Biyasa, Krisna_Dwipayana</t>
   </si>
   <si>
     <t xml:space="preserve">Durgandini</t>
@@ -439,7 +441,7 @@
     <t xml:space="preserve">Known as  Partha, Phalguna and Vijaya. He is the son of Lord Indra and Kunti and foster son of King Pandu.</t>
   </si>
   <si>
-    <t xml:space="preserve">One of the five Pandawa. Known for his heroic feats and his many wives. He appears in many different lakons. His death is narrated in the /Maha Prastanika Parwa/. He departed from his earthly life and entered heaven. </t>
+    <t xml:space="preserve">One of the five Pandawa. Known for his heroic feats and his many wives. He appears in many different lakons. His death is narrated in the /Maha Prastanika Parwa/. He departed from his earthly life and entered heaven. He is in reality a descendant of Batara [Indra], and is thus also known as Indratenaya.</t>
   </si>
   <si>
     <t xml:space="preserve">Permadi, Pamadi, Janaka, Dananjaya, Parta, Kiritin, Pritaputra, Kumbalyali, Ciptaning Mingtaraga, Pandusiwi, Indratanaya, Jahnawi, Palguna, Danasmara, Margana</t>
@@ -602,7 +604,7 @@
     <t xml:space="preserve">Although commonly said to be Kresna's brother, some sources have him as a son of [Dewani], adopted by [Rohini]. He was known as Kakrasana in his youth. He commanded a defense against [Kangsa], who attacked his kingdom. He was tasked by the Gods with defeating Arya [Yuda_Kothi], who has attacking the heavens. After accomplishing this mission, he was granted several gifts and given the name Baladewa. Then became known as Wasi Jaladara when he became a hermit at Grojogansewu. He lived a long life and was the caretaker of [Parikesit]. He was an incarnation of Dewa Basuki. </t>
   </si>
   <si>
-    <t xml:space="preserve">Jaladara, Kakrasana, Karsana, Kusuma Walikita, Curiganata</t>
+    <t xml:space="preserve">Jaladara, Kakrasana, Karsana, Kusuma_Walikita, Curiganata</t>
   </si>
   <si>
     <t xml:space="preserve">Rohini</t>
@@ -1296,13 +1298,13 @@
     <t xml:space="preserve">Known as the goddess who killed Mahishasura, a buffalo headed demon for his atrocities against rishis and deva. She is also the wife of Lord Shiva.</t>
   </si>
   <si>
-    <t xml:space="preserve">The wife of Batara [Guru] in her Raksasa shape. [Uma] was turned into this shape by Batara [Guru] for refusing to have sex with him. She was returned to her original shape by [Sadewa]. In some versions, she has [Dewasrani] with Batara [Kala], not with Batara [Guru].</t>
+    <t xml:space="preserve">The wife of Batara [Guru] in her Raksasa shape. [Uma] was turned into this shape by Batara [Guru] for refusing to have sex with him. She was returned to her original shape by [Sadewa]. In some versions, she has [Dewasrani] with Batara [Kala], not with Batara [Guru]. In her shape as Uma, she has four children with Guru: Brama, Indra, Bayu and Wisnu. After Uma becomes Durga, Batara [Guru] inserts Uma's soul into [Laksmi], his second wife.</t>
   </si>
   <si>
     <t xml:space="preserve">Uma, Umayi, Parwati, Pramoni, Pramuni</t>
   </si>
   <si>
-    <t xml:space="preserve">Guru:Dewasrani</t>
+    <t xml:space="preserve">Guru:Dewasrani, Kala</t>
   </si>
   <si>
     <t xml:space="preserve">Krendawahana</t>
@@ -1591,834 +1593,984 @@
     <t xml:space="preserve">172-173 (Vol. IV)</t>
   </si>
   <si>
-    <t xml:space="preserve">Known as Sage Agastya, one of the 18 siddhars (sages) who are the  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incarnation of Shiva. In Java, created by Sang Hyang Tunggal at the same time as Semar and Togog.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiva, Utipati</t>
+    <t xml:space="preserve">708-709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Sage Agastya, one of the 18 siddhars (sages) who are considered to be ardent devotees of Lord Shiva. Sage Agastya (who is said to be of Aryan origin) is said to have learnt Tamil from Murugan, the son of Lord Shiva and is said to have mastered the language so well that he even had several disciples under him. He is said to have also vanquished the rakshasas Vatapi and his brother Ilvala who used to devour up innocent sages by disguising themselves as humans and serving sages who passed by their hut and kill them for a meal. Agastya, being aware of this, protects the others from harm by tricking the two rakshasas into killing themselves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incarnation of Shiva. In Java, he was created created by [Sang_Hyang_Tunggal] at the same time as [Semar] and [Togog], who are considered his siblings. There are different versions of the birth, but they tend to coincide in the existence of an egg, from which the skin became Tejamaya ([Togog]), the egg white became Ismaya ([Semar]) and the yolk became Manikmaya(Guru). He also has half brothers from Dewi [Darmani]: Rudra, Darmastuti and Dewanjali. In the list of Batara Guru's children, we include [Dewasrani] and [Kala]. However, it must be noted [Kala] was born from Batara Guru's sperm when [Uma] refused his sexual advances. [Dewasrani] was born to [Uma] when she had already been turned into [Durga]. In some versions, [Dewasrani] is [Kala]'s son, not Batara Guru's.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiva, Syiwa, Syiwa_Budha, Utipati, Manikmaya, Jagad_Pratingkah, Trinetra, Caturbuja, Nilakanta, Jagadnata, Randuhawa, Randuwanda, Kalawesesa, Trilocana, Girinata, Pramestiguru, Hodipati, Mayatmiring, Pasupati, Lengin, Surapati, Adityanirmala, Bhirawa, Dewaraja, Isya, Mahadewa_Budha, Manik, Pasuprabu, Prawata, Rudra, Wisesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rakti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sang_Hyang_Tunggal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semar, Togog, Rudra, Darmastuti, Dewanjali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma: Sambu, Brama, Indra, Bayu, Wisnu, Dewasrani; Laksmi:Sakra, Mahadewa, Asmara; x: Kala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupu Manik Asthagina, Cupu Manik Retna Dumilah, Lata Maosadi, Pustakadarya, Aji Kawrastawan, Aji Pangabaran, Aji Kemayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arca, Candi, Krena, Karna, Gana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331-337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202-213 (Vol. IV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114-117</t>
   </si>
   <si>
     <t xml:space="preserve">Hagni</t>
   </si>
   <si>
-    <t xml:space="preserve">From Makhuta Rama. // as kala bantala, personifikasi api.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Indra or Devendra, the King of Devas (celestial beings). His wife is known as Indrani. Indra is also mentioned the Krishna leela (the divine acts of Krishna) whereby the the fellow villagers of Lord Krishna used to perform prayers to propitiate Lord Indra for rain. However at one point of time when Krishna tells them not to do so, the villagers stop and this enrages Indra. He punishes the villages by causing stormy rains. However Krishna protects the villagers in the end.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King of heaven. Controller of the weather. Often known as God of war. Also known as Diwapati.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surapati, Diwapati</t>
+    <t xml:space="preserve">He is an anthropomorphic representation of fire, not described in any of the encyclopedias consulted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Indra or Devendra, the King of Devas (celestial beings). His wife is known as Indrani. Indra is also mentioned the /Krishna Leela/ (the divine acts of Krishna) whereby the the fellow villagers of Lord Krishna used to perform prayers to ask Lord Indra for rain. However at one point when Krishna told them not to do so, the villagers stopped and this enraged Indra. He punished the villages by causing stormy rains. However Krishna protected the villagers in the end. He is the son of Maharesi Kasyapa and Devi Aditi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The God of beauty and the God of soldiers. He also controls lightning. [Arjuna] is in reality his descendant. He posses an elephant named [Erawana] that he uses as transportation. He is in charge of distributing boons and amulets from the Gods to the mortals. For example he gave the Pasopati heirloom weapon to [Arjuna]. He also give heavenly nymphs as prizes to humans, monkeys and giants, such as Dewi [Tara] to [Sugriwa] and Dewi [Tari] to Desamuka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sambo, Brama, Indra, Bayu, Wisnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiyati:Tara, Tari, Citrarata, Citragana, Jayantaka, Harjunawangsa, Jayantara, Supraba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indrabawana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Raksasa1, Padya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232-234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266-272 (Vol. III)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118-119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaya_Bajra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is a /begawan/ under the service of king [Gorawansa]. He  is not described in any of the encyclopedias consulted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jembawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is known as Jambavati, the daughter of Jambavan. Jambavan was one of the most competent warriors in Rama's army during the war with Ravana in the Ramayana. He is known as the King of bears. Jambavan is also found in the Mahabharata where Krishna asks for the /Syamantaka/ gem of Prasena to be returned back to him. Jambavan refuses to do so and in the end is defeated by Krishna in a combat. He gives his daughter, Jambavati's hand in marriage to Krishna. She changed her shape from a bear to a woman the moment she married Krishna. She is one of the Ashtabharya (eight principle wives) of Lord Krishna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is the daughter of [Jembawan], an old monkey and Dewi [Trijata] (the daughter of Wibisana). She married [Kresna] when he was still known as Narayana. Before her marriage, she had been captured by [Trisanaya], and was liberated by [Arjuna] and [Kresna]. With him she had [Samba] and [Gunadewa]. [Kresna] did not care much for the later, who had a monkey's tail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trijata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jembawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kresna: Samba, Gunadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115-116 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A demon that posseses Dewi [Kunti], under the instructions of [Durga] to send [Sadewa] to [Durga]'s kingdom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamajaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is known as Kamadeva, God of love. He is the son of Lakshmi and Vishnu. He gets burned to ashes by Lord Shiva as he distracts him for a moment by striking him with the cupid arrow to reunite him with his consort Parvati. He reincarnates as Pradyumna, son of Lord Krishna and Rukmini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the Javanese version he is the son of [Semar] and [Kanastren]. Together with his consort [Kamaritih], they are the only Gods who can die. There are multiple versions of their death but they represent the ideal of marital love.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanastren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wungkuam, Tambora, Wrahaspati, Siwah, Kuwera, Candra, Yamadipati, Surya, Darmanesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamaritih:x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cakrakembang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyai Pancawisaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273-278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195-196 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once [Semar] was being chased by two tigers. He found a hermit, [Manumayasa] and asked for his help. The hermit killed the tigers but in their deaths they became two beautiful women. [Semar] married one of them, [Kanastren]. And [Manumayasa] married the other one, [Kaniraras].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanastri, Ganastri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semar: Kamajaya, Wungkuam, Tambora, Wrahaspati, Siwah, Kuwera, Candra, Yamadipati, Surya, Darmanesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinduragen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203-104 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138-139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kangsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamsa is a brother of Devaki. After Devaki marries Vasudeva, the /aakashavani/ (divine prophecy from the skies) announces that Kamsa  will die at the hands of her eight child. Upon hearing this, Kamsa imprisons both Devaki and Vasudewa and kills every child born to them. He is, however unsuccessful in killing the 7th and 8th child of the couple, Krishna, who kills Kamsa, proving the prophecy correct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son [Maerah] and [Gorawangsa], who was disguised as [Basudewa]. His features demonstrate his mixed ancestry, both human and ogre. As an adult he was acknowleded by [Basudewa], but he plotted with [Suratimantra] to take over the [Mandura] kingdom. When Basudewa's children were little, they were sent to Widarakanda, to be looked after by [Antagopa] and [Nya_Sagopi], out of fear that [Kangsa] might want to harm them. [Kangsa] is eventually killed by Kakrasana([Baladewa]) and Narayana([Kresna]).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaka_Maruta, Kangsadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maerah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asti:x; Prapti:x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kresna, Baladewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276-278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153-155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212-218 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">796-797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adipati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is known as the son of Kunti and Surya, the sun God. He is said to have been born with /kavacha kundala/ (an armour and a pair of earings) that were attached to his body since birth. These were considered to make him undefeatable. Due to this, Indra, the father of Arjuna, worried for his son's safety as Arjuna was Karna's greatest enemy. Knowing Karna's greatly charitable nature, Lord Indra took the form of an elderly man and asked Karna to give him his /kavacha kundalas/ as a donation. Karna immediately obliged and this left Indra shocked and amazed upon his great generosity. He blessed Karna with a weapon in return.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of [Kunti] and [Batara Surya]. He was born out of wedlock and not acknowledged as [Kunti]'s son. He was born out of [Kunti ]'s ear and thrown into the Gangga river. A coachman called [Adirata] and his wife [Nanda] took care of him (in India Nanda is known as most commonly known as Radha). He was eventually received and given honours and ranks by the Korawa faction. He made a promise to [Kunti] not to fight anyone except [Arjuna] in the Baratayuda. He was killed by [Arjuna]'s /Pasopati/ weapon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suryaatmaja, Basusena, Suryaputra, Basukarna, Talingasmara, Radhea, Aradea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtikanthi:Warsasena, Warsakusuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awangga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pusaka Anting Mustika, Pusaka Kutang Kere Kaswaran, Anak Panah Wijatacaoa, Kunta Wijayandanu, Rompi Kawacayuda, Cincin Socamaningrat, Kyai Jalak Kaladite, Aji Kalakupa, Aji Naracabala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badru, Lontang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280-283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229-252 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800-803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartamarma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In India he is not a Korawa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartapiyoga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Prabu Kurandhayaksa from Tirta Khadasar. He wants to marry Erawati, but is killed by Kakrasana (Baladewa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurandhayaksa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A queen of the Nagari Guwa in Puntadewa Wisudha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as the 9th incarnation of Lord Vishnu, he is the 8th son of Devaki and Vasudeva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Narayana. King of Dwaraka/ Dwarawati.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narayana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baladewa, RaraIreng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmini, Setyawati and Jembawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahala, Kesawasidhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuda_Kala_Kresna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ogre that attacks the heavens to steal [Setyaboma]. Narayana gets his name [Kresna] and the kingdom of Dwarawati from this ogre after defeating him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buda_Kala_Kresna, Yudha_Kala_Kresna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayanggakara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176 – 177 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumbakarna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of rishi Vishwavasu and rakshasi Kaikesi. He is said to have made a mistake when asking for a boon whereby he asked God for Nidrasana (a bed to sleep) instead of Indrasana (the throne of Indra). As a result he went into deep slumber where he would sleep for six months and stay awake for six months. If his sleep gets disturbed before the 6months comes to an end he is believed to die. During the war, Ravana got his troops to wake him up before the 6 months were complete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Resi Wisrawa and Dewi Sukesi. Has Three brothers: Sarkapenaka, Desamuka, and Wibisana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is known as the adopted daughter of Kuntibhoja. Her biological father is Surasena. She is known as the mother of the Pandavas and Karna, her first son whom she had by the Sun God even before she got married.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter of Surasena, but taken by Kuntiboja. Originally called Perta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Kuntibhoja is known as the foster father of Kunti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father of Kunti and Basudewa, Basukunti is his brother?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basukunti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunti, Basudewa, Ugrasena, Bismaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appears in Semar mBarang Jantur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirta Kadhasar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesmana_Mandrakumara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakshmana Kumara is known as the son of Duryodhana. In one of the Indian retellings, he is said to have been the groom that Balarama's daughter Vatsala was supposed to marry. However, in the end Vatsala marries Abhimanyu, the son of Arjuna and Subhadra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Duryudana (Suyudana) and Banowati.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saroja Kusuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesmana_Murdaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Lakshmana, the third son King of Dasharata and Queen Sumitra. He is married to Princess Urmila, another daughter of King Janaka. Lakshmana is supposed to have guarded the hut of his brother and sister in law day and night without resting. His wifereceived a boon from Nidra Devi, the goddess of sleep, to sleep until her husband returned from exile. At that point, she asks the goddess to give her all the tiredness Lakshmana had while guarding the hut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesmana Murdaka. One of the sons of Dasarata. Sang Prabu punya 3 orang istri Yakni Dewi Raghu, Dewi Sumitra, dan Dewi Kekayi. Dari ketiga orang istri ini lahirlah 4 orang satria, yaitu Ramawijaya, Lesmana Murdaka, Barata, dan Santrugna.  //HY: anaknya Kaikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madri is known as the second wife of Pandu. Due to the curse of a sage, Pandu is said to die if he gets intimate with any of his wives. In the spur of moment, Pandu and Madri forget this and get intimate and as a result Pandu dies. Seeing herself as responsible for his death, Madri also gives up her life hence entrusting Kunti with the responsibilty of taking care of her sons Nakula and Sahadeva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of the two younger Pandawa. Daughter of Mandrapati from Mandraraka and Dewi Tejawati, sibling of Narasoma (Salya)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of Kangsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amirah, Mahira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrakeswara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of Mandraka. Also known as Hartadriya. Together with Gandabayu and Abiyasa defeats Bagaspati. Father of Salya. // In Yogya Mandrapati, or Mandraspati is the father of Salya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartadriya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salya, Madrim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangsahpati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Virata was the ruler of the Matsya Kingdom. The Pandavas serve him in his kingdom during their final year of exile as they would need to spend that year in disguise. His daughter Uttara marries Arjuna's son, Abhimanyu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of Wirata, also known as Durgandana. Pandawa serve him at the end of their 13-year exile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maruta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Dahana speaks to Bantala Maruta and Ranu, he wants to marry a Citrawarsiti, daughter of King Karentegnyana in Tasikmadu.  //HY dari unsur angin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the wives of Werkudara. She is shaped as a Snake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagasewu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagaprasanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He creates a commotion in heaven. Killed by Baladewa. //Tokoh serambahan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagatatmala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raden, Bambang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Antaboga. Kisah ini menceritakan tentang Raden Nagatatmala putra Batara Anantaboga yang berani melarikan Dewi Mumpuni, istri Batara Yamadipati pada saat Kahyangan Suralaya menghadapi serbuan Prabu Karungkala, penjelmaan Batara Kalakutana. Raden Nagatatmala dan Dewi Mumpuni akhirnya mendapatkan perlindungan Prabu Wisnupati di Kerajaan Purwacarita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagabanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the originally the son of the Ashwini twins and Kunti. He is believed to be the most handsome amongst the Pandavas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Pandu and Madrim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narada in Hindu mythology is known as a sage who is a trilokasanjaari (the traveller of the three worlds: Heaven, Earth and the Underworld) as he is able to go to any of these three places at will. He is known as the son of Brahma. He said to have been cursed by Daksha his brother, to create conflict amongst people wherever he goes. However he is also blessed by God in way such that the conflicts that he causes will be a blessing in disguise to leads to the better good for people. He is also considered to be a great devotee of Lord Vishnu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanekaputra. Not a God in India.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nembur_Nawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a story of a snake that entraps Bhima. He is actually Nahusha, his ancestor who has turned into a snake due to a curse by sage Agasthya. In the end Bhima help him to be redeemed from the curse and return to his normal self.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another name of Nabatnawa, the serpet defeated by Bima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NgembatLandeyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this version he is one of the Thousand Kings. But other versions have him as one of the Korawa (also known as Wikatha Boma or Boma Encik, who is killed by Werkudara, jenis boneka wayang guseng halus). // Nama serambahan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padmanaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incarnation of Wisnu. Ketika mati masuk ke Narayana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pancawala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prathivindhya is known as the son of Yudhishtra and Draupadi. He is also known as one of the upapandavas (sons born to each of the Pandavas and Draupadi).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Yudistira and Drupadi. He marries Pergiwati. Pergiwa marries Gatotkaca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandu is the son of Veda Vyasa and Ambalika. He is known to be born pale as his mother's face turned pale with fright when she met Veda Vyasa due to his appearance. He is known to be the successor of King Vichitraveerya of the Kuru house at first but goes to the forest after a curse from a sage; he hands over the throne to his brother Dhirtirashtra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Ambalika and Abyasa. Father of the Pandawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panyarikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God of writing with colorful headdress. Never forgets and can keep a secret. Son of Sang Hyang Parma, grandson of Sang Hyang Taya, younger brother of Sang Hyang Wenang. // there are many versions. There is a version that says he is the son of Batara Guru, another has him as the son of Ismaya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as sage Parasara, he is the father of Veda Vyasa. Satyavati gives birth to Veda Vyasa before her marriage as second wife of King Shantanu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father of Abiyasa, also a writer. Son of Bambang Sakri, who in turn is son of Bambang Sekutrem. Marries Durgandini and fathers Raden Dipayana (Byasa). Also fathers Rajamala and Dewi Sudesno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Raksasa, _Lion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petruk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pracona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prabu, Kala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He wants to marry Supraba, the bidadari.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pradapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Vijaya, the maternal cousin of Sahadeva. Not much is mentioned about Sahadeva's wife apart from Draupadi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadewa's wife. Daughter of Tambrapeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pragota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Ugrasena and Ken Sagupi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken Sagupi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugrasena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satyavati is known as a fisherman's daughter. She was initially known as Matsyagandha (she who smells of fish). Shantanu, Bhishma's father, marries her as his second wife, after his former wife Ganga (a river goddess) leaves him for breaking one of the condition set for the marriage. She gives birth to Vichitraveerya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Setyawati. Daughter of a giant, Bagaspati. She marries Narasoma (Salya). Hasil pujaan (seperti Srikandi, Drupadi dan Pandawa). Trustojumena. Pujan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulunggana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulungsari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat. //mengusai premuan sebagai Pertiwi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sengkalawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yudhistra, alias Dharmaraja (the King of righteousness) is the eldest of the Pandava brothers. He is the son of Yama, the god of death and justice (therefore also known as Yamadharmaraja).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oldest of the pandawa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prabu (Ramuwijaya) / Raden Ramaregawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama is known as the King of Ayodhya. He is of the Solar lineage (Suryavamsa) which means descendents of the Sun god. The kingdom is ruled by King Dilipa followed by his son Rahu, Rahu's son Aja, Aja's son Dasharatha and Dasharatha's son Rama. This why he is sometimes addressed as Raghurama or Raghu Kula Rama (hence alluding his origins from Raghu lineage. He is born to Dasharatha and Kausalya, the first wife of Dasharatha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Dasarata and Kausalya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramawijaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramaparasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parashurama is known as the 7th incarnation Lord Vishnu. He is often depicted with an axe. When his father, Jamadagni gets killed by Kartaveerya Arjuna (not to be confused with Arjuna of the Pandava brothers), Parashurama goes on a mission to kill Kartaveerya and unjust kshatriyas. As a result he refuses to teach martial arts to any one who is born to the Kshatriya clan. He teaches Karna but in the end curses him when he suspects him for being a kshatriya. Although Karna is born into the warrior clan he is still not aware of it at this point of time; Karna in fact sees himself as a Sudra (lower caste) as he is brought up by charioteer Adiratha and lies to Parashurama that he is a brahmin instead; Parashurama himself is born to a brahmin father and kshatriya mother.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Resi Jamadagni and Dewi Renuka. His father asks him to kill his mother, to punish her for committing adultery with Citrarata. He makes his father promise to grant him any wish. With this he returns his borthers to human shape (they had been earlier turned into animals for refusing to kill their mother) and to bring his mother back to life. Ramaparasu is angered when Citrarata kills Jamadagni and vows to kill all kesatria warriors. Eventually Rama (from Ramayana) kills him and then becomes Dewa. // Nama mudanya Bargawa. Parasu = senjata panah.  //Moksa = mencapai kesempurnaan. // In this particular story Wahyu Kaprawiran he is already a God.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramayadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Ramadi. Together with Angganjali provides Tetuka with powers to witstand attacks from Sekipu and Pracona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Dahana speaks to Bantala Maruta and Ranu, he wants to marry a Citrawarsiti, daughter of King Karentegnyana in Tasikmadu.  //HY dari unsur air. //Ranu dasanama dari Tirta, Banyu, Bahni, Weh, Jahni.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subhadra, sister of Krishna and Balarama, and second wife of Arjuna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter of Badrahini and Basudewa. Kakrasana and Narayana are her half-brothers from a different mother. Becomes one wife of Arjuna. Also known as Sumbadra. She becomes one of Arjuna's wives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumbadra, Subadra, Bratajaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baladewa,Kresna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sintawaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Younger brother of Jim Dhamdharat. // Sermabahana. Rutmaka is from Dewa Ruci. // since the oral tradition has him protrayed with a Raksasa wayang, he is given the honorific Kala. But he is actually a demon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of Baladewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Rukmi, the elder brother of Rukmini. He wanted Shishupala, on of the nephews of Lord Krishna to marry Rukmini; he did not like Krishna. He was strongly against the wedding between Krishna and Rukmini. In his battle with Krishna, he gets defeated in the end and has half of his hair and moustache shaved as a form of punishment an publich shaming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Arya Prabu Rukma / Bisamaka and Dewi Rumbini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmini is the first wife of Lord Krishna. She is known as one of his principle wives of Lord Krishna and their first-born, Pradyumna become the crowned Prince of Dwaraka. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First wife of Kresna. Daughter of Bismaka (Aya Prabu Rukma) and Rumbini. Has sibligs: Arya Rumkana and Dewi Rarasati (Larasati) -&gt; this one from Ken Sagupi and Arya Prabu Rukma. Kresna (Narayana), rejecting Drona. The other wives of Kresna are Jembawati (daughter of Jembawan and Trijata), Setyaboma (daughter of Ugrasena / Setyajit, king of Lesmanapura). She has three sons: Saranadewa (face of giant), Partadewa and Dewi Sitisari / Titisari.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the companion of Dewi Sri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JakaPupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahadeva is known to be the most knowledgeable one amongst the Pandavas. Born to Pandu and Madri, he is said to be well versed in astrology and could understand the language of animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youngest Pandawa, son of Madrim and Pandu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salya is the maternal uncle of Madri's sons, Nakul and Sahadeva. He is said to have accidentally ended up siding the Kauravas as Duryodhana tricks him into thinking that his accommodation at the war camp was being provided by the Pandavas when it was actually Duryodhana. As a result, due to hospitality sentiments in the Indian culture, Salya becomes unwillingly obliged to help the Kauravas. He still expressed his support for the Pandavas by demotivating Karna when he became Karna's charioteer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Mandrapati from Mandraraka and Dewi Tejawati. Gives his sister Madrim to Pandu after loosing contest for Kunti. With Setyawati, father of Burisrawa, Erawati (Baladewa), Surtikanti (Karna), Banowati (Duryudana),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narasoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrekaswara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burisrawa,Erawati,Sutikanthi, Banowati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samba is the son of Lord Krishna. He marries Lakshmani, the daughter of Duryodhana. Although Duryodhana is against the marriage, when Balarama expresses his anger (Duryodhana speaks ill of the Yadava clan when Balarama comes to speak on behalf of Samba when he is imprisoned by Duryodhana), Duryodhana relents in the end. Samba is also seen as the main cause of destruction of the Yadava race (Krishna's clan). Many years earlier, even before the kurukshetra war, he once decided to test the power of the sages. He dresses up as a pregnant woman and went to the sages and ask whether the unborn child would be male or female. The sages, enraged by this sign of great disrespect, cast a curse saying that "she" will "give birth" to an iron material which will cause destruction the entire yadava race. An iron mace was ripped out of Samba's thigh and he pounded it and threw it into the sea. The iron dust however was tosed back to the shore of Prabasa and was turned into deadly reeds which the yadavas used to fight and kill one another with during a heated argument on whose side should they take after witnessing the Kurukshetra war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Jembawati and Kresna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saragupita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih of Mandura, during the reign of Basudewa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satrugna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shatrughuna is born to Sumitra, third wife of Dasharatha. He is known as the twin of Lakshmana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin brother of Laksmana, son of Dasarata and Sumitra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekipu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih Kala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih of Pracona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sengkuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakuni, the maternal uncle of the Kauravas. He is plays an important in helping the Kauravas plot against the Pandavas and finds ways to defeat them, including the game of dice where the Pandavas lose their kingdom to the Kauravas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Younger brother of Gandari. [Gandara is the name of their eldest brother, not the name of a Kingdom]. Another name: Harya Suman. In reality, son of King of  Palasajenar. // some say he is the son of Gendara, some sya he is the the adik ke2 prabu Gendara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harya Suman, Trigantalpati, Sakuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Boar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyaboma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satyabhama is known as the second wife and one of the Principle wives of Lord Krishna. She also faces opposition in marrying Krishna from her brother and father. She is seen as the incarnation of the Earth goddess, Bhudevi and is known for her short temper. She is of a strong disposition and even accompanies Lord Krishna during his battle with Narakasura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter of Prabu Setyajid / Arya Ugrasena and Dewi Wersini. Setyaki is her younger brother. She marries Narayana. With him she has Arya Styaka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Satyaki, he is a Yadava chieftein who helped the Pandavas in the Kurukshetra war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Wresniwara. Son of Ugrasena and Dewi Sini  / Wresini (daughter of Sanaprabawa). Marries Dewi Garbarini [ daughter of Garbanata, from Garbaruci] and has a son named Arya Sangasanga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siti_Sendari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishna is said to have a daughter by the name of Charumati; however she is born to Rukmini and Krishna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter of Kresna (Wisnu) and Dewi Pratiwi (daughter of Antaboga). // Sundari berarti bulan purnama.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siti_Sundari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratiwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RaraTemon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not much is mentioned about Sahadeva's marriage. He is usually known as one of the husbands of Draupadi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given to Sadewa (Raden Sudamala) as wife after curing Durga back into Uma. // or after defeating Kalanjaya and Kalantaka, who are casing Endang Soka and Pradapa. //Anaknya Begawan Tambapetra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyi Pohaci Sanghyang Sri. She emerges out of an egg, which emerged out of the tears of Antaboga. The gods kill her to protect her from Batara Guru's desires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugriwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as the monkey king of Kishkinda and the son of the Sun god. He is the brother of Vali (Indra's son) and he helps Rama by lending the support of his Vanara army during Rama's mission to rescue his wife Sita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Guwarsa. Son of Resi Gotama [from Erraya / Grastina] and Dewi Windradi / Indradi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suparta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Dananjaya.  Mretani Jim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surabramadiraja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of Kraton Banon Salembag (or Simbarmanyura) who wants to marry Arimbi. // Serambahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surati_Mantra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SuratiMatra. He is the patih of Gorawangsa.He takes care of Kangsa, the son of Maerah and Gorawangsa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtikanthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Vrushali, she is the wife of Karna and the daughter of Shalya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtikanti. Sibling of Erawati who marries Karna, but also loves Arjuna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surya is known as the son of Aditi (Daksha's daughter) and Sage Kashyapa. He forms a part of the navagrahas (the nine planets).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God of the son. Father of Karna, with Kunti. Son of Guru and Dewi Senggani. // Sama dengan Druwasa (perwujudnya sebagai manusia).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambrapeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He marries Karenumati, Princess of Chedi. Her son's name is Niramitra. Not much is mentioned about Nakula's wife apart from Draupadi. Perhaps one reason could be because Draupadi made It clear that no other wives of the Pandava should share her household in Indraprastha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begawan at Pringalas. Father of Dewi Soka,  who marries Nakula. And Pradapa (Padapa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambapetra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejamantri. Brother of Semar and Guru who accompanies the antagonists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TunggulWulung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//HY he also has his own lakon: tunggul wulung. Malihane Betara GUru. //Tidak punya prajurit, dia mengalahkan kurawa semua, dia usap jadi patung. Akhirnya karna, duryudhana takluk. Si tunggulwulung minta supaya korawa ngluruk Dwarawati. Dwarawati kalah, Kresna mencari bantuan ke Amarta. Sementara Amarta diserang juga. Bima, Gatotkaca, Antareja semua lari ke hutan. Ketemu begawan. Mereka dirubah bima jadi gajah, antasena dadi ular, gatotkaca jadi garuda. Yang merubah ini pendita yang malihane Semar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In most Indian retellings, Vasudeva is usually mentioned to have two wives Devaki and Rohini. There is no mentioning of him having children out of wedlock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Basudewa, out of wedlock. The fourth consort of Basudewa is his mother: Ken Sagupi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugrasena is known as the father of Kamsa and Devaki and grandson of Krishna and Balarama. He is imprisoned by Kamsa when he seizes his throne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugrasena is the brother of Kunti, Basudewa and Ugrasena. // known as Setyajid after becoming King.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyajit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sang Hyang Wenang. Father of Togog, Guru and Semar, with Dewi Wiranti (daughter of Rekatatama). He appears as Ruci in Dewa Ruci.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Bhima, Hanuman's younger brother and the second Pandava.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was wrapped in a Bungkus as a kid, he defeated Gajah Sena and got the name Bratasena as a kid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bratasena, Bima, Arya Sena, Gandawatratmaja, Panduputra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not mentioned in the Indian Mahabharata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the Ramayana he becomes Begawan Kontawibisana. He is the son of Bisawarna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontawibisana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although this character is not mentioned in the Indian Mahabharata, there is a mentioning of one of the Mahabharata characters (either Karna or Arjuna) possesses Nagastra which is a weapon associated with snakes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He can take the shape of a snake. He gives a special weapon to Arjuna (Minyak Jayengkaton). Father of Asmarawati. Father of Dewi Jim Mambang, who dreams of marrying Arjuna. Arjuna gives Wilawuk's cup to his siblings so they can see the Jnvisible demonseainiesigms. //NOTE: there are differnet version about Mambang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bambang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Arjuna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dresanala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishnu is known as Preserver. He is the brother of Uma and brother-in-law of Lord Shiva. He is famous for his Dasavatar (10 incarnations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Narayana. Son of Uma and Guru. The following are considered incarnations of him: Srimaharaja Kanwa, Resi Wisnungkara, Prabu Arjunasasrabahu, Sri Ramawijaya, Sri Batara Kresna . Prabu Airlangga, Prabu Jayabaya, Prabu Anglingdarma Prabu Ken Arok, Prabu Kertawardhana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Tiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wulan_Drema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wulan Derma and Dermi (female) are sons of Batara Darma. //kena kutukan incarnasi, masuk ke tubuh salah. Ulan dermi masuk ke Hagnyawati dan Ulan Derma ke tubuhnya Samba. //Harusnya ke Bomanarakasura, maka selingkuhan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wulan_Dremi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wulan Derma (male) and Dermi (female) are born to Batara Darma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamadipati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check! Definitely in Indian version.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Yamadipati and Senggani. His wife (Mumpuni) runs away with Bambang Nagatmala (Hyang Antaboga and Dewi Suprepti). His anger makes him half giant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamawidura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidura is the prime minister in the court of Hastinapura. He is born to Veda Vyasa and one of the maid-servants in the Kuru. He is viewed as a wise man who provides strong support to the Pandavas for the righteousness although he is often placed in a tough spot due to his royal allegiance to the Kuru house where the Kauravas reside and to his sense of consciousness when he witnesses many instances of unfair treatment towards the Pandavas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Abyasa and Datri. His half brother are Pandu and Drestarasta. He marries Dewi Pamarini [daughter of Praby Dipacandra] has two sons: Sanjaya dan Yuyutsuh. // satu ayah dengan Pandu dan Destrarastra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuda_Kothi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narada in Hindu mythology is not mentioned as having a vehicle. He is known as trilokasanjaari (the traveller of the three world (Heaven, Earth and the Underworld) as he is able to go to any of these three places that he will. He is known as the son of Brahma the creator and ardent devotee of Vishnu the Preserver)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An elephant-shaped ogre that works for Nagaprasanta. After Baladewa kills Nagraprasanta, Yudakothi becomes a transport for Narada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yudhistira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrentani kingdom. saudara tua dari Arya Dananjaya, Arya Dandunwacana, jim Nakula, dan jim Sadewa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diguise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Lion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Raksasa</t>
   </si>
   <si>
     <t xml:space="preserve">_Raksasa1</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaya_Bajra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the begawan of king Gorawansa (who becomes basudewa Palsu).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jembawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She is known as Jambavati, the daughter of Jambavan.  Jambavan believed to be one of the competent warriors in Rama's army during their war with Ravana in the Ramayana. He is known as the King of bears. Jambavan is also found in the Mahabharata where Krishna asks for the syamantaka gem of Prasena to be returned back to him. Jambavan refuses to do so and in the end is defeated by Krishna in a combat. He gives his daughter, Jambavati's hand in marriage to Krishna. It said that she changed from a bear to a woman the moment she married Krishna. She is one of the Ashtabharya (eight principle wives) of Lord Krishna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wife of Kresna. Daughter of Jembawan and Dewi Trijata (daughter of Wibisana). With Kresna she has Samba and Gunadewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Jim that enters Dewi Kunti, as ordered by Durga. Possessed by Kalika, Kunti sends Sadewa to cure Durga (that is, to restore her to her original shape). Kalika ends up falling in love with Sadewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamajaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is known as Kamadeva, god of love. He is the son of Lakshmi and Vishnu. He gets burned to ashes by Lord Shiva as he distracts him for a moment by striking him with the cupid arrow to reunite him with his consort Parvati. He reincarnates as Pradyumna, son of Lord Krishna and Rukmini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">His consort is Dewi Ratih (Kamaratih). Gives Wahyu Cakraningrat to Abimanyu. [Son of Ismaya - Semar and Dewi Sri].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanastren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanastren and Kaniraras are the consorts of Semar. They get them after Manumayasa shots two deers. He marries Kaniraras and Semar takes Kanastren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinduragen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kangsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A brother of Devaki. After Devaki marries Vasudeva, the aakashavani (divine prophecy from the skies) announces that Kamsa  will die at the hands of her eight child. Upon hearing this, Kamsa imprisons both Devaki and Vasudewa and kills every child born to them. He is, however unsuccessful in killing the 7th and 8th child of the couple.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Gorawangsa and Maerah. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaka Maruta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maerah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adipati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is known as the son of Kunti and Surya, the son god. He is said to have been born with kavacha kundala (an armour and a pair of earings) that has been attached to his body since birth. These were considered to make him undefeatable. Due to this, Indra the father of Arjuna worries for his son's safety as Arjuna is Karna's greatest enemy. Knowing Karna's greatly charitable nature, Lord Indra takes the form of an elderly man and asks Karna to give him his kavacha kundalas as donation. Karna immediately does so and this leaves Indra shocked and amazed upon his great generosity. He blesses Karna with a weapon in return.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Kunti and Surya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suryaatmaja, Basusena, Suryaputra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surtikanthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awangga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartamarma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In India he is not a Korawa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartapiyoga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Prabu Kurandhayaksa from Tirta Khadasar. He wants to marry Erawati, but is killed by Kakrasana (Baladewa).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurandhayaksa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A queen of the Nagari Guwa in Puntadewa Wisudha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as the 9th incarnation of Lord Vishnu, he is the 8th son of Devaki and Vasudeva.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Narayana. King of Dwaraka/ Dwarawati.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narayana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baladewa, RaraIreng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmini, Setyawati and Jembawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brahala, Kesawasidhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuda_Kala_Kresna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An ogre that attacks the heavens. Narayana gets his name and kingdom from this ogre after defeating him. // A giant that attackes the heavens and passes his name on to Kresna. //penyatuan Buddha Hindu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buda Kala Kresna, Yudha Kala Kresna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumbakarna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of rishi Vishwavasu and rakshasi Kaikesi. He is said to have made a mistake when asking for a boon whereby he asked God for Nidrasana (a bed to sleep) instead of Indrasana (the throne of Indra). As a result he went into deep slumber where he would sleep for six months and stay awake for six months. If his sleep gets disturbed before the 6months comes to an end he is believed to die. During the war, Ravana got his troops to wake him up before the 6 months were complete.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Resi Wisrawa and Dewi Sukesi. Has Three brothers: Sarkapenaka, Desamuka, and Wibisana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She is known as the adopted daughter of Kuntibhoja. Her biological father is Surasena. She is known as the mother of the Pandavas and Karna, her first son whom she had by the Sun God even before she got married.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Surasena, but taken by Kuntiboja. Originally called Perta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Kuntibhoja is known as the foster father of Kunti.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father of Kunti and Basudewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basukunti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunti, Basudewa, Ugrasena, Bismaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appears in Semar mBarang Jantur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tirta Kadhasar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesmana_Mandrakumara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakshmana Kumara is known as the son of Duryodhana. In one of the Indian retellings, he is said to have been the groom that Balarama's daughter Vatsala was supposed to marry. However, in the end Vatsala marries Abhimanyu, the son of Arjuna and Subhadra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Duryudana (Suyudana) and Banowati.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saroja Kusuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesmana_Murdaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Lakshmana, the third son King of Dasharata and Queen Sumitra. He is married to Princess Urmila, another daughter of King Janaka. Lakshmana is supposed to have guarded the hut of his brother and sister in law day and night without resting. His wifereceived a boon from Nidra Devi, the goddess of sleep, to sleep until her husband returned from exile. At that point, she asks the goddess to give her all the tiredness Lakshmana had while guarding the hut.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesmana Murdaka. One of the sons of Dasarata. Sang Prabu punya 3 orang istri Yakni Dewi Raghu, Dewi Sumitra, dan Dewi Kekayi. Dari ketiga orang istri ini lahirlah 4 orang satria, yaitu Ramawijaya, Lesmana Murdaka, Barata, dan Santrugna.  //HY: anaknya Kaikasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madrim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madri is known as the second wife of Pandu. Due to the curse of a sage, Pandu is said to die if he gets intimate with any of his wives. In the spur of moment, Pandu and Madri forget this and get intimate and as a result Pandu dies. Seeing herself as responsible for his death, Madri also gives up her life hence entrusting Kunti with the responsibilty of taking care of her sons Nakula and Sahadeva.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of the two younger Pandawa. Daughter of Mandrapati from Mandraraka and Dewi Tejawati, sibling of Narasoma (Salya)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of Kangsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amirah, Mahira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandrakeswara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King of Mandraka. Also known as Hartadriya. Together with Gandabayu and Abiyasa defeats Bagaspati. Father of Salya. // In Yogya Mandrapati, or Mandraspati is the father of Salya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hartadriya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salya, Madrim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mangsahpati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Virata was the ruler of the Matsya Kingdom. The Pandavas serve him in his kingdom during their final year of exile as they would need to spend that year in disguise. His daughter Uttara marries Arjuna's son, Abhimanyu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King of Wirata, also known as Durgandana. Pandawa serve him at the end of their 13-year exile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maruta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Dahana speaks to Bantala Maruta and Ranu, he wants to marry a Citrawarsiti, daughter of King Karentegnyana in Tasikmadu.  //HY dari unsur angin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the wives of Werkudara. She is shaped as a Snake.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagasewu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagaprasanta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He creates a commotion in heaven. Killed by Baladewa. //Tokoh serambahan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagatatmala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raden, Bambang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Antaboga. Kisah ini menceritakan tentang Raden Nagatatmala putra Batara Anantaboga yang berani melarikan Dewi Mumpuni, istri Batara Yamadipati pada saat Kahyangan Suralaya menghadapi serbuan Prabu Karungkala, penjelmaan Batara Kalakutana. Raden Nagatatmala dan Dewi Mumpuni akhirnya mendapatkan perlindungan Prabu Wisnupati di Kerajaan Purwacarita.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagabanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the originally the son of the Ashwini twins and Kunti. He is believed to be the most handsome amongst the Pandavas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Pandu and Madrim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narada in Hindu mythology is known as a sage who is a trilokasanjaari (the traveller of the three worlds: Heaven, Earth and the Underworld) as he is able to go to any of these three places at will. He is known as the son of Brahma. He said to have been cursed by Daksha his brother, to create conflict amongst people wherever he goes. However he is also blessed by God in way such that the conflicts that he causes will be a blessing in disguise to leads to the better good for people. He is also considered to be a great devotee of Lord Vishnu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanekaputra. Not a God in India.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nembur_Nawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is a story of a snake that entraps Bhima. He is actually Nahusha, his ancestor who has turned into a snake due to a curse by sage Agasthya. In the end Bhima help him to be redeemed from the curse and return to his normal self.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another name of Nabatnawa, the serpet defeated by Bima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NgembatLandeyan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this version he is one of the Thousand Kings. But other versions have him as one of the Korawa (also known as Wikatha Boma or Boma Encik, who is killed by Werkudara, jenis boneka wayang guseng halus). // Nama serambahan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padmanaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incarnation of Wisnu. Ketika mati masuk ke Narayana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancawala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prathivindhya is known as the son of Yudhishtra and Draupadi. He is also known as one of the upapandavas (sons born to each of the Pandavas and Draupadi).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Yudistira and Drupadi. He marries Pergiwati. Pergiwa marries Gatotkaca.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pandu is the son of Veda Vyasa and Ambalika. He is known to be born pale as his mother's face turned pale with fright when she met Veda Vyasa due to his appearance. He is known to be the successor of King Vichitraveerya of the Kuru house at first but goes to the forest after a curse from a sage; he hands over the throne to his brother Dhirtirashtra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Ambalika and Abyasa. Father of the Pandawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panyarikan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God of writing with colorful headdress. Never forgets and can keep a secret. Son of Sang Hyang Parma, grandson of Sang Hyang Taya, younger brother of Sang Hyang Wenang. // there are many versions. There is a version that says he is the son of Batara Guru, another has him as the son of Ismaya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as sage Parasara, he is the father of Veda Vyasa. Satyavati gives birth to Veda Vyasa before her marriage as second wife of King Shantanu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father of Abiyasa, also a writer. Son of Bambang Sakri, who in turn is son of Bambang Sekutrem. Marries Durgandini and fathers Raden Dipayana (Byasa). Also fathers Rajamala and Dewi Sudesno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Raksasa, _Lion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petruk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pracona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prabu, Kala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He wants to marry Supraba, the bidadari.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pradapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Vijaya, the maternal cousin of Sahadeva. Not much is mentioned about Sahadeva's wife apart from Draupadi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadewa's wife. Daughter of Tambrapeta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pragota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Ugrasena and Ken Sagupi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken Sagupi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ugrasena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satyavati is known as a fisherman's daughter. She was initially known as Matsyagandha (she who smells of fish). Shantanu, Bhishma's father, marries her as his second wife, after his former wife Ganga (a river goddess) leaves him for breaking one of the condition set for the marriage. She gives birth to Vichitraveerya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Setyawati. Daughter of a giant, Bagaspati. She marries Narasoma (Salya). Hasil pujaan (seperti Srikandi, Drupadi dan Pandawa). Trustojumena. Pujan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulunggana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulungsari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat. //mengusai premuan sebagai Pertiwi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sengkalawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puntadewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yudhistra, alias Dharmaraja (the King of righteousness) is the eldest of the Pandava brothers. He is the son of Yama, the god of death and justice (therefore also known as Yamadharmaraja).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oldest of the pandawa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prabu (Ramuwijaya) / Raden Ramaregawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rama is known as the King of Ayodhya. He is of the Solar lineage (Suryavamsa) which means descendents of the Sun god. The kingdom is ruled by King Dilipa followed by his son Rahu, Rahu's son Aja, Aja's son Dasharatha and Dasharatha's son Rama. This why he is sometimes addressed as Raghurama or Raghu Kula Rama (hence alluding his origins from Raghu lineage. He is born to Dasharatha and Kausalya, the first wife of Dasharatha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Dasarata and Kausalya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramawijaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramaparasu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parashurama is known as the 7th incarnation Lord Vishnu. He is often depicted with an axe. When his father, Jamadagni gets killed by Kartaveerya Arjuna (not to be confused with Arjuna of the Pandava brothers), Parashurama goes on a mission to kill Kartaveerya and unjust kshatriyas. As a result he refuses to teach martial arts to any one who is born to the Kshatriya clan. He teaches Karna but in the end curses him when he suspects him for being a kshatriya. Although Karna is born into the warrior clan he is still not aware of it at this point of time; Karna in fact sees himself as a Sudra (lower caste) as he is brought up by charioteer Adiratha and lies to Parashurama that he is a brahmin instead; Parashurama himself is born to a brahmin father and kshatriya mother.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Resi Jamadagni and Dewi Renuka. His father asks him to kill his mother, to punish her for committing adultery with Citrarata. He makes his father promise to grant him any wish. With this he returns his borthers to human shape (they had been earlier turned into animals for refusing to kill their mother) and to bring his mother back to life. Ramaparasu is angered when Citrarata kills Jamadagni and vows to kill all kesatria warriors. Eventually Rama (from Ramayana) kills him and then becomes Dewa. // Nama mudanya Bargawa. Parasu = senjata panah.  //Moksa = mencapai kesempurnaan. // In this particular story Wahyu Kaprawiran he is already a God.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramayadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Ramadi. Together with Angganjali provides Tetuka with powers to witstand attacks from Sekipu and Pracona.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Dahana speaks to Bantala Maruta and Ranu, he wants to marry a Citrawarsiti, daughter of King Karentegnyana in Tasikmadu.  //HY dari unsur air. //Ranu dasanama dari Tirta, Banyu, Bahni, Weh, Jahni.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subhadra, sister of Krishna and Balarama, and second wife of Arjuna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Badrahini and Basudewa. Kakrasana and Narayana are her half-brothers from a different mother. Becomes one wife of Arjuna. Also known as Sumbadra. She becomes one of Arjuna's wives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumbadra, Subadra, Bratajaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baladewa,Kresna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sintawaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Younger brother of Jim Dhamdharat. // Sermabahana. Rutmaka is from Dewa Ruci. // since the oral tradition has him protrayed with a Raksasa wayang, he is given the honorific Kala. But he is actually a demon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of Baladewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Rukmi, the elder brother of Rukmini. He wanted Shishupala, on of the nephews of Lord Krishna to marry Rukmini; he did not like Krishna. He was strongly against the wedding between Krishna and Rukmini. In his battle with Krishna, he gets defeated in the end and has half of his hair and moustache shaved as a form of punishment an publich shaming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Arya Prabu Rukma / Bisamaka and Dewi Rumbini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmini is the first wife of Lord Krishna. She is known as one of his principle wives of Lord Krishna and their first-born, Pradyumna become the crowned Prince of Dwaraka. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First wife of Kresna. Daughter of Bismaka (Aya Prabu Rukma) and Rumbini. Has sibligs: Arya Rumkana and Dewi Rarasati (Larasati) -&gt; this one from Ken Sagupi and Arya Prabu Rukma. Kresna (Narayana), rejecting Drona. The other wives of Kresna are Jembawati (daughter of Jembawan and Trijata), Setyaboma (daughter of Ugrasena / Setyajit, king of Lesmanapura). She has three sons: Saranadewa (face of giant), Partadewa and Dewi Sitisari / Titisari.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the companion of Dewi Sri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JakaPupon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahadeva is known to be the most knowledgeable one amongst the Pandavas. Born to Pandu and Madri, he is said to be well versed in astrology and could understand the language of animals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youngest Pandawa, son of Madrim and Pandu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salya is the maternal uncle of Madri's sons, Nakul and Sahadeva. He is said to have accidentally ended up siding the Kauravas as Duryodhana tricks him into thinking that his accommodation at the war camp was being provided by the Pandavas when it was actually Duryodhana. As a result, due to hospitality sentiments in the Indian culture, Salya becomes unwillingly obliged to help the Kauravas. He still expressed his support for the Pandavas by demotivating Karna when he became Karna's charioteer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Mandrapati from Mandraraka and Dewi Tejawati. Gives his sister Madrim to Pandu after loosing contest for Kunti. With Setyawati, father of Burisrawa, Erawati (Baladewa), Surtikanti (Karna), Banowati (Duryudana),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narasoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tejawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandrekaswara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burisrawa,Erawati,Sutikanthi, Banowati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samba is the son of Lord Krishna. He marries Lakshmani, the daughter of Duryodhana. Although Duryodhana is against the marriage, when Balarama expresses his anger (Duryodhana speaks ill of the Yadava clan when Balarama comes to speak on behalf of Samba when he is imprisoned by Duryodhana), Duryodhana relents in the end. Samba is also seen as the main cause of destruction of the Yadava race (Krishna's clan). Many years earlier, even before the kurukshetra war, he once decided to test the power of the sages. He dresses up as a pregnant woman and went to the sages and ask whether the unborn child would be male or female. The sages, enraged by this sign of great disrespect, cast a curse saying that "she" will "give birth" to an iron material which will cause destruction the entire yadava race. An iron mace was ripped out of Samba's thigh and he pounded it and threw it into the sea. The iron dust however was tosed back to the shore of Prabasa and was turned into deadly reeds which the yadavas used to fight and kill one another with during a heated argument on whose side should they take after witnessing the Kurukshetra war.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Jembawati and Kresna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saragupita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih of Mandura, during the reign of Basudewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satrugna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shatrughuna is born to Sumitra, third wife of Dasharatha. He is known as the twin of Lakshmana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin brother of Laksmana, son of Dasarata and Sumitra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekipu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih Kala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih of Pracona.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sengkuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sakuni, the maternal uncle of the Kauravas. He is plays an important in helping the Kauravas plot against the Pandavas and finds ways to defeat them, including the game of dice where the Pandavas lose their kingdom to the Kauravas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Younger brother of Gandari. [Gandara is the name of their eldest brother, not the name of a Kingdom]. Another name: Harya Suman. In reality, son of King of  Palasajenar. // some say he is the son of Gendara, some sya he is the the adik ke2 prabu Gendara.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harya Suman, Trigantalpati, Sakuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Boar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setyaboma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satyabhama is known as the second wife and one of the Principle wives of Lord Krishna. She also faces opposition in marrying Krishna from her brother and father. She is seen as the incarnation of the Earth goddess, Bhudevi and is known for her short temper. She is of a strong disposition and even accompanies Lord Krishna during his battle with Narakasura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Prabu Setyajid / Arya Ugrasena and Dewi Wersini. Setyaki is her younger brother. She marries Narayana. With him she has Arya Styaka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setyaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Satyaki, he is a Yadava chieftein who helped the Pandavas in the Kurukshetra war.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Wresniwara. Son of Ugrasena and Dewi Sini  / Wresini (daughter of Sanaprabawa). Marries Dewi Garbarini [ daughter of Garbanata, from Garbaruci] and has a son named Arya Sangasanga.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siti_Sendari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishna is said to have a daughter by the name of Charumati; however she is born to Rukmini and Krishna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Kresna (Wisnu) and Dewi Pratiwi (daughter of Antaboga). // Sundari berarti bulan purnama.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siti_Sundari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratiwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RaraTemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not much is mentioned about Sahadeva's marriage. He is usually known as one of the husbands of Draupadi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given to Sadewa (Raden Sudamala) as wife after curing Durga back into Uma. // or after defeating Kalanjaya and Kalantaka, who are casing Endang Soka and Pradapa. //Anaknya Begawan Tambapetra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyi Pohaci Sanghyang Sri. She emerges out of an egg, which emerged out of the tears of Antaboga. The gods kill her to protect her from Batara Guru's desires.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sugriwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as the monkey king of Kishkinda and the son of the Sun god. He is the brother of Vali (Indra's son) and he helps Rama by lending the support of his Vanara army during Rama's mission to rescue his wife Sita.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Guwarsa. Son of Resi Gotama [from Erraya / Grastina] and Dewi Windradi / Indradi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suparta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Dananjaya.  Mretani Jim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surabramadiraja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King of Kraton Banon Salembag (or Simbarmanyura) who wants to marry Arimbi. // Serambahan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surati_Mantra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SuratiMatra. He is the patih of Gorawangsa.He takes care of Kangsa, the son of Maerah and Gorawangsa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Vrushali, she is the wife of Karna and the daughter of Shalya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surtikanti. Sibling of Erawati who marries Karna, but also loves Arjuna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surya is known as the son of Aditi (Daksha's daughter) and Sage Kashyapa. He forms a part of the navagrahas (the nine planets).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God of the son. Father of Karna, with Kunti. Son of Guru and Dewi Senggani. // Sama dengan Druwasa (perwujudnya sebagai manusia).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tambrapeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He marries Karenumati, Princess of Chedi. Her son's name is Niramitra. Not much is mentioned about Nakula's wife apart from Draupadi. Perhaps one reason could be because Draupadi made It clear that no other wives of the Pandava should share her household in Indraprastha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begawan at Pringalas. Father of Dewi Soka,  who marries Nakula. And Pradapa (Padapa).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tambapetra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tejamantri. Brother of Semar and Guru who accompanies the antagonists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TunggulWulung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//HY he also has his own lakon: tunggul wulung. Malihane Betara GUru. //Tidak punya prajurit, dia mengalahkan kurawa semua, dia usap jadi patung. Akhirnya karna, duryudhana takluk. Si tunggulwulung minta supaya korawa ngluruk Dwarawati. Dwarawati kalah, Kresna mencari bantuan ke Amarta. Sementara Amarta diserang juga. Bima, Gatotkaca, Antareja semua lari ke hutan. Ketemu begawan. Mereka dirubah bima jadi gajah, antasena dadi ular, gatotkaca jadi garuda. Yang merubah ini pendita yang malihane Semar. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In most Indian retellings, Vasudeva is usually mentioned to have two wives Devaki and Rohini. There is no mentioning of him having children out of wedlock.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Basudewa, out of wedlock. The fourth consort of Basudewa is his mother: Ken Sagupi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ugrasena is known as the father of Kamsa and Devaki and grandson of Krishna and Balarama. He is imprisoned by Kamsa when he seizes his throne.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ugrasena is the brother of Kunti, Basudewa and Ugrasena. // known as Setyajid after becoming King.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setyajit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sang Hyang Wenang. Father of Togog, Guru and Semar, with Dewi Wiranti (daughter of Rekatatama). He appears as Ruci in Dewa Ruci.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Bhima, Hanuman's younger brother and the second Pandava.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He was wrapped in a Bungkus as a kid, he defeated Gajah Sena and got the name Bratasena as a kid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bratasena, Bima, Arya Sena, Gandawatratmaja, Panduputra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not mentioned in the Indian Mahabharata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After the Ramayana he becomes Begawan Kontawibisana. He is the son of Bisawarna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontawibisana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although this character is not mentioned in the Indian Mahabharata, there is a mentioning of one of the Mahabharata characters (either Karna or Arjuna) possesses Nagastra which is a weapon associated with snakes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He can take the shape of a snake. He gives a special weapon to Arjuna (Minyak Jayengkaton). Father of Asmarawati. Father of Dewi Jim Mambang, who dreams of marrying Arjuna. Arjuna gives Wilawuk's cup to his siblings so they can see the Jnvisible demonseainiesigms. //NOTE: there are differnet version about Mambang.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bambang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Arjuna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dresanala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisnu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishnu is known as Preserver. He is the brother of Uma and brother-in-law of Lord Shiva. He is famous for his Dasavatar (10 incarnations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Narayana. Son of Uma and Guru. The following are considered incarnations of him: Srimaharaja Kanwa, Resi Wisnungkara, Prabu Arjunasasrabahu, Sri Ramawijaya, Sri Batara Kresna . Prabu Airlangga, Prabu Jayabaya, Prabu Anglingdarma Prabu Ken Arok, Prabu Kertawardhana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Tiger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wulan_Drema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wulan Derma and Dermi (female) are sons of Batara Darma. //kena kutukan incarnasi, masuk ke tubuh salah. Ulan dermi masuk ke Hagnyawati dan Ulan Derma ke tubuhnya Samba. //Harusnya ke Bomanarakasura, maka selingkuhan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wulan_Dremi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wulan Derma (male) and Dermi (female) are born to Batara Darma.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yamadipati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check! Definitely in Indian version.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Yamadipati and Senggani. His wife (Mumpuni) runs away with Bambang Nagatmala (Hyang Antaboga and Dewi Suprepti). His anger makes him half giant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Guard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yamawidura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vidura is the prime minister in the court of Hastinapura. He is born to Veda Vyasa and one of the maid-servants in the Kuru. He is viewed as a wise man who provides strong support to the Pandavas for the righteousness although he is often placed in a tough spot due to his royal allegiance to the Kuru house where the Kauravas reside and to his sense of consciousness when he witnesses many instances of unfair treatment towards the Pandavas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Abyasa and Datri. His half brother are Pandu and Drestarasta. He marries Dewi Pamarini [daughter of Praby Dipacandra] has two sons: Sanjaya dan Yuyutsuh. // satu ayah dengan Pandu dan Destrarastra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuda_Kothi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narada in Hindu mythology is not mentioned as having a vehicle. He is known as trilokasanjaari (the traveller of the three world (Heaven, Earth and the Underworld) as he is able to go to any of these three places that he will. He is known as the son of Brahma the creator and ardent devotee of Vishnu the Preserver)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An elephant-shaped ogre that works for Nagaprasanta. After Baladewa kills Nagraprasanta, Yudakothi becomes a transport for Narada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yudhistira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mrentani kingdom. saudara tua dari Arya Dananjaya, Arya Dandunwacana, jim Nakula, dan jim Sadewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diguise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Lion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Raksasa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Citrasena in reality. They want to help the Korawa defeat Pandawa. They are sent by Duryudana to chase Pradapa and Endang Soka. Killed by Nakula and Sadewa in the Sudamala story.</t>
   </si>
   <si>
@@ -2521,6 +2673,18 @@
     <t xml:space="preserve">Sarawasesa</t>
   </si>
   <si>
+    <t xml:space="preserve">Wirandi, Rekatawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuyut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamaritih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nama Yogya</t>
   </si>
   <si>
@@ -2548,12 +2712,24 @@
     <t xml:space="preserve">gelang (hand)</t>
   </si>
   <si>
+    <t xml:space="preserve">Upil-upilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing on the nose</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guru wanda</t>
   </si>
   <si>
     <t xml:space="preserve">gelung (hair)</t>
   </si>
   <si>
+    <t xml:space="preserve">keketan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after the mouth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Posisi kaki</t>
   </si>
   <si>
@@ -2563,39 +2739,99 @@
     <t xml:space="preserve">jamang (crown)</t>
   </si>
   <si>
+    <t xml:space="preserve">suluhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end of the eye</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atribut</t>
   </si>
   <si>
     <t xml:space="preserve">sumping (ear)</t>
   </si>
   <si>
+    <t xml:space="preserve">godeg and ujung godeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spiral thing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kalung</t>
   </si>
   <si>
+    <t xml:space="preserve">kroncong (bracelet for foot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gagregwaluh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">similar but closer to eye</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gelang</t>
   </si>
   <si>
     <t xml:space="preserve">for the hands</t>
   </si>
   <si>
+    <t xml:space="preserve">kelat bahu (upper bracelet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ngangrangan</t>
   </si>
   <si>
     <t xml:space="preserve">for the arms</t>
   </si>
   <si>
+    <t xml:space="preserve">Ulur-ulur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">necklace</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stagen = belt</t>
   </si>
   <si>
     <t xml:space="preserve">topong (crown)</t>
   </si>
   <si>
+    <t xml:space="preserve">uncal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncal kencana and uncal wastra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serban (turbant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celana and lancingan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lancingan is the shorts</t>
+  </si>
+  <si>
     <t xml:space="preserve">kalung ulur lebih atas / kalung double untuk kesatria</t>
   </si>
   <si>
+    <t xml:space="preserve">kethu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ikat leher</t>
+  </si>
+  <si>
     <t xml:space="preserve">double dengan celumpring ke atas</t>
   </si>
   <si>
+    <t xml:space="preserve">ngore</t>
+  </si>
+  <si>
     <t xml:space="preserve">bokongan</t>
   </si>
   <si>
@@ -2608,19 +2844,67 @@
     <t xml:space="preserve">hiasan di telinga</t>
   </si>
   <si>
+    <t xml:space="preserve">dodotan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunca untuk wayang jangkahan, gagahan, dugangan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irah-irahan</t>
   </si>
   <si>
     <t xml:space="preserve">whats on the head, includes garuda</t>
   </si>
   <si>
+    <t xml:space="preserve">bokongan untuk alusan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dodotan rammpekan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Praba / badhong</t>
   </si>
   <si>
+    <t xml:space="preserve">dodotan putren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunca has varieties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunca katongan for jangkahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kanca putran for princes with jangkahan legs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunca bambangan for jangkahan characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunca punggawan for punggawa atau abdi janghakan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sumping</t>
   </si>
   <si>
     <t xml:space="preserve">Rambut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunca poleng anoman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poleng bima only for bima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Othernames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suralaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argadumilah, Jungingsalaka, Paparyawarna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
   </si>
 </sst>
 </file>
@@ -2631,7 +2915,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2734,6 +3018,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2777,7 +3068,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2835,6 +3126,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2921,47 +3220,47 @@
   </sheetPr>
   <dimension ref="A1:AC148"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P35" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="U57" activeCellId="0" sqref="U57"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="G67" activeCellId="0" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="98.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="78.9438775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="84.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="40.0663265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="26.780612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.6020408163265"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="43.0918367346939"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.9897959183673"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.3928571428571"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="10.4744897959184"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.015306122449"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="12.7448979591837"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="14.2551020408163"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="127.755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="127.755102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.9336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.484693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.3673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="118.576530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="94.9285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="101.622448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="47.8418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="30.3469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.3571428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.2142857142857"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.4132653061224"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="51.6224489795918"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="33.3724489795918"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="41.7959183673469"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="36.8265306122449"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.6071428571429"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="12.5255102040816"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="14.469387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.1734693877551"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.6326530612245"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.984693877551"/>
+    <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="153.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="153.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5764,7 +6063,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="15" t="s">
         <v>472</v>
       </c>
       <c r="B54" s="3"/>
@@ -5801,8 +6100,13 @@
       <c r="O54" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="P54" s="0"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
+      <c r="S54" s="0"/>
+      <c r="T54" s="0"/>
+      <c r="U54" s="0"/>
+      <c r="V54" s="0"/>
       <c r="W54" s="1" t="s">
         <v>478</v>
       </c>
@@ -5811,7 +6115,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="15" t="s">
         <v>419</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -5849,8 +6153,14 @@
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
+      <c r="O55" s="0"/>
+      <c r="P55" s="0"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
+      <c r="S55" s="0"/>
+      <c r="T55" s="0"/>
+      <c r="U55" s="0"/>
+      <c r="V55" s="0"/>
       <c r="W55" s="1" t="s">
         <v>478</v>
       </c>
@@ -5859,7 +6169,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>225</v>
       </c>
       <c r="B56" s="3"/>
@@ -5890,21 +6200,28 @@
         <v>489</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="P56" s="0"/>
       <c r="Q56" s="1" t="s">
         <v>188</v>
       </c>
       <c r="R56" s="3"/>
+      <c r="S56" s="0"/>
+      <c r="T56" s="0"/>
       <c r="U56" s="1" t="n">
         <v>106</v>
       </c>
+      <c r="V56" s="0"/>
       <c r="W56" s="1" t="s">
         <v>490</v>
       </c>
+      <c r="X56" s="1" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B57" s="3"/>
@@ -5917,27 +6234,57 @@
       <c r="E57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>491</v>
+      <c r="F57" s="16" t="s">
+        <v>492</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
+        <v>494</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>498</v>
+      </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
+      <c r="O57" s="0"/>
+      <c r="P57" s="1" t="s">
+        <v>499</v>
+      </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
+      <c r="S57" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="U57" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>494</v>
+      <c r="A58" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="1" t="s">
@@ -5953,7 +6300,7 @@
         <v>209</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -5962,11 +6309,19 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="0"/>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
+      <c r="X58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="4" t="s">
         <v>303</v>
       </c>
       <c r="B59" s="3"/>
@@ -5980,28 +6335,56 @@
         <v>28</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
+        <v>509</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>511</v>
+      </c>
       <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
+      <c r="N59" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="O59" s="0"/>
+      <c r="P59" s="0"/>
       <c r="Q59" s="1" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="R59" s="3"/>
+      <c r="S59" s="0"/>
+      <c r="T59" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="U59" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>500</v>
+      <c r="A60" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="1" t="s">
@@ -6017,7 +6400,7 @@
         <v>209</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -6026,12 +6409,20 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
+      <c r="O60" s="0"/>
+      <c r="P60" s="0"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
+      <c r="S60" s="0"/>
+      <c r="T60" s="0"/>
+      <c r="U60" s="0"/>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0"/>
+      <c r="X60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>502</v>
+      <c r="A61" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="1" t="s">
@@ -6044,38 +6435,60 @@
         <v>28</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>524</v>
+      </c>
       <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
+      <c r="L61" s="3" t="s">
+        <v>525</v>
+      </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
+      <c r="O61" s="0"/>
+      <c r="P61" s="0"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
+      <c r="S61" s="0"/>
+      <c r="T61" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="U61" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="V61" s="0"/>
+      <c r="W61" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="X61" s="1" t="n">
+        <v>756</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>505</v>
+      <c r="A62" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="1" t="s">
         <v>361</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="1" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -6084,12 +6497,22 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
+      <c r="O62" s="0"/>
+      <c r="P62" s="0"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
+      <c r="S62" s="0"/>
+      <c r="T62" s="0"/>
+      <c r="U62" s="0"/>
+      <c r="V62" s="0"/>
+      <c r="W62" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="X62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>508</v>
+      <c r="A63" s="4" t="s">
+        <v>531</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="1" t="s">
@@ -6102,26 +6525,56 @@
         <v>28</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
+      <c r="I63" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
+      <c r="N63" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="O63" s="0"/>
+      <c r="P63" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="Q63" s="1" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="R63" s="3"/>
+      <c r="S63" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="T63" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="U63" s="0"/>
+      <c r="V63" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="X63" s="1" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>512</v>
+      <c r="A64" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="1" t="s">
@@ -6137,23 +6590,39 @@
         <v>209</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H64" s="3"/>
+        <v>544</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>545</v>
+      </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
+      <c r="L64" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
+      <c r="O64" s="0"/>
       <c r="Q64" s="1" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="R64" s="3"/>
+      <c r="T64" s="0"/>
+      <c r="U64" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="V64" s="0"/>
+      <c r="W64" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>515</v>
+      <c r="A65" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="1" t="s">
@@ -6166,29 +6635,49 @@
         <v>28</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>225</v>
       </c>
       <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
+      <c r="L65" s="3" t="s">
+        <v>555</v>
+      </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
+      <c r="O65" s="0" t="s">
+        <v>556</v>
+      </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
+      <c r="T65" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="W65" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>464</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -6198,40 +6687,61 @@
         <v>26</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="1" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="1" t="s">
-        <v>525</v>
+        <v>567</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
+      <c r="S66" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="T66" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="W66" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>526</v>
+        <v>573</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>241</v>
@@ -6247,7 +6757,7 @@
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="1" t="s">
-        <v>527</v>
+        <v>574</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -6256,12 +6766,15 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
+      <c r="O67" s="0"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
+      <c r="T67" s="0"/>
+      <c r="W67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="1" t="s">
@@ -6277,19 +6790,22 @@
         <v>209</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>529</v>
+        <v>576</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="1" t="s">
-        <v>530</v>
+        <v>577</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
+      <c r="O68" s="0"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
+      <c r="T68" s="0"/>
+      <c r="W68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
@@ -6309,7 +6825,7 @@
         <v>209</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -6318,8 +6834,11 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
+      <c r="O69" s="0"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
+      <c r="T69" s="0"/>
+      <c r="W69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
@@ -6330,19 +6849,19 @@
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>532</v>
+        <v>579</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>533</v>
+        <v>580</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>534</v>
+        <v>581</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>535</v>
+        <v>582</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>342</v>
@@ -6351,21 +6870,24 @@
         <v>188</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>536</v>
+        <v>583</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
+      <c r="O70" s="0"/>
       <c r="Q70" s="1" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="R70" s="3"/>
+      <c r="T70" s="0"/>
+      <c r="W70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>539</v>
+      <c r="A71" s="4" t="s">
+        <v>586</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="1" t="s">
@@ -6377,25 +6899,38 @@
       <c r="E71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F71" s="3"/>
+      <c r="F71" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="G71" s="1" t="s">
-        <v>540</v>
+        <v>587</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>541</v>
+        <v>588</v>
       </c>
       <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="J71" s="3" t="s">
+        <v>589</v>
+      </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
+      <c r="O71" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
+      <c r="T71" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>542</v>
+        <v>591</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="1" t="s">
@@ -6408,10 +6943,10 @@
         <v>28</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>543</v>
+        <v>592</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -6438,16 +6973,18 @@
         <v>28</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>546</v>
+        <v>595</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>547</v>
+        <v>596</v>
       </c>
       <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+      <c r="J73" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -6470,20 +7007,20 @@
         <v>28</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>549</v>
+        <v>598</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>550</v>
+        <v>599</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="1" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="N74" s="3"/>
       <c r="Q74" s="3"/>
@@ -6491,7 +7028,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>530</v>
+        <v>577</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="1" t="s">
@@ -6507,7 +7044,7 @@
         <v>209</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>552</v>
+        <v>601</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -6515,17 +7052,17 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="1" t="s">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>553</v>
+        <v>602</v>
       </c>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>554</v>
+        <v>603</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>241</v>
@@ -6540,13 +7077,13 @@
         <v>28</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>555</v>
+        <v>604</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>557</v>
+        <v>606</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -6558,7 +7095,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>558</v>
+        <v>607</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="1" t="s">
@@ -6571,10 +7108,10 @@
         <v>28</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>559</v>
+        <v>608</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -6589,7 +7126,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>561</v>
+        <v>610</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="1" t="s">
@@ -6602,10 +7139,10 @@
         <v>28</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>563</v>
+        <v>612</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -6618,7 +7155,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="1" t="s">
@@ -6632,10 +7169,10 @@
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="1" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>565</v>
+        <v>614</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -6647,7 +7184,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>566</v>
+        <v>615</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="1" t="s">
@@ -6663,24 +7200,24 @@
         <v>209</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>568</v>
+        <v>617</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="1" t="s">
-        <v>569</v>
+        <v>618</v>
       </c>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>570</v>
+        <v>619</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="1" t="s">
@@ -6693,10 +7230,10 @@
         <v>28</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>571</v>
+        <v>620</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -6709,7 +7246,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="1" t="s">
@@ -6725,7 +7262,7 @@
         <v>209</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>574</v>
+        <v>623</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -6752,7 +7289,7 @@
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="1" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -6761,13 +7298,13 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="Q83" s="1" t="s">
-        <v>576</v>
+        <v>625</v>
       </c>
       <c r="R83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>577</v>
+        <v>626</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="1" t="s">
@@ -6783,7 +7320,7 @@
         <v>209</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -6796,24 +7333,24 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>579</v>
+        <v>628</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>580</v>
+        <v>629</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="1" t="s">
-        <v>581</v>
+        <v>630</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1" t="s">
@@ -6827,7 +7364,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>583</v>
+        <v>632</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>25</v>
@@ -6842,10 +7379,10 @@
         <v>28</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>585</v>
+        <v>634</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -6871,10 +7408,10 @@
         <v>28</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>586</v>
+        <v>635</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>587</v>
+        <v>636</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -6891,23 +7428,23 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>588</v>
+        <v>637</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>589</v>
+        <v>638</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>590</v>
+        <v>639</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>591</v>
+        <v>640</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -6919,7 +7456,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>592</v>
+        <v>641</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="1" t="s">
@@ -6933,7 +7470,7 @@
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="1" t="s">
-        <v>593</v>
+        <v>642</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -6945,7 +7482,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>594</v>
+        <v>643</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="1" t="s">
@@ -6961,7 +7498,7 @@
         <v>209</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>595</v>
+        <v>644</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -6973,7 +7510,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>596</v>
+        <v>645</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>25</v>
@@ -6988,10 +7525,10 @@
         <v>62</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>597</v>
+        <v>646</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>598</v>
+        <v>647</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -7018,10 +7555,10 @@
         <v>28</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>599</v>
+        <v>648</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>600</v>
+        <v>649</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -7033,7 +7570,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>601</v>
+        <v>650</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="1" t="s">
@@ -7049,7 +7586,7 @@
         <v>209</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>602</v>
+        <v>651</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -7074,10 +7611,10 @@
         <v>28</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>603</v>
+        <v>652</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>604</v>
+        <v>653</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -7086,12 +7623,12 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="Q94" s="1" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>606</v>
+        <v>655</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>173</v>
@@ -7117,14 +7654,14 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>607</v>
+        <v>656</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>608</v>
+        <v>657</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>62</v>
@@ -7133,7 +7670,7 @@
         <v>209</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>609</v>
+        <v>658</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -7145,7 +7682,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>610</v>
+        <v>659</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="1" t="s">
@@ -7158,10 +7695,10 @@
         <v>28</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>611</v>
+        <v>660</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>612</v>
+        <v>661</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -7173,14 +7710,14 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>613</v>
+        <v>662</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>62</v>
@@ -7189,14 +7726,14 @@
         <v>209</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>615</v>
+        <v>664</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="1" t="s">
-        <v>616</v>
+        <v>665</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>617</v>
+        <v>666</v>
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -7218,10 +7755,10 @@
         <v>28</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>618</v>
+        <v>667</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>619</v>
+        <v>668</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -7233,7 +7770,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>620</v>
+        <v>669</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="1" t="s">
@@ -7249,7 +7786,7 @@
         <v>209</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>621</v>
+        <v>670</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -7261,7 +7798,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>622</v>
+        <v>671</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="1" t="s">
@@ -7277,7 +7814,7 @@
         <v>209</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>623</v>
+        <v>672</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -7286,12 +7823,12 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="Q101" s="1" t="s">
-        <v>624</v>
+        <v>673</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>625</v>
+        <v>674</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>25</v>
@@ -7306,10 +7843,10 @@
         <v>28</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>626</v>
+        <v>675</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>627</v>
+        <v>676</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -7328,19 +7865,19 @@
         <v>26</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>628</v>
+        <v>677</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>629</v>
+        <v>678</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>630</v>
+        <v>679</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>631</v>
+        <v>680</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -7351,7 +7888,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>632</v>
+        <v>681</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="1" t="s">
@@ -7364,10 +7901,10 @@
         <v>28</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>633</v>
+        <v>682</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -7379,7 +7916,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>635</v>
+        <v>684</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="1" t="s">
@@ -7395,7 +7932,7 @@
         <v>209</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>636</v>
+        <v>685</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -7407,7 +7944,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="1" t="s">
@@ -7423,7 +7960,7 @@
         <v>209</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>638</v>
+        <v>687</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -7448,13 +7985,13 @@
         <v>28</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>158</v>
@@ -7463,14 +8000,14 @@
         <v>188</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M107" s="3"/>
       <c r="Q107" s="1" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7491,7 +8028,7 @@
         <v>209</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -7518,7 +8055,7 @@
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="1" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -7531,7 +8068,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>646</v>
+        <v>695</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="1" t="s">
@@ -7544,10 +8081,10 @@
         <v>28</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>647</v>
+        <v>696</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>648</v>
+        <v>697</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -7558,7 +8095,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>649</v>
+        <v>698</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="1" t="s">
@@ -7571,10 +8108,10 @@
         <v>28</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>651</v>
+        <v>700</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -7585,7 +8122,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="1" t="s">
@@ -7599,7 +8136,7 @@
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="1" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -7607,12 +8144,12 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="Q112" s="1" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>25</v>
@@ -7627,10 +8164,10 @@
         <v>28</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -7654,31 +8191,31 @@
         <v>28</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>659</v>
+        <v>708</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>660</v>
+        <v>709</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>661</v>
+        <v>710</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>662</v>
+        <v>711</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>432</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
       <c r="Q114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>664</v>
+        <v>713</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="1" t="s">
@@ -7691,10 +8228,10 @@
         <v>28</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>665</v>
+        <v>714</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -7704,14 +8241,14 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>667</v>
+        <v>716</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>62</v>
@@ -7720,7 +8257,7 @@
         <v>209</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>668</v>
+        <v>717</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -7730,7 +8267,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="1" t="s">
@@ -7743,10 +8280,10 @@
         <v>28</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -7756,14 +8293,14 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>673</v>
+        <v>722</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>62</v>
@@ -7772,7 +8309,7 @@
         <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>674</v>
+        <v>723</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -7791,7 +8328,7 @@
         <v>88</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>62</v>
@@ -7808,7 +8345,7 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>241</v>
@@ -7817,30 +8354,30 @@
         <v>26</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>678</v>
+        <v>727</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>679</v>
+        <v>728</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="M120" s="3"/>
       <c r="Q120" s="1" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>681</v>
+        <v>730</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="1" t="s">
@@ -7853,10 +8390,10 @@
         <v>28</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>682</v>
+        <v>731</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>683</v>
+        <v>732</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -7866,7 +8403,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>25</v>
@@ -7881,10 +8418,10 @@
         <v>28</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>685</v>
+        <v>734</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>686</v>
+        <v>735</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -7894,7 +8431,7 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>687</v>
+        <v>736</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>25</v>
@@ -7909,28 +8446,28 @@
         <v>28</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>688</v>
+        <v>737</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>689</v>
+        <v>738</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>690</v>
+        <v>739</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>189</v>
       </c>
       <c r="M123" s="3"/>
       <c r="Q123" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="1" t="s">
@@ -7943,10 +8480,10 @@
         <v>62</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -7956,7 +8493,7 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="1" t="s">
@@ -7972,19 +8509,19 @@
         <v>209</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="M125" s="3"/>
       <c r="Q125" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="1" t="s">
@@ -7997,10 +8534,10 @@
         <v>28</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -8010,14 +8547,14 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="1" t="s">
         <v>361</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>62</v>
@@ -8026,7 +8563,7 @@
         <v>209</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -8036,7 +8573,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="1" t="s">
@@ -8052,7 +8589,7 @@
         <v>209</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -8062,14 +8599,14 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>673</v>
+        <v>722</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>62</v>
@@ -8078,7 +8615,7 @@
         <v>209</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>707</v>
+        <v>756</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -8088,7 +8625,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>524</v>
+        <v>757</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="1" t="s">
@@ -8101,10 +8638,10 @@
         <v>28</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>708</v>
+        <v>758</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>709</v>
+        <v>759</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -8114,7 +8651,7 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>710</v>
+        <v>565</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="1" t="s">
@@ -8127,10 +8664,10 @@
         <v>28</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>711</v>
+        <v>760</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>712</v>
+        <v>761</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -8140,7 +8677,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>713</v>
+        <v>762</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="1" t="s">
@@ -8153,13 +8690,13 @@
         <v>62</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>714</v>
+        <v>763</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>715</v>
+        <v>764</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>716</v>
+        <v>765</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -8168,7 +8705,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>717</v>
+        <v>766</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>173</v>
@@ -8184,7 +8721,7 @@
         <v>209</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>718</v>
+        <v>767</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -8194,7 +8731,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>719</v>
+        <v>768</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="1" t="s">
@@ -8210,7 +8747,7 @@
         <v>209</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>720</v>
+        <v>769</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -8220,23 +8757,23 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>721</v>
+        <v>770</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>722</v>
+        <v>771</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>723</v>
+        <v>772</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -8246,7 +8783,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>617</v>
+        <v>666</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="1" t="s">
@@ -8259,13 +8796,13 @@
         <v>28</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>724</v>
+        <v>773</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>725</v>
+        <v>774</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>726</v>
+        <v>775</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -8274,7 +8811,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>727</v>
+        <v>776</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="1" t="s">
@@ -8290,7 +8827,7 @@
         <v>209</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>728</v>
+        <v>777</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -8315,13 +8852,13 @@
         <v>28</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>729</v>
+        <v>778</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>730</v>
+        <v>779</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>731</v>
+        <v>780</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -8345,13 +8882,13 @@
         <v>62</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>732</v>
+        <v>781</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>733</v>
+        <v>782</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>734</v>
+        <v>783</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -8373,10 +8910,10 @@
         <v>62</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>735</v>
+        <v>784</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>736</v>
+        <v>785</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -8396,19 +8933,19 @@
         <v>26</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>737</v>
+        <v>786</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>732</v>
+        <v>781</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>738</v>
+        <v>787</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>739</v>
+        <v>788</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>33</v>
@@ -8417,7 +8954,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>740</v>
+        <v>789</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>88</v>
@@ -8429,18 +8966,18 @@
         <v>28</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>741</v>
+        <v>790</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>742</v>
+        <v>791</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>743</v>
+        <v>792</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>744</v>
+        <v>793</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>88</v>
@@ -8452,16 +8989,16 @@
         <v>62</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>732</v>
+        <v>781</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>745</v>
+        <v>794</v>
       </c>
       <c r="Q143" s="3"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>746</v>
+        <v>795</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>88</v>
@@ -8473,16 +9010,16 @@
         <v>62</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>732</v>
+        <v>781</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>747</v>
+        <v>796</v>
       </c>
       <c r="Q144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>748</v>
+        <v>797</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>88</v>
@@ -8494,18 +9031,18 @@
         <v>28</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>749</v>
+        <v>798</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>750</v>
+        <v>799</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>751</v>
+        <v>800</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>752</v>
+        <v>801</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>26</v>
@@ -8517,35 +9054,35 @@
         <v>28</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>753</v>
+        <v>802</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>754</v>
+        <v>803</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>755</v>
+        <v>804</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>756</v>
+        <v>805</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>757</v>
+        <v>806</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>758</v>
+        <v>807</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>759</v>
+        <v>808</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>361</v>
@@ -8557,7 +9094,7 @@
         <v>62</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -8578,7 +9115,7 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -8588,37 +9125,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="65.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="52.484693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="44.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="78.8367346938775"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="62.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="52.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="2" width="22.3571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>761</v>
+        <v>810</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>762</v>
+        <v>811</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>763</v>
+        <v>812</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>764</v>
+        <v>813</v>
       </c>
       <c r="F1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -8628,10 +9165,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>751</v>
+        <v>800</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>748</v>
+        <v>797</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8641,7 +9178,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>765</v>
+        <v>814</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>51</v>
@@ -8654,7 +9191,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>766</v>
+        <v>815</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>51</v>
@@ -8667,7 +9204,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>499</v>
+        <v>816</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>303</v>
@@ -8693,10 +9230,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>743</v>
+        <v>792</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>740</v>
+        <v>789</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8716,7 +9253,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>767</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8731,12 +9268,12 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>768</v>
+        <v>818</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>769</v>
+        <v>819</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>147</v>
@@ -8748,10 +9285,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -8760,7 +9297,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>770</v>
+        <v>820</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>225</v>
@@ -8772,7 +9309,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>771</v>
+        <v>821</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>104</v>
@@ -8783,10 +9320,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>772</v>
+        <v>822</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>773</v>
+        <v>823</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -8794,23 +9331,23 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>774</v>
+        <v>824</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>775</v>
+        <v>825</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>776</v>
+        <v>826</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>777</v>
+        <v>827</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -8818,7 +9355,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>778</v>
+        <v>828</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>466</v>
@@ -8829,14 +9366,14 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>779</v>
+        <v>829</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>780</v>
+        <v>830</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -8849,16 +9386,16 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>781</v>
+        <v>831</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -8874,7 +9411,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
-        <v>782</v>
+        <v>832</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8887,25 +9424,25 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>782</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>783</v>
+        <v>833</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>784</v>
+        <v>834</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>785</v>
+      <c r="A25" s="17" t="s">
+        <v>835</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
@@ -8916,10 +9453,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>579</v>
+        <v>628</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -8927,20 +9464,20 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>576</v>
+        <v>625</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>786</v>
+        <v>836</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>787</v>
+        <v>837</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>360</v>
@@ -8957,17 +9494,17 @@
         <v>108</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>788</v>
+        <v>838</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>789</v>
+        <v>839</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -8984,39 +9521,39 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>624</v>
+        <v>673</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>622</v>
+        <v>671</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>790</v>
+        <v>840</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>791</v>
+        <v>841</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>792</v>
+        <v>842</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -9038,20 +9575,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="10.9081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>793</v>
+        <v>843</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
@@ -9065,29 +9602,50 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>794</v>
+        <v>844</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>795</v>
+        <v>845</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>796</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>797</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="B3" s="0"/>
       <c r="C3" s="3" t="s">
-        <v>798</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>799</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="B4" s="0"/>
       <c r="C4" s="3" t="s">
-        <v>800</v>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -9106,49 +9664,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="15.1173469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="3" t="s">
-        <v>801</v>
+        <v>855</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>802</v>
+        <v>856</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
       <c r="J1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
       <c r="W1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>803</v>
+        <v>857</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>803</v>
+        <v>857</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>804</v>
+        <v>858</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="J2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
       <c r="W2" s="3" t="s">
-        <v>803</v>
+        <v>857</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9160,6 +9722,8 @@
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="J3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
@@ -9170,10 +9734,12 @@
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="J4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>805</v>
+        <v>859</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
@@ -9182,10 +9748,12 @@
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="J5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>806</v>
+        <v>860</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -9194,10 +9762,12 @@
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="J6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>807</v>
+        <v>861</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -9206,10 +9776,12 @@
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="J7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>808</v>
+        <v>862</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -9218,12 +9790,18 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="J8" s="3" t="s">
-        <v>809</v>
+        <v>863</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>810</v>
+        <v>866</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -9232,15 +9810,21 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="J9" s="3" t="s">
-        <v>811</v>
+        <v>867</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>812</v>
+        <v>870</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>813</v>
+        <v>871</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -9248,12 +9832,18 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="J10" s="3" t="s">
-        <v>814</v>
+        <v>872</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>815</v>
+        <v>875</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -9262,12 +9852,18 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="J11" s="3" t="s">
-        <v>816</v>
+        <v>876</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>817</v>
+        <v>879</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -9275,32 +9871,57 @@
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
+      <c r="J12" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>818</v>
+        <v>883</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>819</v>
+        <v>884</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
+      <c r="J13" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>820</v>
+        <v>888</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>821</v>
+        <v>889</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="L14" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
@@ -9310,10 +9931,13 @@
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>822</v>
+        <v>892</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -9322,7 +9946,13 @@
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="J16" s="3" t="s">
-        <v>823</v>
+        <v>893</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9333,10 +9963,19 @@
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
+      <c r="J17" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>824</v>
+        <v>899</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -9344,10 +9983,16 @@
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
+      <c r="J18" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>825</v>
+        <v>902</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -9355,6 +10000,10 @@
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
+      <c r="J19" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="L19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
@@ -9364,10 +10013,11 @@
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
+      <c r="L20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>826</v>
+        <v>904</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -9375,6 +10025,7 @@
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
+      <c r="L21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
@@ -9384,10 +10035,11 @@
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
+      <c r="L22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>827</v>
+        <v>905</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -9395,19 +10047,23 @@
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
+      <c r="L23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>828</v>
+        <v>906</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>829</v>
+        <v>907</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
+      <c r="L24" s="3" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
@@ -9417,19 +10073,25 @@
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
+      <c r="L25" s="3" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>830</v>
+        <v>910</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>831</v>
+        <v>911</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
+      <c r="L26" s="3" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
@@ -9439,10 +10101,13 @@
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
+      <c r="L27" s="3" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>832</v>
+        <v>914</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -9450,6 +10115,9 @@
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
+      <c r="L28" s="3" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
@@ -9459,6 +10127,7 @@
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
+      <c r="L29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
@@ -9468,6 +10137,9 @@
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
+      <c r="L30" s="3" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
@@ -9477,6 +10149,9 @@
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
+      <c r="L31" s="3" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
@@ -9486,6 +10161,9 @@
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
+      <c r="L32" s="3" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
@@ -9495,6 +10173,9 @@
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
+      <c r="L33" s="3" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
@@ -9504,28 +10185,39 @@
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
+      <c r="L34" s="3" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>805</v>
+        <v>859</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>807</v>
+        <v>861</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>806</v>
+        <v>860</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>815</v>
+        <v>875</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>833</v>
+        <v>921</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>830</v>
+        <v>910</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>834</v>
+        <v>922</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L36" s="3" t="s">
+        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -9537,4 +10229,82 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>927</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>928</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1028">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -719,6 +719,9 @@
     <t xml:space="preserve">Satrugna, Kawakwa, Rama, Lesmana</t>
   </si>
   <si>
+    <t xml:space="preserve">Antakawulan:x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vasudeva is the biological father of Lord Krishna. His wife is Devaki, sister of the evil King Kamsa.</t>
   </si>
   <si>
@@ -836,7 +839,7 @@
     <t xml:space="preserve">Not found in the Indian Mahabharata or Ramayana.</t>
   </si>
   <si>
-    <t xml:space="preserve">Son of Wibisana, who succeeds Rahwana in throne of Alengka (at which point the kingdom's name changes to Singgelapura). Bisawarna eventually becomes king of Singgelapura as well. He died of old age and was burried in Kutarunggu, next to Ramawijaya and Wibisana. There is another character named Biswarna, who is the son of Wisrawa and Lokati. He is also known as Wisrawa and Wisrawana. His siblings are Rahwana, Kumbakarna and Sarpakenaka. This Wisawarna is killed by Desamuka. </t>
+    <t xml:space="preserve">Son of Wibisana, who succeeded Rahwana to the throne of Alengka (at which point the kingdom's name changed to Singgelapura). Bisawarna eventually became king of Singgelapura as well. He died of old age and was buried in Kutarunggu, next to Ramawijaya and Wibisana. There is another character named Biswarna, who is the son of Wisrawa and Lokati. He is also known as Wisrawa and Wisrawana. His siblings are Rahwana, Kumbakarna and Sarpakenaka. This Bisawarna is killed by Desamuka. </t>
   </si>
   <si>
     <t xml:space="preserve">Dentawilulkrama</t>
@@ -1845,16 +1848,52 @@
     <t xml:space="preserve">In India he is not a Korawa.</t>
   </si>
   <si>
+    <t xml:space="preserve">He is the only one of the 100 Korawa who survives the Baratayuda war. He is killed by [Werkudara] after [Aswatama] infiltrates the Pandawa camp. In Java, there is a belief that he reincarnated as a /cekakak/ bird (javan kingfisher) and that his chirps indicate the presence of thief. He is often used for the /budhalan/ scene (departure of the troops) when this involves the Korawa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Korawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karastri:x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyutinalang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284-285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269-270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254-257 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">804-805</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kartapiyoga</t>
   </si>
   <si>
-    <t xml:space="preserve">Son of Prabu Kurandhayaksa from Tirta Khadasar. He wants to marry Erawati, but is killed by Kakrasana (Baladewa).</t>
+    <t xml:space="preserve">Son of Prabu [Kurandhayaksa] from Tirta Khadasar (also known as Tirta Kandasan). He wants to marry [Erawati], but is killed by Kakrasana ([Baladewa]).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartawiyoga</t>
   </si>
   <si>
     <t xml:space="preserve">Kurandhayaksa</t>
   </si>
   <si>
-    <t xml:space="preserve">A queen of the Nagari Guwa in Puntadewa Wisudha.</t>
+    <t xml:space="preserve">Aji Panjirep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">258-261 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">808-809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A queen of the Nagari Guwa in /Puntadewa Wisudha/. No information about her is available in any of the consulted encyclopedias.</t>
   </si>
   <si>
     <t xml:space="preserve">King</t>
@@ -1863,141 +1902,372 @@
     <t xml:space="preserve">Known as the 9th incarnation of Lord Vishnu, he is the 8th son of Devaki and Vasudeva.</t>
   </si>
   <si>
-    <t xml:space="preserve">Also known as Narayana. King of Dwaraka/ Dwarawati.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narayana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baladewa, RaraIreng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmini, Setyawati and Jembawati</t>
+    <t xml:space="preserve">He is an incarnation of [Wisnu] (just like [Arjuna]). In the /Kresna Gugah/ lakon, he offers his army to the Korawa and his advice to the Pandawa, aiming to be fair in the coming Baratayuda war. The choice was first give to [Duryudana], who choses [Kresna]'s army and weapons over his advice.  However, the advice given to the Pandawa becomes curcial to the Pandawa's ultimate victory in the war. He can assume a /triwikrama/ [giant] shape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narayana, Janardana, Lenkawamanik, Sang_Gowinda, Satwaka, Padmanaba, Harimurti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahindra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baladewa, Rara_Ireng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jembawati: Samba, Gunadewa; Rukmini:Partadewa,Titisari,Saranadewa;Setyaboma: Setyaka; Pratiwi: Bomanarakasura, Siti_Sendari; Kusumawati: Saketi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cakra Baskara, Cangkok Wijayakusuma, Cakra Sudarsana, Kaca Lopian</t>
   </si>
   <si>
     <t xml:space="preserve">Brahala, Kesawasidhi</t>
   </si>
   <si>
+    <t xml:space="preserve">Rondon, Surak, Mangu, Gendreh, Botoh, Rungsit, Glenes, Jagong, Gidrah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294-300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144-146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326-343 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">828-833</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yuda_Kala_Kresna</t>
   </si>
   <si>
-    <t xml:space="preserve">An ogre that attacks the heavens to steal [Setyaboma]. Narayana gets his name [Kresna] and the kingdom of Dwarawati from this ogre after defeating him.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buda_Kala_Kresna, Yudha_Kala_Kresna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayanggakara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176 – 177 (Vol. V)</t>
+    <t xml:space="preserve">An ogre that attacks the heavens to steal [Setyaboma]. He is a descendant of Batara [Wisnu]. Narayana gets his name [Kresna] and the kingdom of Dwarawati from this ogre after defeating him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buda_Kala_Kresna, Yudha_Kala_Kresna, Kunjana_Kresna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayanggayakara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346-347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176-177 (Vol. V)</t>
   </si>
   <si>
     <t xml:space="preserve">Kumbakarna</t>
   </si>
   <si>
-    <t xml:space="preserve">Son of rishi Vishwavasu and rakshasi Kaikesi. He is said to have made a mistake when asking for a boon whereby he asked God for Nidrasana (a bed to sleep) instead of Indrasana (the throne of Indra). As a result he went into deep slumber where he would sleep for six months and stay awake for six months. If his sleep gets disturbed before the 6months comes to an end he is believed to die. During the war, Ravana got his troops to wake him up before the 6 months were complete.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Resi Wisrawa and Dewi Sukesi. Has Three brothers: Sarkapenaka, Desamuka, and Wibisana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She is known as the adopted daughter of Kuntibhoja. Her biological father is Surasena. She is known as the mother of the Pandavas and Karna, her first son whom she had by the Sun God even before she got married.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Surasena, but taken by Kuntiboja. Originally called Perta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prita</t>
+    <t xml:space="preserve">Son of rishi Vishwavasu and rakshasi Kaikesi. He is said to have made a mistake when asking for a boon whereby he asked for /Nidrasana/ (a bed to sleep) instead of /Indrasana/ (the throne of Indra). As a result he went into cycles where we would sleep for six months and stay awake for six months. If this cycle were perturbed he he could die. During the war against Rama, Ravana asked his troops to wake him up before the 6 months were complete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As his siblings, he has problems controlling his impulses. He is famous for his in immense desire to eat and sleep. The Aji Gedhongmengo, granted to him by [Narada] allowed him to sleep for long periods of time. He opposed his brother [Desamuka]'s capture of [Sita] but still fought in the war against [Rama] for the sake of Alengka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desamuka, Wibisana, Sarpakenaka, Danaraja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aswani: Aswani_Kumba, Kumba-Kumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemburgangsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama, Lesmana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aji Gedhongmengo, Aji Gelapsaketi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barong, Macan, Mendhung, Jaka, Kopek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302-304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362-371 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">319-321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is known as the adopted daughter of Kuntibhoja. Her biological father is Surasena. She is known as the mother of the Pandavas and of Karna, whom she had with the Sun God before she married Pandhu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The biological daughter of Surasena, but taken in by [Kuntiboja]. She is the mother of [Karna] (who she has with [Surya] out of wedlock), and of the oldest three Pandawa. Although [Puntadewa], [Werkudara] and [Arjuna] are acknowledged as her sons with [Pandu], in reality their fathers are the gods [Darma], [Bayu] and [Indra], respectively. According to the Indian version, she died fifteen years after the end of the Mahabharata, in a fire in the forest together with [Drestarastra] and [Gendari], but there are alternative versions of her death. She was once coveted by [Sengkuni], who later assaulted her and tried to strip her naked. She vowed to one day wear clothes made of his skin. She was able to accomplish this during the Baratayuda war, when [Sengkuni] was killed by [Werkudara], who skinned him live. Part of the skin was trapped in [Werkudara]'s nail, and he gave it to Kunti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prita, Kuntinalibrata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surasena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surya: Karna; Darma: Puntadewa; Bayu: Werkudara; Indra: Arjuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aji Adityaherdaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rangkung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308-311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380-190 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380-381</t>
   </si>
   <si>
     <t xml:space="preserve">King Kuntibhoja is known as the foster father of Kunti.</t>
   </si>
   <si>
-    <t xml:space="preserve">Father of Kunti and Basudewa, Basukunti is his brother?</t>
+    <t xml:space="preserve">In the \Kempalan Balungan Lakon Wayang Purwa\ Kuntiboja is another name for Basukunti, the father of [Basudewa] and the adptive father of [Kunti]. But there are other versions where Kuntiboja is the father of Basukunti. The confusion is due to the fact that both father and son used the same name.  They are descendants of Rama and Sita. According to the \Ensiklopedi Wayang Purwa\, Kuntiboja is the son of  Wasukunteya and he was earlier known as as Kuntadewa. His uncle, Prabu Kunti had no sons, and Kuntadewa was then made king of Mandura with the title of Kuntiboja or Basukunti.</t>
   </si>
   <si>
     <t xml:space="preserve">Basukunti</t>
   </si>
   <si>
+    <t xml:space="preserve">Bandondari: Sruta, Basudewa, Bismaka, Ugrasena</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kunti, Basudewa, Ugrasena, Bismaka</t>
   </si>
   <si>
-    <t xml:space="preserve">Appears in Semar mBarang Jantur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tirta Kadhasar</t>
+    <t xml:space="preserve">Boja (Mandura)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390 (Vol. V) and 110-112 (Vol II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The king of Tirtakandasan (also known as Tirtakandasar), a kingdom at the bottom of the sea. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurandageni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x: Kartapiyoga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirtakadhasar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">392 (Vol. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">846-847</t>
   </si>
   <si>
     <t xml:space="preserve">Lesmana_Mandrakumara</t>
   </si>
   <si>
-    <t xml:space="preserve">Lakshmana Kumara is known as the son of Duryodhana. In one of the Indian retellings, he is said to have been the groom that Balarama's daughter Vatsala was supposed to marry. However, in the end Vatsala marries Abhimanyu, the son of Arjuna and Subhadra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Duryudana (Suyudana) and Banowati.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saroja Kusuma</t>
+    <t xml:space="preserve">Lakshmana Kumara is known as the son of Duryodhana. In one of the Indian retellings, he is said to have been the groom that Balarama's daughter Vatsala was supposed to marry. However, in the end Vatsala married Abhimanyu, the son of Arjuna and Subhadra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He often appears in Yogyakarta style stories. He is considered mentally weak and his appearance is used to mock the Kurawa. He often appears as a potential suitor for the women that eventually marry the sons of the Pandawa. He has no skills or special powers. In the Bartayuda war, once Abimanyu is surrounded by the Korawa, Lesmana Mandrakumara attempts to deliver the final blow. However, Abimanyu ends up in fact killing him with his dying breath.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saroja_Kusuma, Jakumara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesmanawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punggung, Bujang, Bengis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248-249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49-51 (Vol. VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">850-851</t>
   </si>
   <si>
     <t xml:space="preserve">Lesmana_Murdaka</t>
   </si>
   <si>
-    <t xml:space="preserve">Known as Lakshmana, the third son King of Dasharata and Queen Sumitra. He is married to Princess Urmila, another daughter of King Janaka. Lakshmana is supposed to have guarded the hut of his brother and sister in law day and night without resting. His wifereceived a boon from Nidra Devi, the goddess of sleep, to sleep until her husband returned from exile. At that point, she asks the goddess to give her all the tiredness Lakshmana had while guarding the hut.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesmana Murdaka. One of the sons of Dasarata. Sang Prabu punya 3 orang istri Yakni Dewi Raghu, Dewi Sumitra, dan Dewi Kekayi. Dari ketiga orang istri ini lahirlah 4 orang satria, yaitu Ramawijaya, Lesmana Murdaka, Barata, dan Santrugna.  //HY: anaknya Kaikasi</t>
+    <t xml:space="preserve">Known as Lakshmana, the third son King of Dasharata and Queen Sumitra. He married Princess Urmila, another daughter of King Janaka. Lakshmana is supposed to have guarded the hut of his brother and sister in law day and night without resting. His wife received a boon from Nidra Devi, the goddess of sleep, to sleep until her husband returned from exile. At that point, she asked the goddess to give her all the tiredness Lakshmana had accrued while guarding the hut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He never married or sought worldly possessions and was a loyal companion of his brother [Rama]. In the Javanese version it is said that both [Rama] and Lasmana were incarnations of [Wisnu] divided in two parts (/binela panitise/). [Arjuna] and [Kresna] are later incarnations of [Wisnu] in the same divided form. Hi killed [Indrajit] in the war against Alengka's forces. In some versions, he also killed [Desamuka]. In some versions, he became one with his father Prabu [Janaka] after the victory over Alengka and then reincarnated into [Baladewa], whereas in other versions he died of old age and was buried in Kutarunggu next to [Rama].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laksmana, Lesmanawidagda, Lesmanasadu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumitra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satrugna, Kawakwa, Rama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317-319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-16 (Vol. VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-333</t>
   </si>
   <si>
     <t xml:space="preserve">Madrim</t>
   </si>
   <si>
-    <t xml:space="preserve">Madri is known as the second wife of Pandu. Due to the curse of a sage, Pandu is said to die if he gets intimate with any of his wives. In the spur of moment, Pandu and Madri forget this and get intimate and as a result Pandu dies. Seeing herself as responsible for his death, Madri also gives up her life hence entrusting Kunti with the responsibilty of taking care of her sons Nakula and Sahadeva.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of the two younger Pandawa. Daughter of Mandrapati from Mandraraka and Dewi Tejawati, sibling of Narasoma (Salya)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of Kangsa</t>
+    <t xml:space="preserve">Madri is known as the second wife of Pandu. Due to the curse of a sage, Pandu would die if he were to have intimate contact with any of his wives. Once, in the spur of the moment, Pandu and Madri forgot this and as a result Pandu died. Seeing herself as responsible for his death, Madri also gave up her life, entrusting her sons Nakula and Sahadeva to Kunti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is the sister of [Salya], who originally wanted to marry [Kunti]. In some versions, [Salya] arrived late to the contest and challenged [Pandu] to a duel. After losing the duel, he gave his younger sister to [Pandu]. Other versions have [Salya] as the original winner of the contest for [Kunti]'s hand, who was then challenged to a duel by [Pandu]. Once, [Pandu] and Madrim were in the forest and saw two deer having sexual intercourse. On Madrim's prodding, [Pandu] killed the deer, who were then revealed to be Resi [Kimidama] and his wife. Before dying, [Kimidama] placed a course on [Pandu]: he would die if he were to have intercourse. Therefore, [Pandu]'s sons were fathered by gods called for by his wives (see [Kunti]). In the case of Madrim, she called [Aswan] and [Aswin], who fathered [Nakula] and [Sadewa], respectively. As in the Indian version, eventually [Pandu] did have intercourse with Madrim and died as a result of the curse. Madrim committed ritual suicide, entrusting her sons to [Kunti].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrapati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandu:x; Aswan:Nakula; Aswin: Sadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322-325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71-75 (Vol. VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">856-857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is married to [Basudewa]. But [Gorawangsa] impresonates [Basudewa] and seduces her. [Basudewa] sentences her to death and tasks [Bismaka] with her execution. However, upon learning she is pregnant, [Bismaka] cannot get himself to kill her, and he abandons her in the forest instead. She is discovered and protected by and has a child name resi [Anggawangsa] who brings her to Wisarengga, where she gives birth to [Kangsa]. As an adult [Kangsa] rebels against [Basudewa] but is killed by [Baladewa]. After his defeat, [Maerah] commits ritual suicide.</t>
   </si>
   <si>
     <t xml:space="preserve">Amirah, Mahira</t>
   </si>
   <si>
+    <t xml:space="preserve">Kurandapati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maekah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basudewa:x; Gorawangsa: Kangsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326-327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-83 (Vo. VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">860-861</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandrakeswara</t>
   </si>
   <si>
-    <t xml:space="preserve">King of Mandraka. Also known as Hartadriya. Together with Gandabayu and Abiyasa defeats Bagaspati. Father of Salya. // In Yogya Mandrapati, or Mandraspati is the father of Salya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hartadriya</t>
+    <t xml:space="preserve">King of Mandraka. Better known for the actions of his children, [Salya] and [Madrim]. He died of old age after falling sick. In some versions he killed himself out of shame for [Salya]'s actions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartadriya, Mandrapati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayutamayi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartati_Mandrakusuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejawati: Salya, Madrim</t>
   </si>
   <si>
     <t xml:space="preserve">Salya, Madrim</t>
   </si>
   <si>
+    <t xml:space="preserve">235-236 (Vol. IV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">866-867</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mangsahpati</t>
   </si>
   <si>
-    <t xml:space="preserve">King Virata was the ruler of the Matsya Kingdom. The Pandavas serve him in his kingdom during their final year of exile as they would need to spend that year in disguise. His daughter Uttara marries Arjuna's son, Abhimanyu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King of Wirata, also known as Durgandana. Pandawa serve him at the end of their 13-year exile.</t>
+    <t xml:space="preserve">King Virata was the ruler of the Matsya Kingdom. The Pandavas served him during their final year of exile as they needed to spend that year in disguise. His daughter Uttara married Arjuna's son, Abhimanyu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of Wirata, known as Durgandana in his youth. He helped the Pandawa in numerous occasions, most notably when they were building Amarta. The Pandawa served him at the end of their 13-year exile. He died defending the Pandawa in the Baratayuda war, together with all his sons. Other versions, said he achieved perfect death an incarnated into a fish, before the beginning of the war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matswapati, Durgandana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basuparicara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rekatawati: Seta, Utara, Wratsangka, Utari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wirata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180-182,344-345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86, 164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180-182 (Vol. III), 154-156 (Vol. VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">636,870</t>
   </si>
   <si>
     <t xml:space="preserve">Maruta</t>
   </si>
   <si>
-    <t xml:space="preserve">King Dahana speaks to Bantala Maruta and Ranu, he wants to marry a Citrawarsiti, daughter of King Karentegnyana in Tasikmadu.  //HY dari unsur angin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the wives of Werkudara. She is shaped as a Snake.</t>
+    <t xml:space="preserve">He is a personification of wind. In /Wahyu_Mahkutarama/ he is mentioned as one of the four brothers of /Wibisana/, who is looking to be returned to his original shape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the wives of [Werkudara], they met at Sapta Pratala, the seven-tiered heaven of [Antaboga]. At the time, they had been tricked by the Korawa to enter a place made of flammable materials. The Korawa were planning to entrap and burn the Pandawa (this incident is part of the lakon /Bale Sigala-gala/). [Antaboga] helped the Pandawa escape to Sapta Pratala, by way of his son Nagatatmala. Once there, [Werkudara] and Nagagini met.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supreti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pertiwi, Nagatatmala, Pratiwanggana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werkudara: Antareja</t>
   </si>
   <si>
     <t xml:space="preserve">Nagasewu</t>
   </si>
   <si>
+    <t xml:space="preserve">252-253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218-222 (Vol. VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">882-883</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nagaprasanta</t>
   </si>
   <si>
@@ -2250,9 +2520,6 @@
     <t xml:space="preserve">Narasoma</t>
   </si>
   <si>
-    <t xml:space="preserve">Tejawati</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mandrekaswara</t>
   </si>
   <si>
@@ -2292,6 +2559,12 @@
     <t xml:space="preserve">Patih of Pracona.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasipu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285-286</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kyai</t>
   </si>
   <si>
@@ -2685,6 +2958,12 @@
     <t xml:space="preserve">Soma</t>
   </si>
   <si>
+    <t xml:space="preserve">Kusumawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruryana</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nama Yogya</t>
   </si>
   <si>
@@ -2905,6 +3184,24 @@
   </si>
   <si>
     <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owned by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used to put people asleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cangkok Wijayakusuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It allows Kresna to revive those who have passed away, as long as their deaths have come before their predestined deaths.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaca Lopian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows the owner to see the future.</t>
   </si>
 </sst>
 </file>
@@ -3068,7 +3365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3135,6 +3432,18 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3221,46 +3530,46 @@
   <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J73" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="G67" activeCellId="0" sqref="G67"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A73" activeCellId="0" sqref="A73"/>
+      <selection pane="bottomRight" activeCell="L84" activeCellId="0" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.9336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.484693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.3673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="118.576530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="94.9285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="101.622448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="47.8418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="30.3469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.2142857142857"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.4132653061224"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="51.6224489795918"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="33.3724489795918"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="41.7959183673469"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="36.8265306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.6632653061225"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.4132653061224"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.6071428571429"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="14.469387755102"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="17.6020408163265"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.6326530612245"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="153.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="153.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.3673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="153.132653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="122.790816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="131.321428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="61.234693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="38.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="40.5"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="34.4489795918367"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="66.0918367346939"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="42.4438775510204"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="53.3469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="46.7602040816327"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.6836734693878"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="14.1479591836735"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.4132653061224"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="18.0357142857143"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="15.765306122449"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.7091836734694"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="20.734693877551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="198.923469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="198.923469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,7 +4615,9 @@
       <c r="K19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -4339,33 +4650,33 @@
         <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -4391,32 +4702,32 @@
         <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -4430,7 +4741,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="1" t="s">
@@ -4446,19 +4757,19 @@
         <v>209</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>130</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -4473,7 +4784,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U22" s="1" t="n">
         <v>133</v>
@@ -4484,10 +4795,10 @@
     </row>
     <row r="23" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
@@ -4499,46 +4810,46 @@
         <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U23" s="1" t="n">
         <v>48</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>173</v>
@@ -4554,10 +4865,10 @@
         <v>209</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4570,7 +4881,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T24" s="1" t="n">
         <v>115</v>
@@ -4584,32 +4895,32 @@
     </row>
     <row r="25" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -4617,13 +4928,13 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U25" s="1" t="n">
         <v>47</v>
@@ -4634,7 +4945,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="1" t="s">
@@ -4647,41 +4958,41 @@
         <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -4690,65 +5001,65 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U27" s="1" t="n">
         <v>50</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="1" t="s">
@@ -4761,35 +5072,35 @@
         <v>28</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U28" s="1" t="n">
         <v>54</v>
@@ -4802,7 +5113,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="1" t="s">
@@ -4818,17 +5129,17 @@
         <v>209</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>130</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -4854,7 +5165,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="1" t="s">
@@ -4870,17 +5181,17 @@
         <v>209</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>130</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -4904,7 +5215,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="1" t="s">
@@ -4917,17 +5228,17 @@
         <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -4936,7 +5247,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -4950,23 +5261,23 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -4978,7 +5289,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -4986,13 +5297,13 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="1" t="s">
@@ -5008,7 +5319,7 @@
         <v>209</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -5030,14 +5341,14 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>62</v>
@@ -5046,19 +5357,19 @@
         <v>209</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -5078,7 +5389,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="1" t="s">
@@ -5091,45 +5402,45 @@
         <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R35" s="3"/>
       <c r="S35" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U35" s="1" t="n">
         <v>74</v>
@@ -5153,50 +5464,50 @@
         <v>28</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U36" s="1" t="n">
         <v>76</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="1" t="s">
@@ -5209,19 +5520,19 @@
         <v>28</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>189</v>
@@ -5233,7 +5544,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -5242,7 +5553,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="1" t="s">
@@ -5258,10 +5569,10 @@
         <v>209</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -5281,21 +5592,21 @@
         <v>78</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>62</v>
@@ -5304,11 +5615,11 @@
         <v>209</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>208</v>
@@ -5317,7 +5628,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -5334,7 +5645,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="1" t="s">
@@ -5350,7 +5661,7 @@
         <v>209</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -5371,21 +5682,21 @@
         <v>69</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>62</v>
@@ -5394,7 +5705,7 @@
         <v>209</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -5403,12 +5714,12 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -5420,11 +5731,11 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="1" t="s">
@@ -5434,13 +5745,13 @@
         <v>209</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -5458,14 +5769,14 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>62</v>
@@ -5474,28 +5785,28 @@
         <v>209</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="U43" s="1" t="n">
         <v>72</v>
@@ -5506,7 +5817,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="1" t="s">
@@ -5519,23 +5830,23 @@
         <v>28</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -5545,20 +5856,20 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="U44" s="1" t="n">
         <v>84</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="1" t="s">
@@ -5571,10 +5882,10 @@
         <v>28</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -5585,64 +5896,64 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="0"/>
       <c r="Q46" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T46" s="1" t="n">
         <v>179</v>
@@ -5654,80 +5965,80 @@
         <v>43</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P47" s="0"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U47" s="1" t="n">
         <v>88</v>
       </c>
       <c r="V47" s="0"/>
       <c r="W47" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>26</v>
@@ -5739,60 +6050,60 @@
         <v>28</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>216</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>108</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U48" s="1" t="n">
         <v>92</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="1" t="s">
@@ -5805,23 +6116,23 @@
         <v>28</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>170</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="0"/>
@@ -5831,22 +6142,22 @@
       <c r="R49" s="3"/>
       <c r="S49" s="0"/>
       <c r="T49" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="U49" s="1" t="n">
         <v>95</v>
       </c>
       <c r="V49" s="0"/>
       <c r="W49" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="X49" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="1" t="s">
@@ -5862,14 +6173,14 @@
         <v>209</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -5881,22 +6192,22 @@
       <c r="R50" s="3"/>
       <c r="S50" s="0"/>
       <c r="T50" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="U50" s="1" t="n">
         <v>96</v>
       </c>
       <c r="V50" s="0"/>
       <c r="W50" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>173</v>
@@ -5912,10 +6223,10 @@
         <v>209</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3" t="s">
@@ -5923,7 +6234,7 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -5932,10 +6243,10 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="U51" s="1" t="n">
         <v>103</v>
@@ -5944,15 +6255,15 @@
         <v>227</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="1" t="s">
@@ -5963,10 +6274,10 @@
         <v>28</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -5986,10 +6297,10 @@
         <v>334</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6009,13 +6320,13 @@
         <v>28</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>126</v>
@@ -6024,47 +6335,47 @@
         <v>108</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="U53" s="1" t="n">
         <v>104</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="1" t="s">
@@ -6080,19 +6391,19 @@
         <v>209</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -6108,18 +6419,18 @@
       <c r="U54" s="0"/>
       <c r="V54" s="0"/>
       <c r="W54" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>26</v>
@@ -6131,25 +6442,25 @@
         <v>28</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -6162,15 +6473,15 @@
       <c r="U55" s="0"/>
       <c r="V55" s="0"/>
       <c r="W55" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="1" t="s">
@@ -6183,24 +6494,24 @@
         <v>62</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P56" s="0"/>
       <c r="Q56" s="1" t="s">
@@ -6214,15 +6525,15 @@
       </c>
       <c r="V56" s="0"/>
       <c r="W56" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="1" t="s">
@@ -6235,56 +6546,56 @@
         <v>28</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="0"/>
       <c r="P57" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="U57" s="1" t="n">
         <v>43</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="1" t="s">
@@ -6300,7 +6611,7 @@
         <v>209</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -6322,7 +6633,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="1" t="s">
@@ -6335,56 +6646,56 @@
         <v>28</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O59" s="0"/>
       <c r="P59" s="0"/>
       <c r="Q59" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="R59" s="3"/>
       <c r="S59" s="0"/>
       <c r="T59" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="U59" s="1" t="n">
         <v>113</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="1" t="s">
@@ -6400,7 +6711,7 @@
         <v>209</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -6422,7 +6733,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="1" t="s">
@@ -6435,21 +6746,21 @@
         <v>28</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -6466,7 +6777,7 @@
       </c>
       <c r="V61" s="0"/>
       <c r="W61" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="X61" s="1" t="n">
         <v>756</v>
@@ -6474,21 +6785,21 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -6506,13 +6817,13 @@
       <c r="U62" s="0"/>
       <c r="V62" s="0"/>
       <c r="W62" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="X62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="1" t="s">
@@ -6525,48 +6836,48 @@
         <v>28</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>177</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O63" s="0"/>
       <c r="P63" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="R63" s="3"/>
       <c r="S63" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="T63" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="U63" s="0"/>
       <c r="V63" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="X63" s="1" t="n">
         <v>135</v>
@@ -6574,14 +6885,14 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>62</v>
@@ -6590,39 +6901,41 @@
         <v>209</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="0"/>
+      <c r="P64" s="0"/>
       <c r="Q64" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="R64" s="3"/>
+      <c r="S64" s="0"/>
       <c r="T64" s="0"/>
       <c r="U64" s="1" t="n">
         <v>139</v>
       </c>
       <c r="V64" s="0"/>
       <c r="W64" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="1" t="s">
@@ -6635,116 +6948,119 @@
         <v>28</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="0" t="s">
-        <v>556</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="P65" s="0"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
+      <c r="S65" s="0"/>
       <c r="T65" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="U65" s="1" t="n">
         <v>141</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="W65" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O66" s="0" t="s">
         <v>33</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="T66" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="U66" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="V66" s="0"/>
       <c r="W66" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>573</v>
+      <c r="A67" s="4" t="s">
+        <v>574</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>26</v>
@@ -6755,26 +7071,53 @@
       <c r="E67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="1" t="s">
-        <v>574</v>
+      <c r="F67" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>576</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
+      <c r="I67" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="0"/>
+      <c r="N67" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O67" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="P67" s="0"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-      <c r="T67" s="0"/>
-      <c r="W67" s="0"/>
+      <c r="S67" s="0"/>
+      <c r="T67" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="U67" s="0"/>
+      <c r="V67" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="W67" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>575</v>
+      <c r="A68" s="4" t="s">
+        <v>584</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="1" t="s">
@@ -6790,26 +7133,45 @@
         <v>209</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="H68" s="3"/>
+        <v>585</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>586</v>
+      </c>
       <c r="I68" s="3"/>
       <c r="J68" s="1" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="0"/>
+      <c r="O68" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
-      <c r="T68" s="0"/>
-      <c r="W68" s="0"/>
+      <c r="S68" s="0"/>
+      <c r="T68" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="U68" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="V68" s="0"/>
+      <c r="W68" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>368</v>
+      <c r="A69" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="1" t="s">
@@ -6825,7 +7187,7 @@
         <v>209</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -6835,13 +7197,18 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="0"/>
+      <c r="P69" s="0"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
+      <c r="S69" s="0"/>
       <c r="T69" s="0"/>
+      <c r="U69" s="0"/>
+      <c r="V69" s="0"/>
       <c r="W69" s="0"/>
+      <c r="X69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B70" s="3"/>
@@ -6849,45 +7216,64 @@
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>342</v>
+        <v>596</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>188</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="0"/>
+      <c r="P70" s="1" t="s">
+        <v>599</v>
+      </c>
       <c r="Q70" s="1" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="R70" s="3"/>
-      <c r="T70" s="0"/>
-      <c r="W70" s="0"/>
+      <c r="S70" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="T70" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="U70" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="W70" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="1" t="s">
@@ -6903,14 +7289,14 @@
         <v>209</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="I71" s="3"/>
-      <c r="J71" s="3" t="s">
-        <v>589</v>
+      <c r="J71" s="0" t="s">
+        <v>609</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -6919,18 +7305,25 @@
       <c r="O71" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="P71" s="0"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
+      <c r="S71" s="0"/>
       <c r="T71" s="1" t="n">
         <v>270</v>
       </c>
+      <c r="U71" s="0"/>
+      <c r="V71" s="0" t="s">
+        <v>610</v>
+      </c>
       <c r="W71" s="1" t="s">
-        <v>590</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="X71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>591</v>
+      <c r="A72" s="4" t="s">
+        <v>612</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="1" t="s">
@@ -6943,23 +7336,55 @@
         <v>28</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
+      <c r="I72" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+      <c r="N72" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>619</v>
+      </c>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
+      <c r="S72" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="T72" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="U72" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="V72" s="0"/>
+      <c r="W72" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B73" s="3"/>
@@ -6973,28 +7398,50 @@
         <v>28</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3" t="s">
-        <v>220</v>
+        <v>627</v>
       </c>
       <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
+      <c r="L73" s="3" t="s">
+        <v>628</v>
+      </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
+      <c r="O73" s="0"/>
+      <c r="P73" s="1" t="s">
+        <v>629</v>
+      </c>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
+      <c r="S73" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="T73" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="U73" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="V73" s="0"/>
+      <c r="W73" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>220</v>
+      <c r="A74" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="1" t="s">
@@ -7007,28 +7454,46 @@
         <v>28</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+      <c r="L74" s="3" t="s">
+        <v>637</v>
+      </c>
       <c r="M74" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="N74" s="3"/>
+        <v>638</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="O74" s="0"/>
+      <c r="P74" s="0"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
+      <c r="S74" s="0"/>
+      <c r="T74" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="U74" s="0"/>
+      <c r="V74" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="X74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>577</v>
+      <c r="A75" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="1" t="s">
@@ -7044,28 +7509,48 @@
         <v>209</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="H75" s="3"/>
+        <v>641</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>642</v>
+      </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
+      <c r="L75" s="3" t="s">
+        <v>643</v>
+      </c>
       <c r="M75" s="1" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>602</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P75" s="0"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
+      <c r="S75" s="0"/>
+      <c r="T75" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="U75" s="0"/>
+      <c r="V75" s="0"/>
+      <c r="W75" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>603</v>
+      <c r="A76" s="4" t="s">
+        <v>647</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>26</v>
@@ -7077,25 +7562,54 @@
         <v>28</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>604</v>
+        <v>648</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>605</v>
+        <v>649</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
+        <v>650</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>651</v>
+      </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
+      <c r="N76" s="0"/>
+      <c r="O76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P76" s="0"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
+      <c r="S76" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="T76" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="U76" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>607</v>
+      <c r="A77" s="4" t="s">
+        <v>656</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="1" t="s">
@@ -7108,25 +7622,52 @@
         <v>28</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>608</v>
+        <v>657</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
+        <v>658</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>661</v>
+      </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
+      <c r="N77" s="0"/>
+      <c r="O77" s="0"/>
+      <c r="P77" s="0"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="S77" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="T77" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="V77" s="0"/>
+      <c r="W77" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>610</v>
+      <c r="A78" s="4" t="s">
+        <v>665</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="1" t="s">
@@ -7139,23 +7680,52 @@
         <v>28</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>611</v>
+        <v>666</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
+        <v>667</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>671</v>
+      </c>
       <c r="M78" s="3"/>
+      <c r="N78" s="0"/>
+      <c r="O78" s="0"/>
+      <c r="P78" s="0"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
+      <c r="S78" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="T78" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="V78" s="0"/>
+      <c r="W78" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>554</v>
+      <c r="A79" s="4" t="s">
+        <v>555</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="1" t="s">
@@ -7169,22 +7739,45 @@
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="1" t="s">
-        <v>613</v>
+        <v>676</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>614</v>
+        <v>677</v>
       </c>
       <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
+      <c r="J79" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="L79" s="17" t="s">
+        <v>680</v>
+      </c>
       <c r="M79" s="3"/>
+      <c r="N79" s="0"/>
+      <c r="O79" s="0"/>
+      <c r="P79" s="0"/>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
+      <c r="S79" s="0"/>
+      <c r="T79" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="U79" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="V79" s="0"/>
+      <c r="W79" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>615</v>
+      <c r="A80" s="4" t="s">
+        <v>684</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="1" t="s">
@@ -7200,24 +7793,47 @@
         <v>209</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>616</v>
+        <v>685</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+        <v>686</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>688</v>
+      </c>
       <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
+      <c r="L80" s="3" t="s">
+        <v>689</v>
+      </c>
       <c r="M80" s="1" t="s">
-        <v>618</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="N80" s="0"/>
+      <c r="O80" s="0"/>
+      <c r="P80" s="0"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
+      <c r="S80" s="0"/>
+      <c r="T80" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="U80" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="V80" s="0"/>
+      <c r="W80" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="X80" s="0" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>619</v>
+      <c r="A81" s="4" t="s">
+        <v>693</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="1" t="s">
@@ -7230,23 +7846,54 @@
         <v>28</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
+        <v>695</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>699</v>
+      </c>
       <c r="M81" s="3"/>
+      <c r="N81" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="O81" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="P81" s="0"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
+      <c r="S81" s="0"/>
+      <c r="T81" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="U81" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="V81" s="0"/>
+      <c r="W81" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="X81" s="0" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>622</v>
+        <v>705</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="1" t="s">
@@ -7262,19 +7909,28 @@
         <v>209</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>623</v>
+        <v>706</v>
       </c>
       <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="I82" s="0"/>
+      <c r="J82" s="0"/>
+      <c r="K82" s="0"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
+      <c r="N82" s="0"/>
+      <c r="O82" s="0"/>
+      <c r="P82" s="0"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
+      <c r="S82" s="0"/>
+      <c r="T82" s="0"/>
+      <c r="U82" s="0"/>
+      <c r="V82" s="0"/>
+      <c r="W82" s="0"/>
+      <c r="X82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B83" s="3"/>
@@ -7289,22 +7945,51 @@
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
+        <v>707</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>711</v>
+      </c>
       <c r="M83" s="3"/>
+      <c r="N83" s="0"/>
+      <c r="O83" s="0"/>
+      <c r="P83" s="0"/>
       <c r="Q83" s="1" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
       <c r="R83" s="3"/>
+      <c r="S83" s="0"/>
+      <c r="T83" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="U83" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="V83" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="W83" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="X83" s="0" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="1" t="s">
@@ -7320,7 +8005,7 @@
         <v>209</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>627</v>
+        <v>717</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -7328,29 +8013,38 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
+      <c r="N84" s="0"/>
+      <c r="O84" s="0"/>
+      <c r="P84" s="0"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
+      <c r="S84" s="0"/>
+      <c r="T84" s="0"/>
+      <c r="U84" s="0"/>
+      <c r="V84" s="0"/>
+      <c r="W84" s="0"/>
+      <c r="X84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>628</v>
+        <v>718</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>629</v>
+        <v>719</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="1" t="s">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1" t="s">
@@ -7359,12 +8053,21 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
+      <c r="N85" s="0"/>
+      <c r="O85" s="0"/>
+      <c r="P85" s="0"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
+      <c r="S85" s="0"/>
+      <c r="T85" s="0"/>
+      <c r="U85" s="0"/>
+      <c r="V85" s="0"/>
+      <c r="W85" s="0"/>
+      <c r="X85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>25</v>
@@ -7379,10 +8082,10 @@
         <v>28</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -7390,12 +8093,21 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
+      <c r="N86" s="0"/>
+      <c r="O86" s="0"/>
+      <c r="P86" s="0"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
+      <c r="S86" s="0"/>
+      <c r="T86" s="0"/>
+      <c r="U86" s="0"/>
+      <c r="V86" s="0"/>
+      <c r="W86" s="0"/>
+      <c r="X86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="1" t="s">
@@ -7408,10 +8120,10 @@
         <v>28</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7419,44 +8131,63 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
+      <c r="N87" s="0"/>
+      <c r="O87" s="0"/>
+      <c r="P87" s="0"/>
       <c r="Q87" s="1" t="s">
         <v>72</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>360</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="S87" s="0"/>
+      <c r="T87" s="0"/>
+      <c r="U87" s="0"/>
+      <c r="V87" s="0"/>
+      <c r="W87" s="0"/>
+      <c r="X87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1" t="s">
+      <c r="A88" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="E88" s="1" t="s">
+      <c r="D88" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="E88" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="Q88" s="3"/>
+      <c r="F88" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="18"/>
+      <c r="V88" s="18"/>
+      <c r="W88" s="18"/>
+      <c r="X88" s="18"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>641</v>
+        <v>731</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="1" t="s">
@@ -7470,7 +8201,7 @@
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="1" t="s">
-        <v>642</v>
+        <v>732</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -7479,10 +8210,11 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="Q89" s="3"/>
+      <c r="T89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="1" t="s">
@@ -7498,7 +8230,7 @@
         <v>209</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>644</v>
+        <v>734</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -7507,10 +8239,11 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="Q90" s="3"/>
+      <c r="T90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>645</v>
+        <v>735</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>25</v>
@@ -7525,10 +8258,10 @@
         <v>62</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>646</v>
+        <v>736</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>647</v>
+        <v>737</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -7537,6 +8270,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="Q91" s="3"/>
+      <c r="T91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
@@ -7555,10 +8289,10 @@
         <v>28</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>648</v>
+        <v>738</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>649</v>
+        <v>739</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -7567,10 +8301,11 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="Q92" s="3"/>
+      <c r="T92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>650</v>
+        <v>740</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="1" t="s">
@@ -7586,7 +8321,7 @@
         <v>209</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>651</v>
+        <v>741</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -7595,6 +8330,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="Q93" s="3"/>
+      <c r="T93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
@@ -7611,10 +8347,10 @@
         <v>28</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>652</v>
+        <v>742</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>653</v>
+        <v>743</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -7623,12 +8359,13 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="Q94" s="1" t="s">
-        <v>654</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="T94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>655</v>
+        <v>745</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>173</v>
@@ -7651,17 +8388,18 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="Q95" s="3"/>
+      <c r="T95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>656</v>
+        <v>746</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>657</v>
+        <v>747</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>62</v>
@@ -7670,7 +8408,7 @@
         <v>209</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>658</v>
+        <v>748</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -7679,10 +8417,11 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="Q96" s="3"/>
+      <c r="T96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="1" t="s">
@@ -7695,10 +8434,10 @@
         <v>28</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>661</v>
+        <v>751</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -7707,17 +8446,18 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="Q97" s="3"/>
+      <c r="T97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>662</v>
+        <v>752</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>663</v>
+        <v>753</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>62</v>
@@ -7726,19 +8466,20 @@
         <v>209</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>664</v>
+        <v>754</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="1" t="s">
-        <v>665</v>
+        <v>755</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>666</v>
+        <v>756</v>
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="Q98" s="3"/>
+      <c r="T98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
@@ -7755,10 +8496,10 @@
         <v>28</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>667</v>
+        <v>757</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>668</v>
+        <v>758</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -7767,10 +8508,11 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="Q99" s="3"/>
+      <c r="T99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>669</v>
+        <v>759</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="1" t="s">
@@ -7786,7 +8528,7 @@
         <v>209</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -7795,17 +8537,18 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="Q100" s="3"/>
+      <c r="T100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>671</v>
+        <v>761</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>62</v>
@@ -7814,7 +8557,7 @@
         <v>209</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>672</v>
+        <v>762</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -7823,12 +8566,13 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="Q101" s="1" t="s">
-        <v>673</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="T101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>674</v>
+        <v>764</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>25</v>
@@ -7843,10 +8587,10 @@
         <v>28</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>675</v>
+        <v>765</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>676</v>
+        <v>766</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -7855,29 +8599,30 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="Q102" s="3"/>
+      <c r="T102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>677</v>
+        <v>767</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>678</v>
+        <v>768</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>679</v>
+        <v>769</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -7885,10 +8630,11 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="Q103" s="3"/>
+      <c r="T103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>681</v>
+        <v>771</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="1" t="s">
@@ -7901,10 +8647,10 @@
         <v>28</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>682</v>
+        <v>772</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>683</v>
+        <v>773</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -7913,10 +8659,11 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="Q104" s="3"/>
+      <c r="T104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>684</v>
+        <v>774</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="1" t="s">
@@ -7932,7 +8679,7 @@
         <v>209</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>685</v>
+        <v>775</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -7941,10 +8688,11 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="Q105" s="3"/>
+      <c r="T105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>686</v>
+        <v>776</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="1" t="s">
@@ -7960,7 +8708,7 @@
         <v>209</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -7969,6 +8717,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="Q106" s="3"/>
+      <c r="T106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
@@ -7985,13 +8734,13 @@
         <v>28</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>158</v>
@@ -8000,15 +8749,16 @@
         <v>188</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>691</v>
+        <v>781</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M107" s="3"/>
       <c r="Q107" s="1" t="s">
-        <v>692</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="T107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
@@ -8016,7 +8766,7 @@
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>208</v>
@@ -8028,7 +8778,7 @@
         <v>209</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>693</v>
+        <v>783</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -8038,6 +8788,7 @@
       <c r="Q108" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="T108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
@@ -8055,7 +8806,7 @@
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="1" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -8065,10 +8816,11 @@
         <v>182</v>
       </c>
       <c r="Q109" s="3"/>
+      <c r="T109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="1" t="s">
@@ -8081,10 +8833,10 @@
         <v>28</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>696</v>
+        <v>786</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -8092,10 +8844,11 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
       <c r="Q110" s="3"/>
+      <c r="T110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>698</v>
+        <v>788</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="1" t="s">
@@ -8108,10 +8861,10 @@
         <v>28</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>699</v>
+        <v>789</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>700</v>
+        <v>790</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -8119,10 +8872,11 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
       <c r="Q111" s="3"/>
+      <c r="T111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>701</v>
+        <v>791</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="1" t="s">
@@ -8136,7 +8890,7 @@
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="1" t="s">
-        <v>702</v>
+        <v>792</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -8144,12 +8898,13 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="Q112" s="1" t="s">
-        <v>703</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="T112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>704</v>
+        <v>794</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>25</v>
@@ -8164,10 +8919,10 @@
         <v>28</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>705</v>
+        <v>795</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>706</v>
+        <v>796</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -8175,6 +8930,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
       <c r="Q113" s="3"/>
+      <c r="T113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
@@ -8191,31 +8947,32 @@
         <v>28</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>708</v>
+        <v>798</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>710</v>
+        <v>669</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>711</v>
+        <v>800</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>712</v>
+        <v>801</v>
       </c>
       <c r="Q114" s="3"/>
+      <c r="T114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="1" t="s">
@@ -8228,27 +8985,28 @@
         <v>28</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>714</v>
+        <v>803</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>715</v>
+        <v>804</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="M115" s="3"/>
       <c r="Q115" s="3"/>
+      <c r="T115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>716</v>
+        <v>805</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>663</v>
+        <v>753</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>62</v>
@@ -8257,17 +9015,18 @@
         <v>209</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>717</v>
+        <v>806</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="M116" s="3"/>
       <c r="Q116" s="3"/>
+      <c r="T116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>718</v>
+        <v>807</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="1" t="s">
@@ -8280,27 +9039,28 @@
         <v>28</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>719</v>
+        <v>808</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="M117" s="3"/>
       <c r="Q117" s="3"/>
+      <c r="T117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>721</v>
+        <v>810</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>722</v>
+        <v>811</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>62</v>
@@ -8309,13 +9069,18 @@
         <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="H118" s="3"/>
+        <v>812</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="M118" s="3"/>
       <c r="Q118" s="3"/>
+      <c r="T118" s="1" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
@@ -8328,7 +9093,7 @@
         <v>88</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>724</v>
+        <v>815</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>62</v>
@@ -8345,39 +9110,39 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>725</v>
+        <v>816</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>663</v>
+        <v>753</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>726</v>
+        <v>817</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>727</v>
+        <v>818</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>728</v>
+        <v>819</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="M120" s="3"/>
       <c r="Q120" s="1" t="s">
-        <v>729</v>
+        <v>820</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>730</v>
+        <v>821</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="1" t="s">
@@ -8390,10 +9155,10 @@
         <v>28</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>731</v>
+        <v>822</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>732</v>
+        <v>823</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -8403,7 +9168,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>733</v>
+        <v>824</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>25</v>
@@ -8418,10 +9183,10 @@
         <v>28</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>734</v>
+        <v>825</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>735</v>
+        <v>826</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -8431,7 +9196,7 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>736</v>
+        <v>827</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>25</v>
@@ -8446,28 +9211,28 @@
         <v>28</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>737</v>
+        <v>828</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>738</v>
+        <v>829</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>739</v>
+        <v>830</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>740</v>
+        <v>831</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>189</v>
       </c>
       <c r="M123" s="3"/>
       <c r="Q123" s="1" t="s">
-        <v>741</v>
+        <v>832</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>742</v>
+        <v>833</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="1" t="s">
@@ -8480,10 +9245,10 @@
         <v>62</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>743</v>
+        <v>834</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>744</v>
+        <v>835</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -8493,14 +9258,14 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>745</v>
+        <v>836</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>62</v>
@@ -8509,19 +9274,19 @@
         <v>209</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>746</v>
+        <v>837</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="M125" s="3"/>
       <c r="Q125" s="1" t="s">
-        <v>741</v>
+        <v>832</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="1" t="s">
@@ -8534,10 +9299,10 @@
         <v>28</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>748</v>
+        <v>839</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>749</v>
+        <v>840</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -8547,14 +9312,14 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>751</v>
+        <v>842</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>62</v>
@@ -8563,7 +9328,7 @@
         <v>209</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>752</v>
+        <v>843</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -8573,7 +9338,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>753</v>
+        <v>844</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="1" t="s">
@@ -8589,7 +9354,7 @@
         <v>209</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>754</v>
+        <v>845</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -8599,14 +9364,14 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>755</v>
+        <v>846</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>722</v>
+        <v>811</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>62</v>
@@ -8615,7 +9380,7 @@
         <v>209</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>756</v>
+        <v>847</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -8625,7 +9390,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>757</v>
+        <v>848</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="1" t="s">
@@ -8638,10 +9403,10 @@
         <v>28</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>758</v>
+        <v>849</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>759</v>
+        <v>850</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -8651,7 +9416,7 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="1" t="s">
@@ -8664,10 +9429,10 @@
         <v>28</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>760</v>
+        <v>851</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>761</v>
+        <v>852</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -8677,7 +9442,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>762</v>
+        <v>853</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="1" t="s">
@@ -8690,13 +9455,13 @@
         <v>62</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>763</v>
+        <v>854</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>764</v>
+        <v>855</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>765</v>
+        <v>856</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -8705,7 +9470,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>766</v>
+        <v>857</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>173</v>
@@ -8721,7 +9486,7 @@
         <v>209</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>767</v>
+        <v>858</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -8731,7 +9496,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>768</v>
+        <v>859</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="1" t="s">
@@ -8747,7 +9512,7 @@
         <v>209</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>769</v>
+        <v>860</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -8757,23 +9522,23 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>770</v>
+        <v>861</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>663</v>
+        <v>753</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>771</v>
+        <v>862</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>772</v>
+        <v>863</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -8783,7 +9548,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>666</v>
+        <v>756</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="1" t="s">
@@ -8796,13 +9561,13 @@
         <v>28</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>773</v>
+        <v>864</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>774</v>
+        <v>865</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>775</v>
+        <v>866</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -8811,7 +9576,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>776</v>
+        <v>867</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="1" t="s">
@@ -8827,7 +9592,7 @@
         <v>209</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -8852,13 +9617,13 @@
         <v>28</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>779</v>
+        <v>870</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>780</v>
+        <v>871</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -8869,7 +9634,7 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="1" t="s">
@@ -8882,13 +9647,13 @@
         <v>62</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -8901,7 +9666,7 @@
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>46</v>
@@ -8910,10 +9675,10 @@
         <v>62</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>784</v>
+        <v>875</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>785</v>
+        <v>876</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -8924,7 +9689,7 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>25</v>
@@ -8933,19 +9698,19 @@
         <v>26</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>786</v>
+        <v>877</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>787</v>
+        <v>878</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>788</v>
+        <v>879</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>33</v>
@@ -8954,7 +9719,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>789</v>
+        <v>880</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>88</v>
@@ -8966,18 +9731,18 @@
         <v>28</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>790</v>
+        <v>881</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>791</v>
+        <v>882</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>792</v>
+        <v>883</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>793</v>
+        <v>884</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>88</v>
@@ -8989,37 +9754,37 @@
         <v>62</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>794</v>
+        <v>885</v>
       </c>
       <c r="Q143" s="3"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>795</v>
+        <v>886</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>796</v>
+        <v>887</v>
       </c>
       <c r="Q144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>797</v>
+        <v>888</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>88</v>
@@ -9031,18 +9796,18 @@
         <v>28</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>798</v>
+        <v>889</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>799</v>
+        <v>890</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>800</v>
+        <v>891</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>801</v>
+        <v>892</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>26</v>
@@ -9054,38 +9819,38 @@
         <v>28</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>802</v>
+        <v>893</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>803</v>
+        <v>894</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>804</v>
+        <v>895</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>805</v>
+        <v>896</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>806</v>
+        <v>897</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>807</v>
+        <v>898</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>808</v>
+        <v>899</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>183</v>
@@ -9094,7 +9859,7 @@
         <v>62</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>809</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -9125,37 +9890,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="78.8367346938775"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="62.8520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="52.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="2" width="22.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="101.622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="80.5612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="67.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="2" width="28.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>810</v>
+        <v>901</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>811</v>
+        <v>902</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>812</v>
+        <v>903</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>813</v>
+        <v>904</v>
       </c>
       <c r="F1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>729</v>
+        <v>820</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>725</v>
+        <v>816</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9165,10 +9930,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>800</v>
+        <v>891</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>797</v>
+        <v>888</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9178,7 +9943,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>814</v>
+        <v>905</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>51</v>
@@ -9191,7 +9956,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>815</v>
+        <v>906</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>51</v>
@@ -9204,10 +9969,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>816</v>
+        <v>907</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -9217,7 +9982,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>77</v>
@@ -9230,10 +9995,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>792</v>
+        <v>883</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>789</v>
+        <v>880</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -9243,17 +10008,17 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>817</v>
+        <v>908</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9268,12 +10033,12 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>818</v>
+        <v>909</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>819</v>
+        <v>910</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>147</v>
@@ -9285,10 +10050,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -9297,10 +10062,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>820</v>
+        <v>911</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -9309,7 +10074,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>821</v>
+        <v>912</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>104</v>
@@ -9320,10 +10085,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>822</v>
+        <v>913</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>823</v>
+        <v>914</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -9331,23 +10096,23 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>824</v>
+        <v>915</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>825</v>
+        <v>916</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>826</v>
+        <v>917</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>827</v>
+        <v>918</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -9355,10 +10120,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>828</v>
+        <v>919</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -9366,36 +10131,36 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>829</v>
+        <v>920</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>830</v>
+        <v>921</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>831</v>
+        <v>922</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>703</v>
+        <v>793</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>701</v>
+        <v>791</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -9403,46 +10168,46 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
-        <v>832</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>832</v>
+        <v>923</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>833</v>
+        <v>924</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>834</v>
+        <v>925</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>835</v>
+      <c r="A25" s="20" t="s">
+        <v>926</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
@@ -9453,10 +10218,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>628</v>
+        <v>718</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -9464,23 +10229,23 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>836</v>
+        <v>927</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>837</v>
+        <v>928</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -9494,17 +10259,17 @@
         <v>108</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>838</v>
+        <v>929</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>741</v>
+        <v>832</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>839</v>
+        <v>930</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -9514,46 +10279,46 @@
         <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>673</v>
+        <v>763</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>671</v>
+        <v>761</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>692</v>
+        <v>782</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>840</v>
+        <v>931</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>841</v>
+        <v>932</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>842</v>
+        <v>933</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -9575,20 +10340,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="10.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="13.1734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>843</v>
+        <v>934</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
@@ -9602,50 +10367,99 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>844</v>
+        <v>935</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>845</v>
+        <v>936</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>846</v>
-      </c>
+        <v>937</v>
+      </c>
+      <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>847</v>
+        <v>938</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="3" t="s">
-        <v>848</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>849</v>
+        <v>940</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="3" t="s">
-        <v>850</v>
-      </c>
+        <v>941</v>
+      </c>
+      <c r="D4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>851</v>
+        <v>942</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>852</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>853</v>
+        <v>944</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>854</v>
+        <v>945</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>947</v>
       </c>
     </row>
   </sheetData>
@@ -9672,16 +10486,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="18.6836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="3" t="s">
-        <v>855</v>
+        <v>948</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>856</v>
+        <v>949</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
@@ -9694,13 +10508,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>857</v>
+        <v>950</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>857</v>
+        <v>950</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>858</v>
+        <v>951</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -9710,7 +10524,7 @@
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="W2" s="3" t="s">
-        <v>857</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9739,7 +10553,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>859</v>
+        <v>952</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
@@ -9753,7 +10567,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>860</v>
+        <v>953</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -9767,7 +10581,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>861</v>
+        <v>954</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -9781,7 +10595,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>862</v>
+        <v>955</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -9790,18 +10604,18 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="J8" s="3" t="s">
-        <v>863</v>
+        <v>956</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>864</v>
+        <v>957</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>865</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>866</v>
+        <v>959</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -9810,21 +10624,21 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="J9" s="3" t="s">
-        <v>867</v>
+        <v>960</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>868</v>
+        <v>961</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>869</v>
+        <v>962</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>870</v>
+        <v>963</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>871</v>
+        <v>964</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -9832,18 +10646,18 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="J10" s="3" t="s">
-        <v>872</v>
+        <v>965</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>873</v>
+        <v>966</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>874</v>
+        <v>967</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>875</v>
+        <v>968</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -9852,18 +10666,18 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="J11" s="3" t="s">
-        <v>876</v>
+        <v>969</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>877</v>
+        <v>970</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>878</v>
+        <v>971</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>879</v>
+        <v>972</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -9872,21 +10686,21 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="J12" s="0" t="s">
-        <v>880</v>
+        <v>973</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>881</v>
+        <v>974</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>882</v>
+        <v>975</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>883</v>
+        <v>976</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>884</v>
+        <v>977</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -9894,21 +10708,21 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="J13" s="0" t="s">
-        <v>885</v>
+        <v>978</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>886</v>
+        <v>979</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>887</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>888</v>
+        <v>981</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>889</v>
+        <v>982</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -9917,10 +10731,10 @@
       <c r="G14" s="0"/>
       <c r="J14" s="0"/>
       <c r="L14" s="3" t="s">
-        <v>890</v>
+        <v>983</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>891</v>
+        <v>984</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9937,7 +10751,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>892</v>
+        <v>985</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -9946,13 +10760,13 @@
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="J16" s="3" t="s">
-        <v>893</v>
+        <v>986</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>894</v>
+        <v>987</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>895</v>
+        <v>988</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9964,18 +10778,18 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="J17" s="3" t="s">
-        <v>896</v>
+        <v>989</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>897</v>
+        <v>990</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>898</v>
+        <v>991</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>899</v>
+        <v>992</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -9984,15 +10798,15 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="J18" s="3" t="s">
-        <v>900</v>
+        <v>993</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>901</v>
+        <v>994</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>902</v>
+        <v>995</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -10001,7 +10815,7 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="J19" s="3" t="s">
-        <v>903</v>
+        <v>996</v>
       </c>
       <c r="L19" s="0"/>
     </row>
@@ -10017,7 +10831,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>904</v>
+        <v>997</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -10039,7 +10853,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>905</v>
+        <v>998</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -10051,10 +10865,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>906</v>
+        <v>999</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>907</v>
+        <v>1000</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -10062,7 +10876,7 @@
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="L24" s="3" t="s">
-        <v>908</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10074,15 +10888,15 @@
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="L25" s="3" t="s">
-        <v>909</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>910</v>
+        <v>1003</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>911</v>
+        <v>1004</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -10090,7 +10904,7 @@
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="L26" s="3" t="s">
-        <v>912</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10102,12 +10916,12 @@
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="L27" s="3" t="s">
-        <v>913</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>914</v>
+        <v>1007</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -10116,7 +10930,7 @@
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="L28" s="3" t="s">
-        <v>915</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10138,7 +10952,7 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="L30" s="3" t="s">
-        <v>916</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10150,7 +10964,7 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="L31" s="3" t="s">
-        <v>917</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10162,7 +10976,7 @@
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="L32" s="3" t="s">
-        <v>918</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10174,7 +10988,7 @@
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="L33" s="3" t="s">
-        <v>919</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10186,38 +11000,38 @@
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="L34" s="3" t="s">
-        <v>920</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>859</v>
+        <v>952</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>861</v>
+        <v>954</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>860</v>
+        <v>953</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>875</v>
+        <v>968</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>921</v>
+        <v>1014</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>910</v>
+        <v>1003</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>922</v>
+        <v>1015</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>923</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L36" s="3" t="s">
-        <v>924</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -10252,15 +11066,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>925</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>926</v>
+        <v>1019</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>927</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -10279,10 +11093,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10295,7 +11109,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>928</v>
+        <v>1021</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="1042">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -2280,627 +2280,663 @@
     <t xml:space="preserve">Raden, Bambang</t>
   </si>
   <si>
-    <t xml:space="preserve">Son of Antaboga. Kisah ini menceritakan tentang Raden Nagatatmala putra Batara Anantaboga yang berani melarikan Dewi Mumpuni, istri Batara Yamadipati pada saat Kahyangan Suralaya menghadapi serbuan Prabu Karungkala, penjelmaan Batara Kalakutana. Raden Nagatatmala dan Dewi Mumpuni akhirnya mendapatkan perlindungan Prabu Wisnupati di Kerajaan Purwacarita.</t>
+    <t xml:space="preserve">A son of [Antaboga] who married [Mumpuni]. She was originally married to [Yamadipati]. In one version, he had an affair with [Mumpuni]. After being caught he was sentenced to death and then killed by Batara [Guru], to be revived by his mother. In another version, he had the help of [Antaboga], who created a fake [Mumpuni] that went on pretending to be [Yamadipati]'s wife until she died suddenly. These actions were eventually discovered by his behavior was forgiven for his role in helping to defeat [Karungkala], a giant wreaking havoc in the heavens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagabanda, Nagapustaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagagini, Pertiwi, Pratiwanggana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumpuni: Antawirya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renggapura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355-356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229-232 (Vol. VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152-153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the originally the son of the Ashwini twins and Kunti. He is believed to be the most handsome amongst the Pandavas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although nominally the son of Pandu, he is in reality an incarnation of Aswin. After the Baratayuda war, he became the rules of Mandaraka. He died a perfect death with his four borther some time after that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadewa,Werkudara,Puntadewa,Arjuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayati:x; Srengganawati:x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aji Pranawajati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234-240 (Vol. VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narada in Hindu mythology is known as a sage who is a trilokasanjaari (the traveller of the three worlds: Heaven, Earth and the Underworld) as he is able to go to any of these three places at will. He is known as the son of Brahma. He said to have been cursed by Daksha his brother, to create conflict amongst people wherever he goes. However he is also blessed by God in way such that the conflicts that he causes will be a blessing in disguise to leads to the better good for people. He is also considered to be a great devotee of Lord Vishnu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanekaputra. Not a God in India.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nembur_Nawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a story of a snake that entraps Bhima. He is actually Nahusha, his ancestor who has turned into a snake due to a curse by sage Agasthya. In the end Bhima help him to be redeemed from the curse and return to his normal self.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another name of Nabatnawa, the serpet defeated by Bima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NgembatLandeyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this version he is one of the Thousand Kings. But other versions have him as one of the Korawa (also known as Wikatha Boma or Boma Encik, who is killed by Werkudara, jenis boneka wayang guseng halus). // Nama serambahan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padmanaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incarnation of Wisnu. Ketika mati masuk ke Narayana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pancawala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prathivindhya is known as the son of Yudhishtra and Draupadi. He is also known as one of the upapandavas (sons born to each of the Pandavas and Draupadi).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Yudistira and Drupadi. He marries Pergiwati. Pergiwa marries Gatotkaca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandu is the son of Veda Vyasa and Ambalika. He is known to be born pale as his mother's face turned pale with fright when she met Veda Vyasa due to his appearance. He is known to be the successor of King Vichitraveerya of the Kuru house at first but goes to the forest after a curse from a sage; he hands over the throne to his brother Dhirtirashtra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Ambalika and Abyasa. Father of the Pandawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panyarikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God of writing with colorful headdress. Never forgets and can keep a secret. Son of Sang Hyang Parma, grandson of Sang Hyang Taya, younger brother of Sang Hyang Wenang. // there are many versions. There is a version that says he is the son of Batara Guru, another has him as the son of Ismaya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as sage Parasara, he is the father of Veda Vyasa. Satyavati gives birth to Veda Vyasa before her marriage as second wife of King Shantanu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father of Abiyasa, also a writer. Son of Bambang Sakri, who in turn is son of Bambang Sekutrem. Marries Durgandini and fathers Raden Dipayana (Byasa). Also fathers Rajamala and Dewi Sudesno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Raksasa, _Lion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petruk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pracona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prabu, Kala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He wants to marry Supraba, the bidadari.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pradapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Vijaya, the maternal cousin of Sahadeva. Not much is mentioned about Sahadeva's wife apart from Draupadi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadewa's wife. Daughter of Tambrapeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pragota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Ugrasena and Ken Sagupi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken Sagupi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugrasena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satyavati is known as a fisherman's daughter. She was initially known as Matsyagandha (she who smells of fish). Shantanu, Bhishma's father, marries her as his second wife, after his former wife Ganga (a river goddess) leaves him for breaking one of the condition set for the marriage. She gives birth to Vichitraveerya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Setyawati. Daughter of a giant, Bagaspati. She marries Narasoma (Salya). Hasil pujaan (seperti Srikandi, Drupadi dan Pandawa). Trustojumena. Pujan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulunggana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulungsari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat. //mengusai premuan sebagai Pertiwi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sengkalawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yudhistra, alias Dharmaraja (the King of righteousness) is the eldest of the Pandava brothers. He is the son of Yama, the god of death and justice (therefore also known as Yamadharmaraja).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oldest of the pandawa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prabu (Ramuwijaya) / Raden Ramaregawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama is known as the King of Ayodhya. He is of the Solar lineage (Suryavamsa) which means descendents of the Sun god. The kingdom is ruled by King Dilipa followed by his son Rahu, Rahu's son Aja, Aja's son Dasharatha and Dasharatha's son Rama. This why he is sometimes addressed as Raghurama or Raghu Kula Rama (hence alluding his origins from Raghu lineage. He is born to Dasharatha and Kausalya, the first wife of Dasharatha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Dasarata and Kausalya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramawijaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramaparasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parashurama is known as the 7th incarnation Lord Vishnu. He is often depicted with an axe. When his father, Jamadagni gets killed by Kartaveerya Arjuna (not to be confused with Arjuna of the Pandava brothers), Parashurama goes on a mission to kill Kartaveerya and unjust kshatriyas. As a result he refuses to teach martial arts to any one who is born to the Kshatriya clan. He teaches Karna but in the end curses him when he suspects him for being a kshatriya. Although Karna is born into the warrior clan he is still not aware of it at this point of time; Karna in fact sees himself as a Sudra (lower caste) as he is brought up by charioteer Adiratha and lies to Parashurama that he is a brahmin instead; Parashurama himself is born to a brahmin father and kshatriya mother.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Resi Jamadagni and Dewi Renuka. His father asks him to kill his mother, to punish her for committing adultery with Citrarata. He makes his father promise to grant him any wish. With this he returns his borthers to human shape (they had been earlier turned into animals for refusing to kill their mother) and to bring his mother back to life. Ramaparasu is angered when Citrarata kills Jamadagni and vows to kill all kesatria warriors. Eventually Rama (from Ramayana) kills him and then becomes Dewa. // Nama mudanya Bargawa. Parasu = senjata panah.  //Moksa = mencapai kesempurnaan. // In this particular story Wahyu Kaprawiran he is already a God.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramayadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Ramadi. Together with Angganjali provides Tetuka with powers to witstand attacks from Sekipu and Pracona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Dahana speaks to Bantala Maruta and Ranu, he wants to marry a Citrawarsiti, daughter of King Karentegnyana in Tasikmadu.  //HY dari unsur air. //Ranu dasanama dari Tirta, Banyu, Bahni, Weh, Jahni.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subhadra, sister of Krishna and Balarama, and second wife of Arjuna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter of Badrahini and Basudewa. Kakrasana and Narayana are her half-brothers from a different mother. Becomes one wife of Arjuna. Also known as Sumbadra. She becomes one of Arjuna's wives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumbadra, Subadra, Bratajaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baladewa,Kresna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sintawaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Younger brother of Jim Dhamdharat. // Sermabahana. Rutmaka is from Dewa Ruci. // since the oral tradition has him protrayed with a Raksasa wayang, he is given the honorific Kala. But he is actually a demon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of Baladewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Rukmi, the elder brother of Rukmini. He wanted Shishupala, on of the nephews of Lord Krishna to marry Rukmini; he did not like Krishna. He was strongly against the wedding between Krishna and Rukmini. In his battle with Krishna, he gets defeated in the end and has half of his hair and moustache shaved as a form of punishment an publich shaming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Arya Prabu Rukma / Bisamaka and Dewi Rumbini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmini is the first wife of Lord Krishna. She is known as one of his principle wives of Lord Krishna and their first-born, Pradyumna become the crowned Prince of Dwaraka. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First wife of Kresna. Daughter of Bismaka (Aya Prabu Rukma) and Rumbini. Has sibligs: Arya Rumkana and Dewi Rarasati (Larasati) -&gt; this one from Ken Sagupi and Arya Prabu Rukma. Kresna (Narayana), rejecting Drona. The other wives of Kresna are Jembawati (daughter of Jembawan and Trijata), Setyaboma (daughter of Ugrasena / Setyajit, king of Lesmanapura). She has three sons: Saranadewa (face of giant), Partadewa and Dewi Sitisari / Titisari.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the companion of Dewi Sri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JakaPupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahadeva is known to be the most knowledgeable one amongst the Pandavas. Born to Pandu and Madri, he is said to be well versed in astrology and could understand the language of animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youngest Pandawa, son of Madrim and Pandu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salya is the maternal uncle of Madri's sons, Nakul and Sahadeva. He is said to have accidentally ended up siding the Kauravas as Duryodhana tricks him into thinking that his accommodation at the war camp was being provided by the Pandavas when it was actually Duryodhana. As a result, due to hospitality sentiments in the Indian culture, Salya becomes unwillingly obliged to help the Kauravas. He still expressed his support for the Pandavas by demotivating Karna when he became Karna's charioteer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Mandrapati from Mandraraka and Dewi Tejawati. Gives his sister Madrim to Pandu after loosing contest for Kunti. With Setyawati, father of Burisrawa, Erawati (Baladewa), Surtikanti (Karna), Banowati (Duryudana),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narasoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrekaswara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burisrawa,Erawati,Sutikanthi, Banowati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samba is the son of Lord Krishna. He marries Lakshmani, the daughter of Duryodhana. Although Duryodhana is against the marriage, when Balarama expresses his anger (Duryodhana speaks ill of the Yadava clan when Balarama comes to speak on behalf of Samba when he is imprisoned by Duryodhana), Duryodhana relents in the end. Samba is also seen as the main cause of destruction of the Yadava race (Krishna's clan). Many years earlier, even before the kurukshetra war, he once decided to test the power of the sages. He dresses up as a pregnant woman and went to the sages and ask whether the unborn child would be male or female. The sages, enraged by this sign of great disrespect, cast a curse saying that "she" will "give birth" to an iron material which will cause destruction the entire yadava race. An iron mace was ripped out of Samba's thigh and he pounded it and threw it into the sea. The iron dust however was tosed back to the shore of Prabasa and was turned into deadly reeds which the yadavas used to fight and kill one another with during a heated argument on whose side should they take after witnessing the Kurukshetra war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Jembawati and Kresna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saragupita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih of Mandura, during the reign of Basudewa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satrugna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shatrughuna is born to Sumitra, third wife of Dasharatha. He is known as the twin of Lakshmana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin brother of Laksmana, son of Dasarata and Sumitra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekipu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih Kala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih of Pracona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasipu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285-286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sengkuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakuni, the maternal uncle of the Kauravas. He is plays an important in helping the Kauravas plot against the Pandavas and finds ways to defeat them, including the game of dice where the Pandavas lose their kingdom to the Kauravas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Younger brother of Gandari. [Gandara is the name of their eldest brother, not the name of a Kingdom]. Another name: Harya Suman. In reality, son of King of  Palasajenar. // some say he is the son of Gendara, some sya he is the the adik ke2 prabu Gendara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harya Suman, Trigantalpati, Sakuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Boar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyaboma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satyabhama is known as the second wife and one of the Principle wives of Lord Krishna. She also faces opposition in marrying Krishna from her brother and father. She is seen as the incarnation of the Earth goddess, Bhudevi and is known for her short temper. She is of a strong disposition and even accompanies Lord Krishna during his battle with Narakasura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter of Prabu Setyajid / Arya Ugrasena and Dewi Wersini. Setyaki is her younger brother. She marries Narayana. With him she has Arya Styaka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Satyaki, he is a Yadava chieftein who helped the Pandavas in the Kurukshetra war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Wresniwara. Son of Ugrasena and Dewi Sini  / Wresini (daughter of Sanaprabawa). Marries Dewi Garbarini [ daughter of Garbanata, from Garbaruci] and has a son named Arya Sangasanga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siti_Sendari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishna is said to have a daughter by the name of Charumati; however she is born to Rukmini and Krishna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter of Kresna (Wisnu) and Dewi Pratiwi (daughter of Antaboga). // Sundari berarti bulan purnama.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siti_Sundari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratiwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RaraTemon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not much is mentioned about Sahadeva's marriage. He is usually known as one of the husbands of Draupadi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given to Sadewa (Raden Sudamala) as wife after curing Durga back into Uma. // or after defeating Kalanjaya and Kalantaka, who are casing Endang Soka and Pradapa. //Anaknya Begawan Tambapetra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyi Pohaci Sanghyang Sri. She emerges out of an egg, which emerged out of the tears of Antaboga. The gods kill her to protect her from Batara Guru's desires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugriwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as the monkey king of Kishkinda and the son of the Sun god. He is the brother of Vali (Indra's son) and he helps Rama by lending the support of his Vanara army during Rama's mission to rescue his wife Sita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Guwarsa. Son of Resi Gotama [from Erraya / Grastina] and Dewi Windradi / Indradi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suparta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Dananjaya.  Mretani Jim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surabramadiraja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of Kraton Banon Salembag (or Simbarmanyura) who wants to marry Arimbi. // Serambahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surati_Mantra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SuratiMatra. He is the patih of Gorawangsa.He takes care of Kangsa, the son of Maerah and Gorawangsa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtikanthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Vrushali, she is the wife of Karna and the daughter of Shalya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtikanti. Sibling of Erawati who marries Karna, but also loves Arjuna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surya is known as the son of Aditi (Daksha's daughter) and Sage Kashyapa. He forms a part of the navagrahas (the nine planets).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God of the son. Father of Karna, with Kunti. Son of Guru and Dewi Senggani. // Sama dengan Druwasa (perwujudnya sebagai manusia).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambrapeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He marries Karenumati, Princess of Chedi. Her son's name is Niramitra. Not much is mentioned about Nakula's wife apart from Draupadi. Perhaps one reason could be because Draupadi made It clear that no other wives of the Pandava should share her household in Indraprastha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begawan at Pringalas. Father of Dewi Soka,  who marries Nakula. And Pradapa (Padapa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambapetra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejamantri. Brother of Semar and Guru who accompanies the antagonists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TunggulWulung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//HY he also has his own lakon: tunggul wulung. Malihane Betara GUru. //Tidak punya prajurit, dia mengalahkan kurawa semua, dia usap jadi patung. Akhirnya karna, duryudhana takluk. Si tunggulwulung minta supaya korawa ngluruk Dwarawati. Dwarawati kalah, Kresna mencari bantuan ke Amarta. Sementara Amarta diserang juga. Bima, Gatotkaca, Antareja semua lari ke hutan. Ketemu begawan. Mereka dirubah bima jadi gajah, antasena dadi ular, gatotkaca jadi garuda. Yang merubah ini pendita yang malihane Semar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In most Indian retellings, Vasudeva is usually mentioned to have two wives Devaki and Rohini. There is no mentioning of him having children out of wedlock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Basudewa, out of wedlock. The fourth consort of Basudewa is his mother: Ken Sagupi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugrasena is known as the father of Kamsa and Devaki and grandson of Krishna and Balarama. He is imprisoned by Kamsa when he seizes his throne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugrasena is the brother of Kunti, Basudewa and Ugrasena. // known as Setyajid after becoming King.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyajit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sang Hyang Wenang. Father of Togog, Guru and Semar, with Dewi Wiranti (daughter of Rekatatama). He appears as Ruci in Dewa Ruci.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Bhima, Hanuman's younger brother and the second Pandava.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was wrapped in a Bungkus as a kid, he defeated Gajah Sena and got the name Bratasena as a kid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bratasena, Bima, Arya Sena, Gandawatratmaja, Panduputra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not mentioned in the Indian Mahabharata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the Ramayana he becomes Begawan Kontawibisana. He is the son of Bisawarna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontawibisana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although this character is not mentioned in the Indian Mahabharata, there is a mentioning of one of the Mahabharata characters (either Karna or Arjuna) possesses Nagastra which is a weapon associated with snakes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He can take the shape of a snake. He gives a special weapon to Arjuna (Minyak Jayengkaton). Father of Asmarawati. Father of Dewi Jim Mambang, who dreams of marrying Arjuna. Arjuna gives Wilawuk's cup to his siblings so they can see the Jnvisible demonseainiesigms. //NOTE: there are differnet version about Mambang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bambang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Arjuna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dresanala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishnu is known as Preserver. He is the brother of Uma and brother-in-law of Lord Shiva. He is famous for his Dasavatar (10 incarnations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Narayana. Son of Uma and Guru. The following are considered incarnations of him: Srimaharaja Kanwa, Resi Wisnungkara, Prabu Arjunasasrabahu, Sri Ramawijaya, Sri Batara Kresna . Prabu Airlangga, Prabu Jayabaya, Prabu Anglingdarma Prabu Ken Arok, Prabu Kertawardhana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Tiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wulan_Drema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wulan Derma and Dermi (female) are sons of Batara Darma. //kena kutukan incarnasi, masuk ke tubuh salah. Ulan dermi masuk ke Hagnyawati dan Ulan Derma ke tubuhnya Samba. //Harusnya ke Bomanarakasura, maka selingkuhan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wulan_Dremi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wulan Derma (male) and Dermi (female) are born to Batara Darma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamadipati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check! Definitely in Indian version.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Yamadipati and Senggani. His wife (Mumpuni) runs away with Bambang Nagatmala (Hyang Antaboga and Dewi Suprepti). His anger makes him half giant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamawidura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidura is the prime minister in the court of Hastinapura. He is born to Veda Vyasa and one of the maid-servants in the Kuru. He is viewed as a wise man who provides strong support to the Pandavas for the righteousness although he is often placed in a tough spot due to his royal allegiance to the Kuru house where the Kauravas reside and to his sense of consciousness when he witnesses many instances of unfair treatment towards the Pandavas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Abyasa and Datri. His half brother are Pandu and Drestarasta. He marries Dewi Pamarini [daughter of Praby Dipacandra] has two sons: Sanjaya dan Yuyutsuh. // satu ayah dengan Pandu dan Destrarastra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuda_Kothi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narada in Hindu mythology is not mentioned as having a vehicle. He is known as trilokasanjaari (the traveller of the three world (Heaven, Earth and the Underworld) as he is able to go to any of these three places that he will. He is known as the son of Brahma the creator and ardent devotee of Vishnu the Preserver)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An elephant-shaped ogre that works for Nagaprasanta. After Baladewa kills Nagraprasanta, Yudakothi becomes a transport for Narada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yudhistira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrentani kingdom. saudara tua dari Arya Dananjaya, Arya Dandunwacana, jim Nakula, dan jim Sadewa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diguise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Lion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Raksasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Raksasa1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrasena in reality. They want to help the Korawa defeat Pandawa. They are sent by Duryudana to chase Pradapa and Endang Soka. Killed by Nakula and Sadewa in the Sudamala story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrarata in reality. They want to help the Korawa defeat Pandawa. They are sent by Duryudana to chase Pradapa and Endang Soka. Killed by Nakula and Sadewa in the Sudamala story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Arjuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Basudewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BayuBajra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bimasakti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werkudara, Wenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ogre shape that Kresna takes when he is angry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FakeWerkudara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Gatotkaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godakesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretends to be the king of Tluki seta in Semar mBagung Kayangan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is described as the younger brother of Bomanarakasura in lakon Wahyu Topeng Waja. Also meets him in Semar Mantu (Version 2). // He appears in different lakon. He is a spriit of Desamuka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kesawasidhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hermitt that lives with Anoman and other hermitts. // Sebenarnya dia amemba Kresna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Lesmana_Murdaka</t>
   </si>
   <si>
     <t xml:space="preserve">Nagabanda</t>
   </si>
   <si>
-    <t xml:space="preserve">Nakula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the originally the son of the Ashwini twins and Kunti. He is believed to be the most handsome amongst the Pandavas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Pandu and Madrim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narada in Hindu mythology is known as a sage who is a trilokasanjaari (the traveller of the three worlds: Heaven, Earth and the Underworld) as he is able to go to any of these three places at will. He is known as the son of Brahma. He said to have been cursed by Daksha his brother, to create conflict amongst people wherever he goes. However he is also blessed by God in way such that the conflicts that he causes will be a blessing in disguise to leads to the better good for people. He is also considered to be a great devotee of Lord Vishnu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanekaputra. Not a God in India.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nembur_Nawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is a story of a snake that entraps Bhima. He is actually Nahusha, his ancestor who has turned into a snake due to a curse by sage Agasthya. In the end Bhima help him to be redeemed from the curse and return to his normal self.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another name of Nabatnawa, the serpet defeated by Bima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NgembatLandeyan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this version he is one of the Thousand Kings. But other versions have him as one of the Korawa (also known as Wikatha Boma or Boma Encik, who is killed by Werkudara, jenis boneka wayang guseng halus). // Nama serambahan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padmanaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incarnation of Wisnu. Ketika mati masuk ke Narayana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancawala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prathivindhya is known as the son of Yudhishtra and Draupadi. He is also known as one of the upapandavas (sons born to each of the Pandavas and Draupadi).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Yudistira and Drupadi. He marries Pergiwati. Pergiwa marries Gatotkaca.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pandu is the son of Veda Vyasa and Ambalika. He is known to be born pale as his mother's face turned pale with fright when she met Veda Vyasa due to his appearance. He is known to be the successor of King Vichitraveerya of the Kuru house at first but goes to the forest after a curse from a sage; he hands over the throne to his brother Dhirtirashtra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Ambalika and Abyasa. Father of the Pandawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panyarikan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God of writing with colorful headdress. Never forgets and can keep a secret. Son of Sang Hyang Parma, grandson of Sang Hyang Taya, younger brother of Sang Hyang Wenang. // there are many versions. There is a version that says he is the son of Batara Guru, another has him as the son of Ismaya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as sage Parasara, he is the father of Veda Vyasa. Satyavati gives birth to Veda Vyasa before her marriage as second wife of King Shantanu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father of Abiyasa, also a writer. Son of Bambang Sakri, who in turn is son of Bambang Sekutrem. Marries Durgandini and fathers Raden Dipayana (Byasa). Also fathers Rajamala and Dewi Sudesno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Raksasa, _Lion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petruk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pracona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prabu, Kala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He wants to marry Supraba, the bidadari.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pradapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Vijaya, the maternal cousin of Sahadeva. Not much is mentioned about Sahadeva's wife apart from Draupadi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadewa's wife. Daughter of Tambrapeta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pragota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Ugrasena and Ken Sagupi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken Sagupi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ugrasena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satyavati is known as a fisherman's daughter. She was initially known as Matsyagandha (she who smells of fish). Shantanu, Bhishma's father, marries her as his second wife, after his former wife Ganga (a river goddess) leaves him for breaking one of the condition set for the marriage. She gives birth to Vichitraveerya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Setyawati. Daughter of a giant, Bagaspati. She marries Narasoma (Salya). Hasil pujaan (seperti Srikandi, Drupadi dan Pandawa). Trustojumena. Pujan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulunggana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulungsari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat. //mengusai premuan sebagai Pertiwi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sengkalawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puntadewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yudhistra, alias Dharmaraja (the King of righteousness) is the eldest of the Pandava brothers. He is the son of Yama, the god of death and justice (therefore also known as Yamadharmaraja).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oldest of the pandawa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prabu (Ramuwijaya) / Raden Ramaregawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rama is known as the King of Ayodhya. He is of the Solar lineage (Suryavamsa) which means descendents of the Sun god. The kingdom is ruled by King Dilipa followed by his son Rahu, Rahu's son Aja, Aja's son Dasharatha and Dasharatha's son Rama. This why he is sometimes addressed as Raghurama or Raghu Kula Rama (hence alluding his origins from Raghu lineage. He is born to Dasharatha and Kausalya, the first wife of Dasharatha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Dasarata and Kausalya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramawijaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramaparasu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parashurama is known as the 7th incarnation Lord Vishnu. He is often depicted with an axe. When his father, Jamadagni gets killed by Kartaveerya Arjuna (not to be confused with Arjuna of the Pandava brothers), Parashurama goes on a mission to kill Kartaveerya and unjust kshatriyas. As a result he refuses to teach martial arts to any one who is born to the Kshatriya clan. He teaches Karna but in the end curses him when he suspects him for being a kshatriya. Although Karna is born into the warrior clan he is still not aware of it at this point of time; Karna in fact sees himself as a Sudra (lower caste) as he is brought up by charioteer Adiratha and lies to Parashurama that he is a brahmin instead; Parashurama himself is born to a brahmin father and kshatriya mother.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Resi Jamadagni and Dewi Renuka. His father asks him to kill his mother, to punish her for committing adultery with Citrarata. He makes his father promise to grant him any wish. With this he returns his borthers to human shape (they had been earlier turned into animals for refusing to kill their mother) and to bring his mother back to life. Ramaparasu is angered when Citrarata kills Jamadagni and vows to kill all kesatria warriors. Eventually Rama (from Ramayana) kills him and then becomes Dewa. // Nama mudanya Bargawa. Parasu = senjata panah.  //Moksa = mencapai kesempurnaan. // In this particular story Wahyu Kaprawiran he is already a God.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramayadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Ramadi. Together with Angganjali provides Tetuka with powers to witstand attacks from Sekipu and Pracona.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Dahana speaks to Bantala Maruta and Ranu, he wants to marry a Citrawarsiti, daughter of King Karentegnyana in Tasikmadu.  //HY dari unsur air. //Ranu dasanama dari Tirta, Banyu, Bahni, Weh, Jahni.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subhadra, sister of Krishna and Balarama, and second wife of Arjuna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Badrahini and Basudewa. Kakrasana and Narayana are her half-brothers from a different mother. Becomes one wife of Arjuna. Also known as Sumbadra. She becomes one of Arjuna's wives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumbadra, Subadra, Bratajaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baladewa,Kresna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sintawaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Younger brother of Jim Dhamdharat. // Sermabahana. Rutmaka is from Dewa Ruci. // since the oral tradition has him protrayed with a Raksasa wayang, he is given the honorific Kala. But he is actually a demon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of Baladewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Rukmi, the elder brother of Rukmini. He wanted Shishupala, on of the nephews of Lord Krishna to marry Rukmini; he did not like Krishna. He was strongly against the wedding between Krishna and Rukmini. In his battle with Krishna, he gets defeated in the end and has half of his hair and moustache shaved as a form of punishment an publich shaming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Arya Prabu Rukma / Bisamaka and Dewi Rumbini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmini is the first wife of Lord Krishna. She is known as one of his principle wives of Lord Krishna and their first-born, Pradyumna become the crowned Prince of Dwaraka. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First wife of Kresna. Daughter of Bismaka (Aya Prabu Rukma) and Rumbini. Has sibligs: Arya Rumkana and Dewi Rarasati (Larasati) -&gt; this one from Ken Sagupi and Arya Prabu Rukma. Kresna (Narayana), rejecting Drona. The other wives of Kresna are Jembawati (daughter of Jembawan and Trijata), Setyaboma (daughter of Ugrasena / Setyajit, king of Lesmanapura). She has three sons: Saranadewa (face of giant), Partadewa and Dewi Sitisari / Titisari.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the companion of Dewi Sri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JakaPupon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahadeva is known to be the most knowledgeable one amongst the Pandavas. Born to Pandu and Madri, he is said to be well versed in astrology and could understand the language of animals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youngest Pandawa, son of Madrim and Pandu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salya is the maternal uncle of Madri's sons, Nakul and Sahadeva. He is said to have accidentally ended up siding the Kauravas as Duryodhana tricks him into thinking that his accommodation at the war camp was being provided by the Pandavas when it was actually Duryodhana. As a result, due to hospitality sentiments in the Indian culture, Salya becomes unwillingly obliged to help the Kauravas. He still expressed his support for the Pandavas by demotivating Karna when he became Karna's charioteer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Mandrapati from Mandraraka and Dewi Tejawati. Gives his sister Madrim to Pandu after loosing contest for Kunti. With Setyawati, father of Burisrawa, Erawati (Baladewa), Surtikanti (Karna), Banowati (Duryudana),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narasoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandrekaswara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burisrawa,Erawati,Sutikanthi, Banowati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samba is the son of Lord Krishna. He marries Lakshmani, the daughter of Duryodhana. Although Duryodhana is against the marriage, when Balarama expresses his anger (Duryodhana speaks ill of the Yadava clan when Balarama comes to speak on behalf of Samba when he is imprisoned by Duryodhana), Duryodhana relents in the end. Samba is also seen as the main cause of destruction of the Yadava race (Krishna's clan). Many years earlier, even before the kurukshetra war, he once decided to test the power of the sages. He dresses up as a pregnant woman and went to the sages and ask whether the unborn child would be male or female. The sages, enraged by this sign of great disrespect, cast a curse saying that "she" will "give birth" to an iron material which will cause destruction the entire yadava race. An iron mace was ripped out of Samba's thigh and he pounded it and threw it into the sea. The iron dust however was tosed back to the shore of Prabasa and was turned into deadly reeds which the yadavas used to fight and kill one another with during a heated argument on whose side should they take after witnessing the Kurukshetra war.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Jembawati and Kresna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saragupita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih of Mandura, during the reign of Basudewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satrugna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shatrughuna is born to Sumitra, third wife of Dasharatha. He is known as the twin of Lakshmana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin brother of Laksmana, son of Dasarata and Sumitra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekipu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih Kala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih of Pracona.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasipu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285-286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sengkuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sakuni, the maternal uncle of the Kauravas. He is plays an important in helping the Kauravas plot against the Pandavas and finds ways to defeat them, including the game of dice where the Pandavas lose their kingdom to the Kauravas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Younger brother of Gandari. [Gandara is the name of their eldest brother, not the name of a Kingdom]. Another name: Harya Suman. In reality, son of King of  Palasajenar. // some say he is the son of Gendara, some sya he is the the adik ke2 prabu Gendara.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harya Suman, Trigantalpati, Sakuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Boar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setyaboma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satyabhama is known as the second wife and one of the Principle wives of Lord Krishna. She also faces opposition in marrying Krishna from her brother and father. She is seen as the incarnation of the Earth goddess, Bhudevi and is known for her short temper. She is of a strong disposition and even accompanies Lord Krishna during his battle with Narakasura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Prabu Setyajid / Arya Ugrasena and Dewi Wersini. Setyaki is her younger brother. She marries Narayana. With him she has Arya Styaka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setyaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Satyaki, he is a Yadava chieftein who helped the Pandavas in the Kurukshetra war.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Wresniwara. Son of Ugrasena and Dewi Sini  / Wresini (daughter of Sanaprabawa). Marries Dewi Garbarini [ daughter of Garbanata, from Garbaruci] and has a son named Arya Sangasanga.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siti_Sendari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishna is said to have a daughter by the name of Charumati; however she is born to Rukmini and Krishna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Kresna (Wisnu) and Dewi Pratiwi (daughter of Antaboga). // Sundari berarti bulan purnama.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siti_Sundari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratiwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RaraTemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not much is mentioned about Sahadeva's marriage. He is usually known as one of the husbands of Draupadi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given to Sadewa (Raden Sudamala) as wife after curing Durga back into Uma. // or after defeating Kalanjaya and Kalantaka, who are casing Endang Soka and Pradapa. //Anaknya Begawan Tambapetra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyi Pohaci Sanghyang Sri. She emerges out of an egg, which emerged out of the tears of Antaboga. The gods kill her to protect her from Batara Guru's desires.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sugriwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as the monkey king of Kishkinda and the son of the Sun god. He is the brother of Vali (Indra's son) and he helps Rama by lending the support of his Vanara army during Rama's mission to rescue his wife Sita.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Guwarsa. Son of Resi Gotama [from Erraya / Grastina] and Dewi Windradi / Indradi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suparta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Dananjaya.  Mretani Jim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surabramadiraja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King of Kraton Banon Salembag (or Simbarmanyura) who wants to marry Arimbi. // Serambahan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surati_Mantra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SuratiMatra. He is the patih of Gorawangsa.He takes care of Kangsa, the son of Maerah and Gorawangsa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surtikanthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Vrushali, she is the wife of Karna and the daughter of Shalya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surtikanti. Sibling of Erawati who marries Karna, but also loves Arjuna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surya is known as the son of Aditi (Daksha's daughter) and Sage Kashyapa. He forms a part of the navagrahas (the nine planets).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God of the son. Father of Karna, with Kunti. Son of Guru and Dewi Senggani. // Sama dengan Druwasa (perwujudnya sebagai manusia).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tambrapeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He marries Karenumati, Princess of Chedi. Her son's name is Niramitra. Not much is mentioned about Nakula's wife apart from Draupadi. Perhaps one reason could be because Draupadi made It clear that no other wives of the Pandava should share her household in Indraprastha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begawan at Pringalas. Father of Dewi Soka,  who marries Nakula. And Pradapa (Padapa).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tambapetra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tejamantri. Brother of Semar and Guru who accompanies the antagonists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TunggulWulung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//HY he also has his own lakon: tunggul wulung. Malihane Betara GUru. //Tidak punya prajurit, dia mengalahkan kurawa semua, dia usap jadi patung. Akhirnya karna, duryudhana takluk. Si tunggulwulung minta supaya korawa ngluruk Dwarawati. Dwarawati kalah, Kresna mencari bantuan ke Amarta. Sementara Amarta diserang juga. Bima, Gatotkaca, Antareja semua lari ke hutan. Ketemu begawan. Mereka dirubah bima jadi gajah, antasena dadi ular, gatotkaca jadi garuda. Yang merubah ini pendita yang malihane Semar. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In most Indian retellings, Vasudeva is usually mentioned to have two wives Devaki and Rohini. There is no mentioning of him having children out of wedlock.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Basudewa, out of wedlock. The fourth consort of Basudewa is his mother: Ken Sagupi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ugrasena is known as the father of Kamsa and Devaki and grandson of Krishna and Balarama. He is imprisoned by Kamsa when he seizes his throne.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ugrasena is the brother of Kunti, Basudewa and Ugrasena. // known as Setyajid after becoming King.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setyajit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sang Hyang Wenang. Father of Togog, Guru and Semar, with Dewi Wiranti (daughter of Rekatatama). He appears as Ruci in Dewa Ruci.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Bhima, Hanuman's younger brother and the second Pandava.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He was wrapped in a Bungkus as a kid, he defeated Gajah Sena and got the name Bratasena as a kid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bratasena, Bima, Arya Sena, Gandawatratmaja, Panduputra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not mentioned in the Indian Mahabharata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After the Ramayana he becomes Begawan Kontawibisana. He is the son of Bisawarna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontawibisana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although this character is not mentioned in the Indian Mahabharata, there is a mentioning of one of the Mahabharata characters (either Karna or Arjuna) possesses Nagastra which is a weapon associated with snakes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He can take the shape of a snake. He gives a special weapon to Arjuna (Minyak Jayengkaton). Father of Asmarawati. Father of Dewi Jim Mambang, who dreams of marrying Arjuna. Arjuna gives Wilawuk's cup to his siblings so they can see the Jnvisible demonseainiesigms. //NOTE: there are differnet version about Mambang.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bambang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Arjuna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dresanala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisnu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishnu is known as Preserver. He is the brother of Uma and brother-in-law of Lord Shiva. He is famous for his Dasavatar (10 incarnations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Narayana. Son of Uma and Guru. The following are considered incarnations of him: Srimaharaja Kanwa, Resi Wisnungkara, Prabu Arjunasasrabahu, Sri Ramawijaya, Sri Batara Kresna . Prabu Airlangga, Prabu Jayabaya, Prabu Anglingdarma Prabu Ken Arok, Prabu Kertawardhana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Tiger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wulan_Drema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wulan Derma and Dermi (female) are sons of Batara Darma. //kena kutukan incarnasi, masuk ke tubuh salah. Ulan dermi masuk ke Hagnyawati dan Ulan Derma ke tubuhnya Samba. //Harusnya ke Bomanarakasura, maka selingkuhan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wulan_Dremi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wulan Derma (male) and Dermi (female) are born to Batara Darma.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yamadipati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check! Definitely in Indian version.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Yamadipati and Senggani. His wife (Mumpuni) runs away with Bambang Nagatmala (Hyang Antaboga and Dewi Suprepti). His anger makes him half giant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Guard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yamawidura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vidura is the prime minister in the court of Hastinapura. He is born to Veda Vyasa and one of the maid-servants in the Kuru. He is viewed as a wise man who provides strong support to the Pandavas for the righteousness although he is often placed in a tough spot due to his royal allegiance to the Kuru house where the Kauravas reside and to his sense of consciousness when he witnesses many instances of unfair treatment towards the Pandavas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Abyasa and Datri. His half brother are Pandu and Drestarasta. He marries Dewi Pamarini [daughter of Praby Dipacandra] has two sons: Sanjaya dan Yuyutsuh. // satu ayah dengan Pandu dan Destrarastra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuda_Kothi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narada in Hindu mythology is not mentioned as having a vehicle. He is known as trilokasanjaari (the traveller of the three world (Heaven, Earth and the Underworld) as he is able to go to any of these three places that he will. He is known as the son of Brahma the creator and ardent devotee of Vishnu the Preserver)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An elephant-shaped ogre that works for Nagaprasanta. After Baladewa kills Nagraprasanta, Yudakothi becomes a transport for Narada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yudhistira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mrentani kingdom. saudara tua dari Arya Dananjaya, Arya Dandunwacana, jim Nakula, dan jim Sadewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diguise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Lion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Raksasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Raksasa1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citrasena in reality. They want to help the Korawa defeat Pandawa. They are sent by Duryudana to chase Pradapa and Endang Soka. Killed by Nakula and Sadewa in the Sudamala story.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citrarata in reality. They want to help the Korawa defeat Pandawa. They are sent by Duryudana to chase Pradapa and Endang Soka. Killed by Nakula and Sadewa in the Sudamala story.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Arjuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Basudewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BayuBajra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bimasakti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Werkudara, Wenang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brahala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ogre shape that Kresna takes when he is angry.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FakeWerkudara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Gatotkaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Godakesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pretends to be the king of Tluki seta in Semar mBagung Kayangan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is described as the younger brother of Bomanarakasura in lakon Wahyu Topeng Waja. Also meets him in Semar Mantu (Version 2). // He appears in different lakon. He is a spriit of Desamuka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kesawasidhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hermitt that lives with Anoman and other hermitts. // Sebenarnya dia amemba Kresna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Lesmana_Murdaka</t>
-  </si>
-  <si>
     <t xml:space="preserve">PrabuBandung Nagasewu</t>
   </si>
   <si>
@@ -3202,6 +3238,12 @@
   </si>
   <si>
     <t xml:space="preserve">Allows the owner to see the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aji Pranajawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows the owner to never forget.</t>
   </si>
 </sst>
 </file>
@@ -3365,7 +3407,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3436,6 +3478,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3530,46 +3576,46 @@
   <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S73" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A73" activeCellId="0" sqref="A73"/>
-      <selection pane="bottomRight" activeCell="L84" activeCellId="0" sqref="L84"/>
+      <selection pane="bottomRight" activeCell="W86" activeCellId="0" sqref="W86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.3673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.9540816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="153.132653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="122.790816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="131.321428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="61.234693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="38.5561224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="40.5"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="34.4489795918367"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="66.0918367346939"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="42.4438775510204"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="53.3469387755102"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="46.7602040816327"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.6836734693878"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.4132653061224"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="18.0357142857143"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="20.734693877551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="19.765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="198.923469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="198.923469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.0357142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="164.040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="131.321428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="140.607142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="65.4438775510204"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="41.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.9132653061224"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="43.0918367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="36.8265306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.2142857142857"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="34.4489795918367"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="70.6275510204082"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="45.25"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="56.9132653061225"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="49.8928571428572"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.7091836734694"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="15.984693877551"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="16.6326530612245"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="213.178571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="213.178571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7943,7 +7989,9 @@
       <c r="E83" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F83" s="3"/>
+      <c r="F83" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="G83" s="1" t="s">
         <v>707</v>
       </c>
@@ -8026,7 +8074,7 @@
       <c r="X84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="4" t="s">
         <v>718</v>
       </c>
       <c r="B85" s="3"/>
@@ -8039,35 +8087,53 @@
       <c r="E85" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="3"/>
+      <c r="F85" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="G85" s="1" t="s">
         <v>720</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="I85" s="3"/>
+      <c r="I85" s="3" t="s">
+        <v>709</v>
+      </c>
       <c r="J85" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
+      <c r="K85" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>723</v>
+      </c>
       <c r="M85" s="3"/>
-      <c r="N85" s="0"/>
+      <c r="N85" s="0" t="s">
+        <v>724</v>
+      </c>
       <c r="O85" s="0"/>
       <c r="P85" s="0"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
       <c r="S85" s="0"/>
-      <c r="T85" s="0"/>
-      <c r="U85" s="0"/>
+      <c r="T85" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="U85" s="0" t="n">
+        <v>169</v>
+      </c>
       <c r="V85" s="0"/>
-      <c r="W85" s="0"/>
-      <c r="X85" s="0"/>
+      <c r="W85" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="X85" s="0" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>25</v>
@@ -8082,27 +8148,43 @@
         <v>28</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+        <v>730</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>733</v>
+      </c>
       <c r="M86" s="3"/>
-      <c r="N86" s="0"/>
+      <c r="N86" s="0" t="s">
+        <v>191</v>
+      </c>
       <c r="O86" s="0"/>
-      <c r="P86" s="0"/>
+      <c r="P86" s="0" t="s">
+        <v>734</v>
+      </c>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
       <c r="S86" s="0"/>
       <c r="T86" s="0"/>
       <c r="U86" s="0"/>
       <c r="V86" s="0"/>
-      <c r="W86" s="0"/>
+      <c r="W86" s="0" t="s">
+        <v>735</v>
+      </c>
       <c r="X86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,10 +8202,10 @@
         <v>28</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -8149,23 +8231,23 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="18" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="B88" s="17"/>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D88" s="18" t="s">
-        <v>728</v>
-      </c>
-      <c r="E88" s="18" t="s">
+      <c r="D88" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="E88" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="18" t="s">
-        <v>729</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>730</v>
+      <c r="F88" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>741</v>
       </c>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
@@ -8173,21 +8255,21 @@
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
       <c r="Q88" s="17"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="19"/>
-      <c r="U88" s="18"/>
-      <c r="V88" s="18"/>
-      <c r="W88" s="18"/>
-      <c r="X88" s="18"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="19"/>
+      <c r="V88" s="19"/>
+      <c r="W88" s="19"/>
+      <c r="X88" s="19"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="1" t="s">
@@ -8201,7 +8283,7 @@
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="1" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -8214,7 +8296,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="1" t="s">
@@ -8230,7 +8312,7 @@
         <v>209</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -8243,7 +8325,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>25</v>
@@ -8258,10 +8340,10 @@
         <v>62</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -8289,10 +8371,10 @@
         <v>28</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -8305,7 +8387,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="1" t="s">
@@ -8321,7 +8403,7 @@
         <v>209</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -8347,10 +8429,10 @@
         <v>28</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -8359,13 +8441,13 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="Q94" s="1" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="T94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>173</v>
@@ -8392,14 +8474,14 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>62</v>
@@ -8408,7 +8490,7 @@
         <v>209</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -8421,7 +8503,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="1" t="s">
@@ -8434,10 +8516,10 @@
         <v>28</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -8450,14 +8532,14 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>62</v>
@@ -8466,14 +8548,14 @@
         <v>209</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="1" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -8496,10 +8578,10 @@
         <v>28</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -8512,7 +8594,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="1" t="s">
@@ -8528,7 +8610,7 @@
         <v>209</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -8541,7 +8623,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="1" t="s">
@@ -8557,7 +8639,7 @@
         <v>209</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -8566,13 +8648,13 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="Q101" s="1" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="T101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>25</v>
@@ -8587,10 +8669,10 @@
         <v>28</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -8610,19 +8692,19 @@
         <v>26</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -8634,7 +8716,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="1" t="s">
@@ -8647,10 +8729,10 @@
         <v>28</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -8663,7 +8745,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="1" t="s">
@@ -8679,7 +8761,7 @@
         <v>209</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -8692,7 +8774,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="1" t="s">
@@ -8708,7 +8790,7 @@
         <v>209</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -8734,13 +8816,13 @@
         <v>28</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>158</v>
@@ -8749,14 +8831,14 @@
         <v>188</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M107" s="3"/>
       <c r="Q107" s="1" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="T107" s="0"/>
     </row>
@@ -8778,7 +8860,7 @@
         <v>209</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>783</v>
+        <v>794</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -8806,7 +8888,7 @@
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="1" t="s">
-        <v>784</v>
+        <v>795</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -8820,7 +8902,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="1" t="s">
@@ -8833,10 +8915,10 @@
         <v>28</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -8848,7 +8930,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="1" t="s">
@@ -8861,10 +8943,10 @@
         <v>28</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -8876,7 +8958,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="1" t="s">
@@ -8890,7 +8972,7 @@
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="1" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -8898,13 +8980,13 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="Q112" s="1" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="T112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>25</v>
@@ -8919,10 +9001,10 @@
         <v>28</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -8947,32 +9029,32 @@
         <v>28</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>669</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>433</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="Q114" s="3"/>
       <c r="T114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="1" t="s">
@@ -8985,10 +9067,10 @@
         <v>28</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -8999,14 +9081,14 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>62</v>
@@ -9015,7 +9097,7 @@
         <v>209</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -9026,7 +9108,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="1" t="s">
@@ -9039,10 +9121,10 @@
         <v>28</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -9053,14 +9135,14 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>62</v>
@@ -9069,17 +9151,17 @@
         <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="M118" s="3"/>
       <c r="Q118" s="3"/>
       <c r="T118" s="1" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9093,7 +9175,7 @@
         <v>88</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>62</v>
@@ -9110,7 +9192,7 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>242</v>
@@ -9119,30 +9201,30 @@
         <v>26</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="M120" s="3"/>
       <c r="Q120" s="1" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="1" t="s">
@@ -9155,10 +9237,10 @@
         <v>28</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -9168,7 +9250,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>25</v>
@@ -9183,10 +9265,10 @@
         <v>28</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -9196,7 +9278,7 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>25</v>
@@ -9211,28 +9293,28 @@
         <v>28</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>189</v>
       </c>
       <c r="M123" s="3"/>
       <c r="Q123" s="1" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="1" t="s">
@@ -9245,10 +9327,10 @@
         <v>62</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -9258,7 +9340,7 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="1" t="s">
@@ -9274,19 +9356,19 @@
         <v>209</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="M125" s="3"/>
       <c r="Q125" s="1" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="1" t="s">
@@ -9299,10 +9381,10 @@
         <v>28</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -9312,14 +9394,14 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="1" t="s">
         <v>362</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>62</v>
@@ -9328,7 +9410,7 @@
         <v>209</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -9338,7 +9420,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="1" t="s">
@@ -9354,7 +9436,7 @@
         <v>209</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -9364,14 +9446,14 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>62</v>
@@ -9380,7 +9462,7 @@
         <v>209</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -9390,7 +9472,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="1" t="s">
@@ -9403,10 +9485,10 @@
         <v>28</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -9429,10 +9511,10 @@
         <v>28</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -9442,7 +9524,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="1" t="s">
@@ -9455,13 +9537,13 @@
         <v>62</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -9470,7 +9552,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>857</v>
+        <v>868</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>173</v>
@@ -9486,7 +9568,7 @@
         <v>209</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -9496,7 +9578,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="1" t="s">
@@ -9512,7 +9594,7 @@
         <v>209</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -9522,23 +9604,23 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -9548,7 +9630,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="1" t="s">
@@ -9561,13 +9643,13 @@
         <v>28</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -9576,7 +9658,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="1" t="s">
@@ -9592,7 +9674,7 @@
         <v>209</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -9617,13 +9699,13 @@
         <v>28</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -9647,13 +9729,13 @@
         <v>62</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -9675,10 +9757,10 @@
         <v>62</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -9698,19 +9780,19 @@
         <v>26</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>33</v>
@@ -9719,7 +9801,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>88</v>
@@ -9731,18 +9813,18 @@
         <v>28</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>88</v>
@@ -9754,16 +9836,16 @@
         <v>62</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="Q143" s="3"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>88</v>
@@ -9775,16 +9857,16 @@
         <v>62</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="Q144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>88</v>
@@ -9796,18 +9878,18 @@
         <v>28</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>26</v>
@@ -9819,35 +9901,35 @@
         <v>28</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>362</v>
@@ -9859,7 +9941,7 @@
         <v>62</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -9890,37 +9972,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="101.622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="80.5612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="67.7142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="2" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="108.857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="86.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="72.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="2" width="29.9132653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="F1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9930,10 +10012,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9943,7 +10025,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>51</v>
@@ -9956,7 +10038,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>51</v>
@@ -9969,7 +10051,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>304</v>
@@ -9995,10 +10077,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -10018,7 +10100,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10033,12 +10115,12 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>147</v>
@@ -10062,7 +10144,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>226</v>
@@ -10074,7 +10156,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>104</v>
@@ -10085,10 +10167,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -10096,23 +10178,23 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -10120,7 +10202,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>467</v>
@@ -10131,14 +10213,14 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -10151,16 +10233,16 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -10176,7 +10258,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10189,25 +10271,25 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
-        <v>926</v>
+      <c r="A25" s="21" t="s">
+        <v>937</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
@@ -10218,7 +10300,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>721</v>
+        <v>938</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>718</v>
@@ -10235,14 +10317,14 @@
         <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>361</v>
@@ -10259,17 +10341,17 @@
         <v>108</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -10286,10 +10368,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -10306,19 +10388,19 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -10348,12 +10430,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="13.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="13.8214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
@@ -10367,33 +10449,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="3" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="3" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="D4" s="0"/>
     </row>
@@ -10402,19 +10484,19 @@
         <v>496</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
@@ -10430,7 +10512,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -10448,10 +10530,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10459,7 +10541,7 @@
         <v>660</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
     </row>
   </sheetData>
@@ -10486,16 +10568,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="18.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="19.765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="3" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
@@ -10508,13 +10590,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -10524,7 +10606,7 @@
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="W2" s="3" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10553,7 +10635,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
@@ -10567,7 +10649,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -10581,7 +10663,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -10595,7 +10677,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -10604,18 +10686,18 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="J8" s="3" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -10624,21 +10706,21 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="J9" s="3" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -10646,18 +10728,18 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="J10" s="3" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -10666,18 +10748,18 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="J11" s="3" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -10686,21 +10768,21 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="J12" s="0" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -10708,21 +10790,21 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="J13" s="0" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -10731,10 +10813,10 @@
       <c r="G14" s="0"/>
       <c r="J14" s="0"/>
       <c r="L14" s="3" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10751,7 +10833,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -10760,13 +10842,13 @@
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="J16" s="3" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10778,18 +10860,18 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="J17" s="3" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -10798,15 +10880,15 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="J18" s="3" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -10815,7 +10897,7 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="J19" s="3" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
       <c r="L19" s="0"/>
     </row>
@@ -10831,7 +10913,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -10853,7 +10935,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -10865,10 +10947,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -10876,7 +10958,7 @@
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="L24" s="3" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10888,15 +10970,15 @@
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="L25" s="3" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -10904,7 +10986,7 @@
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="L26" s="3" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10916,12 +10998,12 @@
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="L27" s="3" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -10930,7 +11012,7 @@
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="L28" s="3" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10952,7 +11034,7 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="L30" s="3" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10964,7 +11046,7 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="L31" s="3" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10976,7 +11058,7 @@
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="L32" s="3" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10988,7 +11070,7 @@
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="L33" s="3" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11000,38 +11082,38 @@
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="L34" s="3" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L36" s="3" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
@@ -11058,7 +11140,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11066,15 +11148,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -11093,15 +11175,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11109,10 +11191,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11120,7 +11202,7 @@
         <v>588</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>584</v>
@@ -11128,10 +11210,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>189</v>
@@ -11139,13 +11221,21 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>1041</v>
       </c>
     </row>
   </sheetData>

--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="1081">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -2310,7 +2310,7 @@
     <t xml:space="preserve">He is the originally the son of the Ashwini twins and Kunti. He is believed to be the most handsome amongst the Pandavas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Although nominally the son of Pandu, he is in reality an incarnation of Aswin. After the Baratayuda war, he became the rules of Mandaraka. He died a perfect death with his four borther some time after that.</t>
+    <t xml:space="preserve">Although nominally the son of Pandu, he is in reality an incarnation of Aswin. After the Baratayuda war, he became the rules of Mandaraka. He was an able horseman. He died a perfect death with his four brothers some time after that.</t>
   </si>
   <si>
     <t xml:space="preserve">Pinten</t>
@@ -2319,19 +2319,58 @@
     <t xml:space="preserve">Sadewa,Werkudara,Puntadewa,Arjuna</t>
   </si>
   <si>
-    <t xml:space="preserve">Sayati:x; Srengganawati:x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aji Pranawajati</t>
+    <t xml:space="preserve">Sayati:Pramusinta,Pramuwati; Srengganawati:Sri_Tanjung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trancanggribig, Mandaraka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aji Pranawajati, Cupu Tirtamanik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banjet, Bontit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356-358</t>
   </si>
   <si>
     <t xml:space="preserve">234-240 (Vol. VI)</t>
   </si>
   <si>
-    <t xml:space="preserve">Narada in Hindu mythology is known as a sage who is a trilokasanjaari (the traveller of the three worlds: Heaven, Earth and the Underworld) as he is able to go to any of these three places at will. He is known as the son of Brahma. He said to have been cursed by Daksha his brother, to create conflict amongst people wherever he goes. However he is also blessed by God in way such that the conflicts that he causes will be a blessing in disguise to leads to the better good for people. He is also considered to be a great devotee of Lord Vishnu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanekaputra. Not a God in India.</t>
+    <t xml:space="preserve">884-885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narada in Hindu mythology is known as a sage who is a /trilokasanjaari/ (the traveler of the three worlds: Heaven, Earth and the Underworld) as he is able to go to any of these three places at will. He is known as the son of Brahma. He said to have been cursed by Daksha his brother, to create conflict amongst people wherever he goes. However he is also blessed in that the conflicts that he causes will be a blessing in disguise and lead to the greater good for the people. He is also considered to be a great devotee of Lord Vishnu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In some versions he is an older cousin of Batara [Guru], whereas in others they are siblings. He was handsome in his youth, but this changed as a result of an altercation with Batara [Guru]. Narada had been meditating in heaven, making the weather very warm. Several gods were sent to stop him but none was up to task. Finally Batara [Guru] himself awoke [Narada] from his meditation. They then engaged in a verbal duel and Batara [Guru] lost. Enraged by this humiliation, he cursed Narada, who ever since had an ugly face. However, [Guru] was eventually punished for this as well, and he was cursed with four arms. He is a comic character who plays a major role in many stories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanekaputra, Kanwakaputra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laksmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caturkanaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitanjala, Tiksnawati, Caturwarna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiyodi:Kanekawati,Malangdewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupu Linggamanik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259-360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250-257 (Vol. VI)</t>
   </si>
   <si>
     <t xml:space="preserve">Nembur_Nawa</t>
@@ -2340,43 +2379,97 @@
     <t xml:space="preserve">Naga</t>
   </si>
   <si>
-    <t xml:space="preserve">There is a story of a snake that entraps Bhima. He is actually Nahusha, his ancestor who has turned into a snake due to a curse by sage Agasthya. In the end Bhima help him to be redeemed from the curse and return to his normal self.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another name of Nabatnawa, the serpet defeated by Bima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NgembatLandeyan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this version he is one of the Thousand Kings. But other versions have him as one of the Korawa (also known as Wikatha Boma or Boma Encik, who is killed by Werkudara, jenis boneka wayang guseng halus). // Nama serambahan.</t>
+    <t xml:space="preserve">There is a story of a snake that entraps Bhima, but the context and ending of the story are very different. The snake is actually Nahusha, Bhima's ancestor who was turned into a snake by sage Agasthya. In the end Bhima helps him redeem himself and return to his previous shape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The giant snake defeated by [Werkudara] in /Dewa Ruci/. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nabatnawa, Nemburnawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280-281(Vol. VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngembat_Landeyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Purwadi's /Kempalan Lakon Wayang Purwa/, he is one of the Thousand Kings in /Lahiripun_Adipati_Karna/.</t>
   </si>
   <si>
     <t xml:space="preserve">Padmanaba</t>
   </si>
   <si>
-    <t xml:space="preserve">Incarnation of Wisnu. Ketika mati masuk ke Narayana.</t>
+    <t xml:space="preserve">He is an incarnation of Wisnu, who becomes a teacher for Narayana ([Kresna] in his youth). Kakrasana ([Baladewa]) and Rara_Ireng also stay with him for a while, to escape [Kangsa]'s attach on Mandura. His residence is Girikastuba in some versions and Cemaragading in others. Padmanaba reached a perfect death in his old age and became one with [Kresna].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-7 (Vol. VII)</t>
   </si>
   <si>
     <t xml:space="preserve">Pancawala</t>
   </si>
   <si>
-    <t xml:space="preserve">Prathivindhya is known as the son of Yudhishtra and Draupadi. He is also known as one of the upapandavas (sons born to each of the Pandavas and Draupadi).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Yudistira and Drupadi. He marries Pergiwati. Pergiwa marries Gatotkaca.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pandu is the son of Veda Vyasa and Ambalika. He is known to be born pale as his mother's face turned pale with fright when she met Veda Vyasa due to his appearance. He is known to be the successor of King Vichitraveerya of the Kuru house at first but goes to the forest after a curse from a sage; he hands over the throne to his brother Dhirtirashtra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Ambalika and Abyasa. Father of the Pandawa</t>
+    <t xml:space="preserve">Pancawala does not exist in the Indian Mahabarata, where Draupadi is married to all of the Pandavas and bears sons from all of them. Prathivindhya is known as the son of Yudhishtra and Draupadi. He is also known as one of the /upapandavas/ (sons born to each of the Pandavas and Draupadi).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He marries Pergiwati, even though [Druna] tries to prevent this and marry her off to [Duryudana]'s son [Lesmana_Mandrakumara]. He is killed by [Aswatama] in an attack after the end of the Bharatayuda. [Srikandi] and [Drestajumena] die in the same attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yudistira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregiwati:x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">373-374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-46 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">898-899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandu is the son of Veda Vyasa and Ambalika. He was born with a pale color, as his mother's face turned pale when she saw Veda Vyasa's frightening appearance. He was the successor of King Vichitraveerya of the Kuru house but went to the forest after a curse from a sage, handing over the throne to his brother Dhirtirashtra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As all of Abiyasa's son, he has a physical deformity. In his case, the paleness of his face. He was known as a good king, who enlarged the kingdom and helped the gods in several occasions when they were under attack. He won [Kunti] in a contest and then [Madrim] and [Gendari] on the road, in disputes with their respective brothers, [Salya] and [Sengkuni]. He offered a choice of wife to his eldest brother, [Drestarastra], who picked [Gendari]. Pandu then married the other two women. Once, he tried to kill a deer that was engaged in sexual intercourse. The deer turned to be Kimindama, who cursed Pandu to die if her ever had sex. Pandu was childless at the time, and his wives conceived children from the gods. Alghouth acknolwedged as Pandu's descendants, Kunti had [Puntadewa] with Batara [Darma], [Werkudara] with Batara [Bayu] and [Arjuna] with Batara [Endra]. Likewise, [Madrim] had the twins [Nakula] and [Sadewa] with [Aswan] and [Aswin]. Pandu always tried to satisfy the requests of [Madrim], and once this led to a sexual intercourse that made him die, fulfilling [Kimindama]'s curse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandudewanata, Sudarma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambalika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abyasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drestarastra, Yamawidura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunti: (Darma) Puntadewa, (Bayu) Bima, (Endra) Arjuna; Madrim: (Aswan) Nakula, (Aswin) Sadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenga Tala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">378-382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158-159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57-65 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900-901</t>
   </si>
   <si>
     <t xml:space="preserve">Panyarikan</t>
   </si>
   <si>
-    <t xml:space="preserve">God of writing with colorful headdress. Never forgets and can keep a secret. Son of Sang Hyang Parma, grandson of Sang Hyang Taya, younger brother of Sang Hyang Wenang. // there are many versions. There is a version that says he is the son of Batara Guru, another has him as the son of Ismaya.</t>
+    <t xml:space="preserve">The God of writing. He has an indelible memory and is able to keep secrets. For this reason, he was tasked with documenting the memory of the gods. Together with Barara [Kuwera], he complied a record of which person should fight against whom and a detailed list of the main weaknesses of each character, during the Baratayuda war. This is known as the /Jitapsara/.</t>
   </si>
   <si>
     <t xml:space="preserve">Known as sage Parasara, he is the father of Veda Vyasa. Satyavati gives birth to Veda Vyasa before her marriage as second wife of King Shantanu. </t>
@@ -3000,6 +3093,18 @@
     <t xml:space="preserve">Ruryana</t>
   </si>
   <si>
+    <t xml:space="preserve">Suyati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kridakerata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srengganawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badawanganala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nama Yogya</t>
   </si>
   <si>
@@ -3244,6 +3349,18 @@
   </si>
   <si>
     <t xml:space="preserve">Allows the owner to never forget.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupu Tirtamanik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The water of life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains the Tirta Maya Mahusadi, which can cure all diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes the owner invulnerable to weapons.</t>
   </si>
 </sst>
 </file>
@@ -3407,7 +3524,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3416,8 +3533,16 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3433,7 +3558,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3468,6 +3593,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3480,16 +3609,12 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3576,46 +3701,46 @@
   <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G82" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="A73" activeCellId="0" sqref="A73"/>
-      <selection pane="bottomRight" activeCell="W86" activeCellId="0" sqref="W86"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
+      <selection pane="bottomRight" activeCell="G94" activeCellId="0" sqref="G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.8520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="164.040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="131.321428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="140.607142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="65.4438775510204"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="41.1479591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.9132653061224"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="43.0918367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="36.8265306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.2142857142857"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="34.4489795918367"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="70.6275510204082"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="45.25"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="56.9132653061225"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="49.8928571428572"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="19.765306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="16.6326530612245"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="213.178571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="213.178571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.3724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="44.6020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="56.9132653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="184.994897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="147.948979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="158.428571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="73.6530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="46.0051020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="33.3724489795918"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="48.3826530612245"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.1479591836735"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="38.5561224489796"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="79.265306122449"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="63.9336734693878"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="56.0510204081633"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="18.469387755102"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="240.826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="240.826530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,29 +3801,29 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3716,7 +3841,7 @@
       <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -3728,7 +3853,7 @@
       <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="1" t="s">
         <v>34</v>
       </c>
@@ -3744,29 +3869,29 @@
       <c r="P2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3805,33 +3930,33 @@
       <c r="M3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="6" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
@@ -3847,39 +3972,39 @@
       <c r="G4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="3" t="s">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X4" s="3"/>
+      <c r="X4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
@@ -3895,53 +4020,53 @@
       <c r="G5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="5" t="s">
         <v>81</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3" t="s">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>88</v>
       </c>
@@ -3960,42 +4085,42 @@
       <c r="H6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="6" t="s">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="U6" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="V6" s="8" t="n">
         <v>70</v>
       </c>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
@@ -4014,29 +4139,29 @@
       <c r="H7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6" t="n">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4075,30 +4200,30 @@
       <c r="M8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="1" t="s">
         <v>112</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="5"/>
       <c r="S8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="U8" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4116,10 +4241,10 @@
       <c r="F9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="1" t="s">
         <v>118</v>
       </c>
@@ -4132,29 +4257,29 @@
       <c r="L9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6" t="s">
+      <c r="U9" s="8"/>
+      <c r="V9" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4175,42 +4300,42 @@
       <c r="G10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
       <c r="S10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="U10" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4234,23 +4359,23 @@
       <c r="H11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
       <c r="P11" s="1" t="s">
         <v>145</v>
       </c>
@@ -4260,26 +4385,26 @@
       <c r="R11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="U11" s="6" t="n">
+      <c r="U11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
@@ -4292,40 +4417,40 @@
       <c r="F12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="6" t="s">
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
@@ -4341,37 +4466,37 @@
       <c r="G13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="1" t="s">
         <v>161</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="1" t="s">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
         <v>127</v>
       </c>
@@ -4387,40 +4512,40 @@
       <c r="G14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="5" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="1" t="s">
         <v>170</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="1" t="n">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="U14" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4429,7 +4554,7 @@
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="1" t="s">
         <v>62</v>
       </c>
@@ -4439,45 +4564,45 @@
       <c r="G15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3" t="s">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="U15" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="n">
+      <c r="V15" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
@@ -4505,39 +4630,39 @@
       <c r="K16" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3" t="s">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="O16" s="3"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3" t="s">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="U16" s="1" t="n">
+      <c r="U16" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
@@ -4550,52 +4675,52 @@
       <c r="F17" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="9" t="s">
         <v>198</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3" t="s">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="U17" s="1" t="n">
+      <c r="U17" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>127</v>
       </c>
@@ -4611,31 +4736,31 @@
       <c r="G18" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
@@ -4648,10 +4773,10 @@
       <c r="F19" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="1" t="s">
         <v>215</v>
       </c>
@@ -4661,31 +4786,31 @@
       <c r="K19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="1" t="n">
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="U19" s="1" t="n">
+      <c r="U19" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4698,46 +4823,46 @@
       <c r="F20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="1" t="s">
         <v>221</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="13" t="s">
         <v>223</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="1" t="n">
+      <c r="S20" s="5"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
         <v>88</v>
       </c>
@@ -4753,43 +4878,43 @@
       <c r="G21" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3" t="s">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3" t="s">
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
       <c r="Q21" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="1" t="n">
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
         <v>127</v>
       </c>
@@ -4802,48 +4927,48 @@
       <c r="F22" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
       <c r="O22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P22" s="3"/>
+      <c r="P22" s="5"/>
       <c r="Q22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="1" t="s">
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="U22" s="1" t="n">
+      <c r="U22" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>242</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4861,40 +4986,40 @@
       <c r="G23" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
       <c r="O23" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="1" t="s">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="U23" s="1" t="n">
+      <c r="U23" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>251</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4903,47 +5028,47 @@
       <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>252</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="T24" s="1" t="n">
+      <c r="T24" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="U24" s="1" t="n">
+      <c r="U24" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
@@ -4959,41 +5084,41 @@
       <c r="G25" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="1" t="s">
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="U25" s="1" t="n">
+      <c r="U25" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
@@ -5021,32 +5146,32 @@
       <c r="K26" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>275</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -5061,7 +5186,7 @@
       <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="13" t="s">
         <v>278</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -5070,7 +5195,7 @@
       <c r="H27" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="5" t="s">
         <v>281</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -5079,35 +5204,35 @@
       <c r="K27" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
       <c r="P27" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="1" t="s">
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="U27" s="1" t="n">
+      <c r="U27" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
         <v>88</v>
       </c>
@@ -5117,51 +5242,51 @@
       <c r="E28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="2" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
+      <c r="M28" s="5"/>
+      <c r="N28" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
       <c r="S28" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="U28" s="1" t="n">
+      <c r="U28" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="V28" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
         <v>127</v>
       </c>
@@ -5177,43 +5302,43 @@
       <c r="G29" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
       <c r="O29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P29" s="3"/>
+      <c r="P29" s="5"/>
       <c r="Q29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="1" t="n">
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="U29" s="1" t="n">
+      <c r="U29" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
         <v>127</v>
       </c>
@@ -5229,41 +5354,41 @@
       <c r="G30" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
       <c r="O30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="1" t="n">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="U30" s="1" t="n">
+      <c r="U30" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -5279,37 +5404,37 @@
       <c r="G31" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
       <c r="Q31" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="1" t="n">
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
@@ -5325,33 +5450,33 @@
       <c r="G32" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
       <c r="Q32" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3" t="s">
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="X32" s="3"/>
+      <c r="X32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="1" t="s">
         <v>127</v>
       </c>
@@ -5367,29 +5492,29 @@
       <c r="G33" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
@@ -5405,39 +5530,39 @@
       <c r="G34" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3" t="s">
+      <c r="K34" s="5"/>
+      <c r="L34" s="5" t="s">
         <v>318</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="1" t="n">
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="U34" s="1" t="n">
+      <c r="U34" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
         <v>127</v>
       </c>
@@ -5450,26 +5575,26 @@
       <c r="F35" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3" t="s">
+      <c r="M35" s="5"/>
+      <c r="N35" s="5" t="s">
         <v>328</v>
       </c>
       <c r="O35" s="1" t="s">
@@ -5481,25 +5606,25 @@
       <c r="Q35" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="R35" s="3"/>
+      <c r="R35" s="5"/>
       <c r="S35" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="U35" s="1" t="n">
+      <c r="U35" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
         <v>26</v>
       </c>
@@ -5509,53 +5634,53 @@
       <c r="E36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
       <c r="P36" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="1" t="s">
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="U36" s="1" t="n">
+      <c r="U36" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="V36" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
         <v>26</v>
       </c>
@@ -5571,37 +5696,37 @@
       <c r="G37" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
       <c r="L37" s="1" t="s">
         <v>347</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="1" t="s">
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="1" t="s">
         <v>88</v>
       </c>
@@ -5614,40 +5739,40 @@
       <c r="F38" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="13" t="s">
         <v>350</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="1" t="n">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="U38" s="1" t="n">
+      <c r="U38" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="V38" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
@@ -5663,37 +5788,37 @@
       <c r="G39" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3" t="s">
+      <c r="H39" s="5"/>
+      <c r="I39" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="2" t="s">
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="1" t="n">
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
         <v>127</v>
       </c>
@@ -5709,35 +5834,35 @@
       <c r="G40" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="1" t="n">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="U40" s="1" t="n">
+      <c r="U40" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="V40" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
         <v>362</v>
       </c>
@@ -5753,37 +5878,37 @@
       <c r="G41" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3" t="s">
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
       <c r="Q41" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="1" t="s">
         <v>62</v>
       </c>
@@ -5793,31 +5918,31 @@
       <c r="G42" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
         <v>362</v>
       </c>
@@ -5833,39 +5958,39 @@
       <c r="G43" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3" t="s">
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
       <c r="P43" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="1" t="s">
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="U43" s="1" t="n">
+      <c r="U43" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="1" t="s">
         <v>26</v>
       </c>
@@ -5881,43 +6006,43 @@
       <c r="G44" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3" t="s">
+      <c r="I44" s="5"/>
+      <c r="J44" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="1" t="s">
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="U44" s="1" t="n">
+      <c r="U44" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="V44" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="1" t="s">
         <v>88</v>
       </c>
@@ -5933,37 +6058,37 @@
       <c r="G45" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
       <c r="P45" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="1" t="s">
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="1" t="s">
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="X45" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
         <v>88</v>
       </c>
@@ -5982,43 +6107,43 @@
       <c r="H46" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3" t="s">
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3" t="s">
+      <c r="M46" s="5"/>
+      <c r="N46" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="O46" s="3"/>
+      <c r="O46" s="5"/>
       <c r="P46" s="0"/>
       <c r="Q46" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="R46" s="3"/>
+      <c r="R46" s="5"/>
       <c r="S46" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="T46" s="1" t="n">
+      <c r="T46" s="2" t="n">
         <v>179</v>
       </c>
-      <c r="U46" s="1" t="n">
+      <c r="U46" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="V46" s="1" t="n">
+      <c r="V46" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="W46" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="X46" s="3" t="s">
+      <c r="X46" s="4" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="6" t="s">
         <v>402</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -6039,48 +6164,48 @@
       <c r="G47" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="14" t="s">
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="16" t="s">
         <v>411</v>
       </c>
       <c r="P47" s="0"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
       <c r="S47" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="T47" s="1" t="s">
+      <c r="T47" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="U47" s="1" t="n">
+      <c r="U47" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="V47" s="0"/>
-      <c r="W47" s="1" t="s">
+      <c r="V47" s="17"/>
+      <c r="W47" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="X47" s="1" t="s">
+      <c r="X47" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="6" t="s">
         <v>416</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -6101,23 +6226,23 @@
       <c r="G48" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="L48" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3" t="s">
+      <c r="M48" s="5"/>
+      <c r="N48" s="5" t="s">
         <v>423</v>
       </c>
       <c r="O48" s="1" t="s">
@@ -6126,32 +6251,32 @@
       <c r="P48" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
       <c r="S48" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="T48" s="1" t="s">
+      <c r="T48" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="U48" s="1" t="n">
+      <c r="U48" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="V48" s="1" t="s">
+      <c r="V48" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="W48" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="X48" s="1" t="s">
+      <c r="X48" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
         <v>26</v>
       </c>
@@ -6167,7 +6292,7 @@
       <c r="G49" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="H49" s="3"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="1" t="s">
         <v>433</v>
       </c>
@@ -6180,32 +6305,32 @@
       <c r="L49" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="M49" s="3"/>
+      <c r="M49" s="5"/>
       <c r="N49" s="0"/>
       <c r="O49" s="0"/>
       <c r="P49" s="0"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
       <c r="S49" s="0"/>
-      <c r="T49" s="1" t="s">
+      <c r="T49" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="U49" s="1" t="n">
+      <c r="U49" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="V49" s="0"/>
-      <c r="W49" s="1" t="s">
+      <c r="V49" s="17"/>
+      <c r="W49" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="X49" s="0" t="s">
+      <c r="X49" s="17" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="1" t="s">
         <v>26</v>
       </c>
@@ -6221,38 +6346,38 @@
       <c r="G50" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3" t="s">
+      <c r="I50" s="5"/>
+      <c r="J50" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
       <c r="O50" s="0"/>
       <c r="P50" s="0"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
       <c r="S50" s="0"/>
-      <c r="T50" s="1" t="s">
+      <c r="T50" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="U50" s="1" t="n">
+      <c r="U50" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="V50" s="0"/>
-      <c r="W50" s="1" t="s">
+      <c r="V50" s="17"/>
+      <c r="W50" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="X50" s="1" t="s">
+      <c r="X50" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="6" t="s">
         <v>446</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -6261,7 +6386,7 @@
       <c r="C51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="1" t="s">
         <v>62</v>
       </c>
@@ -6271,51 +6396,51 @@
       <c r="G51" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3" t="s">
+      <c r="I51" s="5"/>
+      <c r="J51" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3" t="s">
+      <c r="K51" s="5"/>
+      <c r="L51" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
       <c r="O51" s="0"/>
       <c r="P51" s="0"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
       <c r="S51" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="T51" s="1" t="s">
+      <c r="T51" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="U51" s="1" t="n">
+      <c r="U51" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="V51" s="1" t="n">
+      <c r="V51" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="W51" s="1" t="s">
+      <c r="W51" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="X51" s="1" t="s">
+      <c r="X51" s="2" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="1" t="s">
         <v>28</v>
       </c>
@@ -6325,32 +6450,32 @@
       <c r="G52" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
       <c r="O52" s="0"/>
       <c r="P52" s="0"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
       <c r="S52" s="0"/>
-      <c r="T52" s="0"/>
-      <c r="U52" s="0"/>
-      <c r="V52" s="1" t="n">
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="2" t="n">
         <v>334</v>
       </c>
-      <c r="W52" s="1" t="s">
+      <c r="W52" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="X52" s="1" t="s">
+      <c r="X52" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -6368,26 +6493,26 @@
       <c r="F53" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="12" t="s">
         <v>460</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3" t="s">
+      <c r="M53" s="5"/>
+      <c r="N53" s="5" t="s">
         <v>464</v>
       </c>
       <c r="O53" s="1" t="s">
@@ -6396,34 +6521,34 @@
       <c r="P53" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="Q53" s="3"/>
+      <c r="Q53" s="5"/>
       <c r="R53" s="1" t="s">
         <v>467</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="T53" s="1" t="s">
+      <c r="T53" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="U53" s="1" t="n">
+      <c r="U53" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="V53" s="1" t="s">
+      <c r="V53" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="W53" s="1" t="s">
+      <c r="W53" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="X53" s="1" t="s">
+      <c r="X53" s="2" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
         <v>26</v>
       </c>
@@ -6439,40 +6564,40 @@
       <c r="G54" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
       <c r="O54" s="1" t="s">
         <v>141</v>
       </c>
       <c r="P54" s="0"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
       <c r="S54" s="0"/>
-      <c r="T54" s="0"/>
-      <c r="U54" s="0"/>
-      <c r="V54" s="0"/>
-      <c r="W54" s="1" t="s">
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="X54" s="1" t="s">
+      <c r="X54" s="2" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="18" t="s">
         <v>420</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -6493,43 +6618,43 @@
       <c r="G55" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
       <c r="O55" s="0"/>
       <c r="P55" s="0"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
       <c r="S55" s="0"/>
-      <c r="T55" s="0"/>
-      <c r="U55" s="0"/>
-      <c r="V55" s="0"/>
-      <c r="W55" s="1" t="s">
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="X55" s="1" t="s">
+      <c r="X55" s="2" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="1" t="s">
         <v>127</v>
       </c>
@@ -6545,15 +6670,15 @@
       <c r="G56" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3" t="s">
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3" t="s">
+      <c r="M56" s="5"/>
+      <c r="N56" s="5" t="s">
         <v>490</v>
       </c>
       <c r="O56" s="1" t="s">
@@ -6563,25 +6688,25 @@
       <c r="Q56" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="R56" s="3"/>
+      <c r="R56" s="5"/>
       <c r="S56" s="0"/>
-      <c r="T56" s="0"/>
-      <c r="U56" s="1" t="n">
+      <c r="T56" s="17"/>
+      <c r="U56" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="V56" s="0"/>
-      <c r="W56" s="1" t="s">
+      <c r="V56" s="17"/>
+      <c r="W56" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="X56" s="1" t="s">
+      <c r="X56" s="2" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="1" t="s">
         <v>88</v>
       </c>
@@ -6591,7 +6716,7 @@
       <c r="E57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="19" t="s">
         <v>493</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -6600,50 +6725,50 @@
       <c r="H57" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K57" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="L57" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
       <c r="O57" s="0"/>
       <c r="P57" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
       <c r="S57" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="T57" s="1" t="s">
+      <c r="T57" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="U57" s="1" t="n">
+      <c r="U57" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="V57" s="1" t="s">
+      <c r="V57" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="W57" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="X57" s="1" t="s">
+      <c r="X57" s="2" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
         <v>127</v>
       </c>
@@ -6659,29 +6784,29 @@
       <c r="G58" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
       <c r="O58" s="0"/>
       <c r="P58" s="0"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
       <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
-      <c r="U58" s="0"/>
-      <c r="V58" s="0"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
         <v>88</v>
       </c>
@@ -6700,20 +6825,20 @@
       <c r="H59" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3" t="s">
+      <c r="M59" s="5"/>
+      <c r="N59" s="5" t="s">
         <v>513</v>
       </c>
       <c r="O59" s="0"/>
@@ -6721,29 +6846,29 @@
       <c r="Q59" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="R59" s="3"/>
+      <c r="R59" s="5"/>
       <c r="S59" s="0"/>
-      <c r="T59" s="1" t="s">
+      <c r="T59" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="U59" s="1" t="n">
+      <c r="U59" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="V59" s="1" t="s">
+      <c r="V59" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="W59" s="1" t="s">
+      <c r="W59" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="X59" s="1" t="s">
+      <c r="X59" s="2" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
         <v>127</v>
       </c>
@@ -6759,29 +6884,29 @@
       <c r="G60" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
       <c r="O60" s="0"/>
       <c r="P60" s="0"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
       <c r="S60" s="0"/>
-      <c r="T60" s="0"/>
-      <c r="U60" s="0"/>
-      <c r="V60" s="0"/>
-      <c r="W60" s="0"/>
-      <c r="X60" s="0"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
@@ -6797,43 +6922,43 @@
       <c r="G61" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3" t="s">
+      <c r="H61" s="5"/>
+      <c r="I61" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3" t="s">
+      <c r="K61" s="5"/>
+      <c r="L61" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
       <c r="O61" s="0"/>
       <c r="P61" s="0"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
       <c r="S61" s="0"/>
-      <c r="T61" s="1" t="n">
+      <c r="T61" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="U61" s="1" t="n">
+      <c r="U61" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="V61" s="0"/>
-      <c r="W61" s="1" t="s">
+      <c r="V61" s="17"/>
+      <c r="W61" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="X61" s="1" t="n">
+      <c r="X61" s="2" t="n">
         <v>756</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="1" t="s">
         <v>362</v>
       </c>
@@ -6843,35 +6968,35 @@
       <c r="E62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F62" s="3"/>
+      <c r="F62" s="5"/>
       <c r="G62" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
       <c r="O62" s="0"/>
       <c r="P62" s="0"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
       <c r="S62" s="0"/>
-      <c r="T62" s="0"/>
-      <c r="U62" s="0"/>
-      <c r="V62" s="0"/>
-      <c r="W62" s="1" t="s">
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="X62" s="0"/>
+      <c r="X62" s="17"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="1" t="s">
         <v>88</v>
       </c>
@@ -6887,21 +7012,21 @@
       <c r="G63" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3" t="s">
+      <c r="H63" s="5"/>
+      <c r="I63" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K63" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="L63" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3" t="s">
+      <c r="M63" s="5"/>
+      <c r="N63" s="5" t="s">
         <v>538</v>
       </c>
       <c r="O63" s="0"/>
@@ -6911,29 +7036,29 @@
       <c r="Q63" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="R63" s="3"/>
+      <c r="R63" s="5"/>
       <c r="S63" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="T63" s="0" t="s">
+      <c r="T63" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="U63" s="0"/>
-      <c r="V63" s="1" t="s">
+      <c r="U63" s="17"/>
+      <c r="V63" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="W63" s="1" t="s">
+      <c r="W63" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="X63" s="1" t="n">
+      <c r="X63" s="2" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B64" s="3"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
         <v>88</v>
       </c>
@@ -6949,41 +7074,41 @@
       <c r="G64" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3" t="s">
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
       <c r="O64" s="0"/>
       <c r="P64" s="0"/>
       <c r="Q64" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="R64" s="3"/>
+      <c r="R64" s="5"/>
       <c r="S64" s="0"/>
-      <c r="T64" s="0"/>
-      <c r="U64" s="1" t="n">
+      <c r="T64" s="17"/>
+      <c r="U64" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="V64" s="0"/>
-      <c r="W64" s="0" t="s">
+      <c r="V64" s="17"/>
+      <c r="W64" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="X64" s="1" t="s">
+      <c r="X64" s="2" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
         <v>26</v>
       </c>
@@ -7008,37 +7133,37 @@
       <c r="J65" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3" t="s">
+      <c r="K65" s="5"/>
+      <c r="L65" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
       <c r="O65" s="0" t="s">
         <v>557</v>
       </c>
       <c r="P65" s="0"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
       <c r="S65" s="0"/>
-      <c r="T65" s="0" t="s">
+      <c r="T65" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="U65" s="1" t="n">
+      <c r="U65" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="V65" s="1" t="s">
+      <c r="V65" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="W65" s="0" t="s">
+      <c r="W65" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="X65" s="1" t="s">
+      <c r="X65" s="2" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="6" t="s">
         <v>465</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -7068,11 +7193,11 @@
       <c r="J66" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="K66" s="3"/>
+      <c r="K66" s="5"/>
       <c r="L66" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="M66" s="3"/>
+      <c r="M66" s="5"/>
       <c r="N66" s="1" t="s">
         <v>568</v>
       </c>
@@ -7082,27 +7207,27 @@
       <c r="P66" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
       <c r="S66" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="T66" s="0" t="s">
+      <c r="T66" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="U66" s="1" t="n">
+      <c r="U66" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="V66" s="0"/>
-      <c r="W66" s="0" t="s">
+      <c r="V66" s="17"/>
+      <c r="W66" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="X66" s="1" t="s">
+      <c r="X66" s="2" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="6" t="s">
         <v>574</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -7123,49 +7248,49 @@
       <c r="G67" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3" t="s">
+      <c r="H67" s="5"/>
+      <c r="I67" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K67" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="L67" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3" t="s">
+      <c r="M67" s="5"/>
+      <c r="N67" s="5" t="s">
         <v>579</v>
       </c>
       <c r="O67" s="0" t="s">
         <v>108</v>
       </c>
       <c r="P67" s="0"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
       <c r="S67" s="0"/>
-      <c r="T67" s="0" t="s">
+      <c r="T67" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="U67" s="0"/>
-      <c r="V67" s="1" t="s">
+      <c r="U67" s="17"/>
+      <c r="V67" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="W67" s="0" t="s">
+      <c r="W67" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="X67" s="1" t="s">
+      <c r="X67" s="2" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B68" s="3"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="1" t="s">
         <v>26</v>
       </c>
@@ -7181,45 +7306,45 @@
       <c r="G68" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="I68" s="3"/>
+      <c r="I68" s="5"/>
       <c r="J68" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
       <c r="O68" s="0" t="s">
         <v>182</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
       <c r="S68" s="0"/>
-      <c r="T68" s="0" t="n">
+      <c r="T68" s="17" t="n">
         <v>285</v>
       </c>
-      <c r="U68" s="1" t="n">
+      <c r="U68" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="V68" s="0"/>
-      <c r="W68" s="0" t="s">
+      <c r="V68" s="17"/>
+      <c r="W68" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="X68" s="1" t="s">
+      <c r="X68" s="2" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="1" t="s">
         <v>26</v>
       </c>
@@ -7235,29 +7360,29 @@
       <c r="G69" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
       <c r="O69" s="0"/>
       <c r="P69" s="0"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
       <c r="S69" s="0"/>
-      <c r="T69" s="0"/>
-      <c r="U69" s="0"/>
-      <c r="V69" s="0"/>
-      <c r="W69" s="0"/>
-      <c r="X69" s="0"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
         <v>26</v>
       </c>
@@ -7288,8 +7413,8 @@
       <c r="L70" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
       <c r="O70" s="0"/>
       <c r="P70" s="1" t="s">
         <v>599</v>
@@ -7297,31 +7422,31 @@
       <c r="Q70" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="R70" s="3"/>
+      <c r="R70" s="5"/>
       <c r="S70" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="T70" s="0" t="s">
+      <c r="T70" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="U70" s="1" t="n">
+      <c r="U70" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="V70" s="1" t="s">
+      <c r="V70" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="W70" s="0" t="s">
+      <c r="W70" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="X70" s="1" t="s">
+      <c r="X70" s="2" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
         <v>127</v>
       </c>
@@ -7340,38 +7465,38 @@
       <c r="H71" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="I71" s="3"/>
+      <c r="I71" s="5"/>
       <c r="J71" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
       <c r="O71" s="1" t="s">
         <v>189</v>
       </c>
       <c r="P71" s="0"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
       <c r="S71" s="0"/>
-      <c r="T71" s="1" t="n">
+      <c r="T71" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="U71" s="0"/>
-      <c r="V71" s="0" t="s">
+      <c r="U71" s="17"/>
+      <c r="V71" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="W71" s="1" t="s">
+      <c r="W71" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="X71" s="0"/>
+      <c r="X71" s="17"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="B72" s="3"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
         <v>127</v>
       </c>
@@ -7387,21 +7512,21 @@
       <c r="G72" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3" t="s">
+      <c r="H72" s="5"/>
+      <c r="I72" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="L72" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3" t="s">
+      <c r="M72" s="5"/>
+      <c r="N72" s="5" t="s">
         <v>617</v>
       </c>
       <c r="O72" s="1" t="s">
@@ -7410,30 +7535,30 @@
       <c r="P72" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
       <c r="S72" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="T72" s="0" t="s">
+      <c r="T72" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="U72" s="1" t="n">
+      <c r="U72" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="V72" s="0"/>
-      <c r="W72" s="1" t="s">
+      <c r="V72" s="17"/>
+      <c r="W72" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="X72" s="1" t="s">
+      <c r="X72" s="2" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
         <v>26</v>
       </c>
@@ -7452,44 +7577,44 @@
       <c r="H73" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3" t="s">
+      <c r="I73" s="5"/>
+      <c r="J73" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3" t="s">
+      <c r="K73" s="5"/>
+      <c r="L73" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
       <c r="O73" s="0"/>
       <c r="P73" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
       <c r="S73" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="T73" s="0" t="s">
+      <c r="T73" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="U73" s="1" t="n">
+      <c r="U73" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="V73" s="0"/>
-      <c r="W73" s="1" t="s">
+      <c r="V73" s="17"/>
+      <c r="W73" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="X73" s="1" t="s">
+      <c r="X73" s="2" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="1" t="s">
         <v>26</v>
       </c>
@@ -7508,40 +7633,40 @@
       <c r="H74" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3" t="s">
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5" t="s">
         <v>637</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="N74" s="3" t="s">
+      <c r="N74" s="5" t="s">
         <v>639</v>
       </c>
       <c r="O74" s="0"/>
       <c r="P74" s="0"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
       <c r="S74" s="0"/>
-      <c r="T74" s="0" t="n">
+      <c r="T74" s="17" t="n">
         <v>312</v>
       </c>
-      <c r="U74" s="0"/>
-      <c r="V74" s="1" t="n">
+      <c r="U74" s="17"/>
+      <c r="V74" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="W74" s="1" t="s">
+      <c r="W74" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="X74" s="0"/>
+      <c r="X74" s="17"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" s="5"/>
       <c r="C75" s="1" t="s">
         <v>127</v>
       </c>
@@ -7557,13 +7682,13 @@
       <c r="G75" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3" t="s">
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5" t="s">
         <v>643</v>
       </c>
       <c r="M75" s="1" t="s">
@@ -7576,23 +7701,23 @@
         <v>182</v>
       </c>
       <c r="P75" s="0"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
       <c r="S75" s="0"/>
-      <c r="T75" s="0" t="n">
+      <c r="T75" s="17" t="n">
         <v>312</v>
       </c>
-      <c r="U75" s="0"/>
-      <c r="V75" s="0"/>
-      <c r="W75" s="1" t="s">
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="X75" s="1" t="s">
+      <c r="X75" s="2" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="6" t="s">
         <v>647</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -7616,48 +7741,48 @@
       <c r="H76" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="J76" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K76" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
       <c r="N76" s="0"/>
       <c r="O76" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P76" s="0"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
       <c r="S76" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="T76" s="0" t="n">
+      <c r="T76" s="17" t="n">
         <v>319</v>
       </c>
-      <c r="U76" s="1" t="n">
+      <c r="U76" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="V76" s="1" t="s">
+      <c r="V76" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="W76" s="1" t="s">
+      <c r="W76" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="X76" s="1" t="s">
+      <c r="X76" s="2" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="B77" s="3"/>
+      <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
         <v>26</v>
       </c>
@@ -7673,49 +7798,49 @@
       <c r="G77" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J77" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
       <c r="N77" s="0"/>
       <c r="O77" s="0"/>
       <c r="P77" s="0"/>
-      <c r="Q77" s="3"/>
+      <c r="Q77" s="5"/>
       <c r="R77" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S77" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="T77" s="0" t="s">
+      <c r="T77" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="U77" s="1" t="n">
+      <c r="U77" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="V77" s="0"/>
-      <c r="W77" s="1" t="s">
+      <c r="V77" s="17"/>
+      <c r="W77" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="X77" s="1" t="s">
+      <c r="X77" s="2" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
         <v>26</v>
       </c>
@@ -7731,49 +7856,49 @@
       <c r="G78" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J78" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="K78" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="L78" s="3" t="s">
+      <c r="L78" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="M78" s="3"/>
+      <c r="M78" s="5"/>
       <c r="N78" s="0"/>
       <c r="O78" s="0"/>
       <c r="P78" s="0"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
       <c r="S78" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="T78" s="0" t="s">
+      <c r="T78" s="17" t="s">
         <v>673</v>
       </c>
-      <c r="U78" s="1" t="n">
+      <c r="U78" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="V78" s="0"/>
-      <c r="W78" s="1" t="s">
+      <c r="V78" s="17"/>
+      <c r="W78" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="X78" s="1" t="s">
+      <c r="X78" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
         <v>26</v>
       </c>
@@ -7783,49 +7908,49 @@
       <c r="E79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="3"/>
+      <c r="F79" s="5"/>
       <c r="G79" s="1" t="s">
         <v>676</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3" t="s">
+      <c r="I79" s="5"/>
+      <c r="J79" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K79" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="L79" s="17" t="s">
+      <c r="L79" s="20" t="s">
         <v>680</v>
       </c>
-      <c r="M79" s="3"/>
+      <c r="M79" s="5"/>
       <c r="N79" s="0"/>
       <c r="O79" s="0"/>
       <c r="P79" s="0"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
       <c r="S79" s="0"/>
-      <c r="T79" s="0" t="s">
+      <c r="T79" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="U79" s="1" t="n">
+      <c r="U79" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="V79" s="0"/>
-      <c r="W79" s="1" t="s">
+      <c r="V79" s="17"/>
+      <c r="W79" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="X79" s="1" t="s">
+      <c r="X79" s="2" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="B80" s="3"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="1" t="s">
         <v>26</v>
       </c>
@@ -7844,14 +7969,14 @@
       <c r="H80" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I80" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3" t="s">
+      <c r="K80" s="5"/>
+      <c r="L80" s="5" t="s">
         <v>689</v>
       </c>
       <c r="M80" s="1" t="s">
@@ -7860,28 +7985,28 @@
       <c r="N80" s="0"/>
       <c r="O80" s="0"/>
       <c r="P80" s="0"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
       <c r="S80" s="0"/>
-      <c r="T80" s="0" t="n">
+      <c r="T80" s="17" t="n">
         <v>331</v>
       </c>
-      <c r="U80" s="0" t="n">
+      <c r="U80" s="17" t="n">
         <v>112</v>
       </c>
-      <c r="V80" s="0"/>
-      <c r="W80" s="0" t="s">
+      <c r="V80" s="17"/>
+      <c r="W80" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="X80" s="0" t="s">
+      <c r="X80" s="17" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="B81" s="3"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="1" t="s">
         <v>26</v>
       </c>
@@ -7897,22 +8022,22 @@
       <c r="G81" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K81" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L81" s="3" t="s">
+      <c r="L81" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="M81" s="3"/>
+      <c r="M81" s="5"/>
       <c r="N81" s="0" t="s">
         <v>700</v>
       </c>
@@ -7920,20 +8045,20 @@
         <v>402</v>
       </c>
       <c r="P81" s="0"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
       <c r="S81" s="0"/>
-      <c r="T81" s="0" t="s">
+      <c r="T81" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="U81" s="0" t="s">
+      <c r="U81" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="V81" s="0"/>
-      <c r="W81" s="0" t="s">
+      <c r="V81" s="17"/>
+      <c r="W81" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="X81" s="0" t="s">
+      <c r="X81" s="17" t="s">
         <v>704</v>
       </c>
     </row>
@@ -7941,7 +8066,7 @@
       <c r="A82" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B82" s="3"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
         <v>127</v>
       </c>
@@ -7957,29 +8082,29 @@
       <c r="G82" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="H82" s="3"/>
+      <c r="H82" s="5"/>
       <c r="I82" s="0"/>
       <c r="J82" s="0"/>
       <c r="K82" s="0"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
       <c r="N82" s="0"/>
       <c r="O82" s="0"/>
       <c r="P82" s="0"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
       <c r="S82" s="0"/>
-      <c r="T82" s="0"/>
-      <c r="U82" s="0"/>
-      <c r="V82" s="0"/>
-      <c r="W82" s="0"/>
-      <c r="X82" s="0"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="17"/>
+      <c r="X82" s="17"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B83" s="3"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
         <v>88</v>
       </c>
@@ -7995,43 +8120,43 @@
       <c r="G83" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I83" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K83" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="L83" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="M83" s="3"/>
+      <c r="M83" s="5"/>
       <c r="N83" s="0"/>
       <c r="O83" s="0"/>
       <c r="P83" s="0"/>
       <c r="Q83" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="R83" s="3"/>
+      <c r="R83" s="5"/>
       <c r="S83" s="0"/>
-      <c r="T83" s="0" t="s">
+      <c r="T83" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="U83" s="0" t="n">
+      <c r="U83" s="17" t="n">
         <v>168</v>
       </c>
-      <c r="V83" s="0" t="n">
+      <c r="V83" s="17" t="n">
         <v>71</v>
       </c>
-      <c r="W83" s="0" t="s">
+      <c r="W83" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="X83" s="0" t="s">
+      <c r="X83" s="17" t="s">
         <v>715</v>
       </c>
     </row>
@@ -8039,7 +8164,7 @@
       <c r="A84" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B84" s="3"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
         <v>127</v>
       </c>
@@ -8055,29 +8180,29 @@
       <c r="G84" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
       <c r="N84" s="0"/>
       <c r="O84" s="0"/>
       <c r="P84" s="0"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
       <c r="S84" s="0"/>
-      <c r="T84" s="0"/>
-      <c r="U84" s="0"/>
-      <c r="V84" s="0"/>
-      <c r="W84" s="0"/>
-      <c r="X84" s="0"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
+      <c r="X84" s="17"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="B85" s="3"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
         <v>26</v>
       </c>
@@ -8096,43 +8221,43 @@
       <c r="H85" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="5" t="s">
         <v>709</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K85" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="L85" s="3" t="s">
+      <c r="L85" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="M85" s="3"/>
+      <c r="M85" s="5"/>
       <c r="N85" s="0" t="s">
         <v>724</v>
       </c>
       <c r="O85" s="0"/>
       <c r="P85" s="0"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
       <c r="S85" s="0"/>
-      <c r="T85" s="0" t="s">
+      <c r="T85" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="U85" s="0" t="n">
+      <c r="U85" s="17" t="n">
         <v>169</v>
       </c>
-      <c r="V85" s="0"/>
-      <c r="W85" s="0" t="s">
+      <c r="V85" s="17"/>
+      <c r="W85" s="17" t="s">
         <v>726</v>
       </c>
-      <c r="X85" s="0" t="s">
+      <c r="X85" s="17" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="6" t="s">
         <v>728</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -8153,45 +8278,55 @@
       <c r="G86" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="K86" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="L86" s="3" t="s">
+      <c r="L86" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="M86" s="3"/>
+      <c r="M86" s="5"/>
       <c r="N86" s="0" t="s">
-        <v>191</v>
+        <v>734</v>
       </c>
       <c r="O86" s="0"/>
       <c r="P86" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="0"/>
-      <c r="T86" s="0"/>
-      <c r="U86" s="0"/>
-      <c r="V86" s="0"/>
-      <c r="W86" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="X86" s="0"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="T86" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="U86" s="17" t="n">
+        <v>170</v>
+      </c>
+      <c r="V86" s="17" t="n">
+        <v>213</v>
+      </c>
+      <c r="W86" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="X86" s="17" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B87" s="3"/>
+      <c r="B87" s="5"/>
       <c r="C87" s="1" t="s">
         <v>88</v>
       </c>
@@ -8202,20 +8337,32 @@
         <v>28</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
+        <v>741</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="M87" s="5"/>
       <c r="N87" s="0"/>
       <c r="O87" s="0"/>
-      <c r="P87" s="0"/>
+      <c r="P87" s="0" t="s">
+        <v>747</v>
+      </c>
       <c r="Q87" s="1" t="s">
         <v>72</v>
       </c>
@@ -8223,55 +8370,69 @@
         <v>361</v>
       </c>
       <c r="S87" s="0"/>
-      <c r="T87" s="0"/>
-      <c r="U87" s="0"/>
-      <c r="V87" s="0"/>
-      <c r="W87" s="0"/>
-      <c r="X87" s="0"/>
+      <c r="T87" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="U87" s="17" t="n">
+        <v>171</v>
+      </c>
+      <c r="V87" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="W87" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="X87" s="17" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="18" t="s">
-        <v>738</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="19" t="s">
+      <c r="A88" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D88" s="19" t="s">
-        <v>739</v>
-      </c>
-      <c r="E88" s="19" t="s">
+      <c r="D88" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="G88" s="19" t="s">
-        <v>741</v>
-      </c>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="20"/>
-      <c r="U88" s="19"/>
-      <c r="V88" s="19"/>
-      <c r="W88" s="19"/>
-      <c r="X88" s="19"/>
+      <c r="F88" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="22"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="0"/>
+      <c r="V88" s="0"/>
+      <c r="W88" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="X88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B89" s="3"/>
+      <c r="A89" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
         <v>26</v>
       </c>
@@ -8281,24 +8442,33 @@
       <c r="E89" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F89" s="3"/>
+      <c r="F89" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="G89" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="T89" s="0"/>
+        <v>758</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="0"/>
+      <c r="O89" s="0"/>
+      <c r="P89" s="0"/>
+      <c r="Q89" s="5"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="17"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="17"/>
+      <c r="X89" s="17"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B90" s="3"/>
+      <c r="A90" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
         <v>26</v>
       </c>
@@ -8312,20 +8482,33 @@
         <v>209</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="T90" s="0"/>
+        <v>760</v>
+      </c>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="0"/>
+      <c r="O90" s="0"/>
+      <c r="P90" s="0"/>
+      <c r="Q90" s="5"/>
+      <c r="T90" s="2" t="n">
+        <v>370</v>
+      </c>
+      <c r="U90" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="V90" s="17"/>
+      <c r="W90" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="X90" s="17"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>746</v>
+      <c r="A91" s="6" t="s">
+        <v>762</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>25</v>
@@ -8340,22 +8523,47 @@
         <v>62</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="Q91" s="3"/>
-      <c r="T91" s="0"/>
+        <v>764</v>
+      </c>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="M91" s="5"/>
+      <c r="N91" s="0"/>
+      <c r="O91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P91" s="0"/>
+      <c r="Q91" s="5"/>
+      <c r="T91" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="U91" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="V91" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="X91" s="2" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -8371,25 +8579,55 @@
         <v>28</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="T92" s="0"/>
+        <v>771</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="M92" s="5"/>
+      <c r="N92" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q92" s="5"/>
+      <c r="T92" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="U92" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="V92" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="X92" s="2" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B93" s="3"/>
+        <v>782</v>
+      </c>
+      <c r="B93" s="5"/>
       <c r="C93" s="1" t="s">
         <v>88</v>
       </c>
@@ -8403,22 +8641,22 @@
         <v>209</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="T93" s="0"/>
+        <v>783</v>
+      </c>
+      <c r="H93" s="0"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="T93" s="17"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B94" s="3"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="1" t="s">
         <v>26</v>
       </c>
@@ -8429,25 +8667,25 @@
         <v>28</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>753</v>
+        <v>784</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
+        <v>785</v>
+      </c>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
       <c r="Q94" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="T94" s="0"/>
+        <v>786</v>
+      </c>
+      <c r="T94" s="17"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>756</v>
+        <v>787</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>173</v>
@@ -8455,33 +8693,33 @@
       <c r="C95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="3"/>
+      <c r="D95" s="5"/>
       <c r="E95" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="T95" s="0"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="T95" s="17"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B96" s="3"/>
+        <v>788</v>
+      </c>
+      <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>758</v>
+        <v>789</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>62</v>
@@ -8490,22 +8728,22 @@
         <v>209</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="T96" s="0"/>
+        <v>790</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="T96" s="17"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B97" s="3"/>
+        <v>791</v>
+      </c>
+      <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
         <v>26</v>
       </c>
@@ -8516,30 +8754,30 @@
         <v>28</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>761</v>
+        <v>792</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="T97" s="0"/>
+        <v>793</v>
+      </c>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="T97" s="17"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B98" s="3"/>
+        <v>794</v>
+      </c>
+      <c r="B98" s="5"/>
       <c r="C98" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>764</v>
+        <v>795</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>62</v>
@@ -8548,26 +8786,26 @@
         <v>209</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="H98" s="3"/>
+        <v>796</v>
+      </c>
+      <c r="H98" s="5"/>
       <c r="I98" s="1" t="s">
-        <v>766</v>
+        <v>797</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="T98" s="0"/>
+        <v>798</v>
+      </c>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="T98" s="17"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B99" s="3"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="1" t="s">
         <v>26</v>
       </c>
@@ -8578,25 +8816,25 @@
         <v>28</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>768</v>
+        <v>799</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="T99" s="0"/>
+        <v>800</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="T99" s="17"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B100" s="3"/>
+        <v>801</v>
+      </c>
+      <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -8610,22 +8848,22 @@
         <v>209</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="T100" s="0"/>
+        <v>802</v>
+      </c>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="T100" s="17"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B101" s="3"/>
+        <v>803</v>
+      </c>
+      <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
         <v>88</v>
       </c>
@@ -8639,22 +8877,22 @@
         <v>209</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
+        <v>804</v>
+      </c>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
       <c r="Q101" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="T101" s="0"/>
+        <v>805</v>
+      </c>
+      <c r="T101" s="17"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>775</v>
+        <v>806</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>25</v>
@@ -8669,56 +8907,56 @@
         <v>28</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="T102" s="0"/>
+        <v>808</v>
+      </c>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="T102" s="17"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B103" s="3"/>
+      <c r="B103" s="5"/>
       <c r="C103" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>778</v>
+        <v>809</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>779</v>
+        <v>810</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>780</v>
+        <v>811</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="T103" s="0"/>
+        <v>812</v>
+      </c>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="T103" s="17"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B104" s="3"/>
+        <v>813</v>
+      </c>
+      <c r="B104" s="5"/>
       <c r="C104" s="1" t="s">
         <v>88</v>
       </c>
@@ -8729,25 +8967,25 @@
         <v>28</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="Q104" s="3"/>
-      <c r="T104" s="0"/>
+        <v>815</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="T104" s="17"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B105" s="3"/>
+        <v>816</v>
+      </c>
+      <c r="B105" s="5"/>
       <c r="C105" s="1" t="s">
         <v>26</v>
       </c>
@@ -8761,22 +8999,22 @@
         <v>209</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="Q105" s="3"/>
-      <c r="T105" s="0"/>
+        <v>817</v>
+      </c>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="T105" s="17"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B106" s="3"/>
+        <v>818</v>
+      </c>
+      <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
         <v>127</v>
       </c>
@@ -8790,22 +9028,22 @@
         <v>209</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="Q106" s="3"/>
-      <c r="T106" s="0"/>
+        <v>819</v>
+      </c>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="T106" s="17"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="3"/>
+      <c r="B107" s="5"/>
       <c r="C107" s="1" t="s">
         <v>26</v>
       </c>
@@ -8816,13 +9054,13 @@
         <v>28</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>790</v>
+        <v>821</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>158</v>
@@ -8831,22 +9069,22 @@
         <v>188</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M107" s="3"/>
+      <c r="M107" s="5"/>
       <c r="Q107" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="T107" s="0"/>
+        <v>824</v>
+      </c>
+      <c r="T107" s="17"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B108" s="3"/>
+      <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
         <v>362</v>
       </c>
@@ -8860,23 +9098,23 @@
         <v>209</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
+        <v>825</v>
+      </c>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
       <c r="Q108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T108" s="0"/>
+      <c r="T108" s="17"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B109" s="3"/>
+      <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
         <v>26</v>
       </c>
@@ -8886,25 +9124,25 @@
       <c r="E109" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F109" s="3"/>
+      <c r="F109" s="5"/>
       <c r="G109" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="L109" s="3"/>
+        <v>826</v>
+      </c>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="L109" s="5"/>
       <c r="M109" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q109" s="3"/>
-      <c r="T109" s="0"/>
+      <c r="Q109" s="5"/>
+      <c r="T109" s="17"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="B110" s="3"/>
+        <v>827</v>
+      </c>
+      <c r="B110" s="5"/>
       <c r="C110" s="1" t="s">
         <v>26</v>
       </c>
@@ -8915,24 +9153,24 @@
         <v>28</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>797</v>
+        <v>828</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="Q110" s="3"/>
-      <c r="T110" s="0"/>
+        <v>829</v>
+      </c>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="T110" s="17"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B111" s="3"/>
+        <v>830</v>
+      </c>
+      <c r="B111" s="5"/>
       <c r="C111" s="1" t="s">
         <v>26</v>
       </c>
@@ -8943,24 +9181,24 @@
         <v>28</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="Q111" s="3"/>
-      <c r="T111" s="0"/>
+        <v>832</v>
+      </c>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="T111" s="17"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B112" s="3"/>
+        <v>833</v>
+      </c>
+      <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
         <v>88</v>
       </c>
@@ -8970,23 +9208,23 @@
       <c r="E112" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F112" s="3"/>
+      <c r="F112" s="5"/>
       <c r="G112" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
+        <v>834</v>
+      </c>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
       <c r="Q112" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="T112" s="0"/>
+        <v>835</v>
+      </c>
+      <c r="T112" s="17"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>805</v>
+        <v>836</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>25</v>
@@ -9001,24 +9239,24 @@
         <v>28</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>806</v>
+        <v>837</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="Q113" s="3"/>
-      <c r="T113" s="0"/>
+        <v>838</v>
+      </c>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="T113" s="17"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B114" s="3"/>
+      <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
         <v>26</v>
       </c>
@@ -9029,34 +9267,34 @@
         <v>28</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>808</v>
+        <v>839</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>810</v>
+        <v>841</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>669</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>811</v>
+        <v>842</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>433</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="Q114" s="3"/>
-      <c r="T114" s="0"/>
+        <v>843</v>
+      </c>
+      <c r="Q114" s="5"/>
+      <c r="T114" s="17"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B115" s="3"/>
+        <v>844</v>
+      </c>
+      <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
         <v>26</v>
       </c>
@@ -9067,28 +9305,28 @@
         <v>28</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>814</v>
+        <v>845</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="Q115" s="3"/>
-      <c r="T115" s="0"/>
+        <v>846</v>
+      </c>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="T115" s="17"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B116" s="3"/>
+        <v>847</v>
+      </c>
+      <c r="B116" s="5"/>
       <c r="C116" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>764</v>
+        <v>795</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>62</v>
@@ -9097,20 +9335,20 @@
         <v>209</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="M116" s="3"/>
-      <c r="Q116" s="3"/>
-      <c r="T116" s="0"/>
+        <v>848</v>
+      </c>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="T116" s="17"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="B117" s="3"/>
+        <v>849</v>
+      </c>
+      <c r="B117" s="5"/>
       <c r="C117" s="1" t="s">
         <v>26</v>
       </c>
@@ -9121,28 +9359,28 @@
         <v>28</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>819</v>
+        <v>850</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="M117" s="3"/>
-      <c r="Q117" s="3"/>
-      <c r="T117" s="0"/>
+        <v>851</v>
+      </c>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="T117" s="17"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B118" s="3"/>
+        <v>852</v>
+      </c>
+      <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>822</v>
+        <v>853</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>62</v>
@@ -9151,17 +9389,17 @@
         <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="M118" s="3"/>
-      <c r="Q118" s="3"/>
-      <c r="T118" s="1" t="s">
-        <v>825</v>
+        <v>854</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="T118" s="2" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9175,7 +9413,7 @@
         <v>88</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>826</v>
+        <v>857</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>62</v>
@@ -9183,16 +9421,16 @@
       <c r="F119" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="M119" s="3"/>
-      <c r="Q119" s="3"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="Q119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>242</v>
@@ -9201,32 +9439,32 @@
         <v>26</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>764</v>
+        <v>795</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>828</v>
+        <v>859</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>829</v>
+        <v>860</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="M120" s="3"/>
+        <v>861</v>
+      </c>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="M120" s="5"/>
       <c r="Q120" s="1" t="s">
-        <v>831</v>
+        <v>862</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B121" s="3"/>
+        <v>863</v>
+      </c>
+      <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
         <v>26</v>
       </c>
@@ -9237,20 +9475,20 @@
         <v>28</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>833</v>
+        <v>864</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="M121" s="3"/>
-      <c r="Q121" s="3"/>
+        <v>865</v>
+      </c>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="Q121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>25</v>
@@ -9265,20 +9503,20 @@
         <v>28</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>836</v>
+        <v>867</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="M122" s="3"/>
-      <c r="Q122" s="3"/>
+        <v>868</v>
+      </c>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="Q122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>838</v>
+        <v>869</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>25</v>
@@ -9293,30 +9531,30 @@
         <v>28</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>839</v>
+        <v>870</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>840</v>
+        <v>871</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="J123" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="J123" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="M123" s="3"/>
+      <c r="M123" s="5"/>
       <c r="Q123" s="1" t="s">
-        <v>843</v>
+        <v>874</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B124" s="3"/>
+        <v>875</v>
+      </c>
+      <c r="B124" s="5"/>
       <c r="C124" s="1" t="s">
         <v>26</v>
       </c>
@@ -9327,22 +9565,22 @@
         <v>62</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>845</v>
+        <v>876</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="M124" s="3"/>
-      <c r="Q124" s="3"/>
+        <v>877</v>
+      </c>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="Q124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B125" s="3"/>
+        <v>878</v>
+      </c>
+      <c r="B125" s="5"/>
       <c r="C125" s="1" t="s">
         <v>88</v>
       </c>
@@ -9356,21 +9594,21 @@
         <v>209</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="M125" s="3"/>
+        <v>879</v>
+      </c>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="M125" s="5"/>
       <c r="Q125" s="1" t="s">
-        <v>843</v>
+        <v>874</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B126" s="3"/>
+        <v>880</v>
+      </c>
+      <c r="B126" s="5"/>
       <c r="C126" s="1" t="s">
         <v>71</v>
       </c>
@@ -9381,27 +9619,27 @@
         <v>28</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>850</v>
+        <v>881</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="M126" s="3"/>
-      <c r="Q126" s="3"/>
+        <v>882</v>
+      </c>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="Q126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B127" s="3"/>
+        <v>883</v>
+      </c>
+      <c r="B127" s="5"/>
       <c r="C127" s="1" t="s">
         <v>362</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>853</v>
+        <v>884</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>62</v>
@@ -9410,19 +9648,19 @@
         <v>209</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="M127" s="3"/>
-      <c r="Q127" s="3"/>
+        <v>885</v>
+      </c>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="Q127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B128" s="3"/>
+        <v>886</v>
+      </c>
+      <c r="B128" s="5"/>
       <c r="C128" s="1" t="s">
         <v>26</v>
       </c>
@@ -9436,24 +9674,24 @@
         <v>209</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="M128" s="3"/>
-      <c r="Q128" s="3"/>
+        <v>887</v>
+      </c>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="Q128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B129" s="3"/>
+        <v>888</v>
+      </c>
+      <c r="B129" s="5"/>
       <c r="C129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>822</v>
+        <v>853</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>62</v>
@@ -9462,19 +9700,19 @@
         <v>209</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="M129" s="3"/>
-      <c r="Q129" s="3"/>
+        <v>889</v>
+      </c>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="Q129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B130" s="3"/>
+        <v>890</v>
+      </c>
+      <c r="B130" s="5"/>
       <c r="C130" s="1" t="s">
         <v>26</v>
       </c>
@@ -9485,22 +9723,22 @@
         <v>28</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>860</v>
+        <v>891</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="M130" s="3"/>
-      <c r="Q130" s="3"/>
+        <v>892</v>
+      </c>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="Q130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B131" s="3"/>
+      <c r="B131" s="5"/>
       <c r="C131" s="1" t="s">
         <v>88</v>
       </c>
@@ -9511,22 +9749,22 @@
         <v>28</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>862</v>
+        <v>893</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="M131" s="3"/>
-      <c r="Q131" s="3"/>
+        <v>894</v>
+      </c>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="Q131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B132" s="3"/>
+        <v>895</v>
+      </c>
+      <c r="B132" s="5"/>
       <c r="C132" s="1" t="s">
         <v>26</v>
       </c>
@@ -9537,22 +9775,22 @@
         <v>62</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>865</v>
+        <v>896</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>866</v>
+        <v>897</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="M132" s="3"/>
-      <c r="Q132" s="3"/>
+        <v>898</v>
+      </c>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="Q132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>868</v>
+        <v>899</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>173</v>
@@ -9560,7 +9798,7 @@
       <c r="C133" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D133" s="3"/>
+      <c r="D133" s="5"/>
       <c r="E133" s="1" t="s">
         <v>62</v>
       </c>
@@ -9568,19 +9806,19 @@
         <v>209</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="M133" s="3"/>
-      <c r="Q133" s="3"/>
+        <v>900</v>
+      </c>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="Q133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B134" s="3"/>
+        <v>901</v>
+      </c>
+      <c r="B134" s="5"/>
       <c r="C134" s="1" t="s">
         <v>26</v>
       </c>
@@ -9594,45 +9832,45 @@
         <v>209</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="M134" s="3"/>
-      <c r="Q134" s="3"/>
+        <v>902</v>
+      </c>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="Q134" s="5"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B135" s="3"/>
+        <v>903</v>
+      </c>
+      <c r="B135" s="5"/>
       <c r="C135" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>764</v>
+        <v>795</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>873</v>
+        <v>904</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="M135" s="3"/>
-      <c r="Q135" s="3"/>
+        <v>905</v>
+      </c>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="Q135" s="5"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B136" s="3"/>
+        <v>798</v>
+      </c>
+      <c r="B136" s="5"/>
       <c r="C136" s="1" t="s">
         <v>26</v>
       </c>
@@ -9643,24 +9881,24 @@
         <v>28</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-      <c r="M136" s="3"/>
-      <c r="Q136" s="3"/>
+        <v>908</v>
+      </c>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="Q136" s="5"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B137" s="3"/>
+        <v>909</v>
+      </c>
+      <c r="B137" s="5"/>
       <c r="C137" s="1" t="s">
         <v>88</v>
       </c>
@@ -9674,13 +9912,13 @@
         <v>209</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="M137" s="3"/>
-      <c r="Q137" s="3"/>
+        <v>910</v>
+      </c>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="Q137" s="5"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
@@ -9699,17 +9937,17 @@
         <v>28</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>880</v>
+        <v>911</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>881</v>
+        <v>912</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-      <c r="M138" s="3"/>
+        <v>913</v>
+      </c>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="M138" s="5"/>
       <c r="Q138" s="1" t="s">
         <v>167</v>
       </c>
@@ -9718,7 +9956,7 @@
       <c r="A139" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B139" s="3"/>
+      <c r="B139" s="5"/>
       <c r="C139" s="1" t="s">
         <v>26</v>
       </c>
@@ -9729,24 +9967,24 @@
         <v>62</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>883</v>
+        <v>914</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>884</v>
+        <v>915</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="M139" s="3"/>
-      <c r="Q139" s="3"/>
+        <v>916</v>
+      </c>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="Q139" s="5"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B140" s="3"/>
+      <c r="B140" s="5"/>
       <c r="C140" s="1" t="s">
         <v>362</v>
       </c>
@@ -9757,17 +9995,17 @@
         <v>62</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>886</v>
+        <v>917</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
+        <v>918</v>
+      </c>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
       <c r="M140" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q140" s="3"/>
+      <c r="Q140" s="5"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
@@ -9780,28 +10018,28 @@
         <v>26</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>888</v>
+        <v>919</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>883</v>
+        <v>914</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>889</v>
+        <v>920</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>890</v>
+        <v>921</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q141" s="3"/>
+      <c r="Q141" s="5"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>891</v>
+        <v>922</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>88</v>
@@ -9813,18 +10051,18 @@
         <v>28</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>892</v>
+        <v>923</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>893</v>
+        <v>924</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>894</v>
+        <v>925</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>895</v>
+        <v>926</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>88</v>
@@ -9836,16 +10074,16 @@
         <v>62</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>883</v>
+        <v>914</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="Q143" s="3"/>
+        <v>927</v>
+      </c>
+      <c r="Q143" s="5"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>897</v>
+        <v>928</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>88</v>
@@ -9857,16 +10095,16 @@
         <v>62</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>883</v>
+        <v>914</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="Q144" s="3"/>
+        <v>929</v>
+      </c>
+      <c r="Q144" s="5"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>88</v>
@@ -9878,18 +10116,18 @@
         <v>28</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>900</v>
+        <v>931</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>901</v>
+        <v>932</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>902</v>
+        <v>933</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>903</v>
+        <v>934</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>26</v>
@@ -9901,35 +10139,35 @@
         <v>28</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>904</v>
+        <v>935</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>905</v>
+        <v>936</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>906</v>
+        <v>937</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>907</v>
+        <v>938</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>908</v>
+        <v>939</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>909</v>
+        <v>940</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>910</v>
+        <v>941</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>362</v>
@@ -9941,7 +10179,7 @@
         <v>62</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>911</v>
+        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -9972,437 +10210,437 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="108.857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="86.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="72.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="2" width="29.9132653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="122.790816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="97.0867346938775"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="81.5357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="3" width="33.3724489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="2" t="s">
-        <v>919</v>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="H9" s="3" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="2" t="s">
-        <v>920</v>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="3" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="F19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>964</v>
+      </c>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2" t="s">
-        <v>934</v>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2" t="s">
-        <v>934</v>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>967</v>
+      </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>937</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="23" t="s">
+        <v>968</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="F34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -10422,126 +10660,142 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="13.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>949</v>
+      <c r="A2" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>980</v>
       </c>
       <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>950</v>
+      <c r="A3" s="5" t="s">
+        <v>981</v>
       </c>
       <c r="B3" s="0"/>
-      <c r="C3" s="3" t="s">
-        <v>951</v>
+      <c r="C3" s="5" t="s">
+        <v>982</v>
       </c>
       <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>952</v>
+      <c r="A4" s="5" t="s">
+        <v>983</v>
       </c>
       <c r="B4" s="0"/>
-      <c r="C4" s="3" t="s">
-        <v>953</v>
+      <c r="C4" s="5" t="s">
+        <v>984</v>
       </c>
       <c r="D4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>955</v>
+      <c r="B5" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>986</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>957</v>
+      <c r="A6" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>988</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>958</v>
+      <c r="A8" s="5" t="s">
+        <v>989</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>767</v>
+      <c r="A10" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>959</v>
+      <c r="C11" s="5" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>994</v>
       </c>
     </row>
   </sheetData>
@@ -10568,16 +10822,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="22.030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>961</v>
+      <c r="B1" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>996</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
@@ -10589,14 +10843,14 @@
       <c r="W1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>963</v>
+      <c r="A2" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>998</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -10605,8 +10859,8 @@
       <c r="J2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
-      <c r="W2" s="3" t="s">
-        <v>962</v>
+      <c r="W2" s="5" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10634,8 +10888,8 @@
       <c r="M4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>964</v>
+      <c r="A5" s="5" t="s">
+        <v>999</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
@@ -10648,8 +10902,8 @@
       <c r="M5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>965</v>
+      <c r="A6" s="5" t="s">
+        <v>1000</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -10662,8 +10916,8 @@
       <c r="M6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>966</v>
+      <c r="A7" s="5" t="s">
+        <v>1001</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -10676,8 +10930,8 @@
       <c r="M7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>967</v>
+      <c r="A8" s="5" t="s">
+        <v>1002</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -10685,19 +10939,19 @@
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
-      <c r="J8" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>970</v>
+      <c r="J8" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>971</v>
+      <c r="A9" s="5" t="s">
+        <v>1006</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -10705,41 +10959,41 @@
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
-      <c r="J9" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>974</v>
+      <c r="J9" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>976</v>
+      <c r="A10" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1011</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
-      <c r="J10" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>979</v>
+      <c r="J10" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>980</v>
+      <c r="A11" s="5" t="s">
+        <v>1015</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -10747,19 +11001,19 @@
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
-      <c r="J11" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>983</v>
+      <c r="J11" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>984</v>
+      <c r="A12" s="5" t="s">
+        <v>1019</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -10768,21 +11022,21 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="J12" s="0" t="s">
-        <v>985</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>987</v>
+        <v>1020</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>989</v>
+      <c r="A13" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1024</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -10790,21 +11044,21 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="J13" s="0" t="s">
-        <v>990</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>992</v>
+        <v>1025</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>994</v>
+      <c r="A14" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1029</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -10812,11 +11066,11 @@
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="J14" s="0"/>
-      <c r="L14" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>996</v>
+      <c r="L14" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10832,8 +11086,8 @@
       <c r="M15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>997</v>
+      <c r="A16" s="5" t="s">
+        <v>1032</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -10841,14 +11095,14 @@
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
-      <c r="J16" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>1000</v>
+      <c r="J16" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10859,19 +11113,19 @@
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
-      <c r="J17" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>1003</v>
+      <c r="J17" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>1004</v>
+      <c r="A18" s="5" t="s">
+        <v>1039</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -10879,16 +11133,16 @@
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
-      <c r="J18" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>1006</v>
+      <c r="J18" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>1007</v>
+      <c r="A19" s="5" t="s">
+        <v>1042</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -10896,8 +11150,8 @@
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
-      <c r="J19" s="3" t="s">
-        <v>1008</v>
+      <c r="J19" s="5" t="s">
+        <v>1043</v>
       </c>
       <c r="L19" s="0"/>
     </row>
@@ -10912,8 +11166,8 @@
       <c r="L20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>1009</v>
+      <c r="A21" s="5" t="s">
+        <v>1044</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -10934,8 +11188,8 @@
       <c r="L22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>1010</v>
+      <c r="A23" s="5" t="s">
+        <v>1045</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -10946,19 +11200,19 @@
       <c r="L23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>1012</v>
+      <c r="A24" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1047</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
-      <c r="L24" s="3" t="s">
-        <v>1013</v>
+      <c r="L24" s="5" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10969,24 +11223,24 @@
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
-      <c r="L25" s="3" t="s">
-        <v>1014</v>
+      <c r="L25" s="5" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>1016</v>
+      <c r="A26" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1051</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
-      <c r="L26" s="3" t="s">
-        <v>1017</v>
+      <c r="L26" s="5" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10997,13 +11251,13 @@
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
-      <c r="L27" s="3" t="s">
-        <v>1018</v>
+      <c r="L27" s="5" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>1019</v>
+      <c r="A28" s="5" t="s">
+        <v>1054</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -11011,8 +11265,8 @@
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
-      <c r="L28" s="3" t="s">
-        <v>1020</v>
+      <c r="L28" s="5" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11033,8 +11287,8 @@
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
-      <c r="L30" s="3" t="s">
-        <v>1021</v>
+      <c r="L30" s="5" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11045,8 +11299,8 @@
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
-      <c r="L31" s="3" t="s">
-        <v>1022</v>
+      <c r="L31" s="5" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11057,8 +11311,8 @@
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
-      <c r="L32" s="3" t="s">
-        <v>1023</v>
+      <c r="L32" s="5" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11069,8 +11323,8 @@
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
-      <c r="L33" s="3" t="s">
-        <v>1024</v>
+      <c r="L33" s="5" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11081,39 +11335,39 @@
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
-      <c r="L34" s="3" t="s">
-        <v>1025</v>
+      <c r="L34" s="5" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>964</v>
+        <v>999</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>966</v>
+        <v>1001</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>965</v>
+        <v>1000</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>980</v>
+        <v>1015</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1026</v>
+        <v>1061</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1015</v>
+        <v>1050</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>1028</v>
+        <v>1062</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L36" s="3" t="s">
-        <v>1029</v>
+      <c r="L36" s="5" t="s">
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -11140,7 +11394,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11148,15 +11402,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1030</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1031</v>
+        <v>1066</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1032</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -11175,15 +11429,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11191,10 +11445,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1033</v>
+        <v>1068</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1034</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11202,7 +11456,7 @@
         <v>588</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1035</v>
+        <v>1070</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>584</v>
@@ -11210,10 +11464,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1036</v>
+        <v>1071</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1037</v>
+        <v>1072</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>189</v>
@@ -11221,10 +11475,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1038</v>
+        <v>1073</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1039</v>
+        <v>1074</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>189</v>
@@ -11232,10 +11486,34 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1040</v>
+        <v>1075</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1041</v>
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>

--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="1182">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -529,6 +529,9 @@
     <t xml:space="preserve">She is the third wife of [Basudewa] and mother of [Rara_Ireng]. She is only found in the Javanese tradition and few details about her life or ancestors are available.</t>
   </si>
   <si>
+    <t xml:space="preserve">Badraini</t>
+  </si>
+  <si>
     <t xml:space="preserve">Basudewa:Rara_Ireng</t>
   </si>
   <si>
@@ -674,31 +677,31 @@
   </si>
   <si>
     <t xml:space="preserve">Not mentioned in the Indian Mahabharata.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the brothers of Wibisana in Wahyu Makutharama. </t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">In /Wahyu_Mahkutarama/ he is mentioned as one of the four brothers of [Wibisana], who is looking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">One of the brothers of Wibisana in /Wahyu Makutharama/. </t>
+      <t xml:space="preserve">to be returned to his original shape. There are no entries for this character in any of the consulted encyclopedias.</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Ubuntu"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">He represents the earth, and is one of several characters that constitute anthropomorphic representations of natural elements.</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranu, Maruta, Hagni, Wibisana</t>
   </si>
   <si>
     <t xml:space="preserve">Barata</t>
@@ -1641,7 +1644,38 @@
     <t xml:space="preserve">Hagni</t>
   </si>
   <si>
-    <t xml:space="preserve">He is an anthropomorphic representation of fire, not described in any of the encyclopedias consulted.</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">He is an anthropomorphic representation of fire. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">In /Wahyu_Mahkutarama/ he is mentioned as one of the four brothers of /Wibisana/, who is looking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">to be returned to his original shape. There are no entries for this character in any of the consulted encyclopedias.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bantala, Ranu, Maruta, Wibisana</t>
   </si>
   <si>
     <t xml:space="preserve">Known as Indra or Devendra, the King of Devas (celestial beings). His wife is known as Indrani. Indra is also mentioned the /Krishna Leela/ (the divine acts of Krishna) whereby the the fellow villagers of Lord Krishna used to perform prayers to ask Lord Indra for rain. However at one point when Krishna told them not to do so, the villagers stopped and this enraged Indra. He punished the villages by causing stormy rains. However Krishna protected the villagers in the end. He is the son of Maharesi Kasyapa and Devi Aditi.</t>
@@ -2151,15 +2185,12 @@
     <t xml:space="preserve">She is married to [Basudewa]. But [Gorawangsa] impresonates [Basudewa] and seduces her. [Basudewa] sentences her to death and tasks [Bismaka] with her execution. However, upon learning she is pregnant, [Bismaka] cannot get himself to kill her, and he abandons her in the forest instead. She is discovered and protected by and has a child name resi [Anggawangsa] who brings her to Wisarengga, where she gives birth to [Kangsa]. As an adult [Kangsa] rebels against [Basudewa] but is killed by [Baladewa]. After his defeat, [Maerah] commits ritual suicide.</t>
   </si>
   <si>
-    <t xml:space="preserve">Amirah, Mahira</t>
+    <t xml:space="preserve">Amirah, Mahira, Maekah</t>
   </si>
   <si>
     <t xml:space="preserve">Kurandapati</t>
   </si>
   <si>
-    <t xml:space="preserve">Maekah</t>
-  </si>
-  <si>
     <t xml:space="preserve">Basudewa:x; Gorawangsa: Kangsa</t>
   </si>
   <si>
@@ -2238,7 +2269,28 @@
     <t xml:space="preserve">Maruta</t>
   </si>
   <si>
-    <t xml:space="preserve">He is a personification of wind. In /Wahyu_Mahkutarama/ he is mentioned as one of the four brothers of /Wibisana/, who is looking to be returned to his original shape.</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">He is a personification of wind. In /Wahyu_Mahkutarama/ he is mentioned as one of the four brothers of /Wibisana/, who is looking to be returned to his original shape. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">There are no entries for this character in any of the consulted encyclopedias.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bantala, Ranu, Hagni, Wibisana</t>
   </si>
   <si>
     <t xml:space="preserve">One of the wives of [Werkudara], they met at Sapta Pratala, the seven-tiered heaven of [Antaboga]. At the time, they had been tricked by the Korawa to enter a place made of flammable materials. The Korawa were planning to entrap and burn the Pandawa (this incident is part of the lakon /Bale Sigala-gala/). [Antaboga] helped the Pandawa escape to Sapta Pratala, by way of his son Nagatatmala. Once there, [Werkudara] and Nagagini met.</t>
@@ -2424,7 +2476,7 @@
     <t xml:space="preserve">373-374</t>
   </si>
   <si>
-    <t xml:space="preserve">44-46 (Vol. VIII)</t>
+    <t xml:space="preserve">44-46 (Vol. VII)</t>
   </si>
   <si>
     <t xml:space="preserve">898-899</t>
@@ -2448,7 +2500,7 @@
     <t xml:space="preserve">Drestarastra, Yamawidura</t>
   </si>
   <si>
-    <t xml:space="preserve">Kunti: (Darma) Puntadewa, (Bayu) Bima, (Endra) Arjuna; Madrim: (Aswan) Nakula, (Aswin) Sadewa</t>
+    <t xml:space="preserve">Rukmini</t>
   </si>
   <si>
     <t xml:space="preserve">Lenga Tala</t>
@@ -2460,7 +2512,7 @@
     <t xml:space="preserve">158-159</t>
   </si>
   <si>
-    <t xml:space="preserve">57-65 (Vol. VIII)</t>
+    <t xml:space="preserve">57-65 (Vol. VII)</t>
   </si>
   <si>
     <t xml:space="preserve">900-901</t>
@@ -2472,25 +2524,95 @@
     <t xml:space="preserve">The God of writing. He has an indelible memory and is able to keep secrets. For this reason, he was tasked with documenting the memory of the gods. Together with Barara [Kuwera], he complied a record of which person should fight against whom and a detailed list of the main weaknesses of each character, during the Baratayuda war. This is known as the /Jitapsara/.</t>
   </si>
   <si>
-    <t xml:space="preserve">Known as sage Parasara, he is the father of Veda Vyasa. Satyavati gives birth to Veda Vyasa before her marriage as second wife of King Shantanu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father of Abiyasa, also a writer. Son of Bambang Sakri, who in turn is son of Bambang Sekutrem. Marries Durgandini and fathers Raden Dipayana (Byasa). Also fathers Rajamala and Dewi Sudesno.</t>
+    <t xml:space="preserve">Parma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-74 (Vol. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as sage Parasara, he is the father of Veda Vyasa. Satyavati gives birth to Veda Vyasa before her marriage as second wife to King Shantanu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was in his mother's womb for 12 years before being born, during which time he learned how to recite several sacred songs. He had a strong ability to remain concentrated in meditation, even when the gods tried to distract him on purpose. Once he was by the bank of a river and saw a beautiful woman rowing a boat. But her skin was full of disease and she had a foul smell. Her name was [Durgandini]. Palasara felt pity for her. Using his magic skills, he was able to cure her. But this was no easy feat. While Palasara tried to cure her, the disease adopted a human form and asked to be given a name. The boat itself and the paddle also demanded the same thing. Palasara acknowledged these creatures as his sons. The first one, half-disease half-demon, was named [Rajamala]. The stern of the boat became a handsome young man named [Kencakarupa], whereas the bow became [Rupakenca]. The paddle became a beautiful woman, [Rekatawati]. They were all sent to live with [Durgandini]'s brother [Durgandana] in Wirata. 
+&lt;p&gt;Palasara and Durgandini finally found themselves in an uninhabited part of the forest. There they fell in love and became husband and wife. Their first child had dark skin and was named Kresna Dwipayana ([Abiyasa]). Then Batara [Guru] and Batara [Narada] arrived and asked Palasara to build a kingdom in Hutan Gajahoya, and call it Astinapura. One day, the priest Sentanu arrived, and asked if his child [Dewabrata] could also be breastfed by [Durgandini]. The goodhearted Palasara agreed but his own child was fed less often than [Dewabrata]. This lead the two men to fight. Eventually the gods intervened, explaining that Palasara's destiny was to become a hermit while [Sentanu] was to become  king and official consort of [Durgandini]. Palasara accepted this and left for the woods, taking [Abiyasa] with him. There are different variations on the stories above. He eventually died a perfect death at the Srungga hermitage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palasara, Dipa_Kiswara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durgandini: Rajamala, Kencakarupa, Rupakenca, Abiyasa</t>
   </si>
   <si>
     <t xml:space="preserve">_Raksasa, _Lion</t>
   </si>
   <si>
+    <t xml:space="preserve">384-387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111-112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-23 (Vol. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">894-895</t>
+  </si>
+  <si>
     <t xml:space="preserve">Petruk</t>
   </si>
   <si>
+    <t xml:space="preserve">There are multiple versions of his origin. Petruk and [Gareng] are the sons of the giant [Bausasra], and their original names are Kuncir and Kuncung. They are mistreated by their stepmother and run to Karangkadempel, where Semar receives them as his own children.  In another version, they are originally Bambang Sukadadi and Bambang Precupanyukilan. They are both handsome warriors who like travelling around the world. One one occasion, they meet and fight about which of them is the most handsome one. [Semar] intercedes and they ask for his opinion. He says neither is handsome and when they look at their reflections on a lake, they realize their shapes have been changed. They then ask to follow Semar and he changes their names to [Gareng] and Petruk, respectively. In the third version, Petruk is the son of Suwala, a /gandarwa/ from Pecuk Pacukilan. His original name was Suparta. His father felt he could not properly take care of him and gave him to Semar. &lt;br/&gt;Petruk once became king of Ngrancangkencana. He was finally defeated by [Gareng], who was disguised as [Pandu_Pregola]. In another version, he was temporarily a king with the name [Gurdinadur]. He is known as a happy character, with a great knowledge of musical melodies. In some versions, his wife is not [Ambarawati] but [Prantawati].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kantong, Bolong, Udawala, Dawala, Dublajaya, Jengglongjaya, Pentung Pinanggul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gareng, Bagong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambarawati: Lengkungkusuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surakarta: Jamblang, Jengglong, Dlongop, Mesem, Moblong; Yogyakarta: Jamblang, Bujang, Jlegong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">398-402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138-143 (Vol. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">912-913</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pracona</t>
   </si>
   <si>
     <t xml:space="preserve">Prabu, Kala</t>
   </si>
   <si>
-    <t xml:space="preserve">He wants to marry Supraba, the bidadari.</t>
+    <t xml:space="preserve">A giant that fell in love with the heavenly nymph [Gagarmayang] (also known as Prabasini or Supraba). His request to marry her was refused by the gods and thus Kala Pracona attacked the heavens. Batara [Guru] ordered [Narada] to find help amongst the mortals. He requested the help of Bima's son [Gatotkaca], who was named Tetuka as a baby, who indeed succeeded in killing Kala [Pracona].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilingwesi (Tasiwaja)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">404-405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157-158 (Vol. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">774-775</t>
   </si>
   <si>
     <t xml:space="preserve">Pradapa</t>
@@ -2499,7 +2621,16 @@
     <t xml:space="preserve">Known as Vijaya, the maternal cousin of Sahadeva. Not much is mentioned about Sahadeva's wife apart from Draupadi.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sadewa's wife. Daughter of Tambrapeta.</t>
+    <t xml:space="preserve">Sadewa's wife and daughter of Tambrapeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambapetra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadewa:x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158 (Vol. VII)</t>
   </si>
   <si>
     <t xml:space="preserve">Pragota</t>
@@ -2508,336 +2639,561 @@
     <t xml:space="preserve">Patih</t>
   </si>
   <si>
-    <t xml:space="preserve">Son of Ugrasena and Ken Sagupi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken Sagupi</t>
+    <t xml:space="preserve">He was the /patih/ of Mandura during the reign of [Baladewa]. His younger brother [Prabawa] was the interior minister for the same ruler. Pragota's demeanor was characterized by calmness and joy. He rarely took offense in what others said, even though his speech was rough and he had a loud laughter. Therefore, his character contrasted with that of his king [Baladewa], who trusted him for that very reason. Other versions have him as the illegitimate son of [Basudewa] with [Ken_Sagupi], or of [Antagopa] with [Ken_Sagupi], or of [Ugrasena] with [Ken_Sagupi]. His siblings can therefore include [Adimanggala], Dewi [Setyaboma], [Setyaki],[Udawa] and [Larasati]. He died after the Baratayuda war in a fight involving [Trah_Yadawa], [Wresni] and [Andaka].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pergota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saragupita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prabawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140-141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159 (Vol. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">924-925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In India, Satyavati corresponds to the Javanese[Durgandini]. In the Sanskrit version, Satyavati is a fisherman's daughter. She was initially known as Matsyagandha ("she who smells of fish"). Shantanu, Bhishma's father, married her as his second wife, after his former wife Ganga (a river goddess) left him for breaking one of the conditions set for the marriage. She then gave birth to Vichitraveerya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is the daughter of the ogre [Bagaspati], known. Once she had a dream where she saw a young man named Narasoma ([Salya] in his youth) and fell in love with him. She asked her father to find him for her. [Bagaspati] complied with her wishes. He had to force Narasoma though, since the young man was initially reluctant to accompany [Bagaspati]. However, upon seeing the beautiful Pujawati, Narasoma was happy to marry her but was ashamed to have an ogre as his father-in-law. [Bagaspati] was disappointed but took this in stride and sacrificed his own life for the sake of his daughter's happiness, (in some versions Narasoma kills him). Before dying he also isntructed her dauther to change her name to Setiawati. After [Salya] was killed in the Bharatayudha war, Pujawati committed ritual suicide with a small dagger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setiawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darmastuti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salya: Erawati, Surikanti, Banowati, Burisrawa, Rukmarata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413-414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236-237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183-185 (Vo. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">938-939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulunggana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He appears in /Wahyu_Kembar_Cakraningrat/ but has no entries in any of the consulted encyclopedias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulungsari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She appears in /Wahyu_Kembar_Cakraningrat/ but has no entries in any of the consulted encyclopedias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sengkalawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yudhistra, alias Dharmaraja (the King of righteousness) is the eldest of the Pandava brothers. He is the son of Yama, the god of death and justice (therefore also known as Yamadharmaraja).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oldest of the pandawa.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Darmaputra, Yudhistira, Ajatasatru, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kalimataya, Darmawangsa, Dramakusuma</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Darma (Pandu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werkudara, Arjuna, Nakula, Sadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drupadi: Pancawala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamus_Kalimasada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panuksma, Putut, Miling, Lare, Deres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415,619-622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192-204 (Vol. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440-447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prabu (Ramuwijaya) / Raden Ramaregawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama is known as the King of Ayodhya. He is of the Solar lineage (Suryavamsa) which means he is a descendant of the Sun God. The kingdom is ruled by King Dilipa followed by his son Rahu, Rahu's son Aja, Aja's son Dasharatha and Dasharatha's son Rama. This why he is sometimes addressed as Raghurama or Raghu Kula Rama (hence alluding his Raghu lineage). He was born to Dasharatha and Kausalya, the first wife of Dasharatha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the protagonist of the Ramayana. He was educated in his youth by Resi [Wasista].  When [Dasarata] was old he was ready to hand over the crown to Rama, his eldest son. But [Kekayi], the second wife of [Dasarata] had earlier extracted a promise from him that she used to crown her own son, [Barata], as king and to banish Rama to the Dandaka forest for 12 years. During this time, his wife [Sinta] was kidnapped by [Desamuka]. With the help of [Anoman] and the monkey army under the command of [Sugriwa], Rama was finally able to win her back. However, the eventually banished, bowing to the rumors in Ayodya that [Sinta] had been unfaithful to him. In the forest, [Sinta] gave birth to Rama's sons, [Lawa] and [Kusya]. They eventually sought him out and Rama abdicated in favor of [Lawa]. Thereafter, Rama left for the forest and immolated himself. He is an incarnation of [Wisnu].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramawijaya, Raghuputra, Sri_Rama, Raghawa, Rama_Legawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sukasalya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dasarata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barata, Kanwaka, Satrugna, Laksmana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinta: Lawa, Kusya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayodya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedhet, Padasih, Kanyut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">423-425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246-256 (Vol. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346-353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramaparasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parashurama is known as the 7th incarnation Lord Vishnu. He is often depicted with an ax. When his father, Jamadagni was killed by Kartaveerya Arjuna (not to be confused with Arjuna of the Pandava brothers), Parashurama went on a mission to kill Kartaveerya and the unjust kshatriyas. He also refused to teach martial arts to any one who was born to the Kshatriya caste. He taught Karna but in the end cursed him when he suspected him of being a kshatriya. Although Karna was born into the warrior clan he was unaware of this at that point of time; Karna in fact saw himself as a Sudra (lower caste) as he was brought up by charioteer Adiratha and lied to Parashurama about being a brahmin instead; Parashurama himself was born to a brahmin father and kshatriya mother.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His father asks him to kill his mother, to punish her for committing adultery with [Citrarata]. He makes his father promise to grant him any wish. With this he returns his brothers to their previous selves (they had been earlier turned madmen for refusing to kill their mother) and to bring his mother back to life. 
+But his father and brothers are later killed by the sons of [Arjunasasrabahu]. Ramaparasu kills [Arjunasasrabahu] in revenge and vows to kill any /kesatria/ that he meets. He roams the world for this and teaches several famous figures, such as [Bisma], [Seta], [Durna], [Krepa] and [Karna]. Eventually [Rama] kills Ramaparasu, who then becomes a god. But there are multiple accounts about how Rama kills him. In some versions, Ramaparasu is another name for Jamadagni, and his father is called Wiragni, with a brother called Suwandagni. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramabargawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renuka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamadagni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rumawan, Susena, Wasu, Wiswawasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287-388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239-245 (Vol. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344-345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramayadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Together with his son [Angganjali], he provides Tetuka ([Gatotkaca] as a baby) with the power to withstand attacks from [Sekipu] and [Pracona]. There is no entry for this character in any of the consulted encyclopedias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x: Angganjali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is a personification of water. In /Wahyu_Mahkutarama/ he is mentioned as one of the four brothers of /Wibisana/, who is looking to be returned to his original shape. There are no entries for this character in any of the consulted encyclopedias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bantala, Maruta, Hagni, Wibisana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subhadra, sister of Krishna and Balarama, and second wife of Arjuna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In her childhood she lived at Widarakandang, under the care of Antagopa, with her siblings Narayana (a young [Kresna]) and Kakrasana (a young [Baladewa]). Rara Ireng became friends with [Larasati], [Antagopa]'s daughter. Rara Ireng and her siblings were hiding from [Kangsa], who was trying to kill them. In her adulthood she met with [Arjuna], as narrated in /Sembar_mBarang_Jantur/. She had already been promised by her father to [Burisrawa] and [Arjuna] had to go to great lengths to secure her hand in marriage. In another version, she eloped with [Arjuna] without [Basudewa]'s concern, who only begrudgingly accepted the marriage after the fact. She is an incarnation of [Sri]. She died when a door collapsed in Astina. In other versions, she reached perfect death after [Parikesit] was crowned king. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumbadra, Subadra, Bratajaya, Lara_Ireng, Sembadra, Brajajaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baladewa, Kresna, Udawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arjuna: Abimanyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sintawaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rangkung, Sedhet, Padasih, Lentreng, Parem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195-198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266-272 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1074-1075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Younger brother of Jim [Dhamdharat]. He is a /sermabahan/ character (that is, he doesn't have a fixed puppet representation). He is given the honorific Kala, but he is actually a demon. There are no entries for this character in any of the consulted encyclopedias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohini is her name as a child, in her adulthood other names were more common. She hailed form the Widarba Kingdom. She is the mother of the twins [Baladewa] and [Kresna]. In some versions, she is the same as Dewaki, but in others (such as the /Kitab Hariwangsa/), Dewaki is the sister of [Kangsa]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahindra, Mahendra, Maekah, Dewaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 (Vol. VI); 100-101 (Vol. III)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">858-859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Rukmi, the elder brother of Rukmini. He wanted Shishupala, on of the nephews of Lord Krishna to marry Rukmini and he did not like Krishna. He was strongly opposed to the wedding between Krishna and Rukmini. In his battle with Krishna, he was defeated and had half of his hair and mustache shaved as a form of punishment and public shaming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of [Bismaka] and [Rumbini]. He is better known as the brother of [Rukmini], who marries [Kresna].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rumbini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmini, Larasati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">298 (Vol. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmini is the first wife of Lord Krishna. She is known as one of his principle wives of Lord Krishna. In the Indian version, their first-born, Pradyumna, became the crowned Prince of Dwaraka. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First wife of Kresna. Daughter of Bismaka (Aya Prabu Rukma) and Rumbini. Has sibligs: Arya Rumkana and Dewi Rarasati (Larasati) -&gt; this one from Ken Sagupi and Arya Prabu Rukma. Kresna (Narayana), rejecting Drona. The other wives of Kresna are Jembawati (daughter of Jembawan and Trijata), Setyaboma (daughter of Ugrasena / Setyajit, king of Lesmanapura). She has three sons: Saranadewa (face of giant), Partadewa and Dewi Sitisari / Titisari.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmara, Larasati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kresna: Partadewa, Titisari, Saranadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">436-437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">299-302 (Vol. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is a son of [Sri_Mahapunggung],who is in turn son of Batara [Wisnu]. When his father deemed him ready to succeed him in the throne he had not yet found a wife. His inability to do so angered his father and Sadana was turned into a bird. Eventually [Resi] was able to return Sadana to his original shape. He then married [Resi]'s daughter [Lasmitawati] and was acknowledged as heir by his father. Eventually he was turned into a god with the name Sang Hyang Sadana. In Java, Sadana and his sister [Sri] are venerated as deities connected to fertility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri_Mahapunggung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri, Wandu, Oya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laksmitawati: Hartati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purwa_Carita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JakaPupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-10 (Vol.VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166-167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahadeva is known to be the most knowledgeable one amongst the Pandavas. Born to Pandu and Madri, he is said to be well versed in astrology and could understand the language of animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youngest Pandawa, son of Madrim and Pandu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudamala, Sahadewa, Tangsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandu (Aswin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakula, Arjuna, Werkudara, Puntadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pradapa: Sritanjung; Srengganawati: Widapaksa; Rasawulan: x; Sadarmi: Sabekti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baweratalun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purnamajati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-14 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salya is the maternal uncle of Madri's sons, Nakul and Sahadeva. He accidentally ended up siding with the Kauravas as Duryodhana tricked him into thinking that his accommodation at the war camp was being provided by him when in fact it had been provided by the Pandavas. As a result, Salya was obliged to help the Kauravas. He still expressed his support for the Pandavas by discouraging Karna when he became his charioteer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Mandrapati from Mandraraka and Dewi Tejawati. Gives his sister Madrim to Pandu after loosing contest for Kunti. With Setyawati, father of Burisrawa, Erawati (Baladewa), Surtikanti (Karna), Banowati (Duryudana),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narasoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrekaswara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pujawati: Rukmarata, Burisrawa,Erawati,Sutikanti, Banowati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burisrawa,Erawati,Sutikanthi, Banowati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aji_Candabirawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samba is the son of Lord Krishna. He marries Lakshmani, the daughter of Duryodhana. Although Duryodhana is against the marriage, when Balarama expresses his anger (Duryodhana speaks ill of the Yadava clan when Balarama comes to speak on behalf of Samba when he is imprisoned by Duryodhana), Duryodhana relents in the end. Samba is also seen as the main cause of destruction of the Yadava race (Krishna's clan). Many years earlier, even before the kurukshetra war, he once decided to test the power of the sages. He dresses up as a pregnant woman and went to the sages and ask whether the unborn child would be male or female. The sages, enraged by this sign of great disrespect, cast a curse saying that "she" will "give birth" to an iron material which will cause destruction the entire yadava race. An iron mace was ripped out of Samba's thigh and he pounded it and threw it into the sea. The iron dust however was tosed back to the shore of Prabasa and was turned into deadly reeds which the yadavas used to fight and kill one another with during a heated argument on whose side should they take after witnessing the Kurukshetra war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Jembawati and Kresna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih of Mandura, during the reign of Basudewa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satrugna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shatrughuna is born to Sumitra, third wife of Dasharatha. He is known as the twin of Lakshmana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin brother of Laksmana, son of Dasarata and Sumitra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekipu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih Kala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patih of Pracona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasipu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285-286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sengkuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakuni, the maternal uncle of the Kauravas. He is plays an important in helping the Kauravas plot against the Pandavas and finds ways to defeat them, including the game of dice where the Pandavas lose their kingdom to the Kauravas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Younger brother of Gandari. [Gandara is the name of their eldest brother, not the name of a Kingdom]. Another name: Harya Suman. In reality, son of King of  Palasajenar. // some say he is the son of Gendara, some sya he is the the adik ke2 prabu Gendara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harya Suman, Trigantalpati, Sakuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Boar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyaboma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satyabhama is known as the second wife and one of the Principle wives of Lord Krishna. She also faces opposition in marrying Krishna from her brother and father. She is seen as the incarnation of the Earth goddess, Bhudevi and is known for her short temper. She is of a strong disposition and even accompanies Lord Krishna during his battle with Narakasura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter of Prabu Setyajid / Arya Ugrasena and Dewi Wersini. Setyaki is her younger brother. She marries Narayana. With him she has Arya Styaka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Satyaki, he is a Yadava chieftein who helped the Pandavas in the Kurukshetra war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Wresniwara. Son of Ugrasena and Dewi Sini  / Wresini (daughter of Sanaprabawa). Marries Dewi Garbarini [ daughter of Garbanata, from Garbaruci] and has a son named Arya Sangasanga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siti_Sendari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishna is said to have a daughter by the name of Charumati; however she is born to Rukmini and Krishna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter of Kresna (Wisnu) and Dewi Pratiwi (daughter of Antaboga). // Sundari berarti bulan purnama.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siti_Sundari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratiwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RaraTemon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not much is mentioned about Sahadeva's marriage. He is usually known as one of the husbands of Draupadi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given to Sadewa (Raden Sudamala) as wife after curing Durga back into Uma. // or after defeating Kalanjaya and Kalantaka, who are casing Endang Soka and Pradapa. //Anaknya Begawan Tambapetra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyi Pohaci Sanghyang Sri. She emerges out of an egg, which emerged out of the tears of Antaboga. The gods kill her to protect her from Batara Guru's desires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugriwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as the monkey king of Kishkinda and the son of the Sun god. He is the brother of Vali (Indra's son) and he helps Rama by lending the support of his Vanara army during Rama's mission to rescue his wife Sita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Guwarsa. Son of Resi Gotama [from Erraya / Grastina] and Dewi Windradi / Indradi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suparta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Dananjaya.  Mretani Jim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surabramadiraja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of Kraton Banon Salembag (or Simbarmanyura) who wants to marry Arimbi. // Serambahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surati_Mantra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SuratiMatra. He is the patih of Gorawangsa.He takes care of Kangsa, the son of Maerah and Gorawangsa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtikanthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Vrushali, she is the wife of Karna and the daughter of Shalya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtikanti. Sibling of Erawati who marries Karna, but also loves Arjuna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surya is known as the son of Aditi (Daksha's daughter) and Sage Kashyapa. He forms a part of the navagrahas (the nine planets).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God of the son. Father of Karna, with Kunti. Son of Guru and Dewi Senggani. // Sama dengan Druwasa (perwujudnya sebagai manusia).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambrapeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He marries Karenumati, Princess of Chedi. Her son's name is Niramitra. Not much is mentioned about Nakula's wife apart from Draupadi. Perhaps one reason could be because Draupadi made It clear that no other wives of the Pandava should share her household in Indraprastha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begawan at Pringalas. Father of Dewi Soka,  who marries Nakula. And Pradapa (Padapa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejamantri. Brother of Semar and Guru who accompanies the antagonists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TunggulWulung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//HY he also has his own lakon: tunggul wulung. Malihane Betara GUru. //Tidak punya prajurit, dia mengalahkan kurawa semua, dia usap jadi patung. Akhirnya karna, duryudhana takluk. Si tunggulwulung minta supaya korawa ngluruk Dwarawati. Dwarawati kalah, Kresna mencari bantuan ke Amarta. Sementara Amarta diserang juga. Bima, Gatotkaca, Antareja semua lari ke hutan. Ketemu begawan. Mereka dirubah bima jadi gajah, antasena dadi ular, gatotkaca jadi garuda. Yang merubah ini pendita yang malihane Semar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In most Indian retellings, Vasudeva is usually mentioned to have two wives Devaki and Rohini. There is no mentioning of him having children out of wedlock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Basudewa, out of wedlock. The fourth consort of Basudewa is his mother: Ken Sagupi.</t>
   </si>
   <si>
     <t xml:space="preserve">Ugrasena</t>
   </si>
   <si>
-    <t xml:space="preserve">Satyavati is known as a fisherman's daughter. She was initially known as Matsyagandha (she who smells of fish). Shantanu, Bhishma's father, marries her as his second wife, after his former wife Ganga (a river goddess) leaves him for breaking one of the condition set for the marriage. She gives birth to Vichitraveerya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Setyawati. Daughter of a giant, Bagaspati. She marries Narasoma (Salya). Hasil pujaan (seperti Srikandi, Drupadi dan Pandawa). Trustojumena. Pujan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulunggana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulungsari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wahyu jodoh? From story wahyu kembar cakraningrat. //mengusai premuan sebagai Pertiwi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sengkalawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puntadewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yudhistra, alias Dharmaraja (the King of righteousness) is the eldest of the Pandava brothers. He is the son of Yama, the god of death and justice (therefore also known as Yamadharmaraja).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oldest of the pandawa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prabu (Ramuwijaya) / Raden Ramaregawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rama is known as the King of Ayodhya. He is of the Solar lineage (Suryavamsa) which means descendents of the Sun god. The kingdom is ruled by King Dilipa followed by his son Rahu, Rahu's son Aja, Aja's son Dasharatha and Dasharatha's son Rama. This why he is sometimes addressed as Raghurama or Raghu Kula Rama (hence alluding his origins from Raghu lineage. He is born to Dasharatha and Kausalya, the first wife of Dasharatha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Dasarata and Kausalya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramawijaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramaparasu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parashurama is known as the 7th incarnation Lord Vishnu. He is often depicted with an axe. When his father, Jamadagni gets killed by Kartaveerya Arjuna (not to be confused with Arjuna of the Pandava brothers), Parashurama goes on a mission to kill Kartaveerya and unjust kshatriyas. As a result he refuses to teach martial arts to any one who is born to the Kshatriya clan. He teaches Karna but in the end curses him when he suspects him for being a kshatriya. Although Karna is born into the warrior clan he is still not aware of it at this point of time; Karna in fact sees himself as a Sudra (lower caste) as he is brought up by charioteer Adiratha and lies to Parashurama that he is a brahmin instead; Parashurama himself is born to a brahmin father and kshatriya mother.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Resi Jamadagni and Dewi Renuka. His father asks him to kill his mother, to punish her for committing adultery with Citrarata. He makes his father promise to grant him any wish. With this he returns his borthers to human shape (they had been earlier turned into animals for refusing to kill their mother) and to bring his mother back to life. Ramaparasu is angered when Citrarata kills Jamadagni and vows to kill all kesatria warriors. Eventually Rama (from Ramayana) kills him and then becomes Dewa. // Nama mudanya Bargawa. Parasu = senjata panah.  //Moksa = mencapai kesempurnaan. // In this particular story Wahyu Kaprawiran he is already a God.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramayadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Ramadi. Together with Angganjali provides Tetuka with powers to witstand attacks from Sekipu and Pracona.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Dahana speaks to Bantala Maruta and Ranu, he wants to marry a Citrawarsiti, daughter of King Karentegnyana in Tasikmadu.  //HY dari unsur air. //Ranu dasanama dari Tirta, Banyu, Bahni, Weh, Jahni.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subhadra, sister of Krishna and Balarama, and second wife of Arjuna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Badrahini and Basudewa. Kakrasana and Narayana are her half-brothers from a different mother. Becomes one wife of Arjuna. Also known as Sumbadra. She becomes one of Arjuna's wives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumbadra, Subadra, Bratajaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baladewa,Kresna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sintawaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Younger brother of Jim Dhamdharat. // Sermabahana. Rutmaka is from Dewa Ruci. // since the oral tradition has him protrayed with a Raksasa wayang, he is given the honorific Kala. But he is actually a demon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of Baladewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Rukmi, the elder brother of Rukmini. He wanted Shishupala, on of the nephews of Lord Krishna to marry Rukmini; he did not like Krishna. He was strongly against the wedding between Krishna and Rukmini. In his battle with Krishna, he gets defeated in the end and has half of his hair and moustache shaved as a form of punishment an publich shaming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Arya Prabu Rukma / Bisamaka and Dewi Rumbini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukmini is the first wife of Lord Krishna. She is known as one of his principle wives of Lord Krishna and their first-born, Pradyumna become the crowned Prince of Dwaraka. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First wife of Kresna. Daughter of Bismaka (Aya Prabu Rukma) and Rumbini. Has sibligs: Arya Rumkana and Dewi Rarasati (Larasati) -&gt; this one from Ken Sagupi and Arya Prabu Rukma. Kresna (Narayana), rejecting Drona. The other wives of Kresna are Jembawati (daughter of Jembawan and Trijata), Setyaboma (daughter of Ugrasena / Setyajit, king of Lesmanapura). She has three sons: Saranadewa (face of giant), Partadewa and Dewi Sitisari / Titisari.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the companion of Dewi Sri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JakaPupon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahadeva is known to be the most knowledgeable one amongst the Pandavas. Born to Pandu and Madri, he is said to be well versed in astrology and could understand the language of animals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youngest Pandawa, son of Madrim and Pandu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salya is the maternal uncle of Madri's sons, Nakul and Sahadeva. He is said to have accidentally ended up siding the Kauravas as Duryodhana tricks him into thinking that his accommodation at the war camp was being provided by the Pandavas when it was actually Duryodhana. As a result, due to hospitality sentiments in the Indian culture, Salya becomes unwillingly obliged to help the Kauravas. He still expressed his support for the Pandavas by demotivating Karna when he became Karna's charioteer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Mandrapati from Mandraraka and Dewi Tejawati. Gives his sister Madrim to Pandu after loosing contest for Kunti. With Setyawati, father of Burisrawa, Erawati (Baladewa), Surtikanti (Karna), Banowati (Duryudana),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narasoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandrekaswara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burisrawa,Erawati,Sutikanthi, Banowati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samba is the son of Lord Krishna. He marries Lakshmani, the daughter of Duryodhana. Although Duryodhana is against the marriage, when Balarama expresses his anger (Duryodhana speaks ill of the Yadava clan when Balarama comes to speak on behalf of Samba when he is imprisoned by Duryodhana), Duryodhana relents in the end. Samba is also seen as the main cause of destruction of the Yadava race (Krishna's clan). Many years earlier, even before the kurukshetra war, he once decided to test the power of the sages. He dresses up as a pregnant woman and went to the sages and ask whether the unborn child would be male or female. The sages, enraged by this sign of great disrespect, cast a curse saying that "she" will "give birth" to an iron material which will cause destruction the entire yadava race. An iron mace was ripped out of Samba's thigh and he pounded it and threw it into the sea. The iron dust however was tosed back to the shore of Prabasa and was turned into deadly reeds which the yadavas used to fight and kill one another with during a heated argument on whose side should they take after witnessing the Kurukshetra war.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Jembawati and Kresna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saragupita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih of Mandura, during the reign of Basudewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satrugna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shatrughuna is born to Sumitra, third wife of Dasharatha. He is known as the twin of Lakshmana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin brother of Laksmana, son of Dasarata and Sumitra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekipu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih Kala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patih of Pracona.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasipu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285-286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sengkuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sakuni, the maternal uncle of the Kauravas. He is plays an important in helping the Kauravas plot against the Pandavas and finds ways to defeat them, including the game of dice where the Pandavas lose their kingdom to the Kauravas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Younger brother of Gandari. [Gandara is the name of their eldest brother, not the name of a Kingdom]. Another name: Harya Suman. In reality, son of King of  Palasajenar. // some say he is the son of Gendara, some sya he is the the adik ke2 prabu Gendara.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harya Suman, Trigantalpati, Sakuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Boar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setyaboma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satyabhama is known as the second wife and one of the Principle wives of Lord Krishna. She also faces opposition in marrying Krishna from her brother and father. She is seen as the incarnation of the Earth goddess, Bhudevi and is known for her short temper. She is of a strong disposition and even accompanies Lord Krishna during his battle with Narakasura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Prabu Setyajid / Arya Ugrasena and Dewi Wersini. Setyaki is her younger brother. She marries Narayana. With him she has Arya Styaka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setyaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Satyaki, he is a Yadava chieftein who helped the Pandavas in the Kurukshetra war.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Wresniwara. Son of Ugrasena and Dewi Sini  / Wresini (daughter of Sanaprabawa). Marries Dewi Garbarini [ daughter of Garbanata, from Garbaruci] and has a son named Arya Sangasanga.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siti_Sendari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishna is said to have a daughter by the name of Charumati; however she is born to Rukmini and Krishna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Kresna (Wisnu) and Dewi Pratiwi (daughter of Antaboga). // Sundari berarti bulan purnama.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siti_Sundari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratiwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RaraTemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not much is mentioned about Sahadeva's marriage. He is usually known as one of the husbands of Draupadi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given to Sadewa (Raden Sudamala) as wife after curing Durga back into Uma. // or after defeating Kalanjaya and Kalantaka, who are casing Endang Soka and Pradapa. //Anaknya Begawan Tambapetra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyi Pohaci Sanghyang Sri. She emerges out of an egg, which emerged out of the tears of Antaboga. The gods kill her to protect her from Batara Guru's desires.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sugriwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as the monkey king of Kishkinda and the son of the Sun god. He is the brother of Vali (Indra's son) and he helps Rama by lending the support of his Vanara army during Rama's mission to rescue his wife Sita.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Guwarsa. Son of Resi Gotama [from Erraya / Grastina] and Dewi Windradi / Indradi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suparta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Dananjaya.  Mretani Jim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surabramadiraja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King of Kraton Banon Salembag (or Simbarmanyura) who wants to marry Arimbi. // Serambahan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surati_Mantra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SuratiMatra. He is the patih of Gorawangsa.He takes care of Kangsa, the son of Maerah and Gorawangsa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surtikanthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Vrushali, she is the wife of Karna and the daughter of Shalya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surtikanti. Sibling of Erawati who marries Karna, but also loves Arjuna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surya is known as the son of Aditi (Daksha's daughter) and Sage Kashyapa. He forms a part of the navagrahas (the nine planets).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God of the son. Father of Karna, with Kunti. Son of Guru and Dewi Senggani. // Sama dengan Druwasa (perwujudnya sebagai manusia).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tambrapeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He marries Karenumati, Princess of Chedi. Her son's name is Niramitra. Not much is mentioned about Nakula's wife apart from Draupadi. Perhaps one reason could be because Draupadi made It clear that no other wives of the Pandava should share her household in Indraprastha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begawan at Pringalas. Father of Dewi Soka,  who marries Nakula. And Pradapa (Padapa).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tambapetra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tejamantri. Brother of Semar and Guru who accompanies the antagonists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TunggulWulung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//HY he also has his own lakon: tunggul wulung. Malihane Betara GUru. //Tidak punya prajurit, dia mengalahkan kurawa semua, dia usap jadi patung. Akhirnya karna, duryudhana takluk. Si tunggulwulung minta supaya korawa ngluruk Dwarawati. Dwarawati kalah, Kresna mencari bantuan ke Amarta. Sementara Amarta diserang juga. Bima, Gatotkaca, Antareja semua lari ke hutan. Ketemu begawan. Mereka dirubah bima jadi gajah, antasena dadi ular, gatotkaca jadi garuda. Yang merubah ini pendita yang malihane Semar. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In most Indian retellings, Vasudeva is usually mentioned to have two wives Devaki and Rohini. There is no mentioning of him having children out of wedlock.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Basudewa, out of wedlock. The fourth consort of Basudewa is his mother: Ken Sagupi.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ugrasena is known as the father of Kamsa and Devaki and grandson of Krishna and Balarama. He is imprisoned by Kamsa when he seizes his throne.</t>
   </si>
   <si>
@@ -2871,6 +3227,9 @@
     <t xml:space="preserve">Kontawibisana</t>
   </si>
   <si>
+    <t xml:space="preserve">Bantala, Ranu, Maruta, Hagni</t>
+  </si>
+  <si>
     <t xml:space="preserve">Although this character is not mentioned in the Indian Mahabharata, there is a mentioning of one of the Mahabharata characters (either Karna or Arjuna) possesses Nagastra which is a weapon associated with snakes.</t>
   </si>
   <si>
@@ -3105,6 +3464,12 @@
     <t xml:space="preserve">Badawanganala</t>
   </si>
   <si>
+    <t xml:space="preserve">Ambarawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengkungkusuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nama Yogya</t>
   </si>
   <si>
@@ -3361,6 +3726,9 @@
   </si>
   <si>
     <t xml:space="preserve">Makes the owner invulnerable to weapons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gives the owner a strong memory and capacity for analysis</t>
   </si>
 </sst>
 </file>
@@ -3371,7 +3739,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3435,10 +3803,24 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="1"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -3454,17 +3836,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="6.1"/>
       <color rgb="FF333333"/>
       <name val="Ubuntu"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -3479,6 +3862,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -3524,7 +3913,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3569,7 +3958,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3577,16 +3970,20 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3597,11 +3994,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3617,7 +4014,15 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3701,46 +4106,46 @@
   <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K89" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
-      <selection pane="bottomRight" activeCell="G94" activeCellId="0" sqref="G94"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="L115" activeCellId="0" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.3724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="44.6020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="56.9132653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="184.994897959184"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="147.948979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="158.428571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="73.6530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="46.0051020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="33.3724489795918"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="48.3826530612245"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.1479591836735"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="38.5561224489796"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="79.265306122449"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="63.9336734693878"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="56.0510204081633"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="16.4132653061224"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="18.469387755102"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="23.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="240.826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="240.826530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="77.5408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="75.4897959183674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="77.969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.3520408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="256.698979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="205.081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="219.765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="101.622448979592"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="62.8520408163265"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="45.25"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="66.0918367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="56.0510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="41.1479591836735"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="52.484693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="109.290816326531"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="69.4387755102041"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="87.6887755102041"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="76.6734693877551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="29.484693877551"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="21.7091836734694"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="34.4489795918367"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="334.132653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="334.132653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4466,12 +4871,14 @@
       <c r="G13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>32</v>
@@ -4483,10 +4890,10 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
@@ -4494,7 +4901,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
@@ -4507,29 +4914,29 @@
         <v>62</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -4546,10 +4953,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
@@ -4559,23 +4966,23 @@
         <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -4584,10 +4991,10 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U15" s="2" t="n">
         <v>33</v>
@@ -4600,67 +5007,67 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U16" s="2" t="n">
         <v>35</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
@@ -4673,75 +5080,75 @@
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U17" s="2" t="n">
         <v>37</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G18" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>211</v>
       </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -4758,36 +5165,36 @@
     </row>
     <row r="19" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="12" t="s">
         <v>214</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -4808,46 +5215,46 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="13" t="s">
         <v>220</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="13" t="s">
         <v>223</v>
       </c>
+      <c r="L20" s="14" t="s">
+        <v>224</v>
+      </c>
       <c r="M20" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="4"/>
@@ -4873,32 +5280,32 @@
         <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -4912,35 +5319,35 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>130</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -4955,7 +5362,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U22" s="2" t="n">
         <v>133</v>
@@ -4966,10 +5373,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
@@ -4981,49 +5388,49 @@
         <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U23" s="2" t="n">
         <v>48</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>26</v>
@@ -5033,13 +5440,13 @@
         <v>62</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -5052,7 +5459,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>115</v>
@@ -5066,32 +5473,32 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -5099,13 +5506,13 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="U25" s="2" t="n">
         <v>47</v>
@@ -5116,54 +5523,54 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
@@ -5172,65 +5579,65 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>278</v>
+      <c r="F27" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="U27" s="2" t="n">
         <v>50</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
@@ -5242,36 +5649,36 @@
       <c r="E28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="F28" s="14" t="s">
         <v>289</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>290</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U28" s="2" t="n">
         <v>54</v>
@@ -5284,33 +5691,33 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>130</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -5336,33 +5743,33 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>130</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -5386,30 +5793,30 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -5418,7 +5825,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -5432,23 +5839,23 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -5460,7 +5867,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
@@ -5468,29 +5875,29 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -5512,35 +5919,35 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -5560,58 +5967,58 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="U35" s="2" t="n">
         <v>74</v>
@@ -5622,63 +6029,63 @@
     </row>
     <row r="36" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="G36" s="15" t="s">
+      <c r="F36" s="15" t="s">
         <v>335</v>
       </c>
+      <c r="G36" s="16" t="s">
+        <v>336</v>
+      </c>
       <c r="H36" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>45</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U36" s="2" t="n">
         <v>76</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>343</v>
+      <c r="A37" s="17" t="s">
+        <v>344</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
@@ -5691,22 +6098,22 @@
         <v>28</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
@@ -5715,7 +6122,7 @@
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
@@ -5724,7 +6131,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="1" t="s">
@@ -5737,13 +6144,13 @@
         <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>350</v>
+        <v>210</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>351</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -5763,43 +6170,43 @@
         <v>78</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -5816,23 +6223,23 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -5853,30 +6260,30 @@
         <v>69</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -5885,12 +6292,12 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
@@ -5902,27 +6309,27 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -5940,44 +6347,44 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U43" s="2" t="n">
         <v>72</v>
@@ -5988,7 +6395,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="1" t="s">
@@ -6001,23 +6408,23 @@
         <v>28</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -6027,20 +6434,20 @@
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="U44" s="2" t="n">
         <v>84</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="1" t="s">
@@ -6053,10 +6460,10 @@
         <v>28</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -6067,64 +6474,64 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="0"/>
       <c r="Q46" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R46" s="5"/>
       <c r="S46" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T46" s="2" t="n">
         <v>179</v>
@@ -6136,145 +6543,145 @@
         <v>43</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="16" t="s">
-        <v>411</v>
+      <c r="O47" s="18" t="s">
+        <v>412</v>
       </c>
       <c r="P47" s="0"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="U47" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="V47" s="17"/>
+      <c r="V47" s="19"/>
       <c r="W47" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>108</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="U48" s="2" t="n">
         <v>92</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
@@ -6287,23 +6694,23 @@
         <v>28</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="0"/>
@@ -6313,22 +6720,22 @@
       <c r="R49" s="5"/>
       <c r="S49" s="0"/>
       <c r="T49" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="U49" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="V49" s="17"/>
+      <c r="V49" s="19"/>
       <c r="W49" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="X49" s="17" t="s">
         <v>438</v>
+      </c>
+      <c r="X49" s="19" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="1" t="s">
@@ -6341,17 +6748,17 @@
         <v>62</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -6363,25 +6770,25 @@
       <c r="R50" s="5"/>
       <c r="S50" s="0"/>
       <c r="T50" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="U50" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="V50" s="17"/>
+      <c r="V50" s="19"/>
       <c r="W50" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>26</v>
@@ -6391,21 +6798,21 @@
         <v>62</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -6414,10 +6821,10 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="U51" s="2" t="n">
         <v>103</v>
@@ -6426,15 +6833,15 @@
         <v>227</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
@@ -6445,10 +6852,10 @@
         <v>28</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -6462,16 +6869,16 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="0"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
       <c r="V52" s="2" t="n">
         <v>334</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6491,13 +6898,13 @@
         <v>28</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G53" s="12" t="s">
         <v>460</v>
       </c>
+      <c r="G53" s="13" t="s">
+        <v>461</v>
+      </c>
       <c r="H53" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>126</v>
@@ -6506,75 +6913,75 @@
         <v>108</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="U53" s="2" t="n">
         <v>104</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18" t="s">
-        <v>473</v>
+      <c r="A54" s="20" t="s">
+        <v>474</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -6586,22 +6993,22 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="0"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
       <c r="W54" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18" t="s">
-        <v>420</v>
+      <c r="A55" s="20" t="s">
+        <v>421</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>26</v>
@@ -6613,25 +7020,25 @@
         <v>28</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -6640,71 +7047,71 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="0"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
       <c r="W55" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P56" s="0"/>
       <c r="Q56" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R56" s="5"/>
       <c r="S56" s="0"/>
-      <c r="T56" s="17"/>
+      <c r="T56" s="19"/>
       <c r="U56" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="V56" s="17"/>
+      <c r="V56" s="19"/>
       <c r="W56" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="1" t="s">
@@ -6716,78 +7123,80 @@
       <c r="E57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="19" t="s">
-        <v>493</v>
+      <c r="F57" s="21" t="s">
+        <v>494</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="0"/>
       <c r="P57" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="U57" s="2" t="n">
         <v>43</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
+      <c r="K58" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -6796,15 +7205,15 @@
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="0"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
@@ -6817,56 +7226,56 @@
         <v>28</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O59" s="0"/>
       <c r="P59" s="0"/>
       <c r="Q59" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="R59" s="5"/>
       <c r="S59" s="0"/>
       <c r="T59" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="U59" s="2" t="n">
         <v>113</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
@@ -6879,10 +7288,10 @@
         <v>62</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -6896,15 +7305,15 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="0"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="17"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
@@ -6917,21 +7326,21 @@
         <v>28</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K61" s="5"/>
       <c r="L61" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -6946,9 +7355,9 @@
       <c r="U61" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="V61" s="17"/>
+      <c r="V61" s="19"/>
       <c r="W61" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="X61" s="2" t="n">
         <v>756</v>
@@ -6956,21 +7365,21 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -6984,17 +7393,17 @@
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
       <c r="S62" s="0"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
       <c r="W62" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="X62" s="17"/>
+        <v>533</v>
+      </c>
+      <c r="X62" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="1" t="s">
@@ -7007,48 +7416,48 @@
         <v>28</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="O63" s="0"/>
       <c r="P63" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="R63" s="5"/>
       <c r="S63" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="T63" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="U63" s="17"/>
+        <v>543</v>
+      </c>
+      <c r="T63" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="U63" s="19"/>
       <c r="V63" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="X63" s="2" t="n">
         <v>135</v>
@@ -7056,182 +7465,182 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="0"/>
       <c r="P64" s="0"/>
       <c r="Q64" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="R64" s="5"/>
       <c r="S64" s="0"/>
-      <c r="T64" s="17"/>
+      <c r="T64" s="19"/>
       <c r="U64" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="V64" s="17"/>
-      <c r="W64" s="17" t="s">
-        <v>549</v>
+      <c r="V64" s="19"/>
+      <c r="W64" s="19" t="s">
+        <v>551</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="P65" s="0"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="0"/>
-      <c r="T65" s="17" t="s">
-        <v>558</v>
+      <c r="T65" s="19" t="s">
+        <v>560</v>
       </c>
       <c r="U65" s="2" t="n">
         <v>141</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="W65" s="17" t="s">
-        <v>560</v>
+        <v>561</v>
+      </c>
+      <c r="W65" s="19" t="s">
+        <v>562</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="O66" s="0" t="s">
         <v>33</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="T66" s="17" t="s">
-        <v>571</v>
+        <v>572</v>
+      </c>
+      <c r="T66" s="19" t="s">
+        <v>573</v>
       </c>
       <c r="U66" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17" t="s">
-        <v>572</v>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19" t="s">
+        <v>574</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>26</v>
@@ -7243,27 +7652,27 @@
         <v>28</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="O67" s="0" t="s">
         <v>108</v>
@@ -7272,23 +7681,23 @@
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="0"/>
-      <c r="T67" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="U67" s="17"/>
+      <c r="T67" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="U67" s="19"/>
       <c r="V67" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="W67" s="17" t="s">
-        <v>582</v>
+        <v>583</v>
+      </c>
+      <c r="W67" s="19" t="s">
+        <v>584</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="1" t="s">
@@ -7301,64 +7710,64 @@
         <v>62</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="0"/>
-      <c r="T68" s="17" t="n">
+      <c r="T68" s="19" t="n">
         <v>285</v>
       </c>
       <c r="U68" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="V68" s="17"/>
-      <c r="W68" s="17" t="s">
-        <v>589</v>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19" t="s">
+        <v>591</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -7372,109 +7781,109 @@
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="0"/>
-      <c r="T69" s="17"/>
-      <c r="U69" s="17"/>
-      <c r="V69" s="17"/>
-      <c r="W69" s="17"/>
-      <c r="X69" s="17"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="0"/>
       <c r="P70" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="R70" s="5"/>
       <c r="S70" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="T70" s="17" t="s">
-        <v>602</v>
+        <v>603</v>
+      </c>
+      <c r="T70" s="19" t="s">
+        <v>604</v>
       </c>
       <c r="U70" s="2" t="n">
         <v>150</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="W70" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
+      </c>
+      <c r="W70" s="19" t="s">
+        <v>606</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P71" s="0"/>
       <c r="Q71" s="5"/>
@@ -7483,18 +7892,18 @@
       <c r="T71" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17" t="s">
-        <v>610</v>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19" t="s">
+        <v>612</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="X71" s="17"/>
+        <v>613</v>
+      </c>
+      <c r="X71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
@@ -7507,51 +7916,51 @@
         <v>28</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="T72" s="17" t="s">
-        <v>621</v>
+        <v>622</v>
+      </c>
+      <c r="T72" s="19" t="s">
+        <v>623</v>
       </c>
       <c r="U72" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="V72" s="17"/>
+      <c r="V72" s="19"/>
       <c r="W72" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7569,159 +7978,159 @@
         <v>28</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K73" s="5"/>
       <c r="L73" s="5" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="0"/>
       <c r="P73" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="T73" s="17" t="s">
-        <v>631</v>
+        <v>632</v>
+      </c>
+      <c r="T73" s="19" t="s">
+        <v>633</v>
       </c>
       <c r="U73" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="V73" s="17"/>
+      <c r="V73" s="19"/>
       <c r="W73" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="O74" s="0"/>
       <c r="P74" s="0"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="0"/>
-      <c r="T74" s="17" t="n">
+      <c r="T74" s="19" t="n">
         <v>312</v>
       </c>
-      <c r="U74" s="17"/>
+      <c r="U74" s="19"/>
       <c r="V74" s="2" t="n">
         <v>133</v>
       </c>
       <c r="W74" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="X74" s="17"/>
+        <v>642</v>
+      </c>
+      <c r="X74" s="19"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P75" s="0"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
       <c r="S75" s="0"/>
-      <c r="T75" s="17" t="n">
+      <c r="T75" s="19" t="n">
         <v>312</v>
       </c>
-      <c r="U75" s="17"/>
-      <c r="V75" s="17"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
       <c r="W75" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>26</v>
@@ -7733,22 +8142,22 @@
         <v>28</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -7760,27 +8169,27 @@
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
       <c r="S76" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="T76" s="17" t="n">
+        <v>654</v>
+      </c>
+      <c r="T76" s="19" t="n">
         <v>319</v>
       </c>
       <c r="U76" s="2" t="n">
         <v>160</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -7793,22 +8202,22 @@
         <v>28</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -7820,25 +8229,25 @@
         <v>33</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="T77" s="17" t="s">
-        <v>662</v>
+        <v>543</v>
+      </c>
+      <c r="T77" s="19" t="s">
+        <v>664</v>
       </c>
       <c r="U77" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="V77" s="17"/>
+      <c r="V77" s="19"/>
       <c r="W77" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -7851,25 +8260,25 @@
         <v>28</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="0"/>
@@ -7878,25 +8287,25 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
       <c r="S78" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="T78" s="17" t="s">
-        <v>673</v>
+        <v>674</v>
+      </c>
+      <c r="T78" s="19" t="s">
+        <v>675</v>
       </c>
       <c r="U78" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="V78" s="17"/>
+      <c r="V78" s="19"/>
       <c r="W78" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
@@ -7910,20 +8319,20 @@
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="L79" s="20" t="s">
-        <v>680</v>
+        <v>188</v>
+      </c>
+      <c r="L79" s="22" t="s">
+        <v>681</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="0"/>
@@ -7932,55 +8341,55 @@
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
       <c r="S79" s="0"/>
-      <c r="T79" s="17" t="s">
-        <v>681</v>
+      <c r="T79" s="19" t="s">
+        <v>682</v>
       </c>
       <c r="U79" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="V79" s="17"/>
+      <c r="V79" s="19"/>
       <c r="W79" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K80" s="5"/>
       <c r="L80" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N80" s="0"/>
       <c r="O80" s="0"/>
@@ -7988,104 +8397,106 @@
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
       <c r="S80" s="0"/>
-      <c r="T80" s="17" t="n">
+      <c r="T80" s="19" t="n">
         <v>331</v>
       </c>
-      <c r="U80" s="17" t="n">
+      <c r="U80" s="19" t="n">
         <v>112</v>
       </c>
-      <c r="V80" s="17"/>
-      <c r="W80" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="X80" s="17" t="s">
+      <c r="V80" s="19"/>
+      <c r="W80" s="19" t="s">
         <v>692</v>
+      </c>
+      <c r="X80" s="19" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>50</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P81" s="0"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="0"/>
-      <c r="T81" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="U81" s="17" t="s">
+      <c r="T81" s="19" t="s">
         <v>702</v>
       </c>
-      <c r="V81" s="17"/>
-      <c r="W81" s="17" t="s">
+      <c r="U81" s="19" t="s">
         <v>703</v>
       </c>
-      <c r="X81" s="17" t="s">
+      <c r="V81" s="19"/>
+      <c r="W81" s="19" t="s">
         <v>704</v>
       </c>
+      <c r="X81" s="19" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>705</v>
+      <c r="A82" s="6" t="s">
+        <v>706</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="0"/>
       <c r="J82" s="0"/>
-      <c r="K82" s="0"/>
+      <c r="K82" s="0" t="s">
+        <v>708</v>
+      </c>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="0"/>
@@ -8094,11 +8505,11 @@
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="0"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="17"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="17"/>
-      <c r="X82" s="17"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
@@ -8115,70 +8526,70 @@
         <v>62</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="0"/>
       <c r="O83" s="0"/>
       <c r="P83" s="0"/>
       <c r="Q83" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="R83" s="5"/>
       <c r="S83" s="0"/>
-      <c r="T83" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="U83" s="17" t="n">
+      <c r="T83" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="U83" s="19" t="n">
         <v>168</v>
       </c>
-      <c r="V83" s="17" t="n">
+      <c r="V83" s="19" t="n">
         <v>71</v>
       </c>
-      <c r="W83" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="X83" s="17" t="s">
-        <v>715</v>
+      <c r="W83" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="X83" s="19" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -8192,73 +8603,73 @@
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
       <c r="S84" s="0"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="17"/>
-      <c r="V84" s="17"/>
-      <c r="W84" s="17"/>
-      <c r="X84" s="17"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19"/>
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="O85" s="0"/>
       <c r="P85" s="0"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="0"/>
-      <c r="T85" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="U85" s="17" t="n">
+      <c r="T85" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="U85" s="19" t="n">
         <v>169</v>
       </c>
-      <c r="V85" s="17"/>
-      <c r="W85" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="X85" s="17" t="s">
-        <v>727</v>
+      <c r="V85" s="19"/>
+      <c r="W85" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="X85" s="19" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>25</v>
@@ -8273,58 +8684,58 @@
         <v>28</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>141</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="O86" s="0"/>
       <c r="P86" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
       <c r="S86" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="T86" s="17" t="s">
-        <v>737</v>
-      </c>
-      <c r="U86" s="17" t="n">
+        <v>738</v>
+      </c>
+      <c r="T86" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="U86" s="19" t="n">
         <v>170</v>
       </c>
-      <c r="V86" s="17" t="n">
+      <c r="V86" s="19" t="n">
         <v>213</v>
       </c>
-      <c r="W86" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="X86" s="17" t="s">
-        <v>739</v>
+      <c r="W86" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="X86" s="19" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="1" t="s">
@@ -8337,116 +8748,116 @@
         <v>28</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="0"/>
       <c r="O87" s="0"/>
       <c r="P87" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="Q87" s="1" t="s">
         <v>72</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S87" s="0"/>
-      <c r="T87" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="U87" s="17" t="n">
+      <c r="T87" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="U87" s="19" t="n">
         <v>171</v>
       </c>
-      <c r="V87" s="17" t="s">
-        <v>749</v>
-      </c>
-      <c r="W87" s="17" t="s">
-        <v>750</v>
-      </c>
-      <c r="X87" s="17" t="s">
-        <v>342</v>
+      <c r="V87" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="W87" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="X87" s="19" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="21" t="s">
-        <v>751</v>
-      </c>
-      <c r="B88" s="20"/>
+      <c r="A88" s="23" t="s">
+        <v>753</v>
+      </c>
+      <c r="B88" s="22"/>
       <c r="C88" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="22"/>
-      <c r="T88" s="17"/>
+        <v>757</v>
+      </c>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="19"/>
       <c r="U88" s="0"/>
       <c r="V88" s="0"/>
       <c r="W88" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="X88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -8458,15 +8869,16 @@
       <c r="O89" s="0"/>
       <c r="P89" s="0"/>
       <c r="Q89" s="5"/>
-      <c r="T89" s="17"/>
-      <c r="U89" s="17"/>
-      <c r="V89" s="17"/>
-      <c r="W89" s="17"/>
-      <c r="X89" s="17"/>
+      <c r="S89" s="0"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="19"/>
+      <c r="X89" s="19"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -8479,10 +8891,10 @@
         <v>62</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -8494,21 +8906,22 @@
       <c r="O90" s="0"/>
       <c r="P90" s="0"/>
       <c r="Q90" s="5"/>
+      <c r="S90" s="0"/>
       <c r="T90" s="2" t="n">
         <v>370</v>
       </c>
       <c r="U90" s="2" t="n">
         <v>176</v>
       </c>
-      <c r="V90" s="17"/>
+      <c r="V90" s="19"/>
       <c r="W90" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="X90" s="17"/>
+        <v>763</v>
+      </c>
+      <c r="X90" s="19"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>25</v>
@@ -8523,31 +8936,32 @@
         <v>62</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" s="5" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="0"/>
       <c r="O91" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P91" s="0"/>
       <c r="Q91" s="5"/>
-      <c r="T91" s="17" t="s">
-        <v>767</v>
+      <c r="S91" s="0"/>
+      <c r="T91" s="19" t="s">
+        <v>769</v>
       </c>
       <c r="U91" s="2" t="n">
         <v>178</v>
@@ -8556,10 +8970,10 @@
         <v>170</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8573,59 +8987,61 @@
         <v>26</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="1" t="s">
-        <v>423</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="O92" s="0"/>
       <c r="P92" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="Q92" s="5"/>
+      <c r="S92" s="0"/>
       <c r="T92" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="U92" s="2" t="n">
         <v>179</v>
       </c>
       <c r="V92" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>782</v>
+      <c r="A93" s="6" t="s">
+        <v>784</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="1" t="s">
@@ -8638,22 +9054,38 @@
         <v>62</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H93" s="0"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
+      <c r="J93" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>787</v>
+      </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
+      <c r="N93" s="0"/>
+      <c r="O93" s="0"/>
+      <c r="P93" s="0"/>
       <c r="Q93" s="5"/>
-      <c r="T93" s="17"/>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+      <c r="S93" s="0"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="0"/>
+      <c r="V93" s="0"/>
+      <c r="W93" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="X93" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B94" s="5"/>
@@ -8667,28 +9099,56 @@
         <v>28</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
+        <v>789</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>793</v>
+      </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
+      <c r="L94" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="M94" s="5"/>
+      <c r="N94" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="O94" s="0"/>
+      <c r="P94" s="0"/>
       <c r="Q94" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="T94" s="17"/>
+        <v>795</v>
+      </c>
+      <c r="S94" s="0"/>
+      <c r="T94" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="U94" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="V94" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="W94" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="X94" s="0" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>787</v>
+      <c r="A95" s="6" t="s">
+        <v>800</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>26</v>
@@ -8698,37 +9158,67 @@
         <v>62</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>802</v>
+      </c>
       <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
+      <c r="J95" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>804</v>
+      </c>
       <c r="M95" s="5"/>
+      <c r="N95" s="0"/>
+      <c r="O95" s="0"/>
+      <c r="P95" s="0"/>
       <c r="Q95" s="5"/>
-      <c r="T95" s="17"/>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>788</v>
+      <c r="S95" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="T95" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="U95" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="V95" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="W95" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="X95" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="s">
+        <v>809</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -8736,12 +9226,32 @@
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
+      <c r="N96" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P96" s="0"/>
       <c r="Q96" s="5"/>
-      <c r="T96" s="17"/>
+      <c r="S96" s="0"/>
+      <c r="T96" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="U96" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="V96" s="0"/>
+      <c r="W96" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="X96" s="2" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>791</v>
+      <c r="A97" s="6" t="s">
+        <v>816</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -8754,56 +9264,90 @@
         <v>28</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>792</v>
+        <v>817</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
+      <c r="J97" s="5" t="s">
+        <v>819</v>
+      </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
+      <c r="L97" s="5" t="s">
+        <v>820</v>
+      </c>
       <c r="M97" s="5"/>
+      <c r="N97" s="0"/>
+      <c r="P97" s="0"/>
       <c r="Q97" s="5"/>
-      <c r="T97" s="17"/>
+      <c r="S97" s="0"/>
+      <c r="T97" s="19" t="n">
+        <v>406</v>
+      </c>
+      <c r="U97" s="0"/>
+      <c r="V97" s="0"/>
+      <c r="W97" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="X97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>794</v>
+      <c r="A98" s="6" t="s">
+        <v>822</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>795</v>
+        <v>823</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="H98" s="5"/>
-      <c r="I98" s="1" t="s">
-        <v>797</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="I98" s="0"/>
       <c r="J98" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="K98" s="5"/>
+        <v>826</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>827</v>
+      </c>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
+      <c r="N98" s="0"/>
+      <c r="P98" s="0"/>
       <c r="Q98" s="5"/>
-      <c r="T98" s="17"/>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>200</v>
+      <c r="S98" s="0"/>
+      <c r="T98" s="19" t="n">
+        <v>406</v>
+      </c>
+      <c r="U98" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="W98" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="1" t="s">
@@ -8813,26 +9357,49 @@
         <v>99</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="H99" s="5"/>
+        <v>832</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>833</v>
+      </c>
       <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
+      <c r="J99" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>835</v>
+      </c>
       <c r="M99" s="5"/>
+      <c r="N99" s="0"/>
+      <c r="P99" s="0"/>
       <c r="Q99" s="5"/>
-      <c r="T99" s="17"/>
+      <c r="S99" s="0"/>
+      <c r="T99" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="U99" s="0"/>
+      <c r="V99" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="W99" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="X99" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>801</v>
+      <c r="A100" s="6" t="s">
+        <v>840</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -8845,39 +9412,46 @@
         <v>62</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>802</v>
+        <v>841</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
+      <c r="K100" s="0"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
+      <c r="N100" s="0"/>
+      <c r="P100" s="0"/>
       <c r="Q100" s="5"/>
-      <c r="T100" s="17"/>
+      <c r="S100" s="0"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="0"/>
+      <c r="V100" s="0"/>
+      <c r="W100" s="0"/>
+      <c r="X100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>803</v>
+      <c r="A101" s="6" t="s">
+        <v>842</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>804</v>
+        <v>843</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -8885,14 +9459,21 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
+      <c r="N101" s="0"/>
+      <c r="P101" s="0"/>
       <c r="Q101" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="T101" s="17"/>
+        <v>844</v>
+      </c>
+      <c r="S101" s="0"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="0"/>
+      <c r="V101" s="0"/>
+      <c r="W101" s="0"/>
+      <c r="X101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>806</v>
+      <c r="A102" s="6" t="s">
+        <v>845</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>25</v>
@@ -8901,60 +9482,120 @@
         <v>26</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>807</v>
+        <v>846</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
+        <v>847</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>851</v>
+      </c>
       <c r="M102" s="5"/>
+      <c r="N102" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>853</v>
+      </c>
       <c r="Q102" s="5"/>
-      <c r="T102" s="17"/>
+      <c r="S102" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="T102" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="U102" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="V102" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="W102" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="X102" s="2" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>329</v>
+      <c r="A103" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>809</v>
+        <v>858</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>811</v>
+        <v>859</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>860</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
+        <v>861</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>865</v>
+      </c>
       <c r="M103" s="5"/>
+      <c r="N103" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="P103" s="0"/>
       <c r="Q103" s="5"/>
-      <c r="T103" s="17"/>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>813</v>
+      <c r="S103" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="T103" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="U103" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="V103" s="0"/>
+      <c r="W103" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="X103" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="s">
+        <v>871</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="1" t="s">
@@ -8967,23 +9608,46 @@
         <v>28</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
+        <v>872</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
+      <c r="N104" s="0"/>
+      <c r="P104" s="0"/>
       <c r="Q104" s="5"/>
-      <c r="T104" s="17"/>
+      <c r="S104" s="0"/>
+      <c r="T104" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="U104" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="V104" s="0"/>
+      <c r="W104" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="X104" s="2" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>816</v>
+      <c r="A105" s="6" t="s">
+        <v>881</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="1" t="s">
@@ -8996,51 +9660,69 @@
         <v>62</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>817</v>
+        <v>882</v>
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
+      <c r="L105" s="5" t="s">
+        <v>883</v>
+      </c>
       <c r="M105" s="5"/>
+      <c r="N105" s="0"/>
+      <c r="P105" s="0"/>
       <c r="Q105" s="5"/>
-      <c r="T105" s="17"/>
+      <c r="S105" s="0"/>
+      <c r="T105" s="19"/>
+      <c r="U105" s="0"/>
+      <c r="V105" s="0"/>
+      <c r="W105" s="0"/>
+      <c r="X105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>818</v>
+      <c r="A106" s="6" t="s">
+        <v>884</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>819</v>
+        <v>210</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>885</v>
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="K106" s="5" t="s">
+        <v>886</v>
+      </c>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
+      <c r="N106" s="0"/>
+      <c r="P106" s="0"/>
       <c r="Q106" s="5"/>
-      <c r="T106" s="17"/>
+      <c r="S106" s="0"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="0"/>
+      <c r="V106" s="0"/>
+      <c r="W106" s="0"/>
+      <c r="X106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B107" s="5"/>
@@ -9054,65 +9736,93 @@
         <v>28</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>821</v>
+        <v>887</v>
+      </c>
+      <c r="G107" s="26" t="s">
+        <v>888</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>822</v>
+        <v>889</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>823</v>
+        <v>890</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>33</v>
+        <v>891</v>
       </c>
       <c r="M107" s="5"/>
+      <c r="N107" s="0"/>
+      <c r="P107" s="0"/>
       <c r="Q107" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="T107" s="17"/>
+        <v>892</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="T107" s="19" t="n">
+        <v>502</v>
+      </c>
+      <c r="U107" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="V107" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="W107" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="X107" s="2" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="H108" s="5"/>
+        <v>897</v>
+      </c>
+      <c r="H108" s="0"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
+      <c r="K108" s="0" t="s">
+        <v>362</v>
+      </c>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
+      <c r="N108" s="0"/>
+      <c r="P108" s="0"/>
       <c r="Q108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T108" s="17"/>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>187</v>
+      <c r="T108" s="19"/>
+      <c r="U108" s="0"/>
+      <c r="V108" s="0"/>
+      <c r="W108" s="0"/>
+      <c r="X108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
@@ -9126,21 +9836,42 @@
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="H109" s="5"/>
+        <v>898</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>899</v>
+      </c>
       <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="L109" s="5"/>
+      <c r="J109" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="M109" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N109" s="0"/>
+      <c r="P109" s="0"/>
       <c r="Q109" s="5"/>
-      <c r="T109" s="17"/>
+      <c r="T109" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="U109" s="0"/>
+      <c r="V109" s="0"/>
+      <c r="W109" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="X109" s="2" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>827</v>
+      <c r="A110" s="6" t="s">
+        <v>902</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="1" t="s">
@@ -9153,22 +9884,39 @@
         <v>28</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>828</v>
+        <v>903</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>829</v>
+        <v>904</v>
       </c>
       <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
+      <c r="I110" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>906</v>
+      </c>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
+      <c r="N110" s="0"/>
+      <c r="P110" s="0"/>
       <c r="Q110" s="5"/>
-      <c r="T110" s="17"/>
+      <c r="T110" s="19" t="n">
+        <v>435</v>
+      </c>
+      <c r="U110" s="0"/>
+      <c r="V110" s="0"/>
+      <c r="W110" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="X110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>830</v>
+      <c r="A111" s="6" t="s">
+        <v>778</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="1" t="s">
@@ -9181,22 +9929,41 @@
         <v>28</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>831</v>
+        <v>908</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>832</v>
+        <v>909</v>
       </c>
       <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="L111" s="5"/>
+      <c r="I111" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>911</v>
+      </c>
       <c r="M111" s="5"/>
+      <c r="N111" s="0"/>
+      <c r="P111" s="0"/>
       <c r="Q111" s="5"/>
-      <c r="T111" s="17"/>
+      <c r="T111" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="U111" s="0"/>
+      <c r="V111" s="0"/>
+      <c r="W111" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="X111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>833</v>
+      <c r="A112" s="6" t="s">
+        <v>914</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -9208,23 +9975,50 @@
       <c r="E112" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F112" s="5"/>
+      <c r="F112" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="G112" s="1" t="s">
-        <v>834</v>
+        <v>915</v>
       </c>
       <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="L112" s="5"/>
+      <c r="I112" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>919</v>
+      </c>
       <c r="M112" s="5"/>
+      <c r="N112" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="P112" s="0"/>
       <c r="Q112" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="T112" s="17"/>
+        <v>921</v>
+      </c>
+      <c r="T112" s="19" t="n">
+        <v>437</v>
+      </c>
+      <c r="U112" s="0"/>
+      <c r="V112" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="W112" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="X112" s="2" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
-        <v>836</v>
+      <c r="A113" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>25</v>
@@ -9239,60 +10033,94 @@
         <v>28</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>837</v>
+        <v>925</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="L113" s="5"/>
+        <v>926</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>930</v>
+      </c>
       <c r="M113" s="5"/>
+      <c r="N113" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>932</v>
+      </c>
       <c r="Q113" s="5"/>
-      <c r="T113" s="17"/>
+      <c r="T113" s="19"/>
+      <c r="U113" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="W113" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="X113" s="2" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>839</v>
+        <v>935</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>840</v>
+        <v>936</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>841</v>
+        <v>937</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>842</v>
-      </c>
+        <v>938</v>
+      </c>
+      <c r="K114" s="0"/>
       <c r="L114" s="1" t="s">
-        <v>433</v>
+        <v>939</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>843</v>
+        <v>940</v>
+      </c>
+      <c r="N114" s="0"/>
+      <c r="O114" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="P114" s="0" t="s">
+        <v>941</v>
       </c>
       <c r="Q114" s="5"/>
-      <c r="T114" s="17"/>
+      <c r="T114" s="19"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>844</v>
+        <v>942</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -9305,48 +10133,50 @@
         <v>28</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>845</v>
+        <v>943</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>846</v>
+        <v>944</v>
       </c>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
+      <c r="K115" s="0"/>
       <c r="M115" s="5"/>
       <c r="Q115" s="5"/>
-      <c r="T115" s="17"/>
+      <c r="T115" s="19"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>795</v>
+        <v>823</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>848</v>
+        <v>945</v>
       </c>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
+      <c r="K116" s="0"/>
       <c r="M116" s="5"/>
       <c r="Q116" s="5"/>
-      <c r="T116" s="17"/>
+      <c r="T116" s="19"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>849</v>
+        <v>946</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="1" t="s">
@@ -9359,110 +10189,114 @@
         <v>28</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>850</v>
+        <v>947</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>851</v>
+        <v>948</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
+      <c r="K117" s="0"/>
       <c r="M117" s="5"/>
       <c r="Q117" s="5"/>
-      <c r="T117" s="17"/>
+      <c r="T117" s="19"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>852</v>
+        <v>949</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>853</v>
+        <v>950</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>854</v>
+        <v>951</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>855</v>
+        <v>952</v>
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
+      <c r="K118" s="0"/>
       <c r="M118" s="5"/>
       <c r="Q118" s="5"/>
       <c r="T118" s="2" t="s">
-        <v>856</v>
+        <v>953</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>857</v>
+        <v>954</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
+      <c r="K119" s="0"/>
       <c r="M119" s="5"/>
       <c r="Q119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>858</v>
+        <v>955</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>795</v>
+        <v>823</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>859</v>
+        <v>956</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>860</v>
+        <v>957</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>861</v>
+        <v>958</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
+      <c r="K120" s="0"/>
       <c r="M120" s="5"/>
       <c r="Q120" s="1" t="s">
-        <v>862</v>
+        <v>959</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>863</v>
+        <v>960</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -9475,20 +10309,21 @@
         <v>28</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>864</v>
+        <v>961</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>865</v>
+        <v>962</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
+      <c r="K121" s="0"/>
       <c r="M121" s="5"/>
       <c r="Q121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>866</v>
+        <v>963</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>25</v>
@@ -9503,20 +10338,21 @@
         <v>28</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>867</v>
+        <v>964</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>868</v>
+        <v>965</v>
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
+      <c r="K122" s="0"/>
       <c r="M122" s="5"/>
       <c r="Q122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>869</v>
+        <v>966</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>25</v>
@@ -9531,28 +10367,29 @@
         <v>28</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>870</v>
+        <v>967</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>871</v>
+        <v>968</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>872</v>
+        <v>969</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>873</v>
+        <v>970</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>189</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="K123" s="0"/>
       <c r="M123" s="5"/>
       <c r="Q123" s="1" t="s">
-        <v>874</v>
+        <v>971</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>875</v>
+        <v>972</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="1" t="s">
@@ -9565,152 +10402,158 @@
         <v>62</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>876</v>
+        <v>973</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>877</v>
+        <v>974</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
+      <c r="K124" s="0"/>
       <c r="M124" s="5"/>
       <c r="Q124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>878</v>
+        <v>975</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>879</v>
+        <v>976</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
+      <c r="K125" s="0"/>
       <c r="M125" s="5"/>
       <c r="Q125" s="1" t="s">
-        <v>874</v>
+        <v>971</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>880</v>
+        <v>977</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>881</v>
+        <v>978</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>882</v>
+        <v>979</v>
       </c>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
+      <c r="K126" s="0"/>
       <c r="M126" s="5"/>
       <c r="Q126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>883</v>
+        <v>980</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>884</v>
+        <v>981</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>885</v>
+        <v>982</v>
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
+      <c r="K127" s="0"/>
       <c r="M127" s="5"/>
       <c r="Q127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>886</v>
+        <v>983</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>887</v>
+        <v>984</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
+      <c r="K128" s="0"/>
       <c r="M128" s="5"/>
       <c r="Q128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>888</v>
+        <v>985</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>853</v>
+        <v>950</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>889</v>
+        <v>986</v>
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
+      <c r="K129" s="0"/>
       <c r="M129" s="5"/>
       <c r="Q129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>890</v>
+        <v>987</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="1" t="s">
@@ -9723,20 +10566,21 @@
         <v>28</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>891</v>
+        <v>988</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>892</v>
+        <v>989</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
+      <c r="K130" s="0"/>
       <c r="M130" s="5"/>
       <c r="Q130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="1" t="s">
@@ -9749,20 +10593,21 @@
         <v>28</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>893</v>
+        <v>990</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>894</v>
+        <v>991</v>
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
+      <c r="K131" s="0"/>
       <c r="M131" s="5"/>
       <c r="Q131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>895</v>
+        <v>992</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="1" t="s">
@@ -9775,25 +10620,26 @@
         <v>62</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>896</v>
+        <v>993</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>897</v>
+        <v>994</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>898</v>
+        <v>819</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
+      <c r="K132" s="0"/>
       <c r="M132" s="5"/>
       <c r="Q132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>899</v>
+        <v>995</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>88</v>
@@ -9803,72 +10649,75 @@
         <v>62</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>900</v>
+        <v>996</v>
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
+      <c r="K133" s="0"/>
       <c r="M133" s="5"/>
       <c r="Q133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>901</v>
+        <v>997</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>902</v>
+        <v>998</v>
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
+      <c r="K134" s="0"/>
       <c r="M134" s="5"/>
       <c r="Q134" s="5"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>903</v>
+        <v>999</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>795</v>
+        <v>823</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>904</v>
+        <v>1000</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>905</v>
+        <v>1001</v>
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
+      <c r="K135" s="0"/>
       <c r="M135" s="5"/>
       <c r="Q135" s="5"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>798</v>
+        <v>1002</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="1" t="s">
@@ -9881,22 +10730,23 @@
         <v>28</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>906</v>
+        <v>1003</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>907</v>
+        <v>1004</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>908</v>
+        <v>1005</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
+      <c r="K136" s="0"/>
       <c r="M136" s="5"/>
       <c r="Q136" s="5"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>909</v>
+        <v>1006</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="1" t="s">
@@ -9909,14 +10759,15 @@
         <v>62</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>910</v>
+        <v>1007</v>
       </c>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
+      <c r="K137" s="0"/>
       <c r="M137" s="5"/>
       <c r="Q137" s="5"/>
     </row>
@@ -9937,24 +10788,25 @@
         <v>28</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>911</v>
+        <v>1008</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>912</v>
+        <v>1009</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>913</v>
+        <v>1010</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
+      <c r="K138" s="0"/>
       <c r="M138" s="5"/>
       <c r="Q138" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="1" t="s">
@@ -9967,16 +10819,19 @@
         <v>62</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>914</v>
+        <v>1011</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>915</v>
+        <v>1012</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>916</v>
+        <v>1013</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
+      <c r="K139" s="1" t="s">
+        <v>1014</v>
+      </c>
       <c r="M139" s="5"/>
       <c r="Q139" s="5"/>
     </row>
@@ -9986,7 +10841,7 @@
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>46</v>
@@ -9995,10 +10850,10 @@
         <v>62</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>917</v>
+        <v>1015</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>918</v>
+        <v>1016</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
@@ -10009,7 +10864,7 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>25</v>
@@ -10018,19 +10873,19 @@
         <v>26</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>919</v>
+        <v>1017</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>914</v>
+        <v>1011</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>920</v>
+        <v>1018</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>921</v>
+        <v>1019</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>33</v>
@@ -10039,7 +10894,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>922</v>
+        <v>1020</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>88</v>
@@ -10051,18 +10906,18 @@
         <v>28</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>923</v>
+        <v>1021</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>924</v>
+        <v>1022</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>925</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>926</v>
+        <v>1024</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>88</v>
@@ -10074,37 +10929,37 @@
         <v>62</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>914</v>
+        <v>1011</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>927</v>
+        <v>1025</v>
       </c>
       <c r="Q143" s="5"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>928</v>
+        <v>1026</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>914</v>
+        <v>1011</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>929</v>
+        <v>1027</v>
       </c>
       <c r="Q144" s="5"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>930</v>
+        <v>1028</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>88</v>
@@ -10116,18 +10971,18 @@
         <v>28</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>931</v>
+        <v>1029</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>932</v>
+        <v>1030</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>933</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>934</v>
+        <v>1032</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>26</v>
@@ -10139,47 +10994,47 @@
         <v>28</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>935</v>
+        <v>1033</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>936</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>937</v>
+        <v>1035</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>938</v>
+        <v>1036</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>939</v>
+        <v>1037</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>940</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>941</v>
+        <v>1039</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>942</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
@@ -10205,42 +11060,42 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="122.790816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="97.0867346938775"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="81.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="3" width="33.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="48.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="55.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="60.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="3" width="45.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>943</v>
+        <v>1041</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>944</v>
+        <v>1042</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>945</v>
+        <v>1043</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>946</v>
+        <v>1044</v>
       </c>
       <c r="F1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>862</v>
+        <v>959</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>858</v>
+        <v>955</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -10250,10 +11105,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>933</v>
+        <v>1031</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>930</v>
+        <v>1028</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -10263,7 +11118,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>947</v>
+        <v>1045</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>51</v>
@@ -10276,7 +11131,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>948</v>
+        <v>1046</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>51</v>
@@ -10289,10 +11144,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>949</v>
+        <v>1047</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -10302,7 +11157,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>77</v>
@@ -10315,10 +11170,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>925</v>
+        <v>1023</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>922</v>
+        <v>1020</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -10328,17 +11183,17 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>950</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10353,12 +11208,12 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="H10" s="3" t="s">
-        <v>951</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>952</v>
+        <v>1050</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>147</v>
@@ -10370,10 +11225,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -10382,10 +11237,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>953</v>
+        <v>1051</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -10394,7 +11249,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>954</v>
+        <v>1052</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>104</v>
@@ -10405,10 +11260,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>955</v>
+        <v>1053</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>956</v>
+        <v>1054</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -10416,23 +11271,23 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>957</v>
+        <v>1055</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>958</v>
+        <v>1056</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>959</v>
+        <v>1057</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>960</v>
+        <v>1058</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -10440,10 +11295,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>961</v>
+        <v>1059</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -10451,36 +11306,36 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>962</v>
+        <v>1060</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3" t="s">
-        <v>963</v>
+        <v>1061</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
-        <v>964</v>
+        <v>1062</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>835</v>
+        <v>921</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>833</v>
+        <v>914</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -10488,46 +11343,46 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="3" t="s">
-        <v>965</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="3" t="s">
-        <v>965</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>966</v>
+        <v>1064</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>967</v>
+        <v>1065</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
-        <v>968</v>
+      <c r="A25" s="27" t="s">
+        <v>1066</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>33</v>
@@ -10538,10 +11393,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>969</v>
+        <v>1067</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -10549,23 +11404,23 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>970</v>
+        <v>1068</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>971</v>
+        <v>1069</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -10573,23 +11428,23 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>972</v>
+        <v>1070</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>874</v>
+        <v>971</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>973</v>
+        <v>1071</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -10599,46 +11454,46 @@
         <v>72</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>805</v>
+        <v>844</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>803</v>
+        <v>842</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>824</v>
+        <v>892</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>974</v>
+        <v>1072</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>975</v>
+        <v>1073</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>976</v>
+        <v>1074</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>33</v>
@@ -10660,20 +11515,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="19.4387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>977</v>
+        <v>1075</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -10687,61 +11542,61 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>978</v>
+        <v>1076</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>979</v>
+        <v>1077</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>980</v>
+        <v>1078</v>
       </c>
       <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>981</v>
+        <v>1079</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="5" t="s">
-        <v>982</v>
+        <v>1080</v>
       </c>
       <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>983</v>
+        <v>1081</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>984</v>
+        <v>1082</v>
       </c>
       <c r="D4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>985</v>
+        <v>1083</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>986</v>
+        <v>1084</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>987</v>
+        <v>1085</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>988</v>
+        <v>1086</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>87</v>
@@ -10750,52 +11605,60 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>989</v>
+        <v>1087</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>863</v>
+        <v>960</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>798</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>990</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>991</v>
+        <v>1089</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>992</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>993</v>
+        <v>1091</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>994</v>
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -10822,16 +11685,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="29.484693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="5" t="s">
-        <v>995</v>
+        <v>1095</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>996</v>
+        <v>1096</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
@@ -10844,13 +11707,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>997</v>
+        <v>1097</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>997</v>
+        <v>1097</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>998</v>
+        <v>1098</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -10860,7 +11723,7 @@
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="W2" s="5" t="s">
-        <v>997</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10889,7 +11752,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>999</v>
+        <v>1099</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
@@ -10903,7 +11766,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -10917,7 +11780,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1001</v>
+        <v>1101</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -10931,7 +11794,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1002</v>
+        <v>1102</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -10940,18 +11803,18 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="J8" s="5" t="s">
-        <v>1003</v>
+        <v>1103</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1005</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1006</v>
+        <v>1106</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -10960,21 +11823,21 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="J9" s="5" t="s">
-        <v>1007</v>
+        <v>1107</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1008</v>
+        <v>1108</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1009</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1011</v>
+        <v>1111</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -10982,18 +11845,18 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="J10" s="5" t="s">
-        <v>1012</v>
+        <v>1112</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1013</v>
+        <v>1113</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1014</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>1015</v>
+        <v>1115</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -11002,18 +11865,18 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="J11" s="5" t="s">
-        <v>1016</v>
+        <v>1116</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1017</v>
+        <v>1117</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1018</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1019</v>
+        <v>1119</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -11022,21 +11885,21 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="J12" s="0" t="s">
-        <v>1020</v>
+        <v>1120</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1021</v>
+        <v>1121</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1022</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1023</v>
+        <v>1123</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1024</v>
+        <v>1124</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -11044,21 +11907,21 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="J13" s="0" t="s">
-        <v>1025</v>
+        <v>1125</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1026</v>
+        <v>1126</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1027</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1028</v>
+        <v>1128</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1029</v>
+        <v>1129</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -11067,10 +11930,10 @@
       <c r="G14" s="0"/>
       <c r="J14" s="0"/>
       <c r="L14" s="5" t="s">
-        <v>1030</v>
+        <v>1130</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1031</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11087,7 +11950,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>1032</v>
+        <v>1132</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -11096,13 +11959,13 @@
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="J16" s="5" t="s">
-        <v>1033</v>
+        <v>1133</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1034</v>
+        <v>1134</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1035</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11114,18 +11977,18 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="J17" s="5" t="s">
-        <v>1036</v>
+        <v>1136</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1037</v>
+        <v>1137</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1038</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>1039</v>
+        <v>1139</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -11134,15 +11997,15 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="J18" s="5" t="s">
-        <v>1040</v>
+        <v>1140</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1041</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>1042</v>
+        <v>1142</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -11151,7 +12014,7 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="J19" s="5" t="s">
-        <v>1043</v>
+        <v>1143</v>
       </c>
       <c r="L19" s="0"/>
     </row>
@@ -11167,7 +12030,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>1044</v>
+        <v>1144</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -11189,7 +12052,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>1045</v>
+        <v>1145</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -11201,10 +12064,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>1046</v>
+        <v>1146</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1047</v>
+        <v>1147</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -11212,7 +12075,7 @@
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="L24" s="5" t="s">
-        <v>1048</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11224,15 +12087,15 @@
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="L25" s="5" t="s">
-        <v>1049</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1051</v>
+        <v>1151</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -11240,7 +12103,7 @@
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="L26" s="5" t="s">
-        <v>1052</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11252,12 +12115,12 @@
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="L27" s="5" t="s">
-        <v>1053</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>1054</v>
+        <v>1154</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -11266,7 +12129,7 @@
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="L28" s="5" t="s">
-        <v>1055</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11288,7 +12151,7 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="L30" s="5" t="s">
-        <v>1056</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11300,7 +12163,7 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="L31" s="5" t="s">
-        <v>1057</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11312,7 +12175,7 @@
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="L32" s="5" t="s">
-        <v>1058</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11324,7 +12187,7 @@
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="L33" s="5" t="s">
-        <v>1059</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11336,38 +12199,38 @@
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="L34" s="5" t="s">
-        <v>1060</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>999</v>
+        <v>1099</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1001</v>
+        <v>1101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1015</v>
+        <v>1115</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1061</v>
+        <v>1161</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1062</v>
+        <v>1162</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1063</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L36" s="5" t="s">
-        <v>1064</v>
+        <v>1164</v>
       </c>
     </row>
   </sheetData>
@@ -11394,7 +12257,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11402,15 +12265,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1065</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1066</v>
+        <v>1166</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1067</v>
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -11429,15 +12292,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11445,75 +12308,83 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1068</v>
+        <v>1168</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1069</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1070</v>
+        <v>1170</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1071</v>
+        <v>1171</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1072</v>
+        <v>1172</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1073</v>
+        <v>1173</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1074</v>
+        <v>1174</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1075</v>
+        <v>1175</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1076</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1077</v>
+        <v>1177</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1078</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1079</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1080</v>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1181</v>
       </c>
     </row>
   </sheetData>

--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1299">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -762,7 +762,7 @@
     <t xml:space="preserve">Kuntiboja</t>
   </si>
   <si>
-    <t xml:space="preserve">Kunti, Bismaka, Ugrasena</t>
+    <t xml:space="preserve">Kunti, Bismaka, Setyajid</t>
   </si>
   <si>
     <t xml:space="preserve">Mahindra: Kresna, Baladewa; Maerah:x; Badrahini: Rara_Ireng; Ken_Sagupi:Udawa</t>
@@ -953,7 +953,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Also known as Asura Naraka.  Son of [Kresna] (Wisnu) and [Pertiwi]. Known as Sitija in his youth. After fighting the demon [Bomantara], he changed his name and absorbed some of the qualities of his erstwhile enemy. He was killed by [Kresna]. [Basudewa] died when Bomanarakasura invaded Mandura.</t>
+    <t xml:space="preserve">Also known as Asura Naraka.  Son of (Wisnu) and [Pertiwi]. Known as Sitija in his youth, he reincarnated in the world of the mortals with his siter [Siti_Sendari]. After fighting the demon [Bomantara], he changed his name and absorbed some of the qualities of his erstwhile enemy. He was killed by [Kresna]. [Basudewa] died when Bomanarakasura invaded Mandura.</t>
   </si>
   <si>
     <t xml:space="preserve">Asura Naraka, Sitija, Suteja, Seteja</t>
@@ -1003,8 +1003,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">
-God of fire and teacher of [Baladewa]. He descended to the world of the mortals [/ngejawantah/] and reigned the kingdom of Gilingwesi after Watugunung passed away.</t>
+    <t xml:space="preserve">God of fire and teacher of [Baladewa]. He descended to the world of the mortals [/ngejawantah/] and reigned the kingdom of Gilingwesi after Watugunung passed away.</t>
   </si>
   <si>
     <t xml:space="preserve">Saci: Maricibrama, Naradabrama; Sarasyati: Bramanasa, Bramasadewa, Bramanasadara, Bramarakanda, Bramanaresi; Raraswati: Bramani, Bramanisri, Bramaniskala, Bramanayara, Bramanasita, Bramaniyari, Bramaniyodi, Bramanayana, Bramaniyata, Bramanasatama, Bramanayekti, Bramaniyuta, Dresanala, Dresawati</t>
@@ -1600,7 +1599,7 @@
     <t xml:space="preserve">Older brother of Gendari in some versions (such as in Purwadi's /Kempalan Balungan Lakon Wayang Purwa/). In the Indian Mahabharata, Gendari only has one brother, [Sengkuni].</t>
   </si>
   <si>
-    <t xml:space="preserve">Anggendara</t>
+    <t xml:space="preserve">Anggendara, Harya_Gendarya</t>
   </si>
   <si>
     <t xml:space="preserve">Gandini</t>
@@ -2114,6 +2113,9 @@
     <t xml:space="preserve">Surasena</t>
   </si>
   <si>
+    <t xml:space="preserve">Bismaka, Setyajid, Basudewa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Surya: Karna; Darma: Puntadewa; Bayu: Werkudara; Indra: Arjuna</t>
   </si>
   <si>
@@ -3204,31 +3206,127 @@
     <t xml:space="preserve">Kyai</t>
   </si>
   <si>
+    <t xml:space="preserve">In a common story, Semar is another name for Sang Hyang Ismaya. He was born out of an egg created by [Sang_Hyang_Tunggal). The eggshell became Sang Hyang Antaga ([Togog]), the egg white became Semar and the yolk became Sang Hyang Manikmaya (Batara [Guru]). But there are multiple other versions, including some where Semar is the grandson of Ismaya, or an incarnation of the god, rather than Ismaya himself. He is the adviser and servant of the heroes, and the first person he ever accompanied was [Manumayasa], son of [Parikenan]. [Manumayasa] married [Kaniraras] and Semar married [Kanastren]. As a god, Semar/Ismaya had 10 children: [Bongkokan], [Siwah], [Kuwera], [Candra], [Mahyati], [Yamadipati], [Surya], [Kamajaya], [Temboro], and [Darmastuti]. As Semar, he had [Bagong], who has originally made from Semar's shadow. Later, he acknowledged [Petruk] and [Gareng] as his sons. Throughout the many stories where he appears, Semar is the voice of the common folk, a corrector of gods and adviser to noble characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sang_Hyang_Ismaya, Smarasanta, Janabadra, Badranaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rekatawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togog, Guru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanastren:x, x:Bagong, Petruk, Gareng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surakarta: Mega, Dumuk, Brebes, Gunuk, Miling; Yogyakarta: Miling, Dukun, Dunuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">469-470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224-226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-125 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1026-1030</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lintang, Dhunuk</t>
   </si>
   <si>
     <t xml:space="preserve">Sengkuni</t>
   </si>
   <si>
-    <t xml:space="preserve">Sakuni, the maternal uncle of the Kauravas. He is plays an important in helping the Kauravas plot against the Pandavas and finds ways to defeat them, including the game of dice where the Pandavas lose their kingdom to the Kauravas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Younger brother of Gandari. [Gandara is the name of their eldest brother, not the name of a Kingdom]. Another name: Harya Suman. In reality, son of King of  Palasajenar. // some say he is the son of Gendara, some sya he is the the adik ke2 prabu Gendara.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harya Suman, Trigantalpati, Sakuni</t>
+    <t xml:space="preserve">Sakuni is the maternal uncle of the Kauravas. He is plays an important in helping the Kauravas plot against the Pandavas and finds ways to defeat them, including the game of dice where the Pandavas lose their kingdom to the Kauravas. In the Sanskrit version, he is the same as [Gendara]. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">He is the /patih/ of Astina. Sometimes he is said to be [Gendari]'s twin. After [Pandu] won [Kunti]'s hand was offered in marriage, the sons of [Suwala] tried to challenge [Pandu] to a duel. Eventually [Pandu] won, killing [Gendara] and taking [Gendari] as well. Sengkuni followed them to Astina. Sengkuni was angered when [Gendari] was not married to [Pandu] - then a king - but to the blind [Drestarastra]. Sengkuni is often characterized as an able politician, but one who constantly harbored ill wishes for the Pandawa and who pursued his goals in dishonest ways. He is an incarnation of Batara [Dwapara] a god that was banished from the heavens for spreading rumors on Batara [Bayu]. This explains Sengkuni's evil character but also [Werkudara]'s special hatred of him ([Werkudara] being an incarnation of Batara [Bayu]). When Sengkuni first came to Astina, the /patih/ was [Gandamana]. In an expedition, [Gandamana] was trapped in a hole. Instead of helping him, Sengkuni rushed the army back to Astina and said that [Gandamana] had died in an accident. But later the injured [Gandamana] reappeared and hit Sengkuni so badly that he was left badly disfigured. [Ganamana] also placed a curse on Sengkuni. Eventually, Sengkuni became a teacher for the Korawa, imparting them his brand of evil and Machiavellian philosophy. He often plotted to kill the Pandawa but his plans always failed. But his greatest feat against the Pandawa was defeating [Puntadewa] in a game of dice - by this means [Puntadewa] lost Amarta and was banished for 12 years, together with his brothers. In the Baratadyuda war, Sengkuni led the Gandaradesa army to help the Korawa. He was killed Werkudara on the 17</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> day of the war. Sengkuni was indestructible except for his mouth and anus. Werkudara killed and skinned him. [Werkudara] gave the portion of Sengkuni's skin trapped in his nail to [Kunti], who then wore it as a garment, fulfilling an old grudge against Sengkuni.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Harya Suman, Gandaraputra, Suwalaputra, Trigantalpati, Sakuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gandara, Gendari, Sarabasanta, Harya_Gajaksa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sukesti: Kertiwindu, Surakesti, Antisura, Antipati, Surabasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaman_Mustika_Murda</t>
   </si>
   <si>
     <t xml:space="preserve">_Boar</t>
   </si>
   <si>
+    <t xml:space="preserve">Tanggap, Bareh, Clingus, Tanggap, Climut, Mlenyok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445-447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262-263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146-157 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1034-1037</t>
+  </si>
+  <si>
     <t xml:space="preserve">Setyaboma</t>
   </si>
   <si>
-    <t xml:space="preserve">Satyabhama is known as the second wife and one of the Principle wives of Lord Krishna. She also faces opposition in marrying Krishna from her brother and father. She is seen as the incarnation of the Earth goddess, Bhudevi and is known for her short temper. She is of a strong disposition and even accompanies Lord Krishna during his battle with Narakasura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Prabu Setyajid / Arya Ugrasena and Dewi Wersini. Setyaki is her younger brother. She marries Narayana. With him she has Arya Styaka.</t>
+    <t xml:space="preserve">Satyabhama is known as the second wife and one of the main wives of Lord Krishna. She faced opposition in marrying Krishna from her brother and father. She is seen as the incarnation of the Earth goddess, Bhudevi and is known for her short temper. She was of a strong disposition and even accompanied Lord Krishna during his battle with Narakasura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She married [Kresna] in his youth, when he was still known as Narayana. Durna wanted to marry her, but he failed to win her in a contest (his deputy in the fight [Dursasana] lost to [Kresna]). Setyaboma was then kidnapped by [Kalawresni] from Dwarawati. Together with [Arjuna], [Kresna] recovered [Setyaboma], killing king [Yuda_Kala_Kresna]. In the Sanskrit version and some Javanese versions, she falls in love with [Arjuna] and [Kresna] gives her to him. After [Kresna] died, she commited ritual suicide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wersini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugrasena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyaki, Adimanggala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kresna: Setyaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176-177 (Vol. VIII)</t>
   </si>
   <si>
     <t xml:space="preserve">Setyaki</t>
@@ -3237,7 +3335,34 @@
     <t xml:space="preserve">Known as Satyaki, he is a Yadava chieftein who helped the Pandavas in the Kurukshetra war.</t>
   </si>
   <si>
-    <t xml:space="preserve">Also known as Wresniwara. Son of Ugrasena and Dewi Sini  / Wresini (daughter of Sanaprabawa). Marries Dewi Garbarini [ daughter of Garbanata, from Garbaruci] and has a son named Arya Sangasanga.</t>
+    <t xml:space="preserve">He served as /senapati/ in Dwarawati. When his mother [Wresini] was seven-month pregnant, she wanted to ride a tiger. [Setyajid]'s enemy, [Singamulangjaya] took advantage of this longing by transforming himself into a tiger. After [Wresini] climbed on his back, he ran off. Setyaki was thus born on the back of tiger. [Singamulangjaya] tried to attack the baby, but the baby became stronger each time [Singamulangjaya] bit him. Eventually, Setyaki defeated him, taking the name Singamulangjaya for himself. His son with Endang [Trirasa], named [Arya_sanga-sanga] would eventually become king of Lesanpura and serve as /senopati/ of Yawastina during the reign of [Parikesit]. He was the charioteer of [Kresna], when he attempted to negotiate a diplomatic solution to Korawa/Pandawa conflict before the Baratayuda war. In the /Panjangmas/ story, he looses his amulet, the Gada_Wesikuning (called Lukitasari in the Yogyakarta tradition). This amulet, a mace, becomes a sage named Panjangmas. Setyaki's sworn enemies were [Burisrawa] and [Kartamarma]. He succeeded in killing them both: [Burisrawa] with the help of Arjuna during the Baratayuda war, and [Kartamarma] after the war was over. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singamulangjaya, Wresniwira, Bima_Kunthing, Satyaki, Sencaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setyaboma, Adimanggala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trirasa: Arya_sanga-sanga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gada_Wesikuning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalngandang, Wisuna, Mimis, Kakek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">474-478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131-132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179-183 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1052-1053</t>
   </si>
   <si>
     <t xml:space="preserve">Mimis</t>
@@ -3249,7 +3374,7 @@
     <t xml:space="preserve">Krishna is said to have a daughter by the name of Charumati; however she is born to Rukmini and Krishna.</t>
   </si>
   <si>
-    <t xml:space="preserve">Daughter of Kresna (Wisnu) and Dewi Pratiwi (daughter of Antaboga). // Sundari berarti bulan purnama.</t>
+    <t xml:space="preserve">Daughter of [Wisnu] and Dewi Pratiwi. After [Wisnu] reincarnated as [Kresna], Siti Sendari followed him to the world of the mortals and was aknowledged as [Kresna]'s daughter (as was her brother Sitija who incarnated as [Bomanarakasura]. Also known as "Sundari", which means full moon. She was originally meant to marry [Lesmana_Mandrakumara], but married [Abimanyu] instead. In some versions, the wedding is said to have been carried out without the blessing of [Abimanyu]'s father [Arjuna]. In the story /Murcalelana/, the giant [Paranggubarja] fell in love with her. [Abimanyu] eventuallly married another woman ([Utari]) and tried to keep this from Siti Sendari. After [Abimanyu] was killed in the Baratayuda war, she commited ritual suicide.</t>
   </si>
   <si>
     <t xml:space="preserve">Siti_Sundari</t>
@@ -3261,9 +3386,24 @@
     <t xml:space="preserve">Samba, Gunadewa, Partadewa,Titisari,Saranadewa, Setyaka, Bomanarakasura,Saketi</t>
   </si>
   <si>
+    <t xml:space="preserve">Abimanyu:x</t>
+  </si>
+  <si>
     <t xml:space="preserve">RaraTemon</t>
   </si>
   <si>
+    <t xml:space="preserve">487-488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207-208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213-214 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1056-1057</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soka</t>
   </si>
   <si>
@@ -3360,16 +3500,40 @@
     <t xml:space="preserve">Son of Basudewa, out of wedlock. The fourth consort of Basudewa is his mother: Ken Sagupi.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ugrasena</t>
+    <t xml:space="preserve">Setyajid</t>
   </si>
   <si>
     <t xml:space="preserve">Ugrasena is known as the father of Kamsa and Devaki and grandson of Krishna and Balarama. He is imprisoned by Kamsa when he seizes his throne.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ugrasena is the brother of Kunti, Basudewa and Ugrasena. // known as Setyajid after becoming King.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setyajit</t>
+    <t xml:space="preserve">Known as Ugrasena in his youth, known as Setyajid after becoming King. Once, [Kala_Ruci], a giant, was wreaking havoc in the heavens because he wanted to marry the heavenly nymph [Wresini]. With the help of [Pandu], Ugrasena defeated the giant. As a reward, he was given [Wresini]'s hand in marriage. Some versions says he also fathered [Pragota] with [Ken_Sagopi]. But the most common version is that [Pragota] is the son of [Saragupita].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunti, Bismaka, Basudewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wresini: Setyaboma, Setyaki; Ken_Sagopi: Adimanggala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesanpura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisuna (Seyajid), Jangkung (Ugrasena)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">473-474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225;255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129-130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1048-1049</t>
   </si>
   <si>
     <t xml:space="preserve">Wenang</t>
@@ -3910,6 +4074,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gives the owner a strong memory and capacity for analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create rain of stones and summon wild creatures against and enemy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magical mace</t>
   </si>
   <si>
     <t xml:space="preserve">anoman</t>
@@ -3950,7 +4120,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4072,6 +4242,13 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -4229,7 +4406,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4313,44 +4490,44 @@
   <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A114" activeCellId="0" sqref="A114"/>
-      <selection pane="bottomRight" activeCell="A118" activeCellId="0" sqref="A118"/>
+      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
+      <selection pane="bottomRight" activeCell="D123" activeCellId="0" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.0102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="294.821428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="235.423469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="41.2551020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="66.1989795918367"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.3214285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6836734693878"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="26.1326530612245"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="39.6326530612245"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="16.8469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="11.6632653061225"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="15.3367346938776"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="20.1938775510204"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="16.6326530612245"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.6479591836735"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="39.2040816326531"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="37.3673469387755"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="35.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.5765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.5663265306122"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="47.734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="76.7857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.4285714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.0867346938776"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="27.2142857142857"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.3826530612245"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="30.1326530612245"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="45.8979591836735"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="19.0051020408163"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="23.1122448979592"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="36.8265306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="45.25"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="43.0918367346939"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="41.1479591836735"/>
     <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="5.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="5.83163265306122"/>
   </cols>
@@ -5920,7 +6097,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="120.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>298</v>
       </c>
@@ -7323,7 +7500,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>490</v>
       </c>
       <c r="B54" s="5"/>
@@ -7378,7 +7555,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="6" t="s">
         <v>434</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -8416,33 +8593,35 @@
       <c r="J73" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="K73" s="5"/>
+      <c r="K73" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="L73" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="T73" s="19" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="U73" s="2" t="n">
         <v>154</v>
       </c>
       <c r="V73" s="19"/>
       <c r="W73" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Y73" s="1" t="s">
         <v>62</v>
@@ -8463,25 +8642,25 @@
         <v>29</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
@@ -8496,7 +8675,7 @@
         <v>133</v>
       </c>
       <c r="W74" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X74" s="19"/>
       <c r="Y74" s="1" t="s">
@@ -8521,22 +8700,22 @@
         <v>218</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>608</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>189</v>
@@ -8551,10 +8730,10 @@
       <c r="U75" s="19"/>
       <c r="V75" s="19"/>
       <c r="W75" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Y75" s="5" t="s">
         <v>62</v>
@@ -8562,7 +8741,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>251</v>
@@ -8577,13 +8756,13 @@
         <v>29</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>204</v>
@@ -8592,7 +8771,7 @@
         <v>430</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -8604,7 +8783,7 @@
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
       <c r="S76" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="T76" s="19" t="n">
         <v>319</v>
@@ -8613,21 +8792,21 @@
         <v>160</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Y76" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -8640,22 +8819,22 @@
         <v>29</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>225</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -8670,17 +8849,17 @@
         <v>563</v>
       </c>
       <c r="T77" s="19" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="U77" s="2" t="n">
         <v>158</v>
       </c>
       <c r="V77" s="19"/>
       <c r="W77" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Y77" s="1" t="s">
         <v>62</v>
@@ -8688,7 +8867,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -8701,25 +8880,25 @@
         <v>29</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>176</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -8728,23 +8907,23 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
       <c r="S78" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="T78" s="19" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="U78" s="2" t="n">
         <v>161</v>
       </c>
       <c r="V78" s="19"/>
       <c r="W78" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Y78" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8763,20 +8942,20 @@
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K79" s="5" t="s">
         <v>194</v>
       </c>
       <c r="L79" s="21" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -8786,17 +8965,17 @@
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
       <c r="T79" s="19" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="U79" s="2" t="n">
         <v>162</v>
       </c>
       <c r="V79" s="19"/>
       <c r="W79" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Y79" s="5" t="s">
         <v>62</v>
@@ -8804,7 +8983,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="1" t="s">
@@ -8820,23 +8999,23 @@
         <v>218</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K80" s="5"/>
       <c r="L80" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
@@ -8852,10 +9031,10 @@
       </c>
       <c r="V80" s="19"/>
       <c r="W80" s="19" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="X80" s="19" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Y80" s="1" t="s">
         <v>62</v>
@@ -8863,7 +9042,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="1" t="s">
@@ -8876,29 +9055,29 @@
         <v>29</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O81" s="5" t="s">
         <v>416</v>
@@ -8908,17 +9087,17 @@
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
       <c r="T81" s="19" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="U81" s="19" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="V81" s="19"/>
       <c r="W81" s="19" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="X81" s="19" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Y81" s="1" t="s">
         <v>62</v>
@@ -8926,7 +9105,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
@@ -8942,13 +9121,13 @@
         <v>218</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
@@ -8985,34 +9164,34 @@
         <v>218</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="19" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="U83" s="19" t="n">
         <v>168</v>
@@ -9021,10 +9200,10 @@
         <v>71</v>
       </c>
       <c r="W83" s="19" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="X83" s="19" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Y83" s="5" t="s">
         <v>62</v>
@@ -9032,7 +9211,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
@@ -9048,7 +9227,7 @@
         <v>218</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -9073,14 +9252,14 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>65</v>
@@ -9089,26 +9268,26 @@
         <v>218</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
@@ -9116,17 +9295,17 @@
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
       <c r="T85" s="19" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="U85" s="19" t="n">
         <v>169</v>
       </c>
       <c r="V85" s="19"/>
       <c r="W85" s="19" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="X85" s="19" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Y85" s="1" t="s">
         <v>62</v>
@@ -9134,7 +9313,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>26</v>
@@ -9149,41 +9328,41 @@
         <v>29</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>145</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="O86" s="5"/>
       <c r="P86" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="T86" s="19" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="U86" s="19" t="n">
         <v>170</v>
@@ -9192,10 +9371,10 @@
         <v>213</v>
       </c>
       <c r="W86" s="19" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="X86" s="19" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Y86" s="1" t="s">
         <v>62</v>
@@ -9216,31 +9395,31 @@
         <v>29</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="Q87" s="1" t="s">
         <v>75</v>
@@ -9250,16 +9429,16 @@
       </c>
       <c r="S87" s="5"/>
       <c r="T87" s="19" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="U87" s="19" t="n">
         <v>171</v>
       </c>
       <c r="V87" s="19" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="W87" s="19" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="X87" s="19" t="s">
         <v>355</v>
@@ -9270,26 +9449,26 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="22" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>
@@ -9306,7 +9485,7 @@
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="X88" s="5"/>
       <c r="Y88" s="5" t="s">
@@ -9315,7 +9494,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
@@ -9331,7 +9510,7 @@
         <v>218</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -9355,7 +9534,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -9371,7 +9550,7 @@
         <v>218</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -9392,7 +9571,7 @@
       </c>
       <c r="V90" s="19"/>
       <c r="W90" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="X90" s="19"/>
       <c r="Y90" s="5" t="s">
@@ -9401,7 +9580,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>26</v>
@@ -9416,21 +9595,21 @@
         <v>65</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5" t="s">
         <v>390</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" s="5" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -9441,7 +9620,7 @@
       <c r="Q91" s="5"/>
       <c r="S91" s="5"/>
       <c r="T91" s="19" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="U91" s="2" t="n">
         <v>178</v>
@@ -9450,10 +9629,10 @@
         <v>170</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Y91" s="1" t="s">
         <v>62</v>
@@ -9476,25 +9655,25 @@
         <v>29</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="1" t="s">
@@ -9502,24 +9681,24 @@
       </c>
       <c r="O92" s="5"/>
       <c r="P92" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="Q92" s="5"/>
       <c r="S92" s="5"/>
       <c r="T92" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="U92" s="2" t="n">
         <v>179</v>
       </c>
       <c r="V92" s="5" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Y92" s="1" t="s">
         <v>62</v>
@@ -9527,7 +9706,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="1" t="s">
@@ -9543,15 +9722,15 @@
         <v>218</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -9564,10 +9743,10 @@
       <c r="U93" s="5"/>
       <c r="V93" s="5"/>
       <c r="W93" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y93" s="1" t="s">
         <v>215</v>
@@ -9588,23 +9767,23 @@
         <v>29</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="K94" s="5"/>
       <c r="L94" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="1" t="s">
@@ -9613,23 +9792,23 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="S94" s="5"/>
       <c r="T94" s="19" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="U94" s="2" t="n">
         <v>177</v>
       </c>
       <c r="V94" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="X94" s="5" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="Y94" s="1" t="s">
         <v>62</v>
@@ -9637,7 +9816,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>179</v>
@@ -9653,20 +9832,20 @@
         <v>218</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5" t="s">
         <v>183</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -9674,10 +9853,10 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="S95" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="T95" s="19" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="U95" s="2" t="n">
         <v>185</v>
@@ -9686,25 +9865,25 @@
         <v>228</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>65</v>
@@ -9713,7 +9892,7 @@
         <v>218</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -9722,7 +9901,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="O96" s="1" t="s">
         <v>137</v>
@@ -9731,17 +9910,17 @@
       <c r="Q96" s="5"/>
       <c r="S96" s="5"/>
       <c r="T96" s="19" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="U96" s="2" t="n">
         <v>136</v>
       </c>
       <c r="V96" s="5"/>
       <c r="W96" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="Y96" s="1" t="s">
         <v>62</v>
@@ -9749,7 +9928,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -9762,19 +9941,19 @@
         <v>29</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="K97" s="5"/>
       <c r="L97" s="5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -9788,7 +9967,7 @@
       <c r="U97" s="5"/>
       <c r="V97" s="5"/>
       <c r="W97" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="X97" s="5"/>
       <c r="Y97" s="5" t="s">
@@ -9797,14 +9976,14 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>65</v>
@@ -9813,17 +9992,17 @@
         <v>218</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
@@ -9839,13 +10018,13 @@
         <v>191</v>
       </c>
       <c r="V98" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="Y98" s="1" t="s">
         <v>62</v>
@@ -9866,23 +10045,23 @@
         <v>65</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5" t="s">
         <v>170</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -9891,23 +10070,23 @@
       <c r="Q99" s="5"/>
       <c r="S99" s="5"/>
       <c r="T99" s="19" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="U99" s="5"/>
       <c r="V99" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="Y99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -9923,7 +10102,7 @@
         <v>218</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -9947,7 +10126,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
@@ -9963,7 +10142,7 @@
         <v>218</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -9975,7 +10154,7 @@
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
       <c r="Q101" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="S101" s="5"/>
       <c r="T101" s="19"/>
@@ -9989,7 +10168,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>26</v>
@@ -10004,40 +10183,40 @@
         <v>29</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>144</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="O102" s="5"/>
       <c r="P102" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="Q102" s="5"/>
       <c r="S102" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="T102" s="19" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="U102" s="2" t="n">
         <v>196</v>
@@ -10046,13 +10225,13 @@
         <v>162</v>
       </c>
       <c r="W102" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="Y102" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10064,62 +10243,62 @@
         <v>27</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="S103" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="T103" s="19" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="U103" s="2" t="n">
         <v>202</v>
       </c>
       <c r="V103" s="5"/>
       <c r="W103" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="Y103" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="1" t="s">
@@ -10132,22 +10311,22 @@
         <v>29</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
@@ -10157,17 +10336,17 @@
       <c r="Q104" s="5"/>
       <c r="S104" s="5"/>
       <c r="T104" s="19" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="U104" s="2" t="n">
         <v>201</v>
       </c>
       <c r="V104" s="5"/>
       <c r="W104" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="X104" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="Y104" s="1" t="s">
         <v>62</v>
@@ -10175,7 +10354,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="1" t="s">
@@ -10191,10 +10370,10 @@
         <v>218</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
@@ -10219,7 +10398,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -10235,13 +10414,13 @@
         <v>218</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
@@ -10274,13 +10453,13 @@
         <v>29</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>163</v>
@@ -10289,20 +10468,20 @@
         <v>195</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="T107" s="19" t="n">
         <v>502</v>
@@ -10311,16 +10490,16 @@
         <v>219</v>
       </c>
       <c r="V107" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="W107" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="X107" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10341,7 +10520,7 @@
         <v>218</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -10383,14 +10562,14 @@
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K109" s="5" t="s">
         <v>577</v>
@@ -10412,10 +10591,10 @@
       <c r="U109" s="5"/>
       <c r="V109" s="5"/>
       <c r="W109" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="Y109" s="5" t="s">
         <v>62</v>
@@ -10423,7 +10602,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="1" t="s">
@@ -10436,20 +10615,20 @@
         <v>29</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="J110" s="5" t="s">
         <v>274</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
@@ -10464,7 +10643,7 @@
       <c r="U110" s="5"/>
       <c r="V110" s="5"/>
       <c r="W110" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="X110" s="5"/>
       <c r="Y110" s="1" t="s">
@@ -10473,7 +10652,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="1" t="s">
@@ -10486,23 +10665,23 @@
         <v>29</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>274</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -10511,12 +10690,12 @@
       <c r="Q111" s="5"/>
       <c r="S111" s="5"/>
       <c r="T111" s="19" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="U111" s="5"/>
       <c r="V111" s="5"/>
       <c r="W111" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="X111" s="5"/>
       <c r="Y111" s="1" t="s">
@@ -10525,7 +10704,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -10541,29 +10720,29 @@
         <v>218</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="5" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="S112" s="5"/>
       <c r="T112" s="19" t="n">
@@ -10574,10 +10753,10 @@
         <v>73</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="Y112" s="1" t="s">
         <v>62</v>
@@ -10585,7 +10764,7 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>26</v>
@@ -10600,33 +10779,33 @@
         <v>29</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="O113" s="5"/>
       <c r="P113" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="Q113" s="5"/>
       <c r="S113" s="5"/>
@@ -10636,10 +10815,10 @@
       </c>
       <c r="V113" s="5"/>
       <c r="W113" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="X113" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="Y113" s="1" t="s">
         <v>62</v>
@@ -10660,52 +10839,52 @@
         <v>29</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="K114" s="5"/>
       <c r="L114" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="N114" s="5"/>
       <c r="O114" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="P114" s="5" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q114" s="5"/>
       <c r="S114" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="T114" s="19" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="U114" s="2" t="n">
         <v>209</v>
       </c>
       <c r="V114" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="W114" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Y114" s="1" t="s">
         <v>62</v>
@@ -10713,7 +10892,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -10726,10 +10905,10 @@
         <v>29</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H115" s="5"/>
       <c r="I115" s="5" t="s">
@@ -10739,30 +10918,33 @@
         <v>196</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="M115" s="5"/>
+      <c r="N115" s="0"/>
+      <c r="O115" s="0"/>
+      <c r="P115" s="0"/>
       <c r="Q115" s="5"/>
       <c r="S115" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="T115" s="19" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="U115" s="2" t="n">
         <v>210</v>
       </c>
       <c r="V115" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="W115" s="5" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="X115" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="Y115" s="1" t="s">
         <v>62</v>
@@ -10770,14 +10952,14 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>65</v>
@@ -10786,33 +10968,39 @@
         <v>218</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="M116" s="5"/>
+      <c r="N116" s="0"/>
+      <c r="O116" s="0"/>
+      <c r="P116" s="0"/>
       <c r="Q116" s="5"/>
+      <c r="S116" s="0"/>
       <c r="T116" s="19" t="n">
         <v>462</v>
       </c>
+      <c r="U116" s="0"/>
+      <c r="V116" s="0"/>
       <c r="W116" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="Y116" s="1" t="s">
         <v>62</v>
@@ -10820,7 +11008,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="1" t="s">
@@ -10833,10 +11021,10 @@
         <v>29</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5" t="s">
@@ -10846,28 +11034,36 @@
         <v>225</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>996</v>
-      </c>
+        <v>997</v>
+      </c>
+      <c r="L117" s="0"/>
       <c r="M117" s="5"/>
+      <c r="N117" s="0"/>
+      <c r="O117" s="0"/>
+      <c r="P117" s="0"/>
       <c r="Q117" s="5"/>
+      <c r="S117" s="0"/>
       <c r="T117" s="19"/>
+      <c r="U117" s="0"/>
+      <c r="V117" s="0"/>
       <c r="W117" s="2" t="s">
-        <v>997</v>
-      </c>
+        <v>998</v>
+      </c>
+      <c r="X117" s="0"/>
       <c r="Y117" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>65</v>
@@ -10876,31 +11072,38 @@
         <v>218</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
+      <c r="L118" s="0"/>
       <c r="M118" s="5"/>
+      <c r="N118" s="0"/>
       <c r="O118" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="P118" s="0"/>
       <c r="Q118" s="5"/>
+      <c r="S118" s="0"/>
       <c r="T118" s="2" t="s">
-        <v>1002</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="U118" s="0"/>
+      <c r="V118" s="0"/>
       <c r="W118" s="2" t="s">
-        <v>1003</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="X118" s="0"/>
       <c r="Y118" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -10910,7 +11113,7 @@
         <v>92</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>65</v>
@@ -10918,20 +11121,52 @@
       <c r="F119" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
+      <c r="G119" s="25" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>1010</v>
+      </c>
       <c r="M119" s="5"/>
+      <c r="N119" s="0"/>
+      <c r="O119" s="0"/>
+      <c r="P119" s="0"/>
       <c r="Q119" s="5"/>
+      <c r="S119" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="T119" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="U119" s="0"/>
+      <c r="V119" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="W119" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="X119" s="2" t="s">
+        <v>1015</v>
+      </c>
       <c r="Y119" s="1" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
-        <v>1006</v>
+      <c r="A120" s="6" t="s">
+        <v>1017</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>251</v>
@@ -10940,34 +11175,66 @@
         <v>27</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
+      <c r="J120" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>1022</v>
+      </c>
       <c r="M120" s="5"/>
+      <c r="N120" s="0"/>
+      <c r="O120" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>1023</v>
+      </c>
       <c r="Q120" s="1" t="s">
-        <v>1010</v>
+        <v>1024</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="U120" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="V120" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="W120" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="X120" s="2" t="s">
+        <v>1029</v>
       </c>
       <c r="Y120" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
-        <v>1011</v>
+      <c r="A121" s="6" t="s">
+        <v>1030</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -10980,24 +11247,49 @@
         <v>29</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1012</v>
+        <v>1031</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1013</v>
+        <v>1032</v>
       </c>
       <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
+      <c r="I121" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>1036</v>
+      </c>
       <c r="M121" s="5"/>
+      <c r="N121" s="0"/>
+      <c r="P121" s="0"/>
       <c r="Q121" s="5"/>
+      <c r="S121" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="T121" s="0" t="n">
+        <v>473</v>
+      </c>
+      <c r="U121" s="0"/>
+      <c r="V121" s="0"/>
+      <c r="W121" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="X121" s="0" t="n">
+        <v>1046</v>
+      </c>
       <c r="Y121" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
-        <v>1014</v>
+      <c r="A122" s="6" t="s">
+        <v>1038</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>26</v>
@@ -11012,24 +11304,51 @@
         <v>29</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1015</v>
+        <v>1039</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H122" s="5"/>
+        <v>1040</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>1041</v>
+      </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
+      <c r="K122" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L122" s="0" t="s">
+        <v>1043</v>
+      </c>
       <c r="M122" s="5"/>
+      <c r="N122" s="0"/>
+      <c r="P122" s="1" t="s">
+        <v>1044</v>
+      </c>
       <c r="Q122" s="5"/>
+      <c r="S122" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="T122" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="U122" s="0"/>
+      <c r="V122" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="W122" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="X122" s="0" t="s">
+        <v>1049</v>
+      </c>
       <c r="Y122" s="1" t="s">
-        <v>1017</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>1018</v>
+      <c r="A123" s="6" t="s">
+        <v>1051</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>26</v>
@@ -11041,29 +11360,50 @@
         <v>103</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1020</v>
+        <v>1053</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1021</v>
+        <v>1054</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>1022</v>
+        <v>1055</v>
       </c>
       <c r="J123" s="5" t="s">
         <v>196</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>1023</v>
+        <v>1056</v>
+      </c>
+      <c r="L123" s="0" t="s">
+        <v>1057</v>
       </c>
       <c r="M123" s="5"/>
+      <c r="N123" s="0"/>
+      <c r="P123" s="0"/>
       <c r="Q123" s="1" t="s">
-        <v>1024</v>
+        <v>1058</v>
+      </c>
+      <c r="S123" s="0"/>
+      <c r="T123" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="U123" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="V123" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="W123" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X123" s="0" t="s">
+        <v>1062</v>
       </c>
       <c r="Y123" s="5" t="s">
         <v>62</v>
@@ -11071,7 +11411,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>1025</v>
+        <v>1063</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="1" t="s">
@@ -11084,24 +11424,32 @@
         <v>65</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1026</v>
+        <v>1064</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1027</v>
+        <v>1065</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
+      <c r="L124" s="0"/>
       <c r="M124" s="5"/>
+      <c r="N124" s="0"/>
       <c r="Q124" s="5"/>
+      <c r="S124" s="0"/>
+      <c r="T124" s="0"/>
+      <c r="U124" s="0"/>
+      <c r="V124" s="0"/>
+      <c r="W124" s="0"/>
+      <c r="X124" s="0"/>
       <c r="Y124" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>1028</v>
+        <v>1066</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="1" t="s">
@@ -11117,23 +11465,31 @@
         <v>218</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1029</v>
+        <v>1067</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
+      <c r="L125" s="0"/>
       <c r="M125" s="5"/>
+      <c r="N125" s="0"/>
       <c r="Q125" s="1" t="s">
-        <v>1024</v>
-      </c>
+        <v>1058</v>
+      </c>
+      <c r="S125" s="0"/>
+      <c r="T125" s="0"/>
+      <c r="U125" s="0"/>
+      <c r="V125" s="0"/>
+      <c r="W125" s="0"/>
+      <c r="X125" s="0"/>
       <c r="Y125" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>1030</v>
+        <v>1068</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="1" t="s">
@@ -11146,31 +11502,39 @@
         <v>29</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1031</v>
+        <v>1069</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1032</v>
+        <v>1070</v>
       </c>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
+      <c r="L126" s="0"/>
       <c r="M126" s="5"/>
+      <c r="N126" s="0"/>
       <c r="Q126" s="5"/>
+      <c r="S126" s="0"/>
+      <c r="T126" s="0"/>
+      <c r="U126" s="0"/>
+      <c r="V126" s="0"/>
+      <c r="W126" s="0"/>
+      <c r="X126" s="0"/>
       <c r="Y126" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>1033</v>
+        <v>1071</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="1" t="s">
         <v>376</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1034</v>
+        <v>1072</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>65</v>
@@ -11179,23 +11543,31 @@
         <v>218</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1035</v>
+        <v>1073</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1036</v>
+        <v>1074</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
+      <c r="L127" s="0"/>
       <c r="M127" s="5"/>
+      <c r="N127" s="0"/>
       <c r="Q127" s="5"/>
+      <c r="S127" s="0"/>
+      <c r="T127" s="0"/>
+      <c r="U127" s="0"/>
+      <c r="V127" s="0"/>
+      <c r="W127" s="0"/>
+      <c r="X127" s="0"/>
       <c r="Y127" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>1037</v>
+        <v>1075</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="1" t="s">
@@ -11211,28 +11583,36 @@
         <v>218</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1038</v>
+        <v>1076</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
+      <c r="L128" s="0"/>
       <c r="M128" s="5"/>
+      <c r="N128" s="0"/>
       <c r="Q128" s="5"/>
+      <c r="S128" s="0"/>
+      <c r="T128" s="0"/>
+      <c r="U128" s="0"/>
+      <c r="V128" s="0"/>
+      <c r="W128" s="0"/>
+      <c r="X128" s="0"/>
       <c r="Y128" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>1039</v>
+        <v>1077</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>65</v>
@@ -11241,21 +11621,29 @@
         <v>218</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1040</v>
+        <v>1078</v>
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
+      <c r="L129" s="0"/>
       <c r="M129" s="5"/>
+      <c r="N129" s="0"/>
       <c r="Q129" s="5"/>
+      <c r="S129" s="0"/>
+      <c r="T129" s="0"/>
+      <c r="U129" s="0"/>
+      <c r="V129" s="0"/>
+      <c r="W129" s="0"/>
+      <c r="X129" s="0"/>
       <c r="Y129" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>1041</v>
+        <v>1079</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="1" t="s">
@@ -11268,17 +11656,25 @@
         <v>29</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1042</v>
+        <v>1080</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1043</v>
+        <v>1081</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
+      <c r="L130" s="0"/>
       <c r="M130" s="5"/>
+      <c r="N130" s="0"/>
       <c r="Q130" s="5"/>
+      <c r="S130" s="0"/>
+      <c r="T130" s="0"/>
+      <c r="U130" s="0"/>
+      <c r="V130" s="0"/>
+      <c r="W130" s="0"/>
+      <c r="X130" s="0"/>
       <c r="Y130" s="5" t="s">
         <v>62</v>
       </c>
@@ -11298,24 +11694,32 @@
         <v>29</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1044</v>
+        <v>1082</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1045</v>
+        <v>1083</v>
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
+      <c r="L131" s="0"/>
       <c r="M131" s="5"/>
+      <c r="N131" s="0"/>
       <c r="Q131" s="5"/>
+      <c r="S131" s="0"/>
+      <c r="T131" s="0"/>
+      <c r="U131" s="0"/>
+      <c r="V131" s="0"/>
+      <c r="W131" s="0"/>
+      <c r="X131" s="0"/>
       <c r="Y131" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>1046</v>
+        <v>1084</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="1" t="s">
@@ -11328,24 +11732,32 @@
         <v>65</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1047</v>
+        <v>1085</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1048</v>
+        <v>1086</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
+      <c r="L132" s="0"/>
       <c r="M132" s="5"/>
+      <c r="N132" s="0"/>
       <c r="Q132" s="5"/>
+      <c r="S132" s="0"/>
+      <c r="T132" s="0"/>
+      <c r="U132" s="0"/>
+      <c r="V132" s="0"/>
+      <c r="W132" s="0"/>
+      <c r="X132" s="0"/>
       <c r="Y132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>1049</v>
+        <v>1087</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>179</v>
@@ -11361,21 +11773,29 @@
         <v>218</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1050</v>
+        <v>1088</v>
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
+      <c r="L133" s="0"/>
       <c r="M133" s="5"/>
+      <c r="N133" s="0"/>
       <c r="Q133" s="5"/>
+      <c r="S133" s="0"/>
+      <c r="T133" s="0"/>
+      <c r="U133" s="0"/>
+      <c r="V133" s="0"/>
+      <c r="W133" s="0"/>
+      <c r="X133" s="0"/>
       <c r="Y133" s="1" t="s">
-        <v>1051</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>1052</v>
+        <v>1090</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="1" t="s">
@@ -11391,51 +11811,67 @@
         <v>218</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1053</v>
+        <v>1091</v>
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
+      <c r="L134" s="0"/>
       <c r="M134" s="5"/>
+      <c r="N134" s="0"/>
       <c r="Q134" s="5"/>
+      <c r="S134" s="0"/>
+      <c r="T134" s="0"/>
+      <c r="U134" s="0"/>
+      <c r="V134" s="0"/>
+      <c r="W134" s="0"/>
+      <c r="X134" s="0"/>
       <c r="Y134" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>1054</v>
+        <v>1092</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1055</v>
+        <v>1093</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1056</v>
+        <v>1094</v>
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
+      <c r="L135" s="0"/>
       <c r="M135" s="5"/>
+      <c r="N135" s="0"/>
       <c r="Q135" s="5"/>
+      <c r="S135" s="0"/>
+      <c r="T135" s="0"/>
+      <c r="U135" s="0"/>
+      <c r="V135" s="0"/>
+      <c r="W135" s="0"/>
+      <c r="X135" s="0"/>
       <c r="Y135" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>1057</v>
+      <c r="A136" s="6" t="s">
+        <v>1095</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="1" t="s">
@@ -11448,26 +11884,54 @@
         <v>29</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1058</v>
+        <v>1096</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1059</v>
+        <v>1097</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1060</v>
+        <v>1034</v>
       </c>
       <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
+      <c r="J136" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>1099</v>
+      </c>
       <c r="M136" s="5"/>
+      <c r="N136" s="1" t="s">
+        <v>1100</v>
+      </c>
       <c r="Q136" s="5"/>
+      <c r="S136" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="T136" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="U136" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="V136" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="W136" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="X136" s="2" t="s">
+        <v>1106</v>
+      </c>
       <c r="Y136" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>1061</v>
+        <v>1107</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="1" t="s">
@@ -11483,7 +11947,7 @@
         <v>218</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1062</v>
+        <v>1108</v>
       </c>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
@@ -11512,13 +11976,13 @@
         <v>29</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1063</v>
+        <v>1109</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1064</v>
+        <v>1110</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1065</v>
+        <v>1111</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -11528,7 +11992,7 @@
         <v>173</v>
       </c>
       <c r="Y138" s="1" t="s">
-        <v>1066</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11546,18 +12010,18 @@
         <v>65</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1067</v>
+        <v>1113</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1068</v>
+        <v>1114</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1069</v>
+        <v>1115</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="1" t="s">
-        <v>1070</v>
+        <v>1116</v>
       </c>
       <c r="M139" s="5"/>
       <c r="Q139" s="5"/>
@@ -11580,10 +12044,10 @@
         <v>65</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1071</v>
+        <v>1117</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1072</v>
+        <v>1118</v>
       </c>
       <c r="H140" s="0"/>
       <c r="I140" s="5"/>
@@ -11607,32 +12071,32 @@
         <v>27</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1073</v>
+        <v>1119</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1067</v>
+        <v>1113</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1074</v>
+        <v>1120</v>
       </c>
       <c r="H141" s="0"/>
       <c r="I141" s="1" t="s">
-        <v>1075</v>
+        <v>1121</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q141" s="5"/>
       <c r="Y141" s="1" t="s">
-        <v>1076</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>1077</v>
+        <v>1123</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>92</v>
@@ -11644,22 +12108,22 @@
         <v>29</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1078</v>
+        <v>1124</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1079</v>
+        <v>1125</v>
       </c>
       <c r="H142" s="0"/>
       <c r="Q142" s="1" t="s">
-        <v>1080</v>
+        <v>1126</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>1081</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1082</v>
+        <v>1128</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>92</v>
@@ -11671,13 +12135,13 @@
         <v>65</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1067</v>
+        <v>1113</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1083</v>
+        <v>1129</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1084</v>
+        <v>1130</v>
       </c>
       <c r="Q143" s="5"/>
       <c r="Y143" s="1" t="s">
@@ -11686,7 +12150,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1085</v>
+        <v>1131</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>92</v>
@@ -11698,13 +12162,13 @@
         <v>65</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1067</v>
+        <v>1113</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1086</v>
+        <v>1132</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1087</v>
+        <v>1133</v>
       </c>
       <c r="Q144" s="5"/>
       <c r="Y144" s="5" t="s">
@@ -11713,7 +12177,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1088</v>
+        <v>1134</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>92</v>
@@ -11725,13 +12189,13 @@
         <v>29</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1089</v>
+        <v>1135</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1090</v>
+        <v>1136</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>1091</v>
+        <v>1137</v>
       </c>
       <c r="Y145" s="1" t="s">
         <v>62</v>
@@ -11739,7 +12203,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1092</v>
+        <v>1138</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>27</v>
@@ -11751,10 +12215,10 @@
         <v>29</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1093</v>
+        <v>1139</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1094</v>
+        <v>1140</v>
       </c>
       <c r="Y146" s="1" t="s">
         <v>62</v>
@@ -11762,22 +12226,22 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1095</v>
+        <v>1141</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1096</v>
+        <v>1142</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1097</v>
+        <v>1143</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1098</v>
+        <v>1144</v>
       </c>
       <c r="Y147" s="5" t="s">
         <v>62</v>
@@ -11785,7 +12249,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1099</v>
+        <v>1145</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>376</v>
@@ -11797,7 +12261,7 @@
         <v>65</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1100</v>
+        <v>1146</v>
       </c>
       <c r="Y148" s="1" t="s">
         <v>62</v>
@@ -11827,48 +12291,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="12.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="13.9336734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1241</v>
+        <v>1289</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1242</v>
+        <v>1290</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1243</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1244</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1245</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1246</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1247</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1248</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1249</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11878,7 +12342,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1250</v>
+        <v>1298</v>
       </c>
     </row>
   </sheetData>
@@ -11909,29 +12373,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="62.8520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="69.5459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="51.6224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="51.6224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="73.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="80.780612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="59.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="59.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1101</v>
+        <v>1147</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1102</v>
+        <v>1148</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1103</v>
+        <v>1149</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1104</v>
+        <v>1150</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>24</v>
@@ -11940,10 +12404,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -11955,10 +12419,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1091</v>
+        <v>1137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1088</v>
+        <v>1134</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -11970,7 +12434,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1105</v>
+        <v>1151</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -11983,7 +12447,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1106</v>
+        <v>1152</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>53</v>
@@ -11998,7 +12462,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1107</v>
+        <v>1153</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>316</v>
@@ -12028,10 +12492,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1080</v>
+        <v>1126</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1077</v>
+        <v>1123</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12053,7 +12517,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>1108</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12070,12 +12534,12 @@
         <v>62</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1109</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1110</v>
+        <v>1156</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>151</v>
@@ -12101,7 +12565,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1111</v>
+        <v>1157</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>235</v>
@@ -12113,7 +12577,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1112</v>
+        <v>1158</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>108</v>
@@ -12126,10 +12590,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1113</v>
+        <v>1159</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1114</v>
+        <v>1160</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -12139,14 +12603,14 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1115</v>
+        <v>1161</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>1116</v>
+        <v>1162</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>62</v>
@@ -12154,10 +12618,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1117</v>
+        <v>1163</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1118</v>
+        <v>1164</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -12167,7 +12631,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1119</v>
+        <v>1165</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>483</v>
@@ -12178,14 +12642,14 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1120</v>
+        <v>1166</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3" t="s">
-        <v>1121</v>
+        <v>1167</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>62</v>
@@ -12200,7 +12664,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
-        <v>1122</v>
+        <v>1168</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>62</v>
@@ -12208,10 +12672,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -12247,14 +12711,14 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>1123</v>
+        <v>1169</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>1124</v>
+        <v>1170</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>62</v>
@@ -12262,7 +12726,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="s">
-        <v>1125</v>
+        <v>1171</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>34</v>
@@ -12273,10 +12737,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1126</v>
+        <v>1172</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -12286,13 +12750,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1127</v>
+        <v>1173</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
@@ -12301,7 +12765,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1128</v>
+        <v>1174</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>375</v>
@@ -12318,7 +12782,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1129</v>
+        <v>1175</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
@@ -12327,10 +12791,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>1024</v>
+        <v>1058</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1130</v>
+        <v>1176</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
@@ -12351,10 +12815,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
@@ -12373,13 +12837,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1131</v>
+        <v>1177</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1132</v>
+        <v>1178</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>62</v>
@@ -12387,7 +12851,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1133</v>
+        <v>1179</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
@@ -12420,12 +12884,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="25.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1134</v>
+        <v>1180</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -12439,33 +12903,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1135</v>
+        <v>1181</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1136</v>
+        <v>1182</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1137</v>
+        <v>1183</v>
       </c>
       <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1138</v>
+        <v>1184</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="5" t="s">
-        <v>1139</v>
+        <v>1185</v>
       </c>
       <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1140</v>
+        <v>1186</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>1141</v>
+        <v>1187</v>
       </c>
       <c r="D4" s="0"/>
     </row>
@@ -12474,19 +12938,19 @@
         <v>513</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1142</v>
+        <v>1188</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1143</v>
+        <v>1189</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1144</v>
+        <v>1190</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1145</v>
+        <v>1191</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
@@ -12502,7 +12966,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1146</v>
+        <v>1192</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -12520,42 +12984,42 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>1011</v>
+        <v>1030</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1057</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1147</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1148</v>
+        <v>1194</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1149</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1150</v>
+        <v>1196</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1151</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1152</v>
+        <v>1198</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1153</v>
+        <v>1199</v>
       </c>
     </row>
   </sheetData>
@@ -12582,16 +13046,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="33.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="38.5561224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="5" t="s">
-        <v>1154</v>
+        <v>1200</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1155</v>
+        <v>1201</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
@@ -12604,13 +13068,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1156</v>
+        <v>1202</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1156</v>
+        <v>1202</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1157</v>
+        <v>1203</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -12620,7 +13084,7 @@
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="W2" s="5" t="s">
-        <v>1156</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12649,7 +13113,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1158</v>
+        <v>1204</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
@@ -12663,7 +13127,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1159</v>
+        <v>1205</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -12677,7 +13141,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1160</v>
+        <v>1206</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -12691,7 +13155,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1161</v>
+        <v>1207</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -12700,18 +13164,18 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="J8" s="5" t="s">
-        <v>1162</v>
+        <v>1208</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1163</v>
+        <v>1209</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1164</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1165</v>
+        <v>1211</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -12720,21 +13184,21 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="J9" s="5" t="s">
-        <v>1166</v>
+        <v>1212</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1167</v>
+        <v>1213</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1168</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>1169</v>
+        <v>1215</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1170</v>
+        <v>1216</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -12742,18 +13206,18 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="J10" s="5" t="s">
-        <v>1171</v>
+        <v>1217</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1172</v>
+        <v>1218</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1173</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>1174</v>
+        <v>1220</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -12762,18 +13226,18 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="J11" s="5" t="s">
-        <v>1175</v>
+        <v>1221</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1176</v>
+        <v>1222</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1177</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1178</v>
+        <v>1224</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -12782,21 +13246,21 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="J12" s="5" t="s">
-        <v>1179</v>
+        <v>1225</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1180</v>
+        <v>1226</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1181</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1182</v>
+        <v>1228</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1183</v>
+        <v>1229</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -12804,21 +13268,21 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="J13" s="5" t="s">
-        <v>1184</v>
+        <v>1230</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1185</v>
+        <v>1231</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1186</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1187</v>
+        <v>1233</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1188</v>
+        <v>1234</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -12827,10 +13291,10 @@
       <c r="G14" s="0"/>
       <c r="J14" s="0"/>
       <c r="L14" s="5" t="s">
-        <v>1189</v>
+        <v>1235</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1190</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12847,7 +13311,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>1191</v>
+        <v>1237</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -12856,13 +13320,13 @@
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="J16" s="5" t="s">
-        <v>1192</v>
+        <v>1238</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1193</v>
+        <v>1239</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1194</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12874,18 +13338,18 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="J17" s="5" t="s">
-        <v>1195</v>
+        <v>1241</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1196</v>
+        <v>1242</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1197</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>1198</v>
+        <v>1244</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -12894,15 +13358,15 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="J18" s="5" t="s">
-        <v>1199</v>
+        <v>1245</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1200</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>1201</v>
+        <v>1247</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -12911,7 +13375,7 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="J19" s="5" t="s">
-        <v>1202</v>
+        <v>1248</v>
       </c>
       <c r="L19" s="0"/>
     </row>
@@ -12927,7 +13391,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>1203</v>
+        <v>1249</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -12949,7 +13413,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>1204</v>
+        <v>1250</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -12961,10 +13425,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>1205</v>
+        <v>1251</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1206</v>
+        <v>1252</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -12972,7 +13436,7 @@
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="L24" s="5" t="s">
-        <v>1207</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12984,15 +13448,15 @@
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="L25" s="5" t="s">
-        <v>1208</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>1209</v>
+        <v>1255</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1210</v>
+        <v>1256</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -13000,7 +13464,7 @@
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="L26" s="5" t="s">
-        <v>1211</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13012,12 +13476,12 @@
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="L27" s="5" t="s">
-        <v>1212</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>1213</v>
+        <v>1259</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -13026,7 +13490,7 @@
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="L28" s="5" t="s">
-        <v>1214</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13048,7 +13512,7 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="L30" s="5" t="s">
-        <v>1215</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13060,7 +13524,7 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="L31" s="5" t="s">
-        <v>1216</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13072,7 +13536,7 @@
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="L32" s="5" t="s">
-        <v>1217</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13084,7 +13548,7 @@
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="L33" s="5" t="s">
-        <v>1218</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13096,38 +13560,38 @@
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="L34" s="5" t="s">
-        <v>1219</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1158</v>
+        <v>1204</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1160</v>
+        <v>1206</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1159</v>
+        <v>1205</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1174</v>
+        <v>1220</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1220</v>
+        <v>1266</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1209</v>
+        <v>1255</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1221</v>
+        <v>1267</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1222</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L36" s="5" t="s">
-        <v>1223</v>
+        <v>1269</v>
       </c>
     </row>
   </sheetData>
@@ -13154,7 +13618,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="9.07142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13162,15 +13626,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1224</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1225</v>
+        <v>1271</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1226</v>
+        <v>1272</v>
       </c>
     </row>
   </sheetData>
@@ -13189,15 +13653,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13205,10 +13669,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1227</v>
+        <v>1273</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1228</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13216,7 +13680,7 @@
         <v>612</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1229</v>
+        <v>1275</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>608</v>
@@ -13224,10 +13688,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1230</v>
+        <v>1276</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1231</v>
+        <v>1277</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>196</v>
@@ -13235,10 +13699,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1232</v>
+        <v>1278</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1233</v>
+        <v>1279</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>196</v>
@@ -13246,42 +13710,58 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1234</v>
+        <v>1280</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1235</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1236</v>
+        <v>1282</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1237</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1238</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1239</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1240</v>
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1288</v>
       </c>
     </row>
   </sheetData>
@@ -13308,7 +13788,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="12.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="13.9336734693878"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13334,7 +13814,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="12.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="13.9336734693878"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13360,7 +13840,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="12.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="13.9336734693878"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1316">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">Dandunwacana, Dandonwacana</t>
   </si>
   <si>
-    <t xml:space="preserve">Yudhistira, Dananjaya</t>
+    <t xml:space="preserve">Yudhistira, Dananjaya, Suparta</t>
   </si>
   <si>
     <t xml:space="preserve">Pusaka Lukitasari</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">Sadana</t>
   </si>
   <si>
-    <t xml:space="preserve">He is a son of [Sri_Mahapunggung],who is in turn son of Batara [Wisnu]. When his father deemed him ready to succeed him in the throne he had not yet found a wife. His inability to do so angered his father and Sadana was turned into a bird. Eventually [Resi] was able to return Sadana to his original shape. He then married [Resi]'s daughter [Lasmitawati] and was acknowledged as heir by his father. Eventually he was turned into a god with the name Sang Hyang Sadana. In Java, Sadana and his sister [Sri] are venerated as deities connected to fertility.</t>
+    <t xml:space="preserve">He is a son of [Sri_Mahapunggung], who is in turn son of Batara [Wisnu]. When his father deemed him ready to succeed him in the throne he had not yet found a wife. His inability to do so angered his father and Sadana was turned into a bird. Eventually [Resi] was able to return Sadana to his original shape. He then married [Resi]'s daughter [Lasmitawati] and was acknowledged as heir by his father. Eventually he was turned into a god with the name Sang Hyang Sadana. In Java, Sadana and his sister [Sri] are venerated as deities connected to fertility.</t>
   </si>
   <si>
     <t xml:space="preserve">Danawati</t>
@@ -3410,22 +3410,61 @@
     <t xml:space="preserve">Not much is mentioned about Sahadeva's marriage. He is usually known as one of the husbands of Draupadi.</t>
   </si>
   <si>
-    <t xml:space="preserve">Given to Sadewa (Raden Sudamala) as wife after curing Durga back into Uma. // or after defeating Kalanjaya and Kalantaka, who are casing Endang Soka and Pradapa. //Anaknya Begawan Tambapetra</t>
+    <t xml:space="preserve">Given to [Sadewa] (Raden Sudamala) as wife after curing [Durga], and returning her back to her original shape as Uma. In other versions, she is given to him after he defeats [Kalanjaya] and [Kalantaka], who are chasing Endang Soka and Endang [Pradapa]. This information came with interviews with dalangs in Yogyakarta. There is no entry for her in any of the consulted encyclopedias.</t>
   </si>
   <si>
     <t xml:space="preserve">Sri</t>
   </si>
   <si>
-    <t xml:space="preserve">Nyi Pohaci Sanghyang Sri. She emerges out of an egg, which emerged out of the tears of Antaboga. The gods kill her to protect her from Batara Guru's desires.</t>
+    <t xml:space="preserve">From the time she was little, she was very close to her brother [Sadana]. Once, [Kalandaru], from the Medang Kumwung kingdom requested her hand in marriage on behalf of king [Pulagra]. Sri's father accepted the request but she herself rejected it. Sri_Mahapunggung then vanished her from his kingdom. In other versions, she exited the kingdom of her own will after her brother was vanished for refusing to marry. In any case, Dewi Sri became a nomad and wandered into the Medang Tamtu settlement. There she saw an old man, Buyut_Wankeng and his wife working in the fields. Dewi Sri wanted to help them but [Buyut_Wangkeng] said that it did not befit a guest to take on such heavy work. [Kalandaru] found Dewi Sri in this place and attempted to capture her for king [Pulagra]. [Kalandaru] tied [Buyut_Wangkeng] to a tree and almost succeeded in capturing Dewi Sri. But [Sadana] was able to rescue her and [Buyut_Wangkeng] and kill [Kalandaru]. Eventually [Sadana] built the Medang Agung kingdom for him and his sister. She is known as a symbol for prosperity and venerated as a deity of fertility. She is the incarnation of [Sri_Widowati], a consort of [Wisnu] that emerged out of a chalice made by Sang Hyang [Antaboga].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyi_Pohaci,Sanghyang_Sri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadana, Wandu, Oya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239-240 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170-171</t>
   </si>
   <si>
     <t xml:space="preserve">Sugriwa</t>
   </si>
   <si>
-    <t xml:space="preserve">Known as the monkey king of Kishkinda and the son of the Sun god. He is the brother of Vali (Indra's son) and he helps Rama by lending the support of his Vanara army during Rama's mission to rescue his wife Sita.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Guwarsa. Son of Resi Gotama [from Erraya / Grastina] and Dewi Windradi / Indradi.</t>
+    <t xml:space="preserve">Known was the monkey king of Kishkinda and the son of the Sun god. He was the brother of Vali (Indra's son) and he helped Rama by lending the support of his Vanara army during Rama's mission to rescue his wife Sita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was known as Guwarsi in his youth. Once he and his brother Guwarsa (later known as [Subali]) he tried to wrestle the /Cupu Manuk Asthagina/ (Asthagina Gemstone Chalice) from his sister. The altercation made their father angry. His anger only mounted when he discovered the nature of the thing they were fighting for: the chalice belonged to Batara [Surya]. Upon questioning, they revealed that [Anjani] had received from their mother. Their mother received to answer for the chalice but it was evident from her silence that she had committed adultery with Batara [Surya]. As punishment she was turned into stone and her sons were all turned into monkeys. A misunderstanding with [Subali], led to [Subali] claiming [Sugriwa]'s throne and wife (Dewi [Tara]) (there are multiple versions about the exact incident that led to this misunderstanding). Sugriwa befriended [Rama], who then killed [Subali]. In retribution, Sugriwa lent his army to Rama's war effort against Rahwana. When Rama achieved a perfect death and reincarnated as [Kresna], Sugriwa in turn reincarnated as [Balarama].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guwarsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windradi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gotama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjani, Subali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tara:x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guwakiskenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">509-5011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">291-293 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380-383</t>
   </si>
   <si>
     <t xml:space="preserve">Suparta</t>
@@ -3434,10 +3473,19 @@
     <t xml:space="preserve">Jim</t>
   </si>
   <si>
-    <t xml:space="preserve">Also known as Dananjaya.  Mretani Jim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saparta</t>
+    <t xml:space="preserve">He is a demon who rules with his siblings over the Mertani forest (he lives in the Madukara palace). After the Pandawa defeat them, several of the demons enter the bodies of the Pandawa. Prabu Jim [Yudhistira], for example, enters the body of [Puntadewa]. Suparta enters the body of [Arjuna].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saparta, Dananjaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhandhanwacana, Yudhistira, Dananjaya, Sapulebu, Baweratalun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32-33 (Vol. III)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">608-609</t>
   </si>
   <si>
     <t xml:space="preserve">Surabramadiraja</t>
@@ -3654,6 +3702,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mrentani kingdom. saudara tua dari Arya Dananjaya, Arya Dandunwacana, jim Nakula, dan jim Sadewa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhandhanwacana, Dananjaya, Suparta</t>
   </si>
   <si>
     <t xml:space="preserve">Diguise</t>
@@ -4120,7 +4171,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4252,6 +4303,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -4301,7 +4357,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4410,6 +4466,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -4490,44 +4550,44 @@
   <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S125" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
-      <selection pane="bottomRight" activeCell="D123" activeCellId="0" sqref="D123"/>
+      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="A125" activeCellId="0" sqref="A125"/>
+      <selection pane="bottomRight" activeCell="X128" activeCellId="0" sqref="X128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.5"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.5765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.5663265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="47.734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="76.7857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.4285714285714"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.0867346938776"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="27.2142857142857"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.3826530612245"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="30.1326530612245"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="45.8979591836735"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="19.0051020408163"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="13.3928571428571"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="17.6020408163265"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="23.1122448979592"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="36.8265306122449"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="45.25"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="43.0918367346939"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="41.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.780612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.0867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.9081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.0765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.0867346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.780612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="28.2959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="50.9744897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="82.1836734693878"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="26.3520408163265"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.3826530612245"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="29.0510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="32.0765306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="49.030612244898"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="20.3010204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="18.469387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="24.6224489795918"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.0867346938776"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="39.2040816326531"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="33.9081632653061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="48.3826530612245"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="46.0051020408163"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="43.8469387755102"/>
     <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="5.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="5.83163265306122"/>
   </cols>
@@ -11410,7 +11470,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="6" t="s">
         <v>1063</v>
       </c>
       <c r="B124" s="5"/>
@@ -11431,7 +11491,9 @@
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
+      <c r="J124" s="5" t="s">
+        <v>846</v>
+      </c>
       <c r="K124" s="5"/>
       <c r="L124" s="0"/>
       <c r="M124" s="5"/>
@@ -11447,8 +11509,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
+    <row r="125" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="s">
         <v>1066</v>
       </c>
       <c r="B125" s="5"/>
@@ -11467,10 +11529,18 @@
       <c r="G125" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
+      <c r="H125" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>1069</v>
+      </c>
       <c r="L125" s="0"/>
       <c r="M125" s="5"/>
       <c r="N125" s="0"/>
@@ -11480,16 +11550,22 @@
       <c r="S125" s="0"/>
       <c r="T125" s="0"/>
       <c r="U125" s="0"/>
-      <c r="V125" s="0"/>
-      <c r="W125" s="0"/>
-      <c r="X125" s="0"/>
+      <c r="V125" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="W125" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="X125" s="0" t="s">
+        <v>1071</v>
+      </c>
       <c r="Y125" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>1068</v>
+    <row r="126" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="s">
+        <v>1072</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="1" t="s">
@@ -11502,39 +11578,59 @@
         <v>29</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="0"/>
+        <v>1074</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L126" s="0" t="s">
+        <v>1079</v>
+      </c>
       <c r="M126" s="5"/>
-      <c r="N126" s="0"/>
+      <c r="N126" s="0" t="s">
+        <v>1080</v>
+      </c>
       <c r="Q126" s="5"/>
       <c r="S126" s="0"/>
-      <c r="T126" s="0"/>
-      <c r="U126" s="0"/>
+      <c r="T126" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="U126" s="0" t="n">
+        <v>235</v>
+      </c>
       <c r="V126" s="0"/>
-      <c r="W126" s="0"/>
-      <c r="X126" s="0"/>
+      <c r="W126" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="X126" s="0" t="s">
+        <v>1083</v>
+      </c>
       <c r="Y126" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>1071</v>
+      <c r="A127" s="6" t="s">
+        <v>1084</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="1" t="s">
         <v>376</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1072</v>
+        <v>1085</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>65</v>
@@ -11543,31 +11639,39 @@
         <v>218</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
+      <c r="K127" s="26" t="s">
+        <v>1088</v>
+      </c>
       <c r="L127" s="0"/>
       <c r="M127" s="5"/>
       <c r="N127" s="0"/>
       <c r="Q127" s="5"/>
       <c r="S127" s="0"/>
-      <c r="T127" s="0"/>
+      <c r="T127" s="0" t="n">
+        <v>147</v>
+      </c>
       <c r="U127" s="0"/>
       <c r="V127" s="0"/>
-      <c r="W127" s="0"/>
-      <c r="X127" s="0"/>
+      <c r="W127" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="X127" s="0" t="s">
+        <v>1090</v>
+      </c>
       <c r="Y127" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>1075</v>
+        <v>1091</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="1" t="s">
@@ -11583,7 +11687,7 @@
         <v>218</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1076</v>
+        <v>1092</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -11605,7 +11709,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>1077</v>
+        <v>1093</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="1" t="s">
@@ -11621,7 +11725,7 @@
         <v>218</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1078</v>
+        <v>1094</v>
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -11643,7 +11747,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>1079</v>
+        <v>1095</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="1" t="s">
@@ -11656,10 +11760,10 @@
         <v>29</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1080</v>
+        <v>1096</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1081</v>
+        <v>1097</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -11694,10 +11798,10 @@
         <v>29</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1082</v>
+        <v>1098</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -11719,7 +11823,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>1084</v>
+        <v>1100</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="1" t="s">
@@ -11732,10 +11836,10 @@
         <v>65</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1085</v>
+        <v>1101</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1086</v>
+        <v>1102</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>846</v>
@@ -11757,7 +11861,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>1087</v>
+        <v>1103</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>179</v>
@@ -11773,7 +11877,7 @@
         <v>218</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1088</v>
+        <v>1104</v>
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -11790,12 +11894,12 @@
       <c r="W133" s="0"/>
       <c r="X133" s="0"/>
       <c r="Y133" s="1" t="s">
-        <v>1089</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>1090</v>
+        <v>1106</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="1" t="s">
@@ -11811,7 +11915,7 @@
         <v>218</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1091</v>
+        <v>1107</v>
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
@@ -11833,7 +11937,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>1092</v>
+        <v>1108</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="1" t="s">
@@ -11846,10 +11950,10 @@
         <v>29</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1093</v>
+        <v>1109</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
@@ -11871,7 +11975,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>1095</v>
+        <v>1111</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="1" t="s">
@@ -11884,10 +11988,10 @@
         <v>29</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1096</v>
+        <v>1112</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1097</v>
+        <v>1113</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>1034</v>
@@ -11897,33 +12001,33 @@
         <v>230</v>
       </c>
       <c r="K136" s="5" t="s">
-        <v>1098</v>
+        <v>1114</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="M136" s="5"/>
       <c r="N136" s="1" t="s">
-        <v>1100</v>
+        <v>1116</v>
       </c>
       <c r="Q136" s="5"/>
       <c r="S136" s="1" t="s">
-        <v>1101</v>
+        <v>1117</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>1102</v>
+        <v>1118</v>
       </c>
       <c r="U136" s="2" t="s">
-        <v>1103</v>
+        <v>1119</v>
       </c>
       <c r="V136" s="2" t="s">
-        <v>1104</v>
+        <v>1120</v>
       </c>
       <c r="W136" s="2" t="s">
-        <v>1105</v>
+        <v>1121</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>1106</v>
+        <v>1122</v>
       </c>
       <c r="Y136" s="1" t="s">
         <v>62</v>
@@ -11931,7 +12035,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>1107</v>
+        <v>1123</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="1" t="s">
@@ -11947,7 +12051,7 @@
         <v>218</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1108</v>
+        <v>1124</v>
       </c>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
@@ -11976,13 +12080,13 @@
         <v>29</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1109</v>
+        <v>1125</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1110</v>
+        <v>1126</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1111</v>
+        <v>1127</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -11992,7 +12096,7 @@
         <v>173</v>
       </c>
       <c r="Y138" s="1" t="s">
-        <v>1112</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12010,18 +12114,18 @@
         <v>65</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1113</v>
+        <v>1129</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1114</v>
+        <v>1130</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1115</v>
+        <v>1131</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="1" t="s">
-        <v>1116</v>
+        <v>1132</v>
       </c>
       <c r="M139" s="5"/>
       <c r="Q139" s="5"/>
@@ -12044,10 +12148,10 @@
         <v>65</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1117</v>
+        <v>1133</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1118</v>
+        <v>1134</v>
       </c>
       <c r="H140" s="0"/>
       <c r="I140" s="5"/>
@@ -12071,32 +12175,32 @@
         <v>27</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1119</v>
+        <v>1135</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1113</v>
+        <v>1129</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
       <c r="H141" s="0"/>
       <c r="I141" s="1" t="s">
-        <v>1121</v>
+        <v>1137</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q141" s="5"/>
       <c r="Y141" s="1" t="s">
-        <v>1122</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>1123</v>
+        <v>1139</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>92</v>
@@ -12108,22 +12212,22 @@
         <v>29</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1124</v>
+        <v>1140</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1125</v>
+        <v>1141</v>
       </c>
       <c r="H142" s="0"/>
       <c r="Q142" s="1" t="s">
-        <v>1126</v>
+        <v>1142</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>1127</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1128</v>
+        <v>1144</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>92</v>
@@ -12135,13 +12239,13 @@
         <v>65</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1113</v>
+        <v>1129</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1129</v>
+        <v>1145</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1130</v>
+        <v>1146</v>
       </c>
       <c r="Q143" s="5"/>
       <c r="Y143" s="1" t="s">
@@ -12150,7 +12254,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1131</v>
+        <v>1147</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>92</v>
@@ -12162,13 +12266,13 @@
         <v>65</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1113</v>
+        <v>1129</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1132</v>
+        <v>1148</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1133</v>
+        <v>1149</v>
       </c>
       <c r="Q144" s="5"/>
       <c r="Y144" s="5" t="s">
@@ -12177,7 +12281,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1134</v>
+        <v>1150</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>92</v>
@@ -12189,13 +12293,13 @@
         <v>29</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1135</v>
+        <v>1151</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>1137</v>
+        <v>1153</v>
       </c>
       <c r="Y145" s="1" t="s">
         <v>62</v>
@@ -12203,7 +12307,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1138</v>
+        <v>1154</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>27</v>
@@ -12215,10 +12319,10 @@
         <v>29</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1139</v>
+        <v>1155</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1140</v>
+        <v>1156</v>
       </c>
       <c r="Y146" s="1" t="s">
         <v>62</v>
@@ -12226,22 +12330,22 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1141</v>
+        <v>1157</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1142</v>
+        <v>1158</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1143</v>
+        <v>1159</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1144</v>
+        <v>1160</v>
       </c>
       <c r="Y147" s="5" t="s">
         <v>62</v>
@@ -12249,7 +12353,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1145</v>
+        <v>1161</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>376</v>
@@ -12261,7 +12365,10 @@
         <v>65</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1146</v>
+        <v>1162</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>1163</v>
       </c>
       <c r="Y148" s="1" t="s">
         <v>62</v>
@@ -12291,48 +12398,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1289</v>
+        <v>1306</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1290</v>
+        <v>1307</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1291</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1292</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1293</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1295</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1296</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1297</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12342,7 +12449,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1298</v>
+        <v>1315</v>
       </c>
     </row>
   </sheetData>
@@ -12373,29 +12480,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="73.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="80.780612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="59.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="59.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="38.015306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="77.969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="86.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="63.9336734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="38.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="63.9336734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1147</v>
+        <v>1164</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1148</v>
+        <v>1165</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>24</v>
@@ -12419,10 +12526,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1137</v>
+        <v>1153</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1134</v>
+        <v>1150</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -12434,7 +12541,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1151</v>
+        <v>1168</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -12447,7 +12554,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1152</v>
+        <v>1169</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>53</v>
@@ -12462,7 +12569,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1153</v>
+        <v>1170</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>316</v>
@@ -12492,10 +12599,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1126</v>
+        <v>1142</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1123</v>
+        <v>1139</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12517,7 +12624,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>1154</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12534,12 +12641,12 @@
         <v>62</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1155</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1156</v>
+        <v>1173</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>151</v>
@@ -12565,7 +12672,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1157</v>
+        <v>1174</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>235</v>
@@ -12577,7 +12684,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1158</v>
+        <v>1175</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>108</v>
@@ -12590,10 +12697,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1159</v>
+        <v>1176</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1160</v>
+        <v>1177</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -12603,14 +12710,14 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1161</v>
+        <v>1178</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>1162</v>
+        <v>1179</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>62</v>
@@ -12618,10 +12725,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1163</v>
+        <v>1180</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1164</v>
+        <v>1181</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -12631,7 +12738,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1165</v>
+        <v>1182</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>483</v>
@@ -12642,14 +12749,14 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1166</v>
+        <v>1183</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3" t="s">
-        <v>1167</v>
+        <v>1184</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>62</v>
@@ -12664,7 +12771,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
-        <v>1168</v>
+        <v>1185</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>62</v>
@@ -12711,22 +12818,22 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>1169</v>
+        <v>1186</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>1170</v>
+        <v>1187</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="s">
-        <v>1171</v>
+      <c r="A25" s="27" t="s">
+        <v>1188</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>34</v>
@@ -12737,7 +12844,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1172</v>
+        <v>1189</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>746</v>
@@ -12756,7 +12863,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1173</v>
+        <v>1190</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
@@ -12765,7 +12872,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1174</v>
+        <v>1191</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>375</v>
@@ -12782,7 +12889,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1175</v>
+        <v>1192</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
@@ -12794,7 +12901,7 @@
         <v>1058</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1176</v>
+        <v>1193</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
@@ -12840,10 +12947,10 @@
         <v>921</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1177</v>
+        <v>1194</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1178</v>
+        <v>1195</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>62</v>
@@ -12851,7 +12958,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1179</v>
+        <v>1196</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
@@ -12884,12 +12991,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="26.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1180</v>
+        <v>1197</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -12903,33 +13010,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1181</v>
+        <v>1198</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1182</v>
+        <v>1199</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1183</v>
+        <v>1200</v>
       </c>
       <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1184</v>
+        <v>1201</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="5" t="s">
-        <v>1185</v>
+        <v>1202</v>
       </c>
       <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1186</v>
+        <v>1203</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>1187</v>
+        <v>1204</v>
       </c>
       <c r="D4" s="0"/>
     </row>
@@ -12938,19 +13045,19 @@
         <v>513</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1188</v>
+        <v>1205</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1189</v>
+        <v>1206</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1190</v>
+        <v>1207</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1191</v>
+        <v>1208</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
@@ -12966,7 +13073,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1192</v>
+        <v>1209</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -12995,31 +13102,31 @@
         <v>688</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1193</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1194</v>
+        <v>1211</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1195</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1196</v>
+        <v>1213</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1197</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1198</v>
+        <v>1215</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1199</v>
+        <v>1216</v>
       </c>
     </row>
   </sheetData>
@@ -13046,16 +13153,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="38.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="41.1479591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="5" t="s">
-        <v>1200</v>
+        <v>1217</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1201</v>
+        <v>1218</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
@@ -13068,13 +13175,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1202</v>
+        <v>1219</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1202</v>
+        <v>1219</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1203</v>
+        <v>1220</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -13084,7 +13191,7 @@
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="W2" s="5" t="s">
-        <v>1202</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13113,7 +13220,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1204</v>
+        <v>1221</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
@@ -13127,7 +13234,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1205</v>
+        <v>1222</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -13141,7 +13248,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1206</v>
+        <v>1223</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -13155,7 +13262,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1207</v>
+        <v>1224</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -13164,18 +13271,18 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="J8" s="5" t="s">
-        <v>1208</v>
+        <v>1225</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1209</v>
+        <v>1226</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1210</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1211</v>
+        <v>1228</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -13184,21 +13291,21 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="J9" s="5" t="s">
-        <v>1212</v>
+        <v>1229</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1213</v>
+        <v>1230</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1214</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>1215</v>
+        <v>1232</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1216</v>
+        <v>1233</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -13206,18 +13313,18 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="J10" s="5" t="s">
-        <v>1217</v>
+        <v>1234</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1218</v>
+        <v>1235</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1219</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>1220</v>
+        <v>1237</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -13226,18 +13333,18 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="J11" s="5" t="s">
-        <v>1221</v>
+        <v>1238</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1222</v>
+        <v>1239</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1223</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1224</v>
+        <v>1241</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -13246,21 +13353,21 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="J12" s="5" t="s">
-        <v>1225</v>
+        <v>1242</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1226</v>
+        <v>1243</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1227</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1228</v>
+        <v>1245</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1229</v>
+        <v>1246</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -13268,21 +13375,21 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="J13" s="5" t="s">
-        <v>1230</v>
+        <v>1247</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1231</v>
+        <v>1248</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1232</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1233</v>
+        <v>1250</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1234</v>
+        <v>1251</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -13291,10 +13398,10 @@
       <c r="G14" s="0"/>
       <c r="J14" s="0"/>
       <c r="L14" s="5" t="s">
-        <v>1235</v>
+        <v>1252</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1236</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13311,7 +13418,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>1237</v>
+        <v>1254</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -13320,13 +13427,13 @@
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="J16" s="5" t="s">
-        <v>1238</v>
+        <v>1255</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1239</v>
+        <v>1256</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1240</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13338,18 +13445,18 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="J17" s="5" t="s">
-        <v>1241</v>
+        <v>1258</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1242</v>
+        <v>1259</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1243</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>1244</v>
+        <v>1261</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -13358,15 +13465,15 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="J18" s="5" t="s">
-        <v>1245</v>
+        <v>1262</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1246</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>1247</v>
+        <v>1264</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13375,7 +13482,7 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="J19" s="5" t="s">
-        <v>1248</v>
+        <v>1265</v>
       </c>
       <c r="L19" s="0"/>
     </row>
@@ -13391,7 +13498,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>1249</v>
+        <v>1266</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -13413,7 +13520,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>1250</v>
+        <v>1267</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -13425,10 +13532,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>1251</v>
+        <v>1268</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1252</v>
+        <v>1269</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -13436,7 +13543,7 @@
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="L24" s="5" t="s">
-        <v>1253</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13448,15 +13555,15 @@
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="L25" s="5" t="s">
-        <v>1254</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>1255</v>
+        <v>1272</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1256</v>
+        <v>1273</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -13464,7 +13571,7 @@
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="L26" s="5" t="s">
-        <v>1257</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13476,12 +13583,12 @@
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="L27" s="5" t="s">
-        <v>1258</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>1259</v>
+        <v>1276</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -13490,7 +13597,7 @@
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="L28" s="5" t="s">
-        <v>1260</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13512,7 +13619,7 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="L30" s="5" t="s">
-        <v>1261</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13524,7 +13631,7 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="L31" s="5" t="s">
-        <v>1262</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13536,7 +13643,7 @@
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="L32" s="5" t="s">
-        <v>1263</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13548,7 +13655,7 @@
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="L33" s="5" t="s">
-        <v>1264</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13560,38 +13667,38 @@
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="L34" s="5" t="s">
-        <v>1265</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1204</v>
+        <v>1221</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1206</v>
+        <v>1223</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1205</v>
+        <v>1222</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1220</v>
+        <v>1237</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1266</v>
+        <v>1283</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1255</v>
+        <v>1272</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1267</v>
+        <v>1284</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1268</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L36" s="5" t="s">
-        <v>1269</v>
+        <v>1286</v>
       </c>
     </row>
   </sheetData>
@@ -13618,7 +13725,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.5816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13626,15 +13733,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1270</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1271</v>
+        <v>1288</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1272</v>
+        <v>1289</v>
       </c>
     </row>
   </sheetData>
@@ -13661,7 +13768,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.6938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13669,10 +13776,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1273</v>
+        <v>1290</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1274</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13680,7 +13787,7 @@
         <v>612</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1275</v>
+        <v>1292</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>608</v>
@@ -13688,10 +13795,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1276</v>
+        <v>1293</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1277</v>
+        <v>1294</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>196</v>
@@ -13699,10 +13806,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1278</v>
+        <v>1295</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1279</v>
+        <v>1296</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>196</v>
@@ -13710,18 +13817,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1280</v>
+        <v>1297</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1281</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1282</v>
+        <v>1299</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1283</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13729,7 +13836,7 @@
         <v>775</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1284</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13737,7 +13844,7 @@
         <v>805</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1285</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13745,7 +13852,7 @@
         <v>962</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1286</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13753,7 +13860,7 @@
         <v>1023</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1287</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13761,7 +13868,7 @@
         <v>1044</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1288</v>
+        <v>1305</v>
       </c>
     </row>
   </sheetData>
@@ -13788,7 +13895,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13814,7 +13921,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13840,7 +13947,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1317">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -729,7 +729,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ranu, Maruta, Hagni, Wibisana</t>
+    <t xml:space="preserve">Ranu, Maruta, Hagni, Wibisana</t>
   </si>
   <si>
     <t xml:space="preserve">Barata</t>
@@ -1729,7 +1729,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Bantala, Ranu, Maruta, Wibisana</t>
+    <t xml:space="preserve">Ranu, Maruta, Wibisana, Bantala</t>
   </si>
   <si>
     <t xml:space="preserve">Known as Indra or Devendra, the King of Devas (celestial beings). His wife is known as Indrani. Indra is also mentioned the /Krishna Leela/ (the divine acts of Krishna) whereby the the fellow villagers of Lord Krishna used to perform prayers to ask Lord Indra for rain. However at one point when Krishna told them not to do so, the villagers stopped and this enraged Indra. He punished the villages by causing stormy rains. However Krishna protected the villagers in the end. He is the son of Maharesi Kasyapa and Devi Aditi.</t>
@@ -2371,7 +2371,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Bantala, Ranu, Hagni, Wibisana</t>
+    <t xml:space="preserve">Ranu, Hagni, Wibisana, Bantala</t>
   </si>
   <si>
     <t xml:space="preserve">One of the wives of [Werkudara], they met at Sapta Pratala, the seven-tiered heaven of [Antaboga]. At the time, they had been tricked by the Korawa to enter a place made of flammable materials. The Korawa were planning to entrap and burn the Pandawa (this incident is part of the lakon /Bale Sigala-gala/). [Antaboga] helped the Pandawa escape to Sapta Pratala, by way of his son Nagatatmala. Once there, [Werkudara] and Nagagini met.</t>
@@ -2581,7 +2581,7 @@
     <t xml:space="preserve">Drestarastra, Yamawidura</t>
   </si>
   <si>
-    <t xml:space="preserve">Rukmini</t>
+    <t xml:space="preserve">Kunti: Puntadewa, Arjuna, Werkudara;  Madrim: Nakula, Sadewa</t>
   </si>
   <si>
     <t xml:space="preserve">Lenga Tala</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">He is a personification of water. In /Wahyu_Mahkutarama/ he is mentioned as one of the four brothers of /Wibisana/, who is looking to be returned to his original shape. There are no entries for this character in any of the consulted encyclopedias.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bantala, Maruta, Hagni, Wibisana</t>
+    <t xml:space="preserve">Maruta, Hagni, Wibisana, Bantala</t>
   </si>
   <si>
     <t xml:space="preserve">Subhadra, sister of Krishna and Balarama, and second wife of Arjuna.</t>
@@ -3000,6 +3000,9 @@
   </si>
   <si>
     <t xml:space="preserve">298 (Vol. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukmini</t>
   </si>
   <si>
     <t xml:space="preserve">Rukmini is the first wife of Lord Krishna. She is known as one of his principle wives of Lord Krishna. In the Indian version, their first-born, Pradyumna, became the crowned Prince of Dwaraka. </t>
@@ -3611,7 +3614,7 @@
     <t xml:space="preserve">Kontawibisana</t>
   </si>
   <si>
-    <t xml:space="preserve">Bantala, Ranu, Maruta, Hagni</t>
+    <t xml:space="preserve">Ranu, Maruta, Hagni, Bantala</t>
   </si>
   <si>
     <t xml:space="preserve">Although this character is not mentioned in the Indian Mahabharata, there is a mentioning of one of the Mahabharata characters (either Karna or Arjuna) possesses Nagastra which is a weapon associated with snakes.</t>
@@ -4171,7 +4174,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4303,11 +4306,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -4357,7 +4355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4466,10 +4464,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -4550,44 +4544,44 @@
   <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J84" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="A125" activeCellId="0" sqref="A125"/>
-      <selection pane="bottomRight" activeCell="X128" activeCellId="0" sqref="X128"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A84" activeCellId="0" sqref="A84"/>
+      <selection pane="bottomRight" activeCell="L93" activeCellId="0" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.780612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.0867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.9081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.0867346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.780612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="28.2959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="50.9744897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="82.1836734693878"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="26.3520408163265"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.3826530612245"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="29.0510204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="32.0765306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="49.030612244898"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="20.3010204081633"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="13.9336734693878"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="18.469387755102"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="24.6224489795918"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.0867346938776"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="39.2040816326531"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="33.9081632653061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="48.3826530612245"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="46.0051020408163"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="43.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.7244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.1530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.780612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.6479591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="52.6989795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="84.9897959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.2142857142857"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="29.9132653061224"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="33.1530612244898"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="50.6479591836735"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="20.9489795918367"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="14.1479591836735"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.734693877551"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="40.5"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="34.9897959183673"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="49.8928571428572"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="45.25"/>
     <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="5.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="5.83163265306122"/>
   </cols>
@@ -10712,7 +10706,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>804</v>
+        <v>938</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="1" t="s">
@@ -10725,10 +10719,10 @@
         <v>29</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5" t="s">
@@ -10738,10 +10732,10 @@
         <v>274</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -10750,12 +10744,12 @@
       <c r="Q111" s="5"/>
       <c r="S111" s="5"/>
       <c r="T111" s="19" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="U111" s="5"/>
       <c r="V111" s="5"/>
       <c r="W111" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="X111" s="5"/>
       <c r="Y111" s="1" t="s">
@@ -10764,7 +10758,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -10780,29 +10774,29 @@
         <v>218</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="5" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="S112" s="5"/>
       <c r="T112" s="19" t="n">
@@ -10813,10 +10807,10 @@
         <v>73</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="Y112" s="1" t="s">
         <v>62</v>
@@ -10824,7 +10818,7 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>26</v>
@@ -10839,33 +10833,33 @@
         <v>29</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>693</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="O113" s="5"/>
       <c r="P113" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="Q113" s="5"/>
       <c r="S113" s="5"/>
@@ -10875,10 +10869,10 @@
       </c>
       <c r="V113" s="5"/>
       <c r="W113" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="X113" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="Y113" s="1" t="s">
         <v>62</v>
@@ -10899,52 +10893,52 @@
         <v>29</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>697</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K114" s="5"/>
       <c r="L114" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="N114" s="5"/>
       <c r="O114" s="1" t="s">
         <v>872</v>
       </c>
       <c r="P114" s="5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="Q114" s="5"/>
       <c r="S114" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="T114" s="19" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="U114" s="2" t="n">
         <v>209</v>
       </c>
       <c r="V114" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="W114" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="Y114" s="1" t="s">
         <v>62</v>
@@ -10952,7 +10946,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -10965,10 +10959,10 @@
         <v>29</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H115" s="5"/>
       <c r="I115" s="5" t="s">
@@ -10978,10 +10972,10 @@
         <v>196</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="0"/>
@@ -10989,22 +10983,22 @@
       <c r="P115" s="0"/>
       <c r="Q115" s="5"/>
       <c r="S115" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="T115" s="19" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="U115" s="2" t="n">
         <v>210</v>
       </c>
       <c r="V115" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="W115" s="5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="X115" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Y115" s="1" t="s">
         <v>62</v>
@@ -11028,22 +11022,22 @@
         <v>218</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>706</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="0"/>
@@ -11057,10 +11051,10 @@
       <c r="U116" s="0"/>
       <c r="V116" s="0"/>
       <c r="W116" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="Y116" s="1" t="s">
         <v>62</v>
@@ -11068,7 +11062,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="1" t="s">
@@ -11081,10 +11075,10 @@
         <v>29</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5" t="s">
@@ -11094,7 +11088,7 @@
         <v>225</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="L117" s="0"/>
       <c r="M117" s="5"/>
@@ -11107,7 +11101,7 @@
       <c r="U117" s="0"/>
       <c r="V117" s="0"/>
       <c r="W117" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="X117" s="0"/>
       <c r="Y117" s="1" t="s">
@@ -11116,14 +11110,14 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>65</v>
@@ -11132,10 +11126,10 @@
         <v>218</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
@@ -11150,12 +11144,12 @@
       <c r="Q118" s="5"/>
       <c r="S118" s="0"/>
       <c r="T118" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="U118" s="0"/>
       <c r="V118" s="0"/>
       <c r="W118" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="X118" s="0"/>
       <c r="Y118" s="5" t="s">
@@ -11173,7 +11167,7 @@
         <v>92</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>65</v>
@@ -11182,22 +11176,22 @@
         <v>218</v>
       </c>
       <c r="G119" s="25" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="J119" s="5" t="s">
         <v>514</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="0"/>
@@ -11205,28 +11199,28 @@
       <c r="P119" s="0"/>
       <c r="Q119" s="5"/>
       <c r="S119" s="10" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="U119" s="0"/>
       <c r="V119" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="W119" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="X119" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="Y119" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>251</v>
@@ -11241,23 +11235,23 @@
         <v>29</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5" t="s">
         <v>494</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="M120" s="5"/>
       <c r="N120" s="0"/>
@@ -11265,28 +11259,28 @@
         <v>112</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="U120" s="2" t="n">
         <v>221</v>
       </c>
       <c r="V120" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="W120" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="X120" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="Y120" s="1" t="s">
         <v>62</v>
@@ -11294,7 +11288,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -11307,23 +11301,23 @@
         <v>29</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="M121" s="5"/>
       <c r="N121" s="0"/>
@@ -11338,7 +11332,7 @@
       <c r="U121" s="0"/>
       <c r="V121" s="0"/>
       <c r="W121" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="X121" s="0" t="n">
         <v>1046</v>
@@ -11349,7 +11343,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>26</v>
@@ -11364,51 +11358,51 @@
         <v>29</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="L122" s="0" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="M122" s="5"/>
       <c r="N122" s="0"/>
       <c r="P122" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="Q122" s="5"/>
       <c r="S122" s="0" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="T122" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="U122" s="0"/>
       <c r="V122" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="W122" s="0" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="X122" s="0" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="Y122" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>26</v>
@@ -11423,47 +11417,47 @@
         <v>65</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="J123" s="5" t="s">
         <v>196</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="0"/>
       <c r="P123" s="0"/>
       <c r="Q123" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="S123" s="0"/>
       <c r="T123" s="0" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="U123" s="0" t="n">
         <v>231</v>
       </c>
       <c r="V123" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="W123" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="X123" s="0" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="Y123" s="5" t="s">
         <v>62</v>
@@ -11471,7 +11465,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="1" t="s">
@@ -11484,10 +11478,10 @@
         <v>65</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
@@ -11511,7 +11505,7 @@
     </row>
     <row r="125" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="1" t="s">
@@ -11527,25 +11521,25 @@
         <v>218</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="L125" s="0"/>
       <c r="M125" s="5"/>
       <c r="N125" s="0"/>
       <c r="Q125" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="S125" s="0"/>
       <c r="T125" s="0"/>
@@ -11554,10 +11548,10 @@
         <v>72</v>
       </c>
       <c r="W125" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="X125" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="Y125" s="1" t="s">
         <v>62</v>
@@ -11565,7 +11559,7 @@
     </row>
     <row r="126" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="1" t="s">
@@ -11578,44 +11572,44 @@
         <v>29</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="L126" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="M126" s="5"/>
       <c r="N126" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="Q126" s="5"/>
       <c r="S126" s="0"/>
       <c r="T126" s="0" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="U126" s="0" t="n">
         <v>235</v>
       </c>
       <c r="V126" s="0"/>
       <c r="W126" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="X126" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="Y126" s="1" t="s">
         <v>62</v>
@@ -11623,14 +11617,14 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="1" t="s">
         <v>376</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>65</v>
@@ -11639,15 +11633,15 @@
         <v>218</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="26" t="s">
-        <v>1088</v>
+      <c r="K127" s="3" t="s">
+        <v>1089</v>
       </c>
       <c r="L127" s="0"/>
       <c r="M127" s="5"/>
@@ -11660,10 +11654,10 @@
       <c r="U127" s="0"/>
       <c r="V127" s="0"/>
       <c r="W127" s="0" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="X127" s="0" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="Y127" s="1" t="s">
         <v>62</v>
@@ -11671,7 +11665,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="1" t="s">
@@ -11687,7 +11681,7 @@
         <v>218</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -11709,14 +11703,14 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>65</v>
@@ -11725,7 +11719,7 @@
         <v>218</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -11747,7 +11741,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="1" t="s">
@@ -11760,10 +11754,10 @@
         <v>29</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -11798,10 +11792,10 @@
         <v>29</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -11823,7 +11817,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="1" t="s">
@@ -11836,10 +11830,10 @@
         <v>65</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>846</v>
@@ -11861,7 +11855,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>179</v>
@@ -11877,7 +11871,7 @@
         <v>218</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -11894,12 +11888,12 @@
       <c r="W133" s="0"/>
       <c r="X133" s="0"/>
       <c r="Y133" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="1" t="s">
@@ -11915,7 +11909,7 @@
         <v>218</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
@@ -11937,7 +11931,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="1" t="s">
@@ -11950,10 +11944,10 @@
         <v>29</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
@@ -11975,7 +11969,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="1" t="s">
@@ -11988,46 +11982,46 @@
         <v>29</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="5" t="s">
         <v>230</v>
       </c>
       <c r="K136" s="5" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="M136" s="5"/>
       <c r="N136" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="Q136" s="5"/>
       <c r="S136" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="U136" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="V136" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="W136" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="Y136" s="1" t="s">
         <v>62</v>
@@ -12035,7 +12029,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="1" t="s">
@@ -12051,7 +12045,7 @@
         <v>218</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
@@ -12080,13 +12074,13 @@
         <v>29</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -12096,7 +12090,7 @@
         <v>173</v>
       </c>
       <c r="Y138" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12114,18 +12108,18 @@
         <v>65</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="1" t="s">
-        <v>1132</v>
+      <c r="K139" s="18" t="s">
+        <v>1133</v>
       </c>
       <c r="M139" s="5"/>
       <c r="Q139" s="5"/>
@@ -12148,14 +12142,15 @@
         <v>65</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H140" s="0"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
+      <c r="K140" s="0"/>
       <c r="M140" s="1" t="s">
         <v>156</v>
       </c>
@@ -12175,32 +12170,33 @@
         <v>27</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H141" s="0"/>
       <c r="I141" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="K141" s="0"/>
       <c r="Q141" s="5"/>
       <c r="Y141" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>92</v>
@@ -12212,22 +12208,23 @@
         <v>29</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H142" s="0"/>
+      <c r="K142" s="0"/>
       <c r="Q142" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>92</v>
@@ -12239,14 +12236,15 @@
         <v>65</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1146</v>
-      </c>
+        <v>1147</v>
+      </c>
+      <c r="K143" s="0"/>
       <c r="Q143" s="5"/>
       <c r="Y143" s="1" t="s">
         <v>62</v>
@@ -12254,7 +12252,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>92</v>
@@ -12266,14 +12264,15 @@
         <v>65</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1149</v>
-      </c>
+        <v>1150</v>
+      </c>
+      <c r="K144" s="0"/>
       <c r="Q144" s="5"/>
       <c r="Y144" s="5" t="s">
         <v>62</v>
@@ -12281,7 +12280,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>92</v>
@@ -12293,13 +12292,14 @@
         <v>29</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1152</v>
-      </c>
+        <v>1153</v>
+      </c>
+      <c r="K145" s="0"/>
       <c r="Q145" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="Y145" s="1" t="s">
         <v>62</v>
@@ -12307,7 +12307,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>27</v>
@@ -12319,41 +12319,43 @@
         <v>29</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1156</v>
-      </c>
+        <v>1157</v>
+      </c>
+      <c r="K146" s="0"/>
       <c r="Y146" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1160</v>
-      </c>
+        <v>1161</v>
+      </c>
+      <c r="K147" s="0"/>
       <c r="Y147" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>376</v>
@@ -12365,10 +12367,10 @@
         <v>65</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="Y148" s="1" t="s">
         <v>62</v>
@@ -12398,48 +12400,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12449,7 +12451,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
@@ -12480,29 +12482,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="38.015306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="77.969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="86.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="63.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="38.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="63.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="39.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="80.5612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="89.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="66.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="39.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="66.0918367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>24</v>
@@ -12511,10 +12513,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -12526,10 +12528,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -12541,7 +12543,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -12554,7 +12556,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>53</v>
@@ -12569,7 +12571,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>316</v>
@@ -12599,10 +12601,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12624,7 +12626,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12641,12 +12643,12 @@
         <v>62</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>151</v>
@@ -12672,7 +12674,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>235</v>
@@ -12684,7 +12686,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>108</v>
@@ -12697,10 +12699,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -12710,14 +12712,14 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>62</v>
@@ -12725,10 +12727,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -12738,7 +12740,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>483</v>
@@ -12749,14 +12751,14 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>62</v>
@@ -12771,7 +12773,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>62</v>
@@ -12779,10 +12781,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -12818,22 +12820,22 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27" t="s">
-        <v>1188</v>
+      <c r="A25" s="26" t="s">
+        <v>1189</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>34</v>
@@ -12844,7 +12846,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>746</v>
@@ -12863,7 +12865,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
@@ -12872,7 +12874,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>375</v>
@@ -12889,7 +12891,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
@@ -12898,10 +12900,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
@@ -12947,10 +12949,10 @@
         <v>921</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>62</v>
@@ -12958,7 +12960,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
@@ -12991,12 +12993,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="26.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="27.6479591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -13010,33 +13012,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D4" s="0"/>
     </row>
@@ -13045,19 +13047,19 @@
         <v>513</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
@@ -13073,7 +13075,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -13091,10 +13093,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13102,31 +13104,31 @@
         <v>688</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
   </sheetData>
@@ -13153,16 +13155,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="41.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="42.4438775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="5" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
@@ -13175,13 +13177,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -13191,7 +13193,7 @@
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="W2" s="5" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13220,7 +13222,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
@@ -13234,7 +13236,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -13248,7 +13250,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -13262,7 +13264,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -13271,18 +13273,18 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="J8" s="5" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -13291,21 +13293,21 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="J9" s="5" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -13313,18 +13315,18 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="J10" s="5" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -13333,18 +13335,18 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="J11" s="5" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -13353,21 +13355,21 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="J12" s="5" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -13375,21 +13377,21 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="J13" s="5" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -13398,10 +13400,10 @@
       <c r="G14" s="0"/>
       <c r="J14" s="0"/>
       <c r="L14" s="5" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13418,7 +13420,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -13427,13 +13429,13 @@
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="J16" s="5" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13445,18 +13447,18 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="J17" s="5" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -13465,15 +13467,15 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="J18" s="5" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13482,7 +13484,7 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="J19" s="5" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="L19" s="0"/>
     </row>
@@ -13498,7 +13500,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -13520,7 +13522,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -13532,10 +13534,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -13543,7 +13545,7 @@
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="L24" s="5" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13555,15 +13557,15 @@
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="L25" s="5" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -13571,7 +13573,7 @@
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="L26" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13583,12 +13585,12 @@
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="L27" s="5" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -13597,7 +13599,7 @@
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="L28" s="5" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13619,7 +13621,7 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="L30" s="5" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13631,7 +13633,7 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="L31" s="5" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13643,7 +13645,7 @@
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="L32" s="5" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13655,7 +13657,7 @@
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="L33" s="5" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13667,38 +13669,38 @@
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="L34" s="5" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>1222</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L36" s="5" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
   </sheetData>
@@ -13725,7 +13727,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13733,15 +13735,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
   </sheetData>
@@ -13768,7 +13770,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.9081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13776,10 +13778,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13787,7 +13789,7 @@
         <v>612</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>608</v>
@@ -13795,10 +13797,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>196</v>
@@ -13806,10 +13808,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>196</v>
@@ -13817,18 +13819,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13836,7 +13838,7 @@
         <v>775</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13844,31 +13846,31 @@
         <v>805</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
   </sheetData>
@@ -13895,7 +13897,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.9030612244898"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13921,7 +13923,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.9030612244898"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13947,7 +13949,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.9030612244898"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="1366">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1639,6 +1639,9 @@
   </si>
   <si>
     <t xml:space="preserve">He fathers Kangsa with [Mahera] while impersonating [Basudewa]. King of Gowabarong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surati_Mantra</t>
   </si>
   <si>
     <t xml:space="preserve">Maerah:Kangsa</t>
@@ -3494,13 +3497,28 @@
     <t xml:space="preserve">Surabramadiraja</t>
   </si>
   <si>
-    <t xml:space="preserve">King of Kraton Banon Salembag (or Simbarmanyura) who wants to marry Arimbi. // Serambahan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surati_Mantra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SuratiMatra. He is the patih of Gorawangsa.He takes care of Kangsa, the son of Maerah and Gorawangsa.</t>
+    <t xml:space="preserve">King of Banon_Salembag (or Simbarmanyura) who wants to marry Arimbi. No information for this character was found in any of the consulted encyclopedias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banon_Salembag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the /patih/ and younger brother of [Gorawangsa]. When his older brother is killed by [Pandu], Surati_Mantra succeeds him as king of Guwabarong. He then adopted the young [Kangsa] when his parents died. Later, when [Kangsa] came of age, Surati_Mantra supported him in his attack to Mandura's king [Basudewa]. Surati_Mantra had a special pool of water that could bring him back to life if he has fatally wounded. [Werkudara] killed him repeatedly but he was always able to use this water to come back to life. With the help of the Punakawan, [Arjuna] was eventually able to posin this water with a sacred dagger. Then, Surati_Mantra was once and for all killed by [Werkudara].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guwabarong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyu_Semangka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">526-527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363-364 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1084-1085</t>
   </si>
   <si>
     <t xml:space="preserve">Surtikanthi</t>
@@ -3509,28 +3527,97 @@
     <t xml:space="preserve">Known as Vrushali, she is the wife of Karna and the daughter of Shalya.</t>
   </si>
   <si>
-    <t xml:space="preserve">Surtikanti. Sibling of Erawati who marries Karna, but also loves Arjuna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surya is known as the son of Aditi (Daksha's daughter) and Sage Kashyapa. He forms a part of the navagrahas (the nine planets).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God of the son. Father of Karna, with Kunti. Son of Guru and Dewi Senggani. // Sama dengan Druwasa (perwujudnya sebagai manusia).</t>
+    <t xml:space="preserve">She is a sibling of [Erawati] who marries [Karna], but who was earlier in love with [Arjuna]. Her father [Salya] was initially opposed to her union to [Karna], since he wanted her to marry [Duryudana]. She committed ritual suicide upon hearing that [Karna] was killed in the Baratayuda war, but this was due to a false report before [Karna]'s actual death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erawati, Banowati, Burisrawa, Rukmarata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karna: Kardana, Warsasena, Warsakusuma, Karnawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">528-529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255-256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368-369 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1086-1087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surya is known as the son of Aditi (Daksha's daughter) and Sage Kashyapa. He forms a part of the /navagrahas/ (the nine planets).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the God of the sun. He is famous for his good looks and love of beautiful women. [Indradi], the wife of [Gotama] once had an affair with him, which resulted in her being cursed into a stone statue. Before [Kunti] was married, he had a son with her, [Karna]. His wife [Ngurna] is given an egg by Batara [Guru], out of which [Sampati] and [Jatayu] emerged. His wife [Ngruni] is also given an egg by Batara [Guru], out of which many snakes emerged. (The origin of Jatayu is different in the Sanskrit Mahabharata). Once, Kala [Rahu] stole the water of life /tirta amerta/. Batara Surya discovered the identity of the thief and was thereafter always chased by Kala [Rahu]. In some occasions, Batara [Rahu] succeeded in capturing Batara Surya, in which cases an eclipse would take place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senggani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ismaya(Semar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wungkuam, Temboro, Kuwera, Wrahaspati, Syiwah, Candra, Yamadipati, Kamajaya, Darmasti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Kunti):(Karna); Ngruna:Suwarno;Ngruni:Suryawati,Suryanirada,(Sampati),(Jatayu);Haruni:Rawiatmaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ekacakra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreta_Jatisurya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rawe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">530-531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">370-371 (Vol. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180-181</t>
   </si>
   <si>
     <t xml:space="preserve">Tambrapeta</t>
   </si>
   <si>
-    <t xml:space="preserve">He marries Karenumati, Princess of Chedi. Her son's name is Niramitra. Not much is mentioned about Nakula's wife apart from Draupadi. Perhaps one reason could be because Draupadi made It clear that no other wives of the Pandava should share her household in Indraprastha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begawan at Pringalas. Father of Dewi Soka,  who marries Nakula. And Pradapa (Padapa).</t>
+    <t xml:space="preserve">There is a character with a similar name in some Sanskrit retellings, who marries Karenumati, Princess of Chedi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is a holy man at Pringalas. His daughter is Dewi [Soka],  who marries [Nakula]. His other daughter, [Pradapa] marries [Sadewa]. In the most common retelling, he offers his daughters to [Sadewa] following the instructions of Batari [Durga], who was cured by [Sadewa]. However, alternative retellings indicate that [Sadewa] cured Tambrapetra's blindness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (Vol. IX)</t>
   </si>
   <si>
     <t xml:space="preserve">Togog</t>
   </si>
   <si>
-    <t xml:space="preserve">Tejamantri. Brother of Semar and Guru who accompanies the antagonists.</t>
+    <t xml:space="preserve">He accompanies and advices the antagonists in wayang. In a common origin story, he was created from the shell of an egg, while Ismaya ([Semar]) was created from the egg white and Manikmaya ([Guru]) from the yolk. Like his siblings, Togog initially had a handsome face, but this has eventually changed to his distorted shape due to his wrongdoings (there are multiple versions about how this came about). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejamantri, Caturoga, Antaga, Maha_Punggung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semar, Guru, Rudra, Darmastuti, Dewanjali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teja, Blungkang, Congok, Blegok, Klentang, Goprak, Manuk, Lengsor, Lengok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301-302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66-71 (Vol. IX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1096-1099</t>
   </si>
   <si>
     <t xml:space="preserve">Domble</t>
@@ -3539,7 +3626,7 @@
     <t xml:space="preserve">TunggulWulung</t>
   </si>
   <si>
-    <t xml:space="preserve">//HY he also has his own lakon: tunggul wulung. Malihane Betara GUru. //Tidak punya prajurit, dia mengalahkan kurawa semua, dia usap jadi patung. Akhirnya karna, duryudhana takluk. Si tunggulwulung minta supaya korawa ngluruk Dwarawati. Dwarawati kalah, Kresna mencari bantuan ke Amarta. Sementara Amarta diserang juga. Bima, Gatotkaca, Antareja semua lari ke hutan. Ketemu begawan. Mereka dirubah bima jadi gajah, antasena dadi ular, gatotkaca jadi garuda. Yang merubah ini pendita yang malihane Semar. </t>
+    <t xml:space="preserve">He is a king in the /Bandung_Nagasewu/. No entries for him were found in any of the consulted encyclopedias. In the Yogyakarta folk versions, he is said to be Batara [Guru] in disguise. </t>
   </si>
   <si>
     <t xml:space="preserve">Udawa</t>
@@ -3548,7 +3635,25 @@
     <t xml:space="preserve">In most Indian retellings, Vasudeva is usually mentioned to have two wives Devaki and Rohini. There is no mentioning of him having children out of wedlock.</t>
   </si>
   <si>
-    <t xml:space="preserve">Son of Basudewa, out of wedlock. The fourth consort of Basudewa is his mother: Ken Sagupi.</t>
+    <t xml:space="preserve">Son of [Basudewa] out of wedlock with [Ken_Sagopi], a dancer in the service of the court. [Basudewa] had two sons with her, [Pragota] and Udawa. She was then married to [Antagopa], a herder from Widarakandang who became Udawa's foster father. He is known as the /patih/ of [Kresna]. He had to surpass several challenges to marry [Antipati] and was assisted in this by Dewi [Larasati]. In the Bhartayudha war, he fought alongside the Korawa, fulfilling a promise [Kresna] had made to [Duryudana]. However, in his heart he sided with the Pandawa and was therefore hardly active in combat. Udawa was killed in combat with [Arjunapati], from the Sriwedari kingdom, a place he attacked as instructed by [Kresna]. Although this is the most common version in Java, there are alternative Sanskrit retellings of his death. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antipati: x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaran, Tandang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">549-550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151-152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123-124 (Vol. IX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1106-1107</t>
   </si>
   <si>
     <t xml:space="preserve">Setyajid</t>
@@ -3590,7 +3695,31 @@
     <t xml:space="preserve">Wenang</t>
   </si>
   <si>
-    <t xml:space="preserve">Sang Hyang Wenang. Father of Togog, Guru and Semar, with Dewi Wiranti (daughter of Rekatatama). He appears as Ruci in Dewa Ruci.</t>
+    <t xml:space="preserve">He is the grandfather of [Togog], [Guru] and [Semar]. He rules the holy water source /Tirta_Kamandanu/, drops of which wan be used to restore balance in the world. In some versions, he is the same as Jatiwasesa, not his brother. In some versions, [Wening] is his twin brother, not his son. When his father was old, he (his father) became one with Wenang, entrusting him several important hierlooms: Kitab_Pustaka_Darya, Kayu_Rewan,Lata_Maha_Usadi,Cupu_Manik_Astagina and Cupu_Retnadumilah. In some versions he has five descendants, all of them shaped as /akyan/ (spirits): Sang Hyang Tunggal, Dewi Suyati, Batar Nioya, Batara Herumaya and Batara Senggana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarwati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurrasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purbawiwesa, Jatiwisesa, Pramanawisesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saoti: Tunggal, Wening, Suyati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arditunggal, Ondar_Andir_Buwana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitab_Pustaka_Darya, Kayu_Rewan,Lata_Maha_Usadi,Cupu_Manik_Astagina and Cupu_Retnadumilah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-211 (Vol. IX)</t>
   </si>
   <si>
     <t xml:space="preserve">Known as Bhima, Hanuman's younger brother and the second Pandava.</t>
@@ -3602,6 +3731,18 @@
     <t xml:space="preserve">Bratasena, Bima, Arya Sena, Gandawatratmaja, Panduputra</t>
   </si>
   <si>
+    <t xml:space="preserve">Kuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayu (Pandu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karna, Arjuna, Puntadewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arimbi:Gatotkaca;Wurangayu:Antasena;Nagagini:Antareja</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lindhu</t>
   </si>
   <si>
@@ -4134,6 +4275,12 @@
   </si>
   <si>
     <t xml:space="preserve">Magical mace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An amulet of [Surati_Mantra]. It consists of a pool of water that can bring his owner back to life in case he is fatally wounded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cart pulled by 7 horses.</t>
   </si>
   <si>
     <t xml:space="preserve">anoman</t>
@@ -4355,7 +4502,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4460,6 +4607,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4544,44 +4695,44 @@
   <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K128" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A84" activeCellId="0" sqref="A84"/>
-      <selection pane="bottomRight" activeCell="L93" activeCellId="0" sqref="L93"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A128" activeCellId="0" sqref="A128"/>
+      <selection pane="bottomRight" activeCell="L139" activeCellId="0" sqref="L139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.1530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.780612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.6479591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="52.6989795918367"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="84.9897959183673"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.2142857142857"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="29.9132653061224"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.3265306122449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="33.1530612244898"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="50.6479591836735"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="20.9489795918367"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.734693877551"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="40.5"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="34.9897959183673"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="49.8928571428572"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="45.25"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.9132653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="32.6122448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="59.1785714285714"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="95.6836734693878"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.6632653061224"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="33.3724489795918"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="37.0408163265306"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="56.8061224489796"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="23.1122448979592"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="15.5510204081633"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="45.25"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="39.2040816326531"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="56.0510204081633"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="53.3469387755102"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="50.7551020408163"/>
     <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="5.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="5.83163265306122"/>
   </cols>
@@ -7688,13 +7839,15 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
+      <c r="K56" s="5" t="s">
+        <v>506</v>
+      </c>
       <c r="L56" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>274</v>
@@ -7711,10 +7864,10 @@
       </c>
       <c r="V56" s="19"/>
       <c r="W56" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y56" s="5" t="s">
         <v>62</v>
@@ -7735,59 +7888,59 @@
         <v>29</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="U57" s="2" t="n">
         <v>43</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
@@ -7803,13 +7956,13 @@
         <v>218</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
@@ -7843,13 +7996,13 @@
         <v>29</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>239</v>
@@ -7858,44 +8011,44 @@
         <v>240</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="U59" s="2" t="n">
         <v>113</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
@@ -7911,7 +8064,7 @@
         <v>218</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -7931,12 +8084,12 @@
       <c r="W60" s="19"/>
       <c r="X60" s="19"/>
       <c r="Y60" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
@@ -7949,21 +8102,21 @@
         <v>29</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K61" s="5"/>
       <c r="L61" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -7980,32 +8133,32 @@
       </c>
       <c r="V61" s="19"/>
       <c r="W61" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="X61" s="2" t="n">
         <v>756</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="1" t="s">
         <v>376</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -8023,16 +8176,16 @@
       <c r="U62" s="19"/>
       <c r="V62" s="19"/>
       <c r="W62" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="X62" s="19"/>
       <c r="Y62" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="1" t="s">
@@ -8045,59 +8198,59 @@
         <v>29</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>183</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O63" s="5"/>
       <c r="P63" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="R63" s="5"/>
       <c r="S63" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T63" s="19" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="U63" s="19"/>
       <c r="V63" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="X63" s="2" t="n">
         <v>135</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
@@ -8113,23 +8266,23 @@
         <v>218</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
@@ -8139,18 +8292,18 @@
       </c>
       <c r="V64" s="19"/>
       <c r="W64" s="19" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
@@ -8163,50 +8316,50 @@
         <v>29</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
       <c r="T65" s="19" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="U65" s="2" t="n">
         <v>141</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="W65" s="19" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Y65" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8220,65 +8373,65 @@
         <v>27</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O66" s="5" t="s">
         <v>34</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="T66" s="19" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U66" s="2" t="n">
         <v>41</v>
       </c>
       <c r="V66" s="19"/>
       <c r="W66" s="19" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>251</v>
@@ -8293,10 +8446,10 @@
         <v>29</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5" t="s">
@@ -8306,14 +8459,14 @@
         <v>225</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O67" s="5" t="s">
         <v>112</v>
@@ -8323,25 +8476,25 @@
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
       <c r="T67" s="19" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="U67" s="19"/>
       <c r="V67" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="W67" s="19" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="1" t="s">
@@ -8357,14 +8510,14 @@
         <v>218</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
@@ -8374,7 +8527,7 @@
         <v>189</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
@@ -8387,10 +8540,10 @@
       </c>
       <c r="V68" s="19"/>
       <c r="W68" s="19" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Y68" s="1" t="s">
         <v>62</v>
@@ -8414,7 +8567,7 @@
         <v>218</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -8444,67 +8597,67 @@
         <v>27</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>195</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="R70" s="5"/>
       <c r="S70" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="T70" s="19" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="U70" s="2" t="n">
         <v>150</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="W70" s="19" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
@@ -8520,14 +8673,14 @@
         <v>218</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -8545,10 +8698,10 @@
       </c>
       <c r="U71" s="19"/>
       <c r="V71" s="19" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="X71" s="19"/>
       <c r="Y71" s="5" t="s">
@@ -8557,7 +8710,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
@@ -8570,10 +8723,10 @@
         <v>29</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5" t="s">
@@ -8583,41 +8736,41 @@
         <v>337</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="T72" s="19" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="U72" s="2" t="n">
         <v>153</v>
       </c>
       <c r="V72" s="19"/>
       <c r="W72" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Y72" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8635,47 +8788,47 @@
         <v>29</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T73" s="19" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="U73" s="2" t="n">
         <v>154</v>
       </c>
       <c r="V73" s="19"/>
       <c r="W73" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Y73" s="1" t="s">
         <v>62</v>
@@ -8696,25 +8849,25 @@
         <v>29</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
@@ -8729,7 +8882,7 @@
         <v>133</v>
       </c>
       <c r="W74" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="X74" s="19"/>
       <c r="Y74" s="1" t="s">
@@ -8738,7 +8891,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="1" t="s">
@@ -8754,22 +8907,22 @@
         <v>218</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>189</v>
@@ -8784,10 +8937,10 @@
       <c r="U75" s="19"/>
       <c r="V75" s="19"/>
       <c r="W75" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Y75" s="5" t="s">
         <v>62</v>
@@ -8795,7 +8948,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>251</v>
@@ -8810,13 +8963,13 @@
         <v>29</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>204</v>
@@ -8825,7 +8978,7 @@
         <v>430</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -8837,7 +8990,7 @@
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
       <c r="S76" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="T76" s="19" t="n">
         <v>319</v>
@@ -8846,21 +8999,21 @@
         <v>160</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Y76" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -8873,22 +9026,22 @@
         <v>29</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>225</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -8900,20 +9053,20 @@
         <v>34</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T77" s="19" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="U77" s="2" t="n">
         <v>158</v>
       </c>
       <c r="V77" s="19"/>
       <c r="W77" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Y77" s="1" t="s">
         <v>62</v>
@@ -8921,7 +9074,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -8934,25 +9087,25 @@
         <v>29</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>176</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -8961,28 +9114,28 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
       <c r="S78" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="T78" s="19" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="U78" s="2" t="n">
         <v>161</v>
       </c>
       <c r="V78" s="19"/>
       <c r="W78" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Y78" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
@@ -8996,20 +9149,20 @@
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K79" s="5" t="s">
         <v>194</v>
       </c>
       <c r="L79" s="21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -9019,17 +9172,17 @@
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
       <c r="T79" s="19" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="U79" s="2" t="n">
         <v>162</v>
       </c>
       <c r="V79" s="19"/>
       <c r="W79" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Y79" s="5" t="s">
         <v>62</v>
@@ -9037,7 +9190,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="1" t="s">
@@ -9053,23 +9206,23 @@
         <v>218</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K80" s="5"/>
       <c r="L80" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
@@ -9085,10 +9238,10 @@
       </c>
       <c r="V80" s="19"/>
       <c r="W80" s="19" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="X80" s="19" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Y80" s="1" t="s">
         <v>62</v>
@@ -9096,7 +9249,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="1" t="s">
@@ -9109,29 +9262,29 @@
         <v>29</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="O81" s="5" t="s">
         <v>416</v>
@@ -9141,17 +9294,17 @@
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
       <c r="T81" s="19" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="U81" s="19" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="V81" s="19"/>
       <c r="W81" s="19" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="X81" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Y81" s="1" t="s">
         <v>62</v>
@@ -9159,7 +9312,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
@@ -9175,13 +9328,13 @@
         <v>218</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
@@ -9218,34 +9371,34 @@
         <v>218</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="19" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="U83" s="19" t="n">
         <v>168</v>
@@ -9254,10 +9407,10 @@
         <v>71</v>
       </c>
       <c r="W83" s="19" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="X83" s="19" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="Y83" s="5" t="s">
         <v>62</v>
@@ -9265,7 +9418,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
@@ -9281,7 +9434,7 @@
         <v>218</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -9306,14 +9459,14 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>65</v>
@@ -9322,26 +9475,26 @@
         <v>218</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
@@ -9349,17 +9502,17 @@
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
       <c r="T85" s="19" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="U85" s="19" t="n">
         <v>169</v>
       </c>
       <c r="V85" s="19"/>
       <c r="W85" s="19" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="X85" s="19" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="Y85" s="1" t="s">
         <v>62</v>
@@ -9367,7 +9520,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>26</v>
@@ -9382,41 +9535,41 @@
         <v>29</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>145</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="O86" s="5"/>
       <c r="P86" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="T86" s="19" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="U86" s="19" t="n">
         <v>170</v>
@@ -9425,10 +9578,10 @@
         <v>213</v>
       </c>
       <c r="W86" s="19" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="X86" s="19" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="Y86" s="1" t="s">
         <v>62</v>
@@ -9449,31 +9602,31 @@
         <v>29</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="Q87" s="1" t="s">
         <v>75</v>
@@ -9483,16 +9636,16 @@
       </c>
       <c r="S87" s="5"/>
       <c r="T87" s="19" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="U87" s="19" t="n">
         <v>171</v>
       </c>
       <c r="V87" s="19" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="W87" s="19" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="X87" s="19" t="s">
         <v>355</v>
@@ -9503,26 +9656,26 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="22" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>
@@ -9539,7 +9692,7 @@
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="X88" s="5"/>
       <c r="Y88" s="5" t="s">
@@ -9548,7 +9701,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
@@ -9564,7 +9717,7 @@
         <v>218</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -9588,7 +9741,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -9604,7 +9757,7 @@
         <v>218</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -9625,7 +9778,7 @@
       </c>
       <c r="V90" s="19"/>
       <c r="W90" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="X90" s="19"/>
       <c r="Y90" s="5" t="s">
@@ -9634,7 +9787,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>26</v>
@@ -9649,21 +9802,21 @@
         <v>65</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5" t="s">
         <v>390</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" s="5" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -9674,7 +9827,7 @@
       <c r="Q91" s="5"/>
       <c r="S91" s="5"/>
       <c r="T91" s="19" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="U91" s="2" t="n">
         <v>178</v>
@@ -9683,10 +9836,10 @@
         <v>170</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="Y91" s="1" t="s">
         <v>62</v>
@@ -9709,25 +9862,25 @@
         <v>29</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="1" t="s">
@@ -9735,24 +9888,24 @@
       </c>
       <c r="O92" s="5"/>
       <c r="P92" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="Q92" s="5"/>
       <c r="S92" s="5"/>
       <c r="T92" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="U92" s="2" t="n">
         <v>179</v>
       </c>
       <c r="V92" s="5" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Y92" s="1" t="s">
         <v>62</v>
@@ -9760,7 +9913,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="1" t="s">
@@ -9776,15 +9929,15 @@
         <v>218</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -9797,10 +9950,10 @@
       <c r="U93" s="5"/>
       <c r="V93" s="5"/>
       <c r="W93" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="Y93" s="1" t="s">
         <v>215</v>
@@ -9821,23 +9974,23 @@
         <v>29</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="K94" s="5"/>
       <c r="L94" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="1" t="s">
@@ -9846,23 +9999,23 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="S94" s="5"/>
       <c r="T94" s="19" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="U94" s="2" t="n">
         <v>177</v>
       </c>
       <c r="V94" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="X94" s="5" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Y94" s="1" t="s">
         <v>62</v>
@@ -9870,7 +10023,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>179</v>
@@ -9886,20 +10039,20 @@
         <v>218</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5" t="s">
         <v>183</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -9907,10 +10060,10 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="S95" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="T95" s="19" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="U95" s="2" t="n">
         <v>185</v>
@@ -9919,25 +10072,25 @@
         <v>228</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>65</v>
@@ -9946,7 +10099,7 @@
         <v>218</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -9955,7 +10108,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="O96" s="1" t="s">
         <v>137</v>
@@ -9964,17 +10117,17 @@
       <c r="Q96" s="5"/>
       <c r="S96" s="5"/>
       <c r="T96" s="19" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="U96" s="2" t="n">
         <v>136</v>
       </c>
       <c r="V96" s="5"/>
       <c r="W96" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="Y96" s="1" t="s">
         <v>62</v>
@@ -9982,7 +10135,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -9995,19 +10148,19 @@
         <v>29</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="K97" s="5"/>
       <c r="L97" s="5" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -10021,7 +10174,7 @@
       <c r="U97" s="5"/>
       <c r="V97" s="5"/>
       <c r="W97" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="X97" s="5"/>
       <c r="Y97" s="5" t="s">
@@ -10030,14 +10183,14 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>65</v>
@@ -10046,17 +10199,17 @@
         <v>218</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
@@ -10072,13 +10225,13 @@
         <v>191</v>
       </c>
       <c r="V98" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="Y98" s="1" t="s">
         <v>62</v>
@@ -10099,23 +10252,23 @@
         <v>65</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5" t="s">
         <v>170</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -10124,23 +10277,23 @@
       <c r="Q99" s="5"/>
       <c r="S99" s="5"/>
       <c r="T99" s="19" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U99" s="5"/>
       <c r="V99" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="Y99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -10156,7 +10309,7 @@
         <v>218</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -10180,7 +10333,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
@@ -10196,7 +10349,7 @@
         <v>218</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -10208,7 +10361,7 @@
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
       <c r="Q101" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="S101" s="5"/>
       <c r="T101" s="19"/>
@@ -10222,7 +10375,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>26</v>
@@ -10237,40 +10390,40 @@
         <v>29</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>144</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="O102" s="5"/>
       <c r="P102" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="Q102" s="5"/>
       <c r="S102" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="T102" s="19" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="U102" s="2" t="n">
         <v>196</v>
@@ -10279,13 +10432,13 @@
         <v>162</v>
       </c>
       <c r="W102" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="Y102" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10297,62 +10450,62 @@
         <v>27</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="S103" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="T103" s="19" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="U103" s="2" t="n">
         <v>202</v>
       </c>
       <c r="V103" s="5"/>
       <c r="W103" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="Y103" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="1" t="s">
@@ -10365,22 +10518,22 @@
         <v>29</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
@@ -10390,17 +10543,17 @@
       <c r="Q104" s="5"/>
       <c r="S104" s="5"/>
       <c r="T104" s="19" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="U104" s="2" t="n">
         <v>201</v>
       </c>
       <c r="V104" s="5"/>
       <c r="W104" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="X104" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="Y104" s="1" t="s">
         <v>62</v>
@@ -10408,7 +10561,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="1" t="s">
@@ -10424,10 +10577,10 @@
         <v>218</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
@@ -10452,7 +10605,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -10468,13 +10621,13 @@
         <v>218</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
@@ -10507,13 +10660,13 @@
         <v>29</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>163</v>
@@ -10522,20 +10675,20 @@
         <v>195</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="T107" s="19" t="n">
         <v>502</v>
@@ -10544,16 +10697,16 @@
         <v>219</v>
       </c>
       <c r="V107" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="W107" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="X107" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10574,7 +10727,7 @@
         <v>218</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -10616,17 +10769,17 @@
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L109" s="5" t="s">
         <v>360</v>
@@ -10645,10 +10798,10 @@
       <c r="U109" s="5"/>
       <c r="V109" s="5"/>
       <c r="W109" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Y109" s="5" t="s">
         <v>62</v>
@@ -10656,7 +10809,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="1" t="s">
@@ -10669,20 +10822,20 @@
         <v>29</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J110" s="5" t="s">
         <v>274</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
@@ -10697,7 +10850,7 @@
       <c r="U110" s="5"/>
       <c r="V110" s="5"/>
       <c r="W110" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="X110" s="5"/>
       <c r="Y110" s="1" t="s">
@@ -10706,7 +10859,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="1" t="s">
@@ -10719,23 +10872,23 @@
         <v>29</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>274</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -10744,12 +10897,12 @@
       <c r="Q111" s="5"/>
       <c r="S111" s="5"/>
       <c r="T111" s="19" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="U111" s="5"/>
       <c r="V111" s="5"/>
       <c r="W111" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="X111" s="5"/>
       <c r="Y111" s="1" t="s">
@@ -10758,7 +10911,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -10774,29 +10927,29 @@
         <v>218</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="S112" s="5"/>
       <c r="T112" s="19" t="n">
@@ -10807,10 +10960,10 @@
         <v>73</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="Y112" s="1" t="s">
         <v>62</v>
@@ -10818,7 +10971,7 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>26</v>
@@ -10833,33 +10986,33 @@
         <v>29</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="O113" s="5"/>
       <c r="P113" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="Q113" s="5"/>
       <c r="S113" s="5"/>
@@ -10869,10 +11022,10 @@
       </c>
       <c r="V113" s="5"/>
       <c r="W113" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="X113" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="Y113" s="1" t="s">
         <v>62</v>
@@ -10893,52 +11046,52 @@
         <v>29</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="K114" s="5"/>
       <c r="L114" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N114" s="5"/>
       <c r="O114" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="P114" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="Q114" s="5"/>
       <c r="S114" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="T114" s="19" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="U114" s="2" t="n">
         <v>209</v>
       </c>
       <c r="V114" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="W114" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="Y114" s="1" t="s">
         <v>62</v>
@@ -10946,7 +11099,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -10959,23 +11112,23 @@
         <v>29</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H115" s="5"/>
       <c r="I115" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J115" s="5" t="s">
         <v>196</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="0"/>
@@ -10983,22 +11136,22 @@
       <c r="P115" s="0"/>
       <c r="Q115" s="5"/>
       <c r="S115" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="T115" s="19" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="U115" s="2" t="n">
         <v>210</v>
       </c>
       <c r="V115" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="W115" s="5" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="X115" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="Y115" s="1" t="s">
         <v>62</v>
@@ -11006,14 +11159,14 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>65</v>
@@ -11022,22 +11175,22 @@
         <v>218</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="0"/>
@@ -11051,10 +11204,10 @@
       <c r="U116" s="0"/>
       <c r="V116" s="0"/>
       <c r="W116" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="Y116" s="1" t="s">
         <v>62</v>
@@ -11062,7 +11215,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="1" t="s">
@@ -11075,10 +11228,10 @@
         <v>29</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5" t="s">
@@ -11088,7 +11241,7 @@
         <v>225</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L117" s="0"/>
       <c r="M117" s="5"/>
@@ -11101,7 +11254,7 @@
       <c r="U117" s="0"/>
       <c r="V117" s="0"/>
       <c r="W117" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="X117" s="0"/>
       <c r="Y117" s="1" t="s">
@@ -11110,14 +11263,14 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>65</v>
@@ -11126,10 +11279,10 @@
         <v>218</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
@@ -11144,12 +11297,12 @@
       <c r="Q118" s="5"/>
       <c r="S118" s="0"/>
       <c r="T118" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="U118" s="0"/>
       <c r="V118" s="0"/>
       <c r="W118" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="X118" s="0"/>
       <c r="Y118" s="5" t="s">
@@ -11167,7 +11320,7 @@
         <v>92</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>65</v>
@@ -11176,22 +11329,22 @@
         <v>218</v>
       </c>
       <c r="G119" s="25" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="0"/>
@@ -11199,28 +11352,28 @@
       <c r="P119" s="0"/>
       <c r="Q119" s="5"/>
       <c r="S119" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U119" s="0"/>
       <c r="V119" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="W119" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="X119" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="Y119" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>251</v>
@@ -11229,29 +11382,29 @@
         <v>27</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5" t="s">
         <v>494</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M120" s="5"/>
       <c r="N120" s="0"/>
@@ -11259,28 +11412,28 @@
         <v>112</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="U120" s="2" t="n">
         <v>221</v>
       </c>
       <c r="V120" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="W120" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="X120" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="Y120" s="1" t="s">
         <v>62</v>
@@ -11288,7 +11441,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -11301,30 +11454,31 @@
         <v>29</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="M121" s="5"/>
       <c r="N121" s="0"/>
+      <c r="O121" s="0"/>
       <c r="P121" s="0"/>
       <c r="Q121" s="5"/>
       <c r="S121" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T121" s="0" t="n">
         <v>473</v>
@@ -11332,7 +11486,7 @@
       <c r="U121" s="0"/>
       <c r="V121" s="0"/>
       <c r="W121" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="X121" s="0" t="n">
         <v>1046</v>
@@ -11343,7 +11497,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>26</v>
@@ -11358,51 +11512,52 @@
         <v>29</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="L122" s="0" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="M122" s="5"/>
       <c r="N122" s="0"/>
+      <c r="O122" s="0"/>
       <c r="P122" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="Q122" s="5"/>
       <c r="S122" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="T122" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="U122" s="0"/>
       <c r="V122" s="0" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="W122" s="0" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="X122" s="0" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="Y122" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>26</v>
@@ -11417,47 +11572,48 @@
         <v>65</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="J123" s="5" t="s">
         <v>196</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="0"/>
+      <c r="O123" s="0"/>
       <c r="P123" s="0"/>
       <c r="Q123" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="S123" s="0"/>
       <c r="T123" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="U123" s="0" t="n">
         <v>231</v>
       </c>
       <c r="V123" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="W123" s="0" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="X123" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="Y123" s="5" t="s">
         <v>62</v>
@@ -11465,7 +11621,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="1" t="s">
@@ -11478,20 +11634,22 @@
         <v>65</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="K124" s="5"/>
       <c r="L124" s="0"/>
       <c r="M124" s="5"/>
       <c r="N124" s="0"/>
+      <c r="O124" s="0"/>
+      <c r="P124" s="0"/>
       <c r="Q124" s="5"/>
       <c r="S124" s="0"/>
       <c r="T124" s="0"/>
@@ -11505,7 +11663,7 @@
     </row>
     <row r="125" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="1" t="s">
@@ -11521,25 +11679,27 @@
         <v>218</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="L125" s="0"/>
       <c r="M125" s="5"/>
       <c r="N125" s="0"/>
+      <c r="O125" s="0"/>
+      <c r="P125" s="0"/>
       <c r="Q125" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="S125" s="0"/>
       <c r="T125" s="0"/>
@@ -11548,10 +11708,10 @@
         <v>72</v>
       </c>
       <c r="W125" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="X125" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="Y125" s="1" t="s">
         <v>62</v>
@@ -11559,7 +11719,7 @@
     </row>
     <row r="126" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="1" t="s">
@@ -11572,44 +11732,46 @@
         <v>29</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="L126" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="M126" s="5"/>
       <c r="N126" s="0" t="s">
-        <v>1081</v>
-      </c>
+        <v>1082</v>
+      </c>
+      <c r="O126" s="0"/>
+      <c r="P126" s="0"/>
       <c r="Q126" s="5"/>
       <c r="S126" s="0"/>
       <c r="T126" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="U126" s="0" t="n">
         <v>235</v>
       </c>
       <c r="V126" s="0"/>
       <c r="W126" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="X126" s="0" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="Y126" s="1" t="s">
         <v>62</v>
@@ -11617,14 +11779,14 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="1" t="s">
         <v>376</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>65</v>
@@ -11633,19 +11795,21 @@
         <v>218</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="3" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="L127" s="0"/>
       <c r="M127" s="5"/>
       <c r="N127" s="0"/>
+      <c r="O127" s="0"/>
+      <c r="P127" s="0"/>
       <c r="Q127" s="5"/>
       <c r="S127" s="0"/>
       <c r="T127" s="0" t="n">
@@ -11654,18 +11818,18 @@
       <c r="U127" s="0"/>
       <c r="V127" s="0"/>
       <c r="W127" s="0" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="X127" s="0" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="Y127" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
-        <v>1092</v>
+      <c r="A128" s="6" t="s">
+        <v>1093</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="1" t="s">
@@ -11681,7 +11845,7 @@
         <v>218</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -11689,7 +11853,11 @@
       <c r="K128" s="5"/>
       <c r="L128" s="0"/>
       <c r="M128" s="5"/>
-      <c r="N128" s="0"/>
+      <c r="N128" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O128" s="0"/>
+      <c r="P128" s="0"/>
       <c r="Q128" s="5"/>
       <c r="S128" s="0"/>
       <c r="T128" s="0"/>
@@ -11702,15 +11870,15 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
-        <v>1094</v>
+      <c r="A129" s="6" t="s">
+        <v>506</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>65</v>
@@ -11719,29 +11887,47 @@
         <v>218</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
+      <c r="K129" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="L129" s="0"/>
       <c r="M129" s="5"/>
-      <c r="N129" s="0"/>
+      <c r="N129" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>1098</v>
+      </c>
       <c r="Q129" s="5"/>
       <c r="S129" s="0"/>
-      <c r="T129" s="0"/>
-      <c r="U129" s="0"/>
+      <c r="T129" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="U129" s="0" t="n">
+        <v>242</v>
+      </c>
       <c r="V129" s="0"/>
-      <c r="W129" s="0"/>
-      <c r="X129" s="0"/>
+      <c r="W129" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="X129" s="0" t="s">
+        <v>1101</v>
+      </c>
       <c r="Y129" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>1096</v>
+      <c r="A130" s="6" t="s">
+        <v>1102</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="1" t="s">
@@ -11754,32 +11940,51 @@
         <v>29</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="0"/>
+      <c r="I130" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L130" s="0" t="s">
+        <v>1106</v>
+      </c>
       <c r="M130" s="5"/>
       <c r="N130" s="0"/>
+      <c r="P130" s="0"/>
       <c r="Q130" s="5"/>
       <c r="S130" s="0"/>
-      <c r="T130" s="0"/>
-      <c r="U130" s="0"/>
-      <c r="V130" s="0"/>
-      <c r="W130" s="0"/>
-      <c r="X130" s="0"/>
+      <c r="T130" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="U130" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="V130" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="W130" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="X130" s="0" t="s">
+        <v>1110</v>
+      </c>
       <c r="Y130" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
-        <v>588</v>
+      <c r="A131" s="6" t="s">
+        <v>589</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="1" t="s">
@@ -11792,32 +11997,57 @@
         <v>29</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1100</v>
+        <v>1112</v>
       </c>
       <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="0"/>
+      <c r="I131" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L131" s="0" t="s">
+        <v>1116</v>
+      </c>
       <c r="M131" s="5"/>
-      <c r="N131" s="0"/>
+      <c r="N131" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>1118</v>
+      </c>
       <c r="Q131" s="5"/>
-      <c r="S131" s="0"/>
-      <c r="T131" s="0"/>
-      <c r="U131" s="0"/>
-      <c r="V131" s="0"/>
-      <c r="W131" s="0"/>
-      <c r="X131" s="0"/>
+      <c r="S131" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="T131" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="U131" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="V131" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="W131" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="X131" s="0" t="s">
+        <v>1122</v>
+      </c>
       <c r="Y131" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
-        <v>1101</v>
+      <c r="A132" s="6" t="s">
+        <v>1123</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="1" t="s">
@@ -11830,13 +12060,13 @@
         <v>65</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1102</v>
+        <v>1124</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1103</v>
+        <v>1125</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
@@ -11844,18 +12074,21 @@
       <c r="L132" s="0"/>
       <c r="M132" s="5"/>
       <c r="N132" s="0"/>
+      <c r="P132" s="0"/>
       <c r="Q132" s="5"/>
       <c r="S132" s="0"/>
       <c r="T132" s="0"/>
       <c r="U132" s="0"/>
       <c r="V132" s="0"/>
-      <c r="W132" s="0"/>
+      <c r="W132" s="0" t="s">
+        <v>1126</v>
+      </c>
       <c r="X132" s="0"/>
       <c r="Y132" s="5"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
-        <v>1104</v>
+    <row r="133" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="s">
+        <v>1127</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>179</v>
@@ -11870,30 +12103,51 @@
       <c r="F133" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
+      <c r="G133" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>1130</v>
+      </c>
       <c r="L133" s="0"/>
       <c r="M133" s="5"/>
       <c r="N133" s="0"/>
+      <c r="P133" s="0"/>
       <c r="Q133" s="5"/>
-      <c r="S133" s="0"/>
-      <c r="T133" s="0"/>
-      <c r="U133" s="0"/>
-      <c r="V133" s="0"/>
-      <c r="W133" s="0"/>
-      <c r="X133" s="0"/>
+      <c r="S133" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="T133" s="0" t="n">
+        <v>542</v>
+      </c>
+      <c r="U133" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="V133" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="W133" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="X133" s="0" t="s">
+        <v>1134</v>
+      </c>
       <c r="Y133" s="1" t="s">
-        <v>1106</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
-        <v>1107</v>
+      <c r="A134" s="6" t="s">
+        <v>1136</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="1" t="s">
@@ -11909,7 +12163,7 @@
         <v>218</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1108</v>
+        <v>1137</v>
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
@@ -11918,6 +12172,7 @@
       <c r="L134" s="0"/>
       <c r="M134" s="5"/>
       <c r="N134" s="0"/>
+      <c r="P134" s="0"/>
       <c r="Q134" s="5"/>
       <c r="S134" s="0"/>
       <c r="T134" s="0"/>
@@ -11930,46 +12185,65 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>1109</v>
+      <c r="A135" s="6" t="s">
+        <v>1138</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1110</v>
+        <v>1139</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1111</v>
+        <v>1140</v>
       </c>
       <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
+      <c r="I135" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="0"/>
+      <c r="L135" s="0" t="s">
+        <v>1141</v>
+      </c>
       <c r="M135" s="5"/>
       <c r="N135" s="0"/>
+      <c r="P135" s="0"/>
       <c r="Q135" s="5"/>
-      <c r="S135" s="0"/>
-      <c r="T135" s="0"/>
-      <c r="U135" s="0"/>
-      <c r="V135" s="0"/>
-      <c r="W135" s="0"/>
-      <c r="X135" s="0"/>
+      <c r="S135" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="T135" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="U135" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="V135" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="W135" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="X135" s="0" t="s">
+        <v>1146</v>
+      </c>
       <c r="Y135" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>1112</v>
+        <v>1147</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="1" t="s">
@@ -11982,54 +12256,55 @@
         <v>29</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1113</v>
+        <v>1148</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1114</v>
+        <v>1149</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="5" t="s">
         <v>230</v>
       </c>
       <c r="K136" s="5" t="s">
-        <v>1115</v>
+        <v>1150</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>1116</v>
+        <v>1151</v>
       </c>
       <c r="M136" s="5"/>
       <c r="N136" s="1" t="s">
-        <v>1117</v>
-      </c>
+        <v>1152</v>
+      </c>
+      <c r="P136" s="0"/>
       <c r="Q136" s="5"/>
       <c r="S136" s="1" t="s">
-        <v>1118</v>
+        <v>1153</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>1119</v>
+        <v>1154</v>
       </c>
       <c r="U136" s="2" t="s">
-        <v>1120</v>
+        <v>1155</v>
       </c>
       <c r="V136" s="2" t="s">
-        <v>1121</v>
+        <v>1156</v>
       </c>
       <c r="W136" s="2" t="s">
-        <v>1122</v>
+        <v>1157</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>1123</v>
+        <v>1158</v>
       </c>
       <c r="Y136" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>1124</v>
+      <c r="A137" s="6" t="s">
+        <v>1159</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="1" t="s">
@@ -12045,20 +12320,44 @@
         <v>218</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1125</v>
+        <v>1160</v>
       </c>
       <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
+      <c r="I137" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>1164</v>
+      </c>
       <c r="M137" s="5"/>
+      <c r="N137" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>1166</v>
+      </c>
       <c r="Q137" s="5"/>
+      <c r="S137" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="W137" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="X137" s="2" t="s">
+        <v>458</v>
+      </c>
       <c r="Y137" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="26" t="s">
         <v>112</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -12074,23 +12373,32 @@
         <v>29</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1126</v>
+        <v>1169</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1127</v>
+        <v>1170</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
+        <v>1171</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="M138" s="5"/>
       <c r="Q138" s="1" t="s">
         <v>173</v>
       </c>
       <c r="Y138" s="1" t="s">
-        <v>1129</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12108,23 +12416,23 @@
         <v>65</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1130</v>
+        <v>1177</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1131</v>
+        <v>1178</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1132</v>
+        <v>1179</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="18" t="s">
-        <v>1133</v>
+        <v>1180</v>
       </c>
       <c r="M139" s="5"/>
       <c r="Q139" s="5"/>
       <c r="Y139" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12142,10 +12450,10 @@
         <v>65</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1134</v>
+        <v>1181</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1135</v>
+        <v>1182</v>
       </c>
       <c r="H140" s="0"/>
       <c r="I140" s="5"/>
@@ -12170,20 +12478,20 @@
         <v>27</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1136</v>
+        <v>1183</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1130</v>
+        <v>1177</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1137</v>
+        <v>1184</v>
       </c>
       <c r="H141" s="0"/>
       <c r="I141" s="1" t="s">
-        <v>1138</v>
+        <v>1185</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>34</v>
@@ -12191,12 +12499,12 @@
       <c r="K141" s="0"/>
       <c r="Q141" s="5"/>
       <c r="Y141" s="1" t="s">
-        <v>1139</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>1140</v>
+        <v>1187</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>92</v>
@@ -12208,23 +12516,23 @@
         <v>29</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1141</v>
+        <v>1188</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1142</v>
+        <v>1189</v>
       </c>
       <c r="H142" s="0"/>
       <c r="K142" s="0"/>
       <c r="Q142" s="1" t="s">
-        <v>1143</v>
+        <v>1190</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>1144</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1145</v>
+        <v>1192</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>92</v>
@@ -12236,13 +12544,13 @@
         <v>65</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1130</v>
+        <v>1177</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1146</v>
+        <v>1193</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1147</v>
+        <v>1194</v>
       </c>
       <c r="K143" s="0"/>
       <c r="Q143" s="5"/>
@@ -12252,7 +12560,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1148</v>
+        <v>1195</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>92</v>
@@ -12264,13 +12572,13 @@
         <v>65</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1130</v>
+        <v>1177</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1149</v>
+        <v>1196</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1150</v>
+        <v>1197</v>
       </c>
       <c r="K144" s="0"/>
       <c r="Q144" s="5"/>
@@ -12280,7 +12588,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1151</v>
+        <v>1198</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>92</v>
@@ -12292,14 +12600,14 @@
         <v>29</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1152</v>
+        <v>1199</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1153</v>
+        <v>1200</v>
       </c>
       <c r="K145" s="0"/>
       <c r="Q145" s="1" t="s">
-        <v>1154</v>
+        <v>1201</v>
       </c>
       <c r="Y145" s="1" t="s">
         <v>62</v>
@@ -12307,7 +12615,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1155</v>
+        <v>1202</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>27</v>
@@ -12319,10 +12627,10 @@
         <v>29</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1156</v>
+        <v>1203</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1157</v>
+        <v>1204</v>
       </c>
       <c r="K146" s="0"/>
       <c r="Y146" s="1" t="s">
@@ -12331,22 +12639,22 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1158</v>
+        <v>1205</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1159</v>
+        <v>1206</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1160</v>
+        <v>1207</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1161</v>
+        <v>1208</v>
       </c>
       <c r="K147" s="0"/>
       <c r="Y147" s="5" t="s">
@@ -12355,7 +12663,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1162</v>
+        <v>1209</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>376</v>
@@ -12366,11 +12674,14 @@
       <c r="E148" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="F148" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="G148" s="1" t="s">
-        <v>1163</v>
+        <v>1210</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1164</v>
+        <v>1211</v>
       </c>
       <c r="Y148" s="1" t="s">
         <v>62</v>
@@ -12400,48 +12711,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.4132653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1307</v>
+        <v>1356</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1308</v>
+        <v>1357</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1309</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1310</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1311</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1312</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1313</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1314</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1315</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12451,7 +12762,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1316</v>
+        <v>1365</v>
       </c>
     </row>
   </sheetData>
@@ -12473,38 +12784,38 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="39.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="80.5612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="89.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="66.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="39.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="66.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="44.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="90.7142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="100.647959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="74.1938775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="44.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="74.1938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1165</v>
+        <v>1212</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1166</v>
+        <v>1213</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1167</v>
+        <v>1214</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1168</v>
+        <v>1215</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>24</v>
@@ -12513,10 +12824,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -12528,10 +12839,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1154</v>
+        <v>1201</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1151</v>
+        <v>1198</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -12543,7 +12854,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1169</v>
+        <v>1216</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -12556,7 +12867,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1170</v>
+        <v>1217</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>53</v>
@@ -12571,7 +12882,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1171</v>
+        <v>1218</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>316</v>
@@ -12601,10 +12912,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1143</v>
+        <v>1190</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1140</v>
+        <v>1187</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12626,7 +12937,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>1172</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12643,12 +12954,12 @@
         <v>62</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1173</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1174</v>
+        <v>1221</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>151</v>
@@ -12660,10 +12971,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -12674,7 +12985,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1175</v>
+        <v>1222</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>235</v>
@@ -12686,7 +12997,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1176</v>
+        <v>1223</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>108</v>
@@ -12699,10 +13010,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1177</v>
+        <v>1224</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1178</v>
+        <v>1225</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -12712,14 +13023,14 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1179</v>
+        <v>1226</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>1180</v>
+        <v>1227</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>62</v>
@@ -12727,10 +13038,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1181</v>
+        <v>1228</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1182</v>
+        <v>1229</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -12740,7 +13051,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1183</v>
+        <v>1230</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>483</v>
@@ -12751,14 +13062,14 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1184</v>
+        <v>1231</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3" t="s">
-        <v>1185</v>
+        <v>1232</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>62</v>
@@ -12773,7 +13084,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
-        <v>1186</v>
+        <v>1233</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>62</v>
@@ -12781,10 +13092,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -12820,22 +13131,22 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>1187</v>
+        <v>1234</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>1188</v>
+        <v>1235</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="s">
-        <v>1189</v>
+      <c r="A25" s="27" t="s">
+        <v>1236</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>34</v>
@@ -12846,10 +13157,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1190</v>
+        <v>1237</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -12859,13 +13170,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1191</v>
+        <v>1238</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
@@ -12874,7 +13185,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1192</v>
+        <v>1239</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>375</v>
@@ -12891,7 +13202,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1193</v>
+        <v>1240</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
@@ -12900,10 +13211,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1194</v>
+        <v>1241</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
@@ -12924,10 +13235,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
@@ -12936,23 +13247,23 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1195</v>
+        <v>1242</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1196</v>
+        <v>1243</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>62</v>
@@ -12960,7 +13271,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1197</v>
+        <v>1244</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
@@ -12993,12 +13304,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="27.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1198</v>
+        <v>1245</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -13012,54 +13323,54 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1199</v>
+        <v>1246</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1200</v>
+        <v>1247</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1201</v>
+        <v>1248</v>
       </c>
       <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1202</v>
+        <v>1249</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="5" t="s">
-        <v>1203</v>
+        <v>1250</v>
       </c>
       <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1204</v>
+        <v>1251</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>1205</v>
+        <v>1252</v>
       </c>
       <c r="D4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1206</v>
+        <v>1253</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1207</v>
+        <v>1254</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1208</v>
+        <v>1255</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1209</v>
+        <v>1256</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
@@ -13075,60 +13386,60 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1210</v>
+        <v>1257</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1211</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1212</v>
+        <v>1259</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1213</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1214</v>
+        <v>1261</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1215</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1216</v>
+        <v>1263</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1217</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -13155,16 +13466,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="42.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="47.515306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="5" t="s">
-        <v>1218</v>
+        <v>1265</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1219</v>
+        <v>1266</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
@@ -13177,13 +13488,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1220</v>
+        <v>1267</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1220</v>
+        <v>1267</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1221</v>
+        <v>1268</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -13193,7 +13504,7 @@
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="W2" s="5" t="s">
-        <v>1220</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13222,7 +13533,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1222</v>
+        <v>1269</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
@@ -13236,7 +13547,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1223</v>
+        <v>1270</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -13250,7 +13561,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1224</v>
+        <v>1271</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -13264,7 +13575,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1225</v>
+        <v>1272</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -13273,18 +13584,18 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="J8" s="5" t="s">
-        <v>1226</v>
+        <v>1273</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1227</v>
+        <v>1274</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1228</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1229</v>
+        <v>1276</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -13293,21 +13604,21 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="J9" s="5" t="s">
-        <v>1230</v>
+        <v>1277</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1231</v>
+        <v>1278</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1232</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>1233</v>
+        <v>1280</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1234</v>
+        <v>1281</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -13315,18 +13626,18 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="J10" s="5" t="s">
-        <v>1235</v>
+        <v>1282</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1236</v>
+        <v>1283</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1237</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>1238</v>
+        <v>1285</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -13335,18 +13646,18 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="J11" s="5" t="s">
-        <v>1239</v>
+        <v>1286</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1240</v>
+        <v>1287</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1241</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1242</v>
+        <v>1289</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -13355,21 +13666,21 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="J12" s="5" t="s">
-        <v>1243</v>
+        <v>1290</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1244</v>
+        <v>1291</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1245</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1246</v>
+        <v>1293</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1247</v>
+        <v>1294</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -13377,21 +13688,21 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="J13" s="5" t="s">
-        <v>1248</v>
+        <v>1295</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1249</v>
+        <v>1296</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1250</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1251</v>
+        <v>1298</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1252</v>
+        <v>1299</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -13400,10 +13711,10 @@
       <c r="G14" s="0"/>
       <c r="J14" s="0"/>
       <c r="L14" s="5" t="s">
-        <v>1253</v>
+        <v>1300</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1254</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13420,7 +13731,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>1255</v>
+        <v>1302</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -13429,13 +13740,13 @@
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="J16" s="5" t="s">
-        <v>1256</v>
+        <v>1303</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1257</v>
+        <v>1304</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1258</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13447,18 +13758,18 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="J17" s="5" t="s">
-        <v>1259</v>
+        <v>1306</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1260</v>
+        <v>1307</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1261</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>1262</v>
+        <v>1309</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -13467,15 +13778,15 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="J18" s="5" t="s">
-        <v>1263</v>
+        <v>1310</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1264</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>1265</v>
+        <v>1312</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13484,7 +13795,7 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="J19" s="5" t="s">
-        <v>1266</v>
+        <v>1313</v>
       </c>
       <c r="L19" s="0"/>
     </row>
@@ -13500,7 +13811,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>1267</v>
+        <v>1314</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -13522,7 +13833,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>1268</v>
+        <v>1315</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -13534,10 +13845,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>1269</v>
+        <v>1316</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1270</v>
+        <v>1317</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -13545,7 +13856,7 @@
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="L24" s="5" t="s">
-        <v>1271</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13557,15 +13868,15 @@
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="L25" s="5" t="s">
-        <v>1272</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>1273</v>
+        <v>1320</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1274</v>
+        <v>1321</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -13573,7 +13884,7 @@
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="L26" s="5" t="s">
-        <v>1275</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13585,12 +13896,12 @@
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="L27" s="5" t="s">
-        <v>1276</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>1277</v>
+        <v>1324</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -13599,7 +13910,7 @@
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="L28" s="5" t="s">
-        <v>1278</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13621,7 +13932,7 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="L30" s="5" t="s">
-        <v>1279</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13633,7 +13944,7 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="L31" s="5" t="s">
-        <v>1280</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13645,7 +13956,7 @@
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="L32" s="5" t="s">
-        <v>1281</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13657,7 +13968,7 @@
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="L33" s="5" t="s">
-        <v>1282</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13669,38 +13980,38 @@
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="L34" s="5" t="s">
-        <v>1283</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1222</v>
+        <v>1269</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1224</v>
+        <v>1271</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1223</v>
+        <v>1270</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1238</v>
+        <v>1285</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1284</v>
+        <v>1331</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1273</v>
+        <v>1320</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1285</v>
+        <v>1332</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1286</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L36" s="5" t="s">
-        <v>1287</v>
+        <v>1334</v>
       </c>
     </row>
   </sheetData>
@@ -13727,7 +14038,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="11.5561224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13735,15 +14046,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1288</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1289</v>
+        <v>1336</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1290</v>
+        <v>1337</v>
       </c>
     </row>
   </sheetData>
@@ -13762,15 +14073,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="11.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13778,29 +14089,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1291</v>
+        <v>1338</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1292</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1293</v>
+        <v>1340</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1294</v>
+        <v>1341</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1295</v>
+        <v>1342</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>196</v>
@@ -13808,10 +14119,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1296</v>
+        <v>1343</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1297</v>
+        <v>1344</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>196</v>
@@ -13819,58 +14130,74 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1298</v>
+        <v>1345</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1299</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1300</v>
+        <v>1347</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1301</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1302</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1303</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1304</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1305</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1306</v>
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1355</v>
       </c>
     </row>
   </sheetData>
@@ -13897,7 +14224,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.4132653061224"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13923,7 +14250,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.4132653061224"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13949,7 +14276,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.4132653061224"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1377">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -3725,10 +3725,33 @@
     <t xml:space="preserve">Known as Bhima, Hanuman's younger brother and the second Pandava.</t>
   </si>
   <si>
-    <t xml:space="preserve">He was wrapped in a Bungkus as a kid, he defeated Gajah Sena and got the name Bratasena as a kid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bratasena, Bima, Arya Sena, Gandawatratmaja, Panduputra</t>
+    <t xml:space="preserve">He was known as Bratasena in his youth and Bima or Werkudara in his adulthood. Since [Pandu] could not have intercourse with his wife due to a course, Werkudara was actually engendered by Kunti and the spirit of Dewa [Bayu]. This was carried out with the agreement of [Pandu], as was the case with the rest of the Pandawa, who were also fathered by gods. Werkudara was a strong warrior, known for his straightforward disposition. He spoke to almost everyone in /ngoko/ (the familiar register of the Javanese language). The only exception was [Dewa_Ruci], a miniature version of himself that he met after several trails, and from whom he learned the true philosophy of life. Bima was born together with his placenta, which proved very hard to cut open. On the suggestion of Batara [Narada], the elephant Sena freed him. The young Werkudara then killed the elephant, whose spirit entered the body of Werkudara. Werkudara was thereafter also known as Sena (or variations of this name).  He won [Drupadi] in a contest, and offered her to his elder brother [Puntadewa]. In the Javanese versions, [Drupadi] is only married to [Puntadewa], not to all five Pandawas, as in India.
+&lt;br/&gt;
+Werkudara had either two or three wives, depending on the version. His first wife was the ogress [Arimbi]. Her father [Termboko] was killed by [Pandu], and her eldest brother [Arimba] tried to extract revenge on the Pandawa. However, [Arimba] was eventually killed by [Werkudara] and became integrated into his body. With his dying breath, [Arimba] gave his blessing to his sister's relationship with [Werkudara]. Werkudara was initially not interested in her, until [Kunti] used a spell to change her shape into that of a beautiful woman. With [Arimbi], he had [Gatotkaca]. 
+He met his second wife when the Korawa were trying to kill the Pandawa, by setting fire to the /Bale Sigala-gala/. Led by Werkudara, the Pandawa and Kunti escaped in time. There are multiple versions about how Werkudara came to the knowledge that their lives were in peril, but in every version he eventually meets [Antaboga] and marries his daughter [Nagagaini], with whom he has [Antasena]. In the Yogyakarta versions, he also had a third wife, [Urangayu], with whom he had [Antareja].
+Several things are notable about his body. His strong nail, Pancanaka, is a natural weapon. His body is also immune to injury. There is an embarrassment of riches on how this immunity was obtained, but at least part of this is due to the many ogres that came to become part of his body. Besides Sena the elephant and [Arimba] as seen above, [Brjadenta], [Brajalela] and even [Kumbakarna] became parts of his body.  Werkudara played important roless in the Bharatayuda, and killed [Sengkuni], [Dursasana] and [Duryudana]. 
+He achieved a perfect death with the rest of the Pandawa, several years after the war.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gandawatratmaja, Panduputra, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bayuputra, Bayusiwi, Bayusuta, Bayutanaya, Pawanasuta, Bimasena, Arya_Sena, Sena, Bratasena, Ballawa,Bhima, Birawa, Dandun, Nagata, Kusumayuda, Kowara, Kusumadilaga, Wijasena</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Kuni</t>
@@ -3740,31 +3763,64 @@
     <t xml:space="preserve">Karna, Arjuna, Puntadewa</t>
   </si>
   <si>
-    <t xml:space="preserve">Arimbi:Gatotkaca;Wurangayu:Antasena;Nagagini:Antareja</t>
+    <t xml:space="preserve">Arimbi:Gatotkaca;Urangayu:Antasena;Nagagini:Antareja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aji_Wungkal_Bener,Aji_Bandung_Bandawasa, Aji_Blabag_Pengantol-antol,Gada_Rujakpolo,Alugora, Kuku_Pancanaka, Ketuklindu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mimis, Lintang, Lindu_Panon, Lindu_Bambang, Tatit, Ketug, Jagur, Kedu, Gandu, Jagog, Bedil, Mbugis, Gurnat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115-120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173-198 (Vol. II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550-557</t>
   </si>
   <si>
     <t xml:space="preserve">Lindhu</t>
   </si>
   <si>
+    <t xml:space="preserve">He is the younger brother of Ravana. In the Indian Ramayana, he is a giant, not a human. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the younger brother of [Desamuka]. He is the only one who has born with human face (this is different in India). Before [Rama]'s attack to Alengka, he defected to [Rama]'s side, providing vital information on the weaknesses of Alengka's army. His role is controversial – is he noble since he defected? Or should he have stayed to fight for his land, as [Kumbakarna] did? There are multiple opinions on this, which are explored differently by various dalang. After [Desamuka] was killed, Wibisana became king of Alengka, which was thereafter known as Singgelapura. He then received [Rama]'s advice on kingship, in the form of the Hastabrata, a philosophical treaty on statehood. After the Ramayana, he was known as Begawan Kunta Wibisana. He eventually abdicated in favor of his son [Dentawilukrama], and then achieved perfect death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontawibisana, Kunta_Wibisana, Gunawan_Wibisana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desamuka, Sarpakenaka, Danaraja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triwati: Trijati, Dentawilukrama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bontit, Rugsit, Rawe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">572-580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214-220 (Vol. IX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288-289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although this character is not mentioned in the Indian Mahabharata, there is a mentioning of one of the Mahabharata characters (either Karna or Arjuna) possesses Nagastra which is a weapon associated with snakes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He can take the shape of a snake. He gives a special weapon to Arjuna (Minyak Jayengkaton). Father of Asmarawati. Father of Dewi Jim Mambang, who dreams of marrying Arjuna. Arjuna gives Wilawuk's cup to his siblings so they can see the Jnvisible demonseainiesigms. //NOTE: there are differnet version about Mambang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bambang</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not mentioned in the Indian Mahabharata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After the Ramayana he becomes Begawan Kontawibisana. He is the son of Bisawarna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontawibisana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranu, Maruta, Hagni, Bantala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although this character is not mentioned in the Indian Mahabharata, there is a mentioning of one of the Mahabharata characters (either Karna or Arjuna) possesses Nagastra which is a weapon associated with snakes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He can take the shape of a snake. He gives a special weapon to Arjuna (Minyak Jayengkaton). Father of Asmarawati. Father of Dewi Jim Mambang, who dreams of marrying Arjuna. Arjuna gives Wilawuk's cup to his siblings so they can see the Jnvisible demonseainiesigms. //NOTE: there are differnet version about Mambang.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bambang</t>
   </si>
   <si>
     <t xml:space="preserve">Son of Arjuna.</t>
@@ -4321,7 +4377,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4453,6 +4509,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -4502,7 +4571,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4607,11 +4676,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4695,44 +4772,44 @@
   <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T137" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A128" activeCellId="0" sqref="A128"/>
-      <selection pane="bottomRight" activeCell="L139" activeCellId="0" sqref="L139"/>
+      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
+      <selection pane="bottomRight" activeCell="X140" activeCellId="0" sqref="X140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.0408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.9132653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="32.6122448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="59.1785714285714"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="95.6836734693878"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.6632653061224"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="33.3724489795918"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="37.0408163265306"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="56.8061224489796"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="23.1122448979592"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="15.5510204081633"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="45.25"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="39.2040816326531"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="56.0510204081633"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="53.3469387755102"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.1530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.1224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="33.6938775510204"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="61.234693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="99.030612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="34.4489795918367"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="26.780612244898"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="38.1224489795918"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="58.75"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="15.984693877551"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.7091836734694"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="29.0510204081633"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="46.7602040816327"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="40.5"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="57.8826530612245"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="55.0765306122449"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="52.484693877551"/>
     <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="5.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="5.83163265306122"/>
   </cols>
@@ -12346,6 +12423,9 @@
       <c r="S137" s="1" t="s">
         <v>1167</v>
       </c>
+      <c r="T137" s="0"/>
+      <c r="U137" s="0"/>
+      <c r="V137" s="0"/>
       <c r="W137" s="2" t="s">
         <v>1168</v>
       </c>
@@ -12356,8 +12436,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="26" t="s">
+    <row r="138" customFormat="false" ht="106.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -12375,7 +12455,7 @@
       <c r="F138" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G138" s="26" t="s">
         <v>1170</v>
       </c>
       <c r="H138" s="1" t="s">
@@ -12394,15 +12474,36 @@
         <v>1175</v>
       </c>
       <c r="M138" s="5"/>
+      <c r="P138" s="1" t="s">
+        <v>1176</v>
+      </c>
       <c r="Q138" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="S138" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="U138" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="V138" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="W138" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="X138" s="2" t="s">
+        <v>1180</v>
+      </c>
       <c r="Y138" s="1" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="6" t="s">
         <v>271</v>
       </c>
       <c r="B139" s="5"/>
@@ -12413,24 +12514,46 @@
         <v>28</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>1178</v>
+        <v>1182</v>
+      </c>
+      <c r="G139" s="27" t="s">
+        <v>1183</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
+        <v>1184</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>337</v>
+      </c>
       <c r="K139" s="18" t="s">
-        <v>1180</v>
+        <v>1185</v>
+      </c>
+      <c r="L139" s="28" t="s">
+        <v>1186</v>
       </c>
       <c r="M139" s="5"/>
       <c r="Q139" s="5"/>
+      <c r="S139" s="28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="U139" s="2" t="n">
+        <v>261</v>
+      </c>
+      <c r="W139" s="28" t="s">
+        <v>1189</v>
+      </c>
+      <c r="X139" s="2" t="s">
+        <v>1190</v>
+      </c>
       <c r="Y139" s="1" t="s">
         <v>608</v>
       </c>
@@ -12450,10 +12573,10 @@
         <v>65</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="H140" s="0"/>
       <c r="I140" s="5"/>
@@ -12463,6 +12586,7 @@
         <v>156</v>
       </c>
       <c r="Q140" s="5"/>
+      <c r="S140" s="0"/>
       <c r="Y140" s="1" t="s">
         <v>62</v>
       </c>
@@ -12478,20 +12602,20 @@
         <v>27</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1183</v>
+        <v>1193</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1177</v>
+        <v>1194</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1184</v>
+        <v>1195</v>
       </c>
       <c r="H141" s="0"/>
       <c r="I141" s="1" t="s">
-        <v>1185</v>
+        <v>1196</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>34</v>
@@ -12499,12 +12623,12 @@
       <c r="K141" s="0"/>
       <c r="Q141" s="5"/>
       <c r="Y141" s="1" t="s">
-        <v>1186</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>1187</v>
+        <v>1198</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>92</v>
@@ -12516,23 +12640,23 @@
         <v>29</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1188</v>
+        <v>1199</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1189</v>
+        <v>1200</v>
       </c>
       <c r="H142" s="0"/>
       <c r="K142" s="0"/>
       <c r="Q142" s="1" t="s">
-        <v>1190</v>
+        <v>1201</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>1191</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1192</v>
+        <v>1203</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>92</v>
@@ -12544,13 +12668,13 @@
         <v>65</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1177</v>
+        <v>1194</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1193</v>
+        <v>1204</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1194</v>
+        <v>1205</v>
       </c>
       <c r="K143" s="0"/>
       <c r="Q143" s="5"/>
@@ -12560,7 +12684,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>92</v>
@@ -12572,13 +12696,13 @@
         <v>65</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1177</v>
+        <v>1194</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1196</v>
+        <v>1207</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
       <c r="K144" s="0"/>
       <c r="Q144" s="5"/>
@@ -12588,7 +12712,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>92</v>
@@ -12600,14 +12724,14 @@
         <v>29</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1199</v>
+        <v>1210</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1200</v>
+        <v>1211</v>
       </c>
       <c r="K145" s="0"/>
       <c r="Q145" s="1" t="s">
-        <v>1201</v>
+        <v>1212</v>
       </c>
       <c r="Y145" s="1" t="s">
         <v>62</v>
@@ -12615,7 +12739,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1202</v>
+        <v>1213</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>27</v>
@@ -12627,10 +12751,10 @@
         <v>29</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1203</v>
+        <v>1214</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1204</v>
+        <v>1215</v>
       </c>
       <c r="K146" s="0"/>
       <c r="Y146" s="1" t="s">
@@ -12639,22 +12763,22 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1205</v>
+        <v>1216</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1206</v>
+        <v>1217</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1207</v>
+        <v>1218</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="K147" s="0"/>
       <c r="Y147" s="5" t="s">
@@ -12663,7 +12787,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1209</v>
+        <v>1220</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>376</v>
@@ -12678,10 +12802,10 @@
         <v>180</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1210</v>
+        <v>1221</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1211</v>
+        <v>1222</v>
       </c>
       <c r="Y148" s="1" t="s">
         <v>62</v>
@@ -12711,48 +12835,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.9540816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1356</v>
+        <v>1367</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1357</v>
+        <v>1368</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1358</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1359</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1360</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1361</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1362</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1363</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1364</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12762,7 +12886,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1365</v>
+        <v>1376</v>
       </c>
     </row>
   </sheetData>
@@ -12793,29 +12917,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="44.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="90.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="100.647959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="74.1938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="44.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="74.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="45.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="93.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="104.107142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="76.6734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="46.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="76.6734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1212</v>
+        <v>1223</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1213</v>
+        <v>1224</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1214</v>
+        <v>1225</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1215</v>
+        <v>1226</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>24</v>
@@ -12839,10 +12963,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1201</v>
+        <v>1212</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -12854,7 +12978,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1216</v>
+        <v>1227</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -12867,7 +12991,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1217</v>
+        <v>1228</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>53</v>
@@ -12882,7 +13006,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1218</v>
+        <v>1229</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>316</v>
@@ -12912,10 +13036,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1190</v>
+        <v>1201</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1187</v>
+        <v>1198</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12937,7 +13061,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>1219</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12954,12 +13078,12 @@
         <v>62</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1220</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1221</v>
+        <v>1232</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>151</v>
@@ -12985,7 +13109,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1222</v>
+        <v>1233</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>235</v>
@@ -12997,7 +13121,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1223</v>
+        <v>1234</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>108</v>
@@ -13010,10 +13134,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1224</v>
+        <v>1235</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1225</v>
+        <v>1236</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -13023,14 +13147,14 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1226</v>
+        <v>1237</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>1227</v>
+        <v>1238</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>62</v>
@@ -13038,10 +13162,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1228</v>
+        <v>1239</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1229</v>
+        <v>1240</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -13051,7 +13175,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>483</v>
@@ -13062,14 +13186,14 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1231</v>
+        <v>1242</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3" t="s">
-        <v>1232</v>
+        <v>1243</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>62</v>
@@ -13084,7 +13208,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
-        <v>1233</v>
+        <v>1244</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>62</v>
@@ -13131,22 +13255,22 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>1234</v>
+        <v>1245</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>1235</v>
+        <v>1246</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27" t="s">
-        <v>1236</v>
+      <c r="A25" s="29" t="s">
+        <v>1247</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>34</v>
@@ -13157,7 +13281,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1237</v>
+        <v>1248</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>747</v>
@@ -13176,7 +13300,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1238</v>
+        <v>1249</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
@@ -13185,7 +13309,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1239</v>
+        <v>1250</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>375</v>
@@ -13202,7 +13326,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1240</v>
+        <v>1251</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
@@ -13214,7 +13338,7 @@
         <v>1060</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1241</v>
+        <v>1252</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
@@ -13260,10 +13384,10 @@
         <v>922</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1242</v>
+        <v>1253</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1243</v>
+        <v>1254</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>62</v>
@@ -13271,7 +13395,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1244</v>
+        <v>1255</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
@@ -13304,12 +13428,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="31.8571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1245</v>
+        <v>1256</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -13323,33 +13447,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1246</v>
+        <v>1257</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1247</v>
+        <v>1258</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1249</v>
+        <v>1260</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="5" t="s">
-        <v>1250</v>
+        <v>1261</v>
       </c>
       <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1251</v>
+        <v>1262</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>1252</v>
+        <v>1263</v>
       </c>
       <c r="D4" s="0"/>
     </row>
@@ -13358,19 +13482,19 @@
         <v>514</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1253</v>
+        <v>1264</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1254</v>
+        <v>1265</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1255</v>
+        <v>1266</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1256</v>
+        <v>1267</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
@@ -13386,7 +13510,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1257</v>
+        <v>1268</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -13415,31 +13539,31 @@
         <v>689</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1258</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1259</v>
+        <v>1270</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1260</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1261</v>
+        <v>1272</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1262</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1263</v>
+        <v>1274</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1264</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -13466,16 +13590,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="49.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="5" t="s">
-        <v>1265</v>
+        <v>1276</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1266</v>
+        <v>1277</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
@@ -13488,13 +13612,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1267</v>
+        <v>1278</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1267</v>
+        <v>1278</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1268</v>
+        <v>1279</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -13504,7 +13628,7 @@
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="W2" s="5" t="s">
-        <v>1267</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13533,7 +13657,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1269</v>
+        <v>1280</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
@@ -13547,7 +13671,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1270</v>
+        <v>1281</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -13561,7 +13685,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1271</v>
+        <v>1282</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -13575,7 +13699,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1272</v>
+        <v>1283</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -13584,18 +13708,18 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="J8" s="5" t="s">
-        <v>1273</v>
+        <v>1284</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1274</v>
+        <v>1285</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1275</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1276</v>
+        <v>1287</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -13604,21 +13728,21 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="J9" s="5" t="s">
-        <v>1277</v>
+        <v>1288</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1281</v>
+        <v>1292</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -13626,18 +13750,18 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="J10" s="5" t="s">
-        <v>1282</v>
+        <v>1293</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1283</v>
+        <v>1294</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -13646,18 +13770,18 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="J11" s="5" t="s">
-        <v>1286</v>
+        <v>1297</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1287</v>
+        <v>1298</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1288</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1289</v>
+        <v>1300</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -13666,21 +13790,21 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="J12" s="5" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1291</v>
+        <v>1302</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1292</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -13688,21 +13812,21 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="J13" s="5" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1298</v>
+        <v>1309</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1299</v>
+        <v>1310</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -13711,10 +13835,10 @@
       <c r="G14" s="0"/>
       <c r="J14" s="0"/>
       <c r="L14" s="5" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1301</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13731,7 +13855,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -13740,13 +13864,13 @@
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="J16" s="5" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13758,18 +13882,18 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="J17" s="5" t="s">
-        <v>1306</v>
+        <v>1317</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1308</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -13778,15 +13902,15 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="J18" s="5" t="s">
-        <v>1310</v>
+        <v>1321</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>1312</v>
+        <v>1323</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13795,7 +13919,7 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="J19" s="5" t="s">
-        <v>1313</v>
+        <v>1324</v>
       </c>
       <c r="L19" s="0"/>
     </row>
@@ -13811,7 +13935,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>1314</v>
+        <v>1325</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -13833,7 +13957,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>1315</v>
+        <v>1326</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -13845,10 +13969,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>1316</v>
+        <v>1327</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1317</v>
+        <v>1328</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -13856,7 +13980,7 @@
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="L24" s="5" t="s">
-        <v>1318</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13868,15 +13992,15 @@
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="L25" s="5" t="s">
-        <v>1319</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>1320</v>
+        <v>1331</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -13884,7 +14008,7 @@
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="L26" s="5" t="s">
-        <v>1322</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13896,12 +14020,12 @@
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="L27" s="5" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -13910,7 +14034,7 @@
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="L28" s="5" t="s">
-        <v>1325</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13932,7 +14056,7 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="L30" s="5" t="s">
-        <v>1326</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13944,7 +14068,7 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="L31" s="5" t="s">
-        <v>1327</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13956,7 +14080,7 @@
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="L32" s="5" t="s">
-        <v>1328</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13968,7 +14092,7 @@
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="L33" s="5" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13980,38 +14104,38 @@
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="L34" s="5" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1269</v>
+        <v>1280</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1271</v>
+        <v>1282</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1270</v>
+        <v>1281</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>1320</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L36" s="5" t="s">
-        <v>1334</v>
+        <v>1345</v>
       </c>
     </row>
   </sheetData>
@@ -14038,7 +14162,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14046,15 +14170,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
     </row>
   </sheetData>
@@ -14081,7 +14205,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14089,10 +14213,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1339</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14100,7 +14224,7 @@
         <v>613</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1340</v>
+        <v>1351</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>609</v>
@@ -14108,10 +14232,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1341</v>
+        <v>1352</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>196</v>
@@ -14119,10 +14243,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1344</v>
+        <v>1355</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>196</v>
@@ -14130,18 +14254,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1345</v>
+        <v>1356</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1346</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1347</v>
+        <v>1358</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14149,7 +14273,7 @@
         <v>776</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14157,7 +14281,7 @@
         <v>806</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1350</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14165,7 +14289,7 @@
         <v>964</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1351</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14173,7 +14297,7 @@
         <v>1025</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1352</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14181,7 +14305,7 @@
         <v>1046</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1353</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14189,7 +14313,7 @@
         <v>1098</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1354</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14197,7 +14321,7 @@
         <v>1118</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1355</v>
+        <v>1366</v>
       </c>
     </row>
   </sheetData>
@@ -14224,7 +14348,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.9540816326531"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14250,7 +14374,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.9540816326531"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14276,7 +14400,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.9540816326531"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="1387">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">Wahyu Hidayat, Wahyu Cakraningrat</t>
   </si>
   <si>
-    <t xml:space="preserve">Yogyakarta: Sedet, Pedasih, Kanyut; Surakarta: Bontit, Banjed, Brebes, Jayenggati, Kanyut, Malatsih, Mangu, Mriwis, Panji, Rangkung, Bulus</t>
+    <t xml:space="preserve">Yogyakarta: Sedet, Padasih, Kanyut; Surakarta: Bontit, Banjed, Brebes, Jayenggati, Kanyut, Malatsih, Mangu, Mriwis, Panji, Rangkung, Bulus</t>
   </si>
   <si>
     <t xml:space="preserve">18-20</t>
@@ -523,7 +523,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Wilawuk], a demon king. She is also known as Jimambang and marries [Arjuna]. The /Ensiklopedi Wayang Purwa/ describes Asmarawati as the daughter of Prabu [Suryaasmara] and the wife of Bambang [Sumitra], [Arjuna]'s son. The same source describes Jimambang as a separate character.</t>
+      <t xml:space="preserve">Wilawuk], a demon king. She is also known as Jim_Mambang and marries [Arjuna]. The /Ensiklopedi Wayang Purwa/ describes Asmarawati as the daughter of Prabu [Suryaasmara] and the wife of Bambang [Sumitra], [Arjuna]'s son. The same source describes Jim_Mambang as a separate character.</t>
     </r>
   </si>
   <si>
@@ -3784,7 +3784,7 @@
     <t xml:space="preserve">Lindhu</t>
   </si>
   <si>
-    <t xml:space="preserve">He is the younger brother of Ravana. In the Indian Ramayana, he is a giant, not a human. </t>
+    <t xml:space="preserve">Vibisana is the younger brother of Ravana. In the Indian Ramayana, he is a giant, not a human. </t>
   </si>
   <si>
     <t xml:space="preserve">He is the younger brother of [Desamuka]. He is the only one who has born with human face (this is different in India). Before [Rama]'s attack to Alengka, he defected to [Rama]'s side, providing vital information on the weaknesses of Alengka's army. His role is controversial – is he noble since he defected? Or should he have stayed to fight for his land, as [Kumbakarna] did? There are multiple opinions on this, which are explored differently by various dalang. After [Desamuka] was killed, Wibisana became king of Alengka, which was thereafter known as Singgelapura. He then received [Rama]'s advice on kingship, in the form of the Hastabrata, a philosophical treaty on statehood. After the Ramayana, he was known as Begawan Kunta Wibisana. He eventually abdicated in favor of his son [Dentawilukrama], and then achieved perfect death.</t>
@@ -3811,24 +3811,70 @@
     <t xml:space="preserve">288-289</t>
   </si>
   <si>
-    <t xml:space="preserve">Although this character is not mentioned in the Indian Mahabharata, there is a mentioning of one of the Mahabharata characters (either Karna or Arjuna) possesses Nagastra which is a weapon associated with snakes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He can take the shape of a snake. He gives a special weapon to Arjuna (Minyak Jayengkaton). Father of Asmarawati. Father of Dewi Jim Mambang, who dreams of marrying Arjuna. Arjuna gives Wilawuk's cup to his siblings so they can see the Jnvisible demonseainiesigms. //NOTE: there are differnet version about Mambang.</t>
+    <t xml:space="preserve">Not mentioned in the Indian Mahabharata</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">He can take the shape of a winged snake. He gives a special weapon to Arjuna (Minyak Jayengkaton). He is the favter of [Asmarawati], who is somtes said to be another name of Dewi Jimambang, who dreams of marrying Arjuna. Arjuna gives Wilawuk's cup to his siblings so they can see the invisible demons. There are differnet version about Jimambang. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">According to /Babad Wanamarta/, she is the daughter of Begawan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00000A"/>
+        <rFont val="FreeSans"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WilawukThe /Ensiklopedi Wayang Purwa/ describes Asmarawati as the daughter of Prabu [Suryaasmara] and the wife of Bambang [Sumitra], [Arjuna]'s son. The same source describes Jim_Mambang as a separate character.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilwuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenga_Jayengkaton, Watu_Tempuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1132-1133</t>
   </si>
   <si>
     <t xml:space="preserve">Bambang</t>
   </si>
   <si>
-    <t xml:space="preserve">Not mentioned in the Indian Mahabharata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Arjuna.</t>
+    <t xml:space="preserve">He is the son of </t>
   </si>
   <si>
     <t xml:space="preserve">Dresanala</t>
   </si>
   <si>
+    <t xml:space="preserve">Mustikawati:x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing pages!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242-245 (Vol. IX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1138-1139</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rungsit</t>
   </si>
   <si>
@@ -4337,6 +4383,18 @@
   </si>
   <si>
     <t xml:space="preserve">A cart pulled by 7 horses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenga_Jayengkaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to see demons and other invisible creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watu_Tempuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to fight demons and other invisible creatures. </t>
   </si>
   <si>
     <t xml:space="preserve">anoman</t>
@@ -4377,7 +4435,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4511,12 +4569,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00000A"/>
-      <name val="Liberation Serif;Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00000A"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -4571,7 +4623,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4680,15 +4732,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4772,44 +4828,44 @@
   <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
-      <selection pane="bottomRight" activeCell="X140" activeCellId="0" sqref="X140"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S3" activeCellId="0" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.1530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="33.6938775510204"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="61.234693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="99.030612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="34.4489795918367"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="26.780612244898"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="38.1224489795918"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="58.75"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="29.0510204081633"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="46.7602040816327"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="40.5"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="57.8826530612245"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="55.0765306122449"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="52.484693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.7448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="34.7755102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="63.2857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="102.377551020408"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="35.530612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="27.6479591836735"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="60.6938775510204"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="24.6224489795918"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="22.3571428571429"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="29.9132653061224"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="48.3826530612245"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="41.7959183673469"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="59.8265306122449"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="56.9132653061225"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="54.2142857142857"/>
     <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="5.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="5.83163265306122"/>
   </cols>
@@ -12519,7 +12575,7 @@
       <c r="F139" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="G139" s="27" t="s">
+      <c r="G139" s="10" t="s">
         <v>1183</v>
       </c>
       <c r="H139" s="1" t="s">
@@ -12534,12 +12590,13 @@
       <c r="K139" s="18" t="s">
         <v>1185</v>
       </c>
-      <c r="L139" s="28" t="s">
+      <c r="L139" s="27" t="s">
         <v>1186</v>
       </c>
       <c r="M139" s="5"/>
+      <c r="P139" s="0"/>
       <c r="Q139" s="5"/>
-      <c r="S139" s="28" t="s">
+      <c r="S139" s="27" t="s">
         <v>1187</v>
       </c>
       <c r="T139" s="2" t="s">
@@ -12548,7 +12605,7 @@
       <c r="U139" s="2" t="n">
         <v>261</v>
       </c>
-      <c r="W139" s="28" t="s">
+      <c r="W139" s="27" t="s">
         <v>1189</v>
       </c>
       <c r="X139" s="2" t="s">
@@ -12559,7 +12616,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B140" s="5"/>
@@ -12578,21 +12635,35 @@
       <c r="G140" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H140" s="0"/>
+      <c r="H140" s="0" t="s">
+        <v>1193</v>
+      </c>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="0"/>
+      <c r="L140" s="0"/>
       <c r="M140" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="P140" s="1" t="s">
+        <v>1194</v>
+      </c>
       <c r="Q140" s="5"/>
       <c r="S140" s="0"/>
+      <c r="T140" s="2" t="n">
+        <v>582</v>
+      </c>
+      <c r="U140" s="0"/>
+      <c r="W140" s="0"/>
+      <c r="X140" s="2" t="s">
+        <v>1195</v>
+      </c>
       <c r="Y140" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="6" t="s">
         <v>331</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -12602,33 +12673,48 @@
         <v>27</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="H141" s="0"/>
       <c r="I141" s="1" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K141" s="0"/>
+      <c r="L141" s="1" t="s">
+        <v>1199</v>
+      </c>
       <c r="Q141" s="5"/>
+      <c r="T141" s="29" t="s">
+        <v>1200</v>
+      </c>
+      <c r="U141" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="W141" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="X141" s="2" t="s">
+        <v>1202</v>
+      </c>
       <c r="Y141" s="1" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>92</v>
@@ -12640,23 +12726,23 @@
         <v>29</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="H142" s="0"/>
       <c r="K142" s="0"/>
       <c r="Q142" s="1" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>92</v>
@@ -12668,13 +12754,13 @@
         <v>65</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="K143" s="0"/>
       <c r="Q143" s="5"/>
@@ -12684,7 +12770,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>92</v>
@@ -12696,13 +12782,13 @@
         <v>65</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="K144" s="0"/>
       <c r="Q144" s="5"/>
@@ -12712,7 +12798,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>92</v>
@@ -12724,14 +12810,14 @@
         <v>29</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="K145" s="0"/>
       <c r="Q145" s="1" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="Y145" s="1" t="s">
         <v>62</v>
@@ -12739,7 +12825,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>27</v>
@@ -12751,10 +12837,10 @@
         <v>29</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="K146" s="0"/>
       <c r="Y146" s="1" t="s">
@@ -12763,22 +12849,22 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="K147" s="0"/>
       <c r="Y147" s="5" t="s">
@@ -12787,7 +12873,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>376</v>
@@ -12802,10 +12888,10 @@
         <v>180</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="Y148" s="1" t="s">
         <v>62</v>
@@ -12835,48 +12921,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="17.6020408163265"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1367</v>
+        <v>1377</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1368</v>
+        <v>1378</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1369</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1370</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1371</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1372</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1373</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1374</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1375</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12886,7 +12972,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1376</v>
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
@@ -12917,29 +13003,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="45.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="93.8469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="104.107142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="76.6734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="46.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="76.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="97.0867346938775"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="107.668367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="79.265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="79.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>24</v>
@@ -12963,10 +13049,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -12978,7 +13064,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -12991,7 +13077,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>53</v>
@@ -13006,7 +13092,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>316</v>
@@ -13036,10 +13122,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -13061,7 +13147,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13078,12 +13164,12 @@
         <v>62</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>151</v>
@@ -13109,7 +13195,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>235</v>
@@ -13121,7 +13207,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>108</v>
@@ -13134,10 +13220,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1236</v>
+        <v>1242</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -13147,14 +13233,14 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>62</v>
@@ -13162,10 +13248,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -13175,7 +13261,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>483</v>
@@ -13186,14 +13272,14 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>62</v>
@@ -13208,7 +13294,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>62</v>
@@ -13255,22 +13341,22 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29" t="s">
-        <v>1247</v>
+      <c r="A25" s="30" t="s">
+        <v>1253</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>34</v>
@@ -13281,7 +13367,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>747</v>
@@ -13300,7 +13386,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
@@ -13309,7 +13395,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>375</v>
@@ -13326,7 +13412,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
@@ -13338,7 +13424,7 @@
         <v>1060</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
@@ -13384,10 +13470,10 @@
         <v>922</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>62</v>
@@ -13395,7 +13481,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
@@ -13428,12 +13514,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="32.9387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -13447,33 +13533,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="5" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="D4" s="0"/>
     </row>
@@ -13482,19 +13568,19 @@
         <v>514</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
@@ -13510,7 +13596,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -13539,31 +13625,31 @@
         <v>689</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
     </row>
   </sheetData>
@@ -13590,16 +13676,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="49.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="50.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="5" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
@@ -13612,13 +13698,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -13628,7 +13714,7 @@
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="W2" s="5" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13657,7 +13743,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
@@ -13671,7 +13757,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -13685,7 +13771,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -13699,7 +13785,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -13708,18 +13794,18 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="J8" s="5" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -13728,21 +13814,21 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="J9" s="5" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -13750,18 +13836,18 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="J10" s="5" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1294</v>
+        <v>1300</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1295</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -13770,18 +13856,18 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="J11" s="5" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1299</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -13790,21 +13876,21 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="J12" s="5" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1304</v>
+        <v>1310</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -13812,21 +13898,21 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="J13" s="5" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1308</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -13835,10 +13921,10 @@
       <c r="G14" s="0"/>
       <c r="J14" s="0"/>
       <c r="L14" s="5" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13855,7 +13941,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -13864,13 +13950,13 @@
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="J16" s="5" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13882,18 +13968,18 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="J17" s="5" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1319</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -13902,15 +13988,15 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="J18" s="5" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13919,7 +14005,7 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="J19" s="5" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="L19" s="0"/>
     </row>
@@ -13935,7 +14021,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -13957,7 +14043,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -13969,10 +14055,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -13980,7 +14066,7 @@
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="L24" s="5" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13992,15 +14078,15 @@
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="L25" s="5" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -14008,7 +14094,7 @@
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="L26" s="5" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14020,12 +14106,12 @@
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="L27" s="5" t="s">
-        <v>1334</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -14034,7 +14120,7 @@
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="L28" s="5" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14056,7 +14142,7 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="L30" s="5" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14068,7 +14154,7 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="L31" s="5" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14080,7 +14166,7 @@
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="L32" s="5" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14092,7 +14178,7 @@
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="L33" s="5" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14104,38 +14190,38 @@
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="L34" s="5" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1344</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L36" s="5" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
     </row>
   </sheetData>
@@ -14162,7 +14248,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="12.0969387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14170,15 +14256,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
     </row>
   </sheetData>
@@ -14197,15 +14283,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="12.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14213,10 +14299,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14224,7 +14310,7 @@
         <v>613</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1351</v>
+        <v>1357</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>609</v>
@@ -14232,10 +14318,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>196</v>
@@ -14243,10 +14329,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>196</v>
@@ -14254,18 +14340,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1356</v>
+        <v>1362</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14273,7 +14359,7 @@
         <v>776</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14281,7 +14367,7 @@
         <v>806</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14289,7 +14375,7 @@
         <v>964</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14297,7 +14383,7 @@
         <v>1025</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14305,7 +14391,7 @@
         <v>1046</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14313,7 +14399,7 @@
         <v>1098</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14321,7 +14407,23 @@
         <v>1118</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1366</v>
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1376</v>
       </c>
     </row>
   </sheetData>
@@ -14348,7 +14450,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="17.6020408163265"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14374,7 +14476,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="17.6020408163265"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14400,7 +14502,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="17.6020408163265"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="1413">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">Samba, Gunadewa, Partadewa,Titisari,Saranadewa, Setyaka, Siti_Sendar, Saketi</t>
   </si>
   <si>
-    <t xml:space="preserve">Hagnyanawati: Watubaji</t>
+    <t xml:space="preserve">Hagnyawati: Watubaji</t>
   </si>
   <si>
     <t xml:space="preserve">Aji Pangasonabumi, Puska Wijayamulya, Garuda Wilumna, Pusaka Wijayakusuma</t>
@@ -3787,7 +3787,7 @@
     <t xml:space="preserve">Vibisana is the younger brother of Ravana. In the Indian Ramayana, he is a giant, not a human. </t>
   </si>
   <si>
-    <t xml:space="preserve">He is the younger brother of [Desamuka]. He is the only one who has born with human face (this is different in India). Before [Rama]'s attack to Alengka, he defected to [Rama]'s side, providing vital information on the weaknesses of Alengka's army. His role is controversial – is he noble since he defected? Or should he have stayed to fight for his land, as [Kumbakarna] did? There are multiple opinions on this, which are explored differently by various dalang. After [Desamuka] was killed, Wibisana became king of Alengka, which was thereafter known as Singgelapura. He then received [Rama]'s advice on kingship, in the form of the Hastabrata, a philosophical treaty on statehood. After the Ramayana, he was known as Begawan Kunta Wibisana. He eventually abdicated in favor of his son [Dentawilukrama], and then achieved perfect death.</t>
+    <t xml:space="preserve">He is the younger brother of [Desamuka]. He is the only one who has born with human face (this is different in India). Before [Rama]'s attack to Alengka, he defected to [Rama]'s side, providing vital information on the weaknesses of Alengka's army. His role is controversial and his defection makes some people question the nobility of his character. Should he have stayed to fight for his land, as [Kumbakarna] did? There are multiple opinions on this, which are explored differently by various dalang. After [Desamuka] was killed, Wibisana became king of Alengka, which was thereafter known as Singgelapura. He then received [Rama]'s advice on kingship, in the form of the Hastabrata, a philosophical treaty on statehood. After the Ramayana, he was known as Begawan Kunta Wibisana. He eventually abdicated in favor of his son [Dentawilukrama], and then achieved perfect death.</t>
   </si>
   <si>
     <t xml:space="preserve">Kontawibisana, Kunta_Wibisana, Gunawan_Wibisana</t>
@@ -3881,31 +3881,55 @@
     <t xml:space="preserve">Wisnu</t>
   </si>
   <si>
-    <t xml:space="preserve">Vishnu is known as Preserver. He is the brother of Uma and brother-in-law of Lord Shiva. He is famous for his Dasavatar (10 incarnations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Narayana. Son of Uma and Guru. The following are considered incarnations of him: Srimaharaja Kanwa, Resi Wisnungkara, Prabu Arjunasasrabahu, Sri Ramawijaya, Sri Batara Kresna . Prabu Airlangga, Prabu Jayabaya, Prabu Anglingdarma Prabu Ken Arok, Prabu Kertawardhana.</t>
+    <t xml:space="preserve">Vishnu is known as The Preserver. He is the brother of Uma and brother-in-law of Lord Shiva. He is famous for his Dasavatar (10 incarnations).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the wayang world, Batara Wisnu is best known for his incarnations: [Rama], [Arjuna_Sasrabahu], [Kresna] and [Arjuna]. [Kresna] is said to be Wisnu's incarnation as thinker and [Arjuna] is Wisnu's incarnation as agent. There are many other stories in the Mahabharata about smaller incarnations of Wisnu into animals or people in order to rectify a misdeed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batara_Suman, Batara_Ari, Batara_Narayana, Batara_Kesawa, Kalasekti, Abhuta, Asiyuta, Cakrawati, Hari, Haus, Idopati, Jaggernata, Napila, Pandarik_Aksa, Purusotama, Purwaya, Wiratapura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri_Sekar: Srigata, Srinada, Srinadi; Sri_Pujayanti: Heruyana, Isawa, Bisawa, Isnapurna, Madura, Madudewa, Madusasana, Dewi_Srihunon, Sewi_Srihuni, Pujarta, Panonbuja, Sarwedi;Pertiwi:x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utarasagara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cakra, Cangkok_Wijayakusuma</t>
   </si>
   <si>
     <t xml:space="preserve">_Tiger</t>
   </si>
   <si>
+    <t xml:space="preserve">594-602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247-252 (Vol. IX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208-213</t>
+  </si>
+  <si>
     <t xml:space="preserve">No wisnu</t>
   </si>
   <si>
     <t xml:space="preserve">Wulan_Drema</t>
   </si>
   <si>
-    <t xml:space="preserve">Wulan Derma and Dermi (female) are sons of Batara Darma. //kena kutukan incarnasi, masuk ke tubuh salah. Ulan dermi masuk ke Hagnyawati dan Ulan Derma ke tubuhnya Samba. //Harusnya ke Bomanarakasura, maka selingkuhan.</t>
+    <t xml:space="preserve">Wulan Drema and [Wulan_Dremi] are the offspring of Batara [Darma]. They both decide to incarnate as humans and become lovers. {Wulan _Dremi] incarnates into [Hagnyawati] and Wulan Drema into [Samba]. This was either a mistake or a result of a curse since [Hagnyawati] was meant to marry to [Bomanarakasura], [Samba]'s brother. They committed adultery and [Bomanarakasura] became aware of this. He killed [Samba], but [Kresna] brought him back to life. [Kresna] was privy to the fact of [Samba] and [Hagnyawati] were incarnations of Wuland Drema] and [Wulan_Dremi]. Eventually, [Kresna] killed [Samba] and gave his blessing to the marriage of [Hagnyawati] and [Samba].  </t>
   </si>
   <si>
     <t xml:space="preserve">Ulanderma</t>
   </si>
   <si>
+    <t xml:space="preserve">223 (Vol. IV)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wulan_Dremi</t>
   </si>
   <si>
-    <t xml:space="preserve">Wulan Derma (male) and Dermi (female) are born to Batara Darma.</t>
+    <t xml:space="preserve">Wulan [Drema] and Wulan Dremi are the offspring of Batara [Darma]. They both decide to incarnate as humans and become lovers. Wulan Dremi incarnates into [Hagnyawati] and [Wulan_Drema] into [Samba]. This was either a mistake or a result of a curse since [Hagnyawati] was meant to marry to [Bomanarakasura], [Samba]'s brother. They committed adultery and [Bomanarakasura] became aware of this. He killed [Samba], but [Kresna] brought him back to life. [Kresna] was privy to the fact of [Samba] and [Hagnyawati] were incarnations of [Wulan_Drema] and Wulan Dremi. Eventually, [Kresna] killed [Samba] and gave his blessing to the marriage of [Hagnyawati] and [Samba].  </t>
   </si>
   <si>
     <t xml:space="preserve">Ulandermi</t>
@@ -3914,22 +3938,61 @@
     <t xml:space="preserve">Yamadipati</t>
   </si>
   <si>
-    <t xml:space="preserve">Check! Definitely in Indian version.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Yamadipati and Senggani. His wife (Mumpuni) runs away with Bambang Nagatmala (Hyang Antaboga and Dewi Suprepti). His anger makes him half giant.</t>
+    <t xml:space="preserve">Yama is the lord of death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the god of death, responsible for plucking the souls of mortals when their time comes. He has the head of an ogre. He was married to Dewi [Mumpuni], but then she left him and married Batara [Nagatamala]. He once fought [Desamuka], an event that almost triggered the end of the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petraraja, Yama_Kingkarapati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumpuni:x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argadumilah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaladenda</t>
   </si>
   <si>
     <t xml:space="preserve">_Guard</t>
   </si>
   <si>
+    <t xml:space="preserve">Bengis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278-282 (Vol. IX)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yamawidura</t>
   </si>
   <si>
-    <t xml:space="preserve">Vidura is the prime minister in the court of Hastinapura. He is born to Veda Vyasa and one of the maid-servants in the Kuru. He is viewed as a wise man who provides strong support to the Pandavas for the righteousness although he is often placed in a tough spot due to his royal allegiance to the Kuru house where the Kauravas reside and to his sense of consciousness when he witnesses many instances of unfair treatment towards the Pandavas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Abyasa and Datri. His half brother are Pandu and Drestarasta. He marries Dewi Pamarini [daughter of Praby Dipacandra] has two sons: Sanjaya dan Yuyutsuh. // satu ayah dengan Pandu dan Destrarastra</t>
+    <t xml:space="preserve">Vidura was the prime minister in the court of Hastinapura. He was born to Veda Vyasa and one of the maid-servants in the Kuru. He was viewed as a wise man who provided strong support to the Pandavas although he was often placed in a tough spot due to his royal allegiance to the Kuru house (where the Kauravas resided) and to his sense of consciousness when he witnessesed many instances of unfair treatment towards the Pandavas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was well respected by both the Pandawa and the Korawa. He was an avatar of Batara [Darma]. As his brothers, he was born disfigured. In his case, one of his legs was shorter than the other. He tried to prevent the Pandawas from engaging in the game of dice with the Kurawas. He followed the Pandawa into the forest for the first part of their exile, but [Abiyasa] eventually convinced him to return to Astina. He continuously tried to talk [Duryudana] out of engaging in outright war with the Pandawa. He died with [Kunti], [Drestarastra] and [Gendari], at the end of the Baratayuda war. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padmarini:Sanjaya, Yuyutsuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panukma, Runcit, Buncit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">578-580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160-161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">282-286 (Vol. IX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11466-1147</t>
   </si>
   <si>
     <t xml:space="preserve">Yuda_Kothi</t>
@@ -3938,19 +4001,34 @@
     <t xml:space="preserve">Arya</t>
   </si>
   <si>
-    <t xml:space="preserve">Narada in Hindu mythology is not mentioned as having a vehicle. He is known as trilokasanjaari (the traveller of the three world (Heaven, Earth and the Underworld) as he is able to go to any of these three places that he will. He is known as the son of Brahma the creator and ardent devotee of Vishnu the Preserver)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An elephant-shaped ogre that works for Nagaprasanta. After Baladewa kills Nagraprasanta, Yudakothi becomes a transport for Narada</t>
+    <t xml:space="preserve">Narada in Hindu mythology is not known to have a vehicle. He was known as trilokasanjaari (the traveller of the three worlds: Heaven, Earth and the Underworld) as he was able to go to any of these places at will. He was known as the son of Brahma and ardent devotee of Vishnu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An elephant-shaped ogre that works for [Nagaprasanta]. After [Baladewa] killed [Nagraprasanta], [Yudakothi] became the transport of Narada. No entries for this character were found in any of the consulted encyclopedias.</t>
   </si>
   <si>
     <t xml:space="preserve">Yudhistira</t>
   </si>
   <si>
-    <t xml:space="preserve">Mrentani kingdom. saudara tua dari Arya Dananjaya, Arya Dandunwacana, jim Nakula, dan jim Sadewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhandhanwacana, Dananjaya, Suparta</t>
+    <t xml:space="preserve">He was the ruler of the invisible kingdom of Mretani. He was defeated by the Pandawa and came to inhabit the body of [Puntadewa], who took Yudistira's name and kingdom. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhandhanwacana, Dananjaya, Suparta, Sapujagad, Sapulebu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahina: Ratri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mretani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">619-622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">293-294 (Vol. IX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1152-1153</t>
   </si>
   <si>
     <t xml:space="preserve">Diguise</t>
@@ -4435,7 +4513,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4580,6 +4658,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4623,7 +4708,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4744,6 +4829,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4828,44 +4917,44 @@
   <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S3" activeCellId="0" sqref="S3"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A134" activeCellId="0" sqref="A134"/>
+      <selection pane="bottomRight" activeCell="G139" activeCellId="0" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.7448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="34.7755102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="63.2857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="102.377551020408"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2551020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="35.530612244898"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="27.6479591836735"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="60.6938775510204"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="24.6224489795918"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="16.4132653061224"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="29.9132653061224"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="48.3826530612245"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="41.7959183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="59.8265306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="56.9132653061225"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="54.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.8520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.2142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.3622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="33.3724489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.4489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="36.5"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="66.5255102040816"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="107.668367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.3061224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.9081632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="27.2142857142857"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="37.3673469387755"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.0510204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="41.3622448979592"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="63.8265306122449"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="43.8469387755102"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="62.8520408163265"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="59.8265306122449"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="56.9132653061225"/>
     <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="5.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="5.83163265306122"/>
   </cols>
@@ -12530,6 +12619,7 @@
         <v>1175</v>
       </c>
       <c r="M138" s="5"/>
+      <c r="N138" s="0"/>
       <c r="P138" s="1" t="s">
         <v>1176</v>
       </c>
@@ -12594,6 +12684,7 @@
         <v>1186</v>
       </c>
       <c r="M139" s="5"/>
+      <c r="N139" s="0"/>
       <c r="P139" s="0"/>
       <c r="Q139" s="5"/>
       <c r="S139" s="27" t="s">
@@ -12605,6 +12696,7 @@
       <c r="U139" s="2" t="n">
         <v>261</v>
       </c>
+      <c r="V139" s="0"/>
       <c r="W139" s="27" t="s">
         <v>1189</v>
       </c>
@@ -12645,6 +12737,7 @@
       <c r="M140" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="N140" s="0"/>
       <c r="P140" s="1" t="s">
         <v>1194</v>
       </c>
@@ -12654,6 +12747,7 @@
         <v>582</v>
       </c>
       <c r="U140" s="0"/>
+      <c r="V140" s="0"/>
       <c r="W140" s="0"/>
       <c r="X140" s="2" t="s">
         <v>1195</v>
@@ -12695,13 +12789,17 @@
       <c r="L141" s="1" t="s">
         <v>1199</v>
       </c>
+      <c r="N141" s="0"/>
+      <c r="P141" s="0"/>
       <c r="Q141" s="5"/>
+      <c r="S141" s="0"/>
       <c r="T141" s="29" t="s">
         <v>1200</v>
       </c>
       <c r="U141" s="2" t="n">
         <v>263</v>
       </c>
+      <c r="V141" s="0"/>
       <c r="W141" s="2" t="s">
         <v>1201</v>
       </c>
@@ -12712,8 +12810,8 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
+    <row r="142" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="s">
         <v>1204</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -12731,18 +12829,49 @@
       <c r="G142" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="H142" s="0"/>
+      <c r="H142" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I142" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J142" s="0" t="s">
+        <v>240</v>
+      </c>
       <c r="K142" s="0"/>
+      <c r="L142" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N142" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P142" s="0" t="s">
+        <v>1210</v>
+      </c>
       <c r="Q142" s="1" t="s">
-        <v>1207</v>
+        <v>1211</v>
+      </c>
+      <c r="S142" s="0"/>
+      <c r="T142" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="U142" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="V142" s="0"/>
+      <c r="W142" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X142" s="2" t="s">
+        <v>1214</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>1208</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
-        <v>1209</v>
+      <c r="A143" s="6" t="s">
+        <v>1216</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>92</v>
@@ -12756,21 +12885,36 @@
       <c r="F143" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>1210</v>
+      <c r="G143" s="30" t="s">
+        <v>1217</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1211</v>
-      </c>
+        <v>1218</v>
+      </c>
+      <c r="I143" s="0"/>
+      <c r="J143" s="0"/>
       <c r="K143" s="0"/>
+      <c r="L143" s="0"/>
+      <c r="N143" s="0"/>
+      <c r="P143" s="0"/>
       <c r="Q143" s="5"/>
+      <c r="S143" s="0"/>
+      <c r="T143" s="0"/>
+      <c r="U143" s="0"/>
+      <c r="V143" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="W143" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="X143" s="0"/>
       <c r="Y143" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
-        <v>1212</v>
+      <c r="A144" s="6" t="s">
+        <v>1220</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>92</v>
@@ -12784,21 +12928,34 @@
       <c r="F144" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>1213</v>
+      <c r="G144" s="30" t="s">
+        <v>1221</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1214</v>
-      </c>
+        <v>1222</v>
+      </c>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
       <c r="K144" s="0"/>
+      <c r="L144" s="0"/>
+      <c r="N144" s="0"/>
+      <c r="P144" s="0"/>
       <c r="Q144" s="5"/>
+      <c r="S144" s="0"/>
+      <c r="T144" s="0"/>
+      <c r="U144" s="0"/>
+      <c r="V144" s="0"/>
+      <c r="W144" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="X144" s="0"/>
       <c r="Y144" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
-        <v>1215</v>
+      <c r="A145" s="6" t="s">
+        <v>1223</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>92</v>
@@ -12810,22 +12967,56 @@
         <v>29</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>1217</v>
+        <v>1224</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>1114</v>
       </c>
       <c r="K145" s="0"/>
+      <c r="L145" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="N145" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>1229</v>
+      </c>
       <c r="Q145" s="1" t="s">
-        <v>1218</v>
+        <v>1230</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T145" s="2" t="n">
+        <v>617</v>
+      </c>
+      <c r="U145" s="2" t="n">
+        <v>269</v>
+      </c>
+      <c r="V145" s="0"/>
+      <c r="W145" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="X145" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="Y145" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
-        <v>1219</v>
+      <c r="A146" s="6" t="s">
+        <v>1233</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>27</v>
@@ -12837,43 +13028,80 @@
         <v>29</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>1221</v>
+        <v>1234</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="K146" s="0"/>
+      <c r="L146" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N146" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="P146" s="0"/>
+      <c r="S146" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="T146" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U146" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="V146" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="W146" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="X146" s="2" t="s">
+        <v>1242</v>
+      </c>
       <c r="Y146" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
-        <v>1222</v>
+      <c r="A147" s="6" t="s">
+        <v>1243</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1223</v>
+        <v>1244</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1224</v>
+        <v>1245</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1225</v>
+        <v>1246</v>
       </c>
       <c r="K147" s="0"/>
+      <c r="L147" s="0"/>
+      <c r="N147" s="0"/>
+      <c r="T147" s="0"/>
+      <c r="U147" s="0"/>
+      <c r="W147" s="0"/>
+      <c r="X147" s="0"/>
       <c r="Y147" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
-        <v>1226</v>
+      <c r="A148" s="6" t="s">
+        <v>1247</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>376</v>
@@ -12887,11 +13115,29 @@
       <c r="F148" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>1227</v>
+      <c r="G148" s="10" t="s">
+        <v>1248</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1228</v>
+        <v>1249</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="U148" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="W148" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="X148" s="2" t="s">
+        <v>1254</v>
       </c>
       <c r="Y148" s="1" t="s">
         <v>62</v>
@@ -12921,48 +13167,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="18.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1377</v>
+        <v>1403</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1378</v>
+        <v>1404</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1379</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1380</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1381</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1382</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1383</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1384</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1385</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12972,7 +13218,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1386</v>
+        <v>1412</v>
       </c>
     </row>
   </sheetData>
@@ -13003,29 +13249,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="46.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="97.0867346938775"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="107.668367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="79.265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="79.265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="49.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="102.163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="113.392857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="83.3724489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="49.8928571428572"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="83.3724489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1229</v>
+        <v>1255</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1230</v>
+        <v>1256</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1231</v>
+        <v>1257</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1232</v>
+        <v>1258</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>24</v>
@@ -13049,10 +13295,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -13064,7 +13310,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1233</v>
+        <v>1259</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -13077,7 +13323,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1234</v>
+        <v>1260</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>53</v>
@@ -13092,7 +13338,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1235</v>
+        <v>1261</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>316</v>
@@ -13122,7 +13368,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1204</v>
@@ -13147,7 +13393,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>1236</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13164,12 +13410,12 @@
         <v>62</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1237</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1238</v>
+        <v>1264</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>151</v>
@@ -13195,7 +13441,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1239</v>
+        <v>1265</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>235</v>
@@ -13207,7 +13453,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1240</v>
+        <v>1266</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>108</v>
@@ -13220,10 +13466,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1241</v>
+        <v>1267</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1242</v>
+        <v>1268</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -13233,14 +13479,14 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1243</v>
+        <v>1269</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>1244</v>
+        <v>1270</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>62</v>
@@ -13248,10 +13494,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1245</v>
+        <v>1271</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1246</v>
+        <v>1272</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -13261,7 +13507,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1247</v>
+        <v>1273</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>483</v>
@@ -13272,14 +13518,14 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1248</v>
+        <v>1274</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3" t="s">
-        <v>1249</v>
+        <v>1275</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>62</v>
@@ -13294,7 +13540,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
-        <v>1250</v>
+        <v>1276</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>62</v>
@@ -13341,22 +13587,22 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>1251</v>
+        <v>1277</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>1252</v>
+        <v>1278</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="s">
-        <v>1253</v>
+      <c r="A25" s="31" t="s">
+        <v>1279</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>34</v>
@@ -13367,7 +13613,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1254</v>
+        <v>1280</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>747</v>
@@ -13386,7 +13632,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1255</v>
+        <v>1281</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
@@ -13395,7 +13641,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1256</v>
+        <v>1282</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>375</v>
@@ -13412,7 +13658,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1257</v>
+        <v>1283</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
@@ -13424,7 +13670,7 @@
         <v>1060</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1258</v>
+        <v>1284</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
@@ -13470,10 +13716,10 @@
         <v>922</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1259</v>
+        <v>1285</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1260</v>
+        <v>1286</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>62</v>
@@ -13481,7 +13727,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1261</v>
+        <v>1287</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
@@ -13514,12 +13760,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="34.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1262</v>
+        <v>1288</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -13533,33 +13779,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1263</v>
+        <v>1289</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1264</v>
+        <v>1290</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1265</v>
+        <v>1291</v>
       </c>
       <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1266</v>
+        <v>1292</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="5" t="s">
-        <v>1267</v>
+        <v>1293</v>
       </c>
       <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1268</v>
+        <v>1294</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>1269</v>
+        <v>1295</v>
       </c>
       <c r="D4" s="0"/>
     </row>
@@ -13568,19 +13814,19 @@
         <v>514</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1270</v>
+        <v>1296</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1271</v>
+        <v>1297</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1272</v>
+        <v>1298</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1273</v>
+        <v>1299</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
@@ -13596,7 +13842,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -13625,31 +13871,31 @@
         <v>689</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1275</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1276</v>
+        <v>1302</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1277</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1278</v>
+        <v>1304</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1279</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1280</v>
+        <v>1306</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1281</v>
+        <v>1307</v>
       </c>
     </row>
   </sheetData>
@@ -13676,16 +13922,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="53.3469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="5" t="s">
-        <v>1282</v>
+        <v>1308</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1283</v>
+        <v>1309</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
@@ -13698,13 +13944,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1284</v>
+        <v>1310</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1284</v>
+        <v>1310</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1285</v>
+        <v>1311</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -13714,7 +13960,7 @@
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="W2" s="5" t="s">
-        <v>1284</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13743,7 +13989,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1286</v>
+        <v>1312</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
@@ -13757,7 +14003,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1287</v>
+        <v>1313</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -13771,7 +14017,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1288</v>
+        <v>1314</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -13785,7 +14031,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1289</v>
+        <v>1315</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -13794,18 +14040,18 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="J8" s="5" t="s">
-        <v>1290</v>
+        <v>1316</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1291</v>
+        <v>1317</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1292</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1293</v>
+        <v>1319</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -13814,21 +14060,21 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="J9" s="5" t="s">
-        <v>1294</v>
+        <v>1320</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1295</v>
+        <v>1321</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1296</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>1297</v>
+        <v>1323</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1298</v>
+        <v>1324</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -13836,18 +14082,18 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="J10" s="5" t="s">
-        <v>1299</v>
+        <v>1325</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1300</v>
+        <v>1326</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1301</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>1302</v>
+        <v>1328</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -13856,18 +14102,18 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="J11" s="5" t="s">
-        <v>1303</v>
+        <v>1329</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1304</v>
+        <v>1330</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1305</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1306</v>
+        <v>1332</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -13876,21 +14122,21 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="J12" s="5" t="s">
-        <v>1307</v>
+        <v>1333</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1308</v>
+        <v>1334</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1309</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1310</v>
+        <v>1336</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1311</v>
+        <v>1337</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -13898,21 +14144,21 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="J13" s="5" t="s">
-        <v>1312</v>
+        <v>1338</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1313</v>
+        <v>1339</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1314</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1315</v>
+        <v>1341</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1316</v>
+        <v>1342</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -13921,10 +14167,10 @@
       <c r="G14" s="0"/>
       <c r="J14" s="0"/>
       <c r="L14" s="5" t="s">
-        <v>1317</v>
+        <v>1343</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1318</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13941,7 +14187,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>1319</v>
+        <v>1345</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -13950,13 +14196,13 @@
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="J16" s="5" t="s">
-        <v>1320</v>
+        <v>1346</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1321</v>
+        <v>1347</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1322</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13968,18 +14214,18 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="J17" s="5" t="s">
-        <v>1323</v>
+        <v>1349</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1324</v>
+        <v>1350</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1325</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>1326</v>
+        <v>1352</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -13988,15 +14234,15 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="J18" s="5" t="s">
-        <v>1327</v>
+        <v>1353</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1328</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>1329</v>
+        <v>1355</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -14005,7 +14251,7 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="J19" s="5" t="s">
-        <v>1330</v>
+        <v>1356</v>
       </c>
       <c r="L19" s="0"/>
     </row>
@@ -14021,7 +14267,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>1331</v>
+        <v>1357</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -14043,7 +14289,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>1332</v>
+        <v>1358</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -14055,10 +14301,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>1333</v>
+        <v>1359</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1334</v>
+        <v>1360</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -14066,7 +14312,7 @@
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="L24" s="5" t="s">
-        <v>1335</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14078,15 +14324,15 @@
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="L25" s="5" t="s">
-        <v>1336</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>1337</v>
+        <v>1363</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1338</v>
+        <v>1364</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -14094,7 +14340,7 @@
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="L26" s="5" t="s">
-        <v>1339</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14106,12 +14352,12 @@
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="L27" s="5" t="s">
-        <v>1340</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>1341</v>
+        <v>1367</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -14120,7 +14366,7 @@
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="L28" s="5" t="s">
-        <v>1342</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14142,7 +14388,7 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="L30" s="5" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14154,7 +14400,7 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="L31" s="5" t="s">
-        <v>1344</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14166,7 +14412,7 @@
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="L32" s="5" t="s">
-        <v>1345</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14178,7 +14424,7 @@
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="L33" s="5" t="s">
-        <v>1346</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14190,38 +14436,38 @@
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="L34" s="5" t="s">
-        <v>1347</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1286</v>
+        <v>1312</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1288</v>
+        <v>1314</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1287</v>
+        <v>1313</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1302</v>
+        <v>1328</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1348</v>
+        <v>1374</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1337</v>
+        <v>1363</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1349</v>
+        <v>1375</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1350</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L36" s="5" t="s">
-        <v>1351</v>
+        <v>1377</v>
       </c>
     </row>
   </sheetData>
@@ -14248,7 +14494,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="12.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="12.7448979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14256,15 +14502,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1352</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1353</v>
+        <v>1379</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1354</v>
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
@@ -14291,7 +14537,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="12.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14299,10 +14545,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1355</v>
+        <v>1381</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1356</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14310,7 +14556,7 @@
         <v>613</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1357</v>
+        <v>1383</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>609</v>
@@ -14318,10 +14564,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1358</v>
+        <v>1384</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1359</v>
+        <v>1385</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>196</v>
@@ -14329,10 +14575,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1360</v>
+        <v>1386</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1361</v>
+        <v>1387</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>196</v>
@@ -14340,18 +14586,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1363</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1364</v>
+        <v>1390</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1365</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14359,7 +14605,7 @@
         <v>776</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1366</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14367,7 +14613,7 @@
         <v>806</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1367</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14375,7 +14621,7 @@
         <v>964</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1368</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14383,7 +14629,7 @@
         <v>1025</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1369</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14391,7 +14637,7 @@
         <v>1046</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1370</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14399,7 +14645,7 @@
         <v>1098</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1371</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14407,23 +14653,23 @@
         <v>1118</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1372</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>1373</v>
+        <v>1399</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1374</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>1375</v>
+        <v>1401</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1376</v>
+        <v>1402</v>
       </c>
     </row>
   </sheetData>
@@ -14450,7 +14696,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="18.25"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14476,7 +14722,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="18.25"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14502,7 +14748,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="18.25"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/input/characters.xlsx
+++ b/input/characters.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="1413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="1444">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">Jaman_Mustika_Murda</t>
   </si>
   <si>
-    <t xml:space="preserve">_Boar</t>
+    <t xml:space="preserve">~Boar</t>
   </si>
   <si>
     <t xml:space="preserve">Tanggap, Bareh, Clingus, Tanggap, Climut, Mlenyok</t>
@@ -4043,91 +4043,221 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">_Lion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Raksasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Raksasa1</t>
+    <t xml:space="preserve">Suksma_Langgeng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semar_mBangun_Kayangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Lion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahyu_Kembar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Raksasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Raksasa_One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Raksasa_Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Tiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahyu_Topeng_Waja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Woman</t>
   </si>
   <si>
     <t xml:space="preserve">Citrasena in reality. They want to help the Korawa defeat Pandawa. They are sent by Duryudana to chase Pradapa and Endang Soka. Killed by Nakula and Sadewa in the Sudamala story.</t>
   </si>
   <si>
+    <t xml:space="preserve">~Amonggati</t>
+  </si>
+  <si>
     <t xml:space="preserve">Citrarata in reality. They want to help the Korawa defeat Pandawa. They are sent by Duryudana to chase Pradapa and Endang Soka. Killed by Nakula and Sadewa in the Sudamala story.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Arjuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Basudewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BayuBajra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bimasakti</t>
+    <t xml:space="preserve">~Arjuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntadewa_Wisudha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Bagus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisanggeni_Lahir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Basudewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basudewa_Grogol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Bayu_Bajra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandung_Nagasewu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Bimasakti</t>
   </si>
   <si>
     <t xml:space="preserve">Werkudara, Wenang</t>
   </si>
   <si>
-    <t xml:space="preserve">Brahala</t>
+    <t xml:space="preserve">Prabu_Bimasakti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Brahala</t>
   </si>
   <si>
     <t xml:space="preserve">The ogre shape that Kresna takes when he is angry.</t>
   </si>
   <si>
-    <t xml:space="preserve">FakeWerkudara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Gatotkaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Godakesa</t>
+    <t xml:space="preserve">~Werkudara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pile of weapons in disguise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Gatotkaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahyu_Kembar,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Godakesa</t>
   </si>
   <si>
     <t xml:space="preserve">Pretends to be the king of Tluki seta in Semar mBagung Kayangan.</t>
   </si>
   <si>
+    <t xml:space="preserve">~Godhayitma</t>
+  </si>
+  <si>
     <t xml:space="preserve">He is described as the younger brother of Bomanarakasura in lakon Wahyu Topeng Waja. Also meets him in Semar Mantu (Version 2). // He appears in different lakon. He is a spriit of Desamuka.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kesawasidhi</t>
+    <t xml:space="preserve">~JakaPupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semar_Mantu_Alternative_Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Kalanjaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudamala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Kalantaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Kesawasidhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahyu_Makutharama</t>
   </si>
   <si>
     <t xml:space="preserve">A hermitt that lives with Anoman and other hermitts. // Sebenarnya dia amemba Kresna.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Lesmana_Murdaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagabanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrabuBandung Nagasewu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Narada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sukma Langgeng</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lesmana</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Murdaka</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Semar_Boyong_(Wahyu_Katetreman)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Nagabanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Nagasewu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Narada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Nindyamaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~RaraTemon</t>
   </si>
   <si>
     <t xml:space="preserve">SitiSendari, Sri</t>
   </si>
   <si>
+    <t xml:space="preserve">Semar_Mantu_Alternative_Version, Semar_Mantu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Resi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Sengkalawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahyu_Cakraningrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Sinduragen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Sintawaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">RaraIreng</t>
   </si>
   <si>
     <t xml:space="preserve">Sintawaka is the male disguise of Rara Ireng.</t>
   </si>
   <si>
-    <t xml:space="preserve">SuksmaLanggeng</t>
+    <t xml:space="preserve">~SuksmaLanggeng</t>
   </si>
   <si>
     <t xml:space="preserve">Name </t>
@@ -4917,44 +5047,44 @@
   <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A134" activeCellId="0" sqref="A134"/>
-      <selection pane="bottomRight" activeCell="G139" activeCellId="0" sqref="G139"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="G54" activeCellId="0" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.8520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.2142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.3622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="33.3724489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.4489795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="36.5"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="66.5255102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="107.668367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.3061224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.9081632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="27.2142857142857"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="37.3673469387755"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.0510204081633"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="41.3622448979592"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="63.8265306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="23.3265306122449"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="43.8469387755102"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="62.8520408163265"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="59.8265306122449"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="56.9132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.9897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.6479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="42.0102040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="33.9081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.9897959183673"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="37.0408163265306"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="67.7142857142857"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="109.505102040816"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="44.0612244897959"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.4489795918367"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="27.6479591836735"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="37.9081632653061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.484693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="42.0102040816327"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.6224489795918"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="44.6020408163265"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="63.9336734693878"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="60.8010204081633"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="57.8826530612245"/>
     <col collapsed="false" hidden="false" max="1023" min="30" style="1" width="5.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="5.83163265306122"/>
   </cols>
@@ -13167,48 +13297,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="18.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="18.469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1403</v>
+        <v>1434</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1404</v>
+        <v>1435</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1405</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1406</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>1407</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1408</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1409</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1410</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1411</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13218,7 +13348,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1412</v>
+        <v>1443</v>
       </c>
     </row>
   </sheetData>
@@ -13240,21 +13370,21 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="49.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="102.163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="113.392857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="83.3724489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="49.8928571428572"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="83.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="37.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="36.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="17.4336734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="84.7755102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="84.7755102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13286,7 +13416,9 @@
         <v>1019</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>1259</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
         <v>62</v>
@@ -13295,13 +13427,15 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1223</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>1261</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
         <v>62</v>
@@ -13310,26 +13444,30 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>1263</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>1259</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
         <v>62</v>
@@ -13338,13 +13476,15 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>62</v>
@@ -13353,13 +13493,15 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>243</v>
+        <v>1266</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
         <v>62</v>
@@ -13368,13 +13510,15 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1211</v>
+        <v>1267</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1204</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>1268</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
         <v>62</v>
@@ -13383,57 +13527,65 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>412</v>
+        <v>1269</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>406</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>1263</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>1271</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>1259</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1263</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1264</v>
+        <v>1273</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>1274</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>563</v>
+        <v>1275</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>555</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>1276</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
         <v>62</v>
@@ -13441,24 +13593,28 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>1278</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>1280</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
         <v>62</v>
@@ -13466,12 +13622,14 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1267</v>
+        <v>1281</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>1282</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1283</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
         <v>62</v>
@@ -13479,14 +13637,16 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1269</v>
+        <v>1284</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>1274</v>
+      </c>
       <c r="E16" s="3" t="s">
-        <v>1270</v>
+        <v>1285</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>62</v>
@@ -13494,12 +13654,14 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1271</v>
+        <v>1286</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>1287</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1280</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
         <v>62</v>
@@ -13507,25 +13669,29 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1273</v>
+        <v>1288</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>1289</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1274</v>
+        <v>1290</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>1261</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>1275</v>
+        <v>1291</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>62</v>
@@ -13533,14 +13699,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>343</v>
+        <v>1292</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>1268</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>1276</v>
+        <v>1293</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>62</v>
@@ -13548,12 +13716,14 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>953</v>
+        <v>1294</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>1295</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
         <v>62</v>
@@ -13561,12 +13731,14 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>322</v>
+        <v>1296</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>1297</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="3" t="s">
         <v>62</v>
@@ -13574,12 +13746,14 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>318</v>
+        <v>1298</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>1